--- a/data/latest_daily_orders.xlsx
+++ b/data/latest_daily_orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="الطلبات" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:W104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,102 +479,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <v>رقم الطلب</v>
+        <v>ID</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>اسم المستلم</v>
+        <v>Customer Name</v>
       </c>
       <c r="C1" s="3" t="str">
-        <v>الحالة</v>
+        <v>Status</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>تاريخ الإنشاء</v>
+        <v>Created At</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>اخر تحديث</v>
+        <v>Updated At</v>
       </c>
       <c r="F1" s="3" t="str">
-        <v>رقم الهاتف</v>
+        <v>Phone Number</v>
       </c>
       <c r="G1" s="3" t="str">
-        <v>اسم الشارع</v>
+        <v>Street Name</v>
       </c>
       <c r="H1" s="3" t="str">
-        <v>المحافظة</v>
+        <v>Province</v>
       </c>
       <c r="I1" s="3" t="str">
         <v>orders.export.cashOnDelivery</v>
       </c>
       <c r="J1" s="3" t="str">
-        <v>تكلفة الشحن</v>
+        <v>Shipping Cost</v>
       </c>
       <c r="K1" s="3" t="str">
-        <v>ملاحظات</v>
+        <v>Notes</v>
       </c>
       <c r="L1" s="3" t="str">
-        <v>الدولة</v>
+        <v>Country</v>
       </c>
       <c r="M1" s="3" t="str">
-        <v>ربح الضريبة</v>
+        <v>VAT Profit</v>
       </c>
       <c r="N1" s="3" t="str">
-        <v>ربح الطلب</v>
+        <v>Order Profit</v>
       </c>
       <c r="O1" s="3" t="str">
-        <v>اسم الصفحة</v>
+        <v>Page Name</v>
       </c>
       <c r="P1" s="3" t="str">
-        <v>رابط الصفحة</v>
+        <v>Page URL</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <v>المنتجات</v>
+        <v>SKUs</v>
       </c>
       <c r="R1" s="3" t="str">
-        <v>الكميات</v>
+        <v>Quantities</v>
       </c>
       <c r="S1" s="3" t="str">
-        <v>الأسعار</v>
+        <v>Prices</v>
       </c>
       <c r="T1" s="3" t="str">
-        <v>الطلب المستلم بواسطة</v>
+        <v>Order Received By</v>
       </c>
       <c r="U1" s="3" t="str">
-        <v>العنوان الوطني</v>
+        <v>National Address</v>
       </c>
       <c r="V1" s="3" t="str">
-        <v>مصدر العنوان الوطني</v>
+        <v>Source of the National Address</v>
       </c>
       <c r="W1" s="3" t="str">
-        <v>كود الطلب للمتجر</v>
+        <v>Store Order ID</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>2027447-21372251</v>
+        <v>2027447-21377531</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>wwid</v>
+        <v>علي حسن</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>تم تأكيد الطلب</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D2" s="5">
-        <v>46065.46910805556</v>
+        <v>46065.715770613424</v>
       </c>
       <c r="E2" s="5">
-        <v>46065.46966763889</v>
+        <v>46065.77863947917</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>9647906268486</v>
+        <v>9647721846101</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>البنوك شارع المشاتل-بغداد</v>
+        <v>السده الهنديه مقابيل بانزيخانه الميقات</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>بغداد</v>
+        <v>بابل</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>6,500</v>
@@ -583,28 +583,28 @@
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
       </c>
       <c r="N2" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O2" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P2" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R2" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S2" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T2" s="4" t="str">
         <v>Cart</v>
@@ -616,66 +616,66 @@
         <v/>
       </c>
       <c r="W2" s="4" t="str">
-        <v>msg-2401</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="str">
-        <v>2027447-21368393</v>
+        <v>2027447-21373338</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>وحده</v>
+        <v>عبدالكريم علي</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D3" s="5">
-        <v>46065.12183098379</v>
+        <v>46065.51994837963</v>
       </c>
       <c r="E3" s="5">
-        <v>46065.14965002315</v>
+        <v>46065.66440193287</v>
       </c>
       <c r="F3" s="4" t="str">
-        <v>9647812524349</v>
+        <v>9647747905790</v>
       </c>
       <c r="G3" s="4" t="str">
-        <v>no address</v>
+        <v>منطقة المنصور سريع ابو غريب مقر السفارة  التونسيه ابغداد</v>
       </c>
       <c r="H3" s="4" t="str">
-        <v>سماوة</v>
+        <v>بغداد</v>
       </c>
       <c r="I3" s="4" t="str">
-        <v>39,000</v>
+        <v>46,500</v>
       </c>
       <c r="J3" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K3" s="4" t="str">
-        <v>no region no adress call him to check</v>
+        <v/>
       </c>
       <c r="L3" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
       </c>
       <c r="N3" s="4" t="str">
-        <v>11,500</v>
+        <v>12,000</v>
       </c>
       <c r="O3" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P3" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ030401SSDD99, IQ030303HASH99</v>
       </c>
       <c r="R3" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S3" s="4" t="str">
-        <v>32500</v>
+        <v>32500, 7500</v>
       </c>
       <c r="T3" s="4" t="str">
         <v>Cart</v>
@@ -687,36 +687,36 @@
         <v/>
       </c>
       <c r="W3" s="4" t="str">
-        <v>87679026</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>2027447-21367384</v>
+        <v>2027447-21372251</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>علي رشدي</v>
+        <v>wwid</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D4" s="5">
-        <v>46065.016198032405</v>
+        <v>46065.46910805556</v>
       </c>
       <c r="E4" s="5">
-        <v>46065.47214049769</v>
+        <v>46065.550634548614</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>9647722503444</v>
+        <v>9647906268486</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>زيونة شارع ربيعيي فرع جامع القزازة</v>
+        <v>البنوك شارع المشاتل-بغداد</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>6,500</v>
@@ -725,28 +725,28 @@
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O4" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P4" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R4" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S4" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T4" s="4" t="str">
         <v>Cart</v>
@@ -758,66 +758,66 @@
         <v/>
       </c>
       <c r="W4" s="4" t="str">
-        <v>246</v>
+        <v>msg-2401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="str">
-        <v>2027447-21367363</v>
+        <v>2027447-21368393</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>احمد</v>
+        <v>وحده</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D5" s="5">
-        <v>46065.01485634259</v>
+        <v>46065.12183098379</v>
       </c>
       <c r="E5" s="5">
-        <v>46065.04276178241</v>
+        <v>46065.66440037037</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>9647700350777</v>
+        <v>9647812524349</v>
       </c>
       <c r="G5" s="4" t="str">
-        <v>العباسيه شارع سيد حامد</v>
+        <v>هضلان بالقرب من جامع احمد الهرمى</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I5" s="4" t="str">
-        <v>65,000</v>
+        <v>39,000</v>
       </c>
       <c r="J5" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K5" s="4" t="str">
-        <v/>
+        <v>no region no adress call him to check</v>
       </c>
       <c r="L5" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="str">
-        <v>13,500</v>
+        <v>11,500</v>
       </c>
       <c r="O5" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P5" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R5" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S5" s="4" t="str">
-        <v>58500</v>
+        <v>32500</v>
       </c>
       <c r="T5" s="4" t="str">
         <v>Cart</v>
@@ -829,33 +829,33 @@
         <v/>
       </c>
       <c r="W5" s="4" t="str">
-        <v>245</v>
+        <v>87679026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>2027447-21360961</v>
+        <v>2027447-21367384</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>نجف</v>
+        <v>علي رشدي</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D6" s="5">
-        <v>46064.66099334491</v>
+        <v>46065.016198032405</v>
       </c>
       <c r="E6" s="5">
-        <v>46065.23419055556</v>
+        <v>46065.47214049769</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>9647808785454</v>
+        <v>9647722503444</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>نجف</v>
+        <v>زيونة شارع ربيعيي فرع جامع القزازة</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>نجف</v>
+        <v>بغداد</v>
       </c>
       <c r="I6" s="4" t="str">
         <v>65,000</v>
@@ -867,7 +867,7 @@
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -900,36 +900,36 @@
         <v/>
       </c>
       <c r="W6" s="4" t="str">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="str">
-        <v>2027447-21360346</v>
+        <v>2027447-21367363</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>محمد جواد</v>
+        <v>احمد</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D7" s="5">
-        <v>46064.62876076389</v>
+        <v>46065.01485634259</v>
       </c>
       <c r="E7" s="5">
-        <v>46065.103376782405</v>
+        <v>46065.7344090625</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>9647802777778</v>
+        <v>9647700350777</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>سماوة-سماوة</v>
+        <v>بصره العباسيه شارع سيد حامد</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>سماوة</v>
+        <v>بصرة</v>
       </c>
       <c r="I7" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J7" s="4" t="str">
         <v>6,500</v>
@@ -938,28 +938,28 @@
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O7" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P7" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R7" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S7" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T7" s="4" t="str">
         <v>Cart</v>
@@ -971,66 +971,66 @@
         <v/>
       </c>
       <c r="W7" s="4" t="str">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>2027447-21359525</v>
+        <v>2027447-21360961</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>علي</v>
+        <v>نجف</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Order Received</v>
       </c>
       <c r="D8" s="5">
-        <v>46064.58881206019</v>
+        <v>46064.66099334491</v>
       </c>
       <c r="E8" s="5">
-        <v>46064.58881556713</v>
+        <v>46065.23419055556</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647808785454</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>علي الحسينيه</v>
+        <v>نجف</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>بغداد</v>
+        <v>نجف</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>70,000</v>
+        <v>65,000</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K8" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="str">
-        <v>21,500</v>
+        <v>13,500</v>
       </c>
       <c r="O8" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P8" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R8" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4" t="str">
-        <v>63500</v>
+        <v>58500</v>
       </c>
       <c r="T8" s="4" t="str">
         <v>Cart</v>
@@ -1042,36 +1042,36 @@
         <v/>
       </c>
       <c r="W8" s="4" t="str">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="str">
-        <v>2027447-21359255</v>
+        <v>2027447-21360346</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>علي</v>
+        <v>محمد جواد</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Delivered</v>
       </c>
       <c r="D9" s="5">
-        <v>46064.58344008102</v>
+        <v>46064.62876076389</v>
       </c>
       <c r="E9" s="5">
-        <v>46064.69687516204</v>
+        <v>46065.70527954861</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647802777778</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>الحسينيه</v>
+        <v>سماوة-سماوة</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I9" s="4" t="str">
-        <v>70,000</v>
+        <v>32,000</v>
       </c>
       <c r="J9" s="4" t="str">
         <v>6,500</v>
@@ -1080,28 +1080,28 @@
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="str">
-        <v>21,500</v>
+        <v>13,000</v>
       </c>
       <c r="O9" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P9" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R9" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="4" t="str">
-        <v>63500</v>
+        <v>25500</v>
       </c>
       <c r="T9" s="4" t="str">
         <v>Cart</v>
@@ -1113,66 +1113,66 @@
         <v/>
       </c>
       <c r="W9" s="4" t="str">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>2027447-21359093</v>
+        <v>2027447-21359525</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>غيث عبد الرسول</v>
+        <v>علي</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D10" s="5">
-        <v>46064.57533837963</v>
+        <v>46064.58881206019</v>
       </c>
       <c r="E10" s="5">
-        <v>46065.10130761574</v>
+        <v>46064.58881556713</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>9647711439901</v>
+        <v>9647730200307</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>مجمع الامل- ملعب جزع النخله</v>
+        <v>علي الحسينيه</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>65,000</v>
+        <v>70,000</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K10" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L10" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="str">
-        <v>13,500</v>
+        <v>21,500</v>
       </c>
       <c r="O10" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P10" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R10" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="str">
-        <v>58500</v>
+        <v>63500</v>
       </c>
       <c r="T10" s="4" t="str">
         <v>Cart</v>
@@ -1184,36 +1184,36 @@
         <v/>
       </c>
       <c r="W10" s="4" t="str">
-        <v>2400</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="str">
-        <v>2027447-21359055</v>
+        <v>2027447-21359255</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>مؤمن طه حامد</v>
+        <v>علي</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D11" s="5">
-        <v>46064.57294252315</v>
+        <v>46064.58344008102</v>
       </c>
       <c r="E11" s="5">
-        <v>46064.92196025463</v>
+        <v>46064.69687516204</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>9647816999991</v>
+        <v>9647730200307</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
+        <v>الحسينيه</v>
       </c>
       <c r="H11" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I11" s="4" t="str">
-        <v>57,500</v>
+        <v>70,000</v>
       </c>
       <c r="J11" s="4" t="str">
         <v>6,500</v>
@@ -1222,28 +1222,28 @@
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="str">
-        <v>26,000</v>
+        <v>21,500</v>
       </c>
       <c r="O11" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P11" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R11" s="4" t="str">
         <v>2</v>
       </c>
       <c r="S11" s="4" t="str">
-        <v>51000</v>
+        <v>63500</v>
       </c>
       <c r="T11" s="4" t="str">
         <v>Cart</v>
@@ -1255,66 +1255,66 @@
         <v/>
       </c>
       <c r="W11" s="4" t="str">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>2027447-21352983</v>
+        <v>2027447-21359093</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>مصطفى</v>
+        <v>غيث عبد الرسول</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D12" s="5">
-        <v>46064.10276320602</v>
+        <v>46064.57533837963</v>
       </c>
       <c r="E12" s="5">
-        <v>46064.10276770833</v>
+        <v>46065.10130761574</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647711439901</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>تكريت</v>
+        <v>مجمع الامل- ملعب جزع النخله</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بصرة</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K12" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L12" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O12" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P12" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R12" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T12" s="4" t="str">
         <v>Cart</v>
@@ -1326,66 +1326,66 @@
         <v/>
       </c>
       <c r="W12" s="4" t="str">
-        <v>239</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="str">
-        <v>2027447-21352978</v>
+        <v>2027447-21359055</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>مصطفى</v>
+        <v>مؤمن طه حامد</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D13" s="5">
-        <v>46064.10185199074</v>
+        <v>46064.57294252315</v>
       </c>
       <c r="E13" s="5">
-        <v>46065.10208953704</v>
+        <v>46065.566038310186</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647816999991</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
+        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
       </c>
       <c r="H13" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بغداد</v>
       </c>
       <c r="I13" s="4" t="str">
-        <v>48,000</v>
+        <v>57,500</v>
       </c>
       <c r="J13" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K13" s="4" t="str">
-        <v>call him as soon as possible he ordered 1h ago</v>
+        <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="str">
-        <v>13,000</v>
+        <v>26,000</v>
       </c>
       <c r="O13" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P13" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R13" s="4" t="str">
-        <v>1, 1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="4" t="str">
-        <v>25500, 16000</v>
+        <v>51000</v>
       </c>
       <c r="T13" s="4" t="str">
         <v>Cart</v>
@@ -1397,66 +1397,66 @@
         <v/>
       </c>
       <c r="W13" s="4" t="str">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>2027447-21352590</v>
+        <v>2027447-21352983</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>ختام</v>
+        <v>مصطفى</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D14" s="5">
-        <v>46064.05801408565</v>
+        <v>46064.10276320602</v>
       </c>
       <c r="E14" s="5">
-        <v>46065.44037800926</v>
+        <v>46064.10276770833</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>9647783317969</v>
+        <v>9647752356021</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
+        <v>تكريت</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K14" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L14" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O14" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P14" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R14" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T14" s="4" t="str">
         <v>Cart</v>
@@ -1468,66 +1468,66 @@
         <v/>
       </c>
       <c r="W14" s="4" t="str">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="str">
-        <v>2027447-21352063</v>
+        <v>2027447-21352978</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>بدر</v>
+        <v>مصطفى</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D15" s="5">
-        <v>46064.004486655096</v>
+        <v>46064.10185199074</v>
       </c>
       <c r="E15" s="5">
-        <v>46065.44639230324</v>
+        <v>46065.10208953704</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>9647709112266</v>
+        <v>9647752356021</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
+        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I15" s="4" t="str">
-        <v>65,000</v>
+        <v>48,000</v>
       </c>
       <c r="J15" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K15" s="4" t="str">
-        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
+        <v>call him as soon as possible he ordered 1h ago</v>
       </c>
       <c r="L15" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O15" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P15" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
       </c>
       <c r="R15" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S15" s="4" t="str">
-        <v>58500</v>
+        <v>25500, 16000</v>
       </c>
       <c r="T15" s="4" t="str">
         <v>Cart</v>
@@ -1539,66 +1539,66 @@
         <v/>
       </c>
       <c r="W15" s="4" t="str">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>2027447-21351848</v>
+        <v>2027447-21352590</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>ختام</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D16" s="5">
-        <v>46063.98810440972</v>
+        <v>46064.05801408565</v>
       </c>
       <c r="E16" s="5">
-        <v>46064.863588657405</v>
+        <v>46065.56449606481</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647783317969</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>سيدية-بغداد</v>
+        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K16" s="4" t="str">
-        <v>please call him for the right adress</v>
+        <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="str">
-        <v>13,000</v>
+        <v>11,500</v>
       </c>
       <c r="O16" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P16" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R16" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S16" s="4" t="str">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="T16" s="4" t="str">
         <v>Cart</v>
@@ -1610,66 +1610,66 @@
         <v/>
       </c>
       <c r="W16" s="4" t="str">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="str">
-        <v>2027447-21351804</v>
+        <v>2027447-21352063</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>حمزة</v>
+        <v>بدر</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D17" s="5">
-        <v>46063.98408190972</v>
+        <v>46064.004486655096</v>
       </c>
       <c r="E17" s="5">
-        <v>46064.549906238426</v>
+        <v>46065.44639230324</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647709112266</v>
       </c>
       <c r="G17" s="4" t="str">
-        <v>حي الصحفيين</v>
+        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
       </c>
       <c r="H17" s="4" t="str">
-        <v>ميسان</v>
+        <v>بغداد</v>
       </c>
       <c r="I17" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J17" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K17" s="4" t="str">
-        <v/>
+        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
       </c>
       <c r="L17" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O17" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P17" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R17" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S17" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T17" s="4" t="str">
         <v>Cart</v>
@@ -1681,30 +1681,30 @@
         <v/>
       </c>
       <c r="W17" s="4" t="str">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>2027447-21351537</v>
+        <v>2027447-21351848</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>همام محمد عدنان</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D18" s="5">
-        <v>46063.961482858795</v>
+        <v>46063.98810440972</v>
       </c>
       <c r="E18" s="5">
-        <v>46063.96148587963</v>
+        <v>46065.591137222225</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>9647737249887</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>سيدية</v>
+        <v>سيدية-بغداد</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>بغداد</v>
@@ -1716,10 +1716,10 @@
         <v>6,500</v>
       </c>
       <c r="K18" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>please call him for the right adress</v>
       </c>
       <c r="L18" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -1728,16 +1728,16 @@
         <v>13,000</v>
       </c>
       <c r="O18" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P18" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q18" s="4" t="str">
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R18" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="4" t="str">
         <v>25500</v>
@@ -1757,28 +1757,28 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="str">
-        <v>2027447-21351528</v>
+        <v>2027447-21351804</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>حمزة</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D19" s="5">
-        <v>46063.96038298611</v>
+        <v>46063.98408190972</v>
       </c>
       <c r="E19" s="5">
-        <v>46064.012010162034</v>
+        <v>46064.549906238426</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647711120937</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>بغداد</v>
+        <v>حي الصحفيين</v>
       </c>
       <c r="H19" s="4" t="str">
-        <v>سماوة</v>
+        <v>ميسان</v>
       </c>
       <c r="I19" s="4" t="str">
         <v>32,000</v>
@@ -1787,10 +1787,10 @@
         <v>6,500</v>
       </c>
       <c r="K19" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L19" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -1823,33 +1823,33 @@
         <v/>
       </c>
       <c r="W19" s="4" t="str">
-        <v>87530121</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>2027447-21351475</v>
+        <v>2027447-21351537</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>حمزة</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D20" s="5">
-        <v>46063.95675210648</v>
+        <v>46063.961482858795</v>
       </c>
       <c r="E20" s="5">
-        <v>46063.98080037037</v>
+        <v>46063.96148587963</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647737249887</v>
       </c>
       <c r="G20" s="4" t="str">
+        <v>سيدية</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <v>بغداد</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <v>ديالى</v>
       </c>
       <c r="I20" s="4" t="str">
         <v>32,000</v>
@@ -1858,10 +1858,10 @@
         <v>6,500</v>
       </c>
       <c r="K20" s="4" t="str">
-        <v>wrong</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L20" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -1870,16 +1870,16 @@
         <v>13,000</v>
       </c>
       <c r="O20" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P20" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q20" s="4" t="str">
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R20" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="4" t="str">
         <v>25500</v>
@@ -1894,51 +1894,51 @@
         <v/>
       </c>
       <c r="W20" s="4" t="str">
-        <v>87541683</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="str">
-        <v>2027447-21351392</v>
+        <v>2027447-21351528</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>حسين</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D21" s="5">
-        <v>46063.95060015046</v>
+        <v>46063.96038298611</v>
       </c>
       <c r="E21" s="5">
-        <v>46064.75670608797</v>
+        <v>46064.012010162034</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647737249887</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>iraq</v>
+        <v>بغداد</v>
       </c>
       <c r="H21" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I21" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J21" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K21" s="4" t="str">
-        <v/>
+        <v>wrong</v>
       </c>
       <c r="L21" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O21" s="4" t="str">
         <v>Nahrayn Market</v>
@@ -1947,13 +1947,13 @@
         <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R21" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S21" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T21" s="4" t="str">
         <v>Cart</v>
@@ -1965,36 +1965,36 @@
         <v/>
       </c>
       <c r="W21" s="4" t="str">
-        <v>#87532943</v>
+        <v>87530121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>2027447-21351368</v>
+        <v>2027447-21351475</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>حسين</v>
+        <v>حمزة</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D22" s="5">
-        <v>46063.948616712965</v>
+        <v>46063.95675210648</v>
       </c>
       <c r="E22" s="5">
-        <v>46063.9631065625</v>
+        <v>46063.98080037037</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647711120937</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>iraq</v>
+        <v>بغداد</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>بغداد</v>
+        <v>ديالى</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>54,500</v>
+        <v>32,000</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>6,500</v>
@@ -2003,28 +2003,28 @@
         <v>wrong</v>
       </c>
       <c r="L22" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4" t="str">
-        <v>3,000</v>
+        <v>13,000</v>
       </c>
       <c r="O22" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P22" s="4" t="str">
-        <v/>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q22" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R22" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S22" s="4" t="str">
-        <v>48000</v>
+        <v>25500</v>
       </c>
       <c r="T22" s="4" t="str">
         <v>Cart</v>
@@ -2036,30 +2036,30 @@
         <v/>
       </c>
       <c r="W22" s="4" t="str">
-        <v/>
+        <v>87541683</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="str">
-        <v>2027447-21349907</v>
+        <v>2027447-21351392</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>علاء</v>
+        <v>حسين</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D23" s="5">
-        <v>46063.849569907405</v>
+        <v>46063.95060015046</v>
       </c>
       <c r="E23" s="5">
-        <v>46064.7135206713</v>
+        <v>46064.75670608797</v>
       </c>
       <c r="F23" s="4" t="str">
-        <v>9647728868298</v>
+        <v>9647817913219</v>
       </c>
       <c r="G23" s="4" t="str">
-        <v>علاء</v>
+        <v>iraq</v>
       </c>
       <c r="H23" s="4" t="str">
         <v>بغداد</v>
@@ -2074,7 +2074,7 @@
         <v/>
       </c>
       <c r="L23" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2107,66 +2107,66 @@
         <v/>
       </c>
       <c r="W23" s="4" t="str">
-        <v>233</v>
+        <v>#87532943</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>2027447-21349803</v>
+        <v>2027447-21351368</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>أدور</v>
+        <v>حسين</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D24" s="5">
-        <v>46063.84274976852</v>
+        <v>46063.948616712965</v>
       </c>
       <c r="E24" s="5">
-        <v>46065.43578334491</v>
+        <v>46063.9631065625</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>9647760033306</v>
+        <v>9647817913219</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
+        <v>iraq</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>32,000</v>
+        <v>54,500</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K24" s="4" t="str">
-        <v>please call him he orderded 1h ago</v>
+        <v>wrong</v>
       </c>
       <c r="L24" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
       </c>
       <c r="N24" s="4" t="str">
-        <v>13,000</v>
+        <v>3,000</v>
       </c>
       <c r="O24" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P24" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v/>
       </c>
       <c r="Q24" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R24" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S24" s="4" t="str">
-        <v>25500</v>
+        <v>48000</v>
       </c>
       <c r="T24" s="4" t="str">
         <v>Cart</v>
@@ -2178,36 +2178,36 @@
         <v/>
       </c>
       <c r="W24" s="4" t="str">
-        <v xml:space="preserve"> #87523524</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="str">
-        <v>2027447-21348136</v>
+        <v>2027447-21349907</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>رامي</v>
+        <v>علاء</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D25" s="5">
-        <v>46063.74508501157</v>
+        <v>46063.849569907405</v>
       </c>
       <c r="E25" s="5">
-        <v>46065.41531418981</v>
+        <v>46064.7135206713</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>9647713910265</v>
+        <v>9647728868298</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>شهداء البياع بشارع المضخه ثاني</v>
+        <v>علاء</v>
       </c>
       <c r="H25" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I25" s="4" t="str">
-        <v>39,000</v>
+        <v>65,000</v>
       </c>
       <c r="J25" s="4" t="str">
         <v>6,500</v>
@@ -2216,28 +2216,28 @@
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
       </c>
       <c r="N25" s="4" t="str">
-        <v>11,500</v>
+        <v>13,500</v>
       </c>
       <c r="O25" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P25" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R25" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S25" s="4" t="str">
-        <v>32500</v>
+        <v>58500</v>
       </c>
       <c r="T25" s="4" t="str">
         <v>Cart</v>
@@ -2249,66 +2249,66 @@
         <v/>
       </c>
       <c r="W25" s="4" t="str">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>2027447-21346745</v>
+        <v>2027447-21349803</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Lizan ahmed</v>
+        <v>أدور</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D26" s="5">
-        <v>46063.669380127314</v>
+        <v>46063.84274976852</v>
       </c>
       <c r="E26" s="5">
-        <v>46064.92489300926</v>
+        <v>46065.43578334491</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>9647705434750</v>
+        <v>9647760033306</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>Pak city /A9/9/38</v>
+        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
       </c>
       <c r="H26" s="4" t="str">
-        <v>سليمانية</v>
+        <v>بغداد</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K26" s="4" t="str">
-        <v/>
+        <v>please call him he orderded 1h ago</v>
       </c>
       <c r="L26" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O26" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P26" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R26" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S26" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T26" s="4" t="str">
         <v>Cart</v>
@@ -2320,66 +2320,66 @@
         <v/>
       </c>
       <c r="W26" s="4" t="str">
-        <v>231</v>
+        <v xml:space="preserve"> #87523524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="str">
-        <v>2027447-21346653</v>
+        <v>2027447-21348136</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>فرح</v>
+        <v>رامي</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D27" s="5">
-        <v>46063.66798331019</v>
+        <v>46063.74508501157</v>
       </c>
       <c r="E27" s="5">
-        <v>46063.66799663194</v>
+        <v>46065.54907383102</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647713910265</v>
       </c>
       <c r="G27" s="4" t="str">
-        <v>بغداد</v>
+        <v>شهداء البياع بشارع المضخه ثاني</v>
       </c>
       <c r="H27" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I27" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J27" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K27" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L27" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
       </c>
       <c r="N27" s="4" t="str">
-        <v>13,000</v>
+        <v>11,500</v>
       </c>
       <c r="O27" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayh market</v>
       </c>
       <c r="P27" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R27" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="4" t="str">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="T27" s="4" t="str">
         <v>Cart</v>
@@ -2391,36 +2391,36 @@
         <v/>
       </c>
       <c r="W27" s="4" t="str">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>2027447-21346649</v>
+        <v>2027447-21346745</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>فرح</v>
+        <v>Lizan ahmed</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D28" s="5">
-        <v>46063.667939756946</v>
+        <v>46063.669380127314</v>
       </c>
       <c r="E28" s="5">
-        <v>46065.40132127315</v>
+        <v>46065.49400057871</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647705434750</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>بغداد زيونه قرب كوفى نايت</v>
+        <v>Pak city /A9/9/38</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>بغداد</v>
+        <v>سليمانية</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>29,000</v>
+        <v>39,000</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>6,500</v>
@@ -2429,28 +2429,28 @@
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
       </c>
       <c r="N28" s="4" t="str">
-        <v>10,000</v>
+        <v>11,500</v>
       </c>
       <c r="O28" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P28" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R28" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S28" s="4" t="str">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="T28" s="4" t="str">
         <v>Cart</v>
@@ -2462,36 +2462,36 @@
         <v/>
       </c>
       <c r="W28" s="4" t="str">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="str">
-        <v>2027447-21343324</v>
+        <v>2027447-21346653</v>
       </c>
       <c r="B29" s="4" t="str">
-        <v>Ako</v>
+        <v>فرح</v>
       </c>
       <c r="C29" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D29" s="5">
-        <v>46063.50018960648</v>
+        <v>46063.66798331019</v>
       </c>
       <c r="E29" s="5">
-        <v>46063.500192824074</v>
+        <v>46063.66799663194</v>
       </c>
       <c r="F29" s="4" t="str">
-        <v>9647701532528</v>
+        <v>9647719047222</v>
       </c>
       <c r="G29" s="4" t="str">
-        <v>قضاء جم جمال</v>
+        <v>بغداد</v>
       </c>
       <c r="H29" s="4" t="str">
-        <v>سليمانية</v>
+        <v>بغداد</v>
       </c>
       <c r="I29" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J29" s="4" t="str">
         <v>6,500</v>
@@ -2500,385 +2500,385 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L29" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
       </c>
       <c r="N29" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O29" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P29" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R29" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T29" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U29" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V29" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W29" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <v>2027447-21346649</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v>فرح</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>Delivery in Progress</v>
+      </c>
+      <c r="D30" s="5">
+        <v>46063.667939756946</v>
+      </c>
+      <c r="E30" s="5">
+        <v>46065.40132127315</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <v>9647719047222</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <v>بغداد زيونه قرب كوفى نايت</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <v>29,000</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L30" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="O30" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q30" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R30" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="str">
+        <v>22500</v>
+      </c>
+      <c r="T30" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U30" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V30" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W30" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="str">
+        <v>2027447-21343324</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <v>Ako</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D31" s="5">
+        <v>46063.50018960648</v>
+      </c>
+      <c r="E31" s="5">
+        <v>46063.500192824074</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <v>9647701532528</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <v>قضاء جم جمال</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <v>سليمانية</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <v>65,000</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <v>هذا الطلب مكرر</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="str">
+        <v>13,500</v>
+      </c>
+      <c r="O31" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P31" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q29" s="4" t="str">
+      <c r="Q31" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R29" s="4" t="str">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4" t="str">
+      <c r="R31" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T29" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U29" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V29" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W29" s="4" t="str">
+      <c r="T31" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U31" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V31" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W31" s="4" t="str">
         <v>87480859</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" s="4" t="str">
+    <row r="32" xml:space="preserve">
+      <c r="A32" s="4" t="str">
         <v>2027447-21343221</v>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B32" s="4" t="str">
         <v>A Talabany</v>
       </c>
-      <c r="C30" s="4" t="str">
-        <v>قيد التوصيل</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C32" s="4" t="str">
+        <v>Delivery in Progress</v>
+      </c>
+      <c r="D32" s="5">
         <v>46063.494396145834</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>46065.45111282408</v>
       </c>
-      <c r="F30" s="4" t="str">
+      <c r="F32" s="4" t="str">
         <v>9647701532528</v>
       </c>
-      <c r="G30" s="4" t="str" xml:space="preserve">
+      <c r="G32" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">مخافظه سليمانيه / قضاء جم جمال
 عماره رامان طبيه</v>
       </c>
-      <c r="H30" s="4" t="str">
+      <c r="H32" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I30" s="4" t="str">
+      <c r="I32" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J30" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K30" s="4" t="str">
+      <c r="J32" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K32" s="4" t="str">
         <v>call him asap he ordered 40 min ago</v>
       </c>
-      <c r="L30" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4" t="str">
+      <c r="L32" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P30" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q30" s="4" t="str">
+      <c r="P32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q32" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R30" s="4" t="str">
+      <c r="R32" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S30" s="4" t="str">
+      <c r="S32" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T30" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U30" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V30" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W30" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="str">
+      <c r="T32" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W32" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="str">
         <v>2027447-21341150</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B33" s="4" t="str">
         <v>حيدر</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <v>تم التوصيل</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C33" s="4" t="str">
+        <v>Delivered</v>
+      </c>
+      <c r="D33" s="5">
         <v>46063.363034456015</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>46064.83919556713</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F33" s="4" t="str">
         <v>9647723832426</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="G33" s="4" t="str">
         <v>الزبير الرشيدية الاولى  بصره قرب جامع الرشيديه</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H33" s="4" t="str">
         <v>بصرة</v>
       </c>
-      <c r="I31" s="4" t="str">
+      <c r="I33" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J31" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K31" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L31" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4" t="str">
+      <c r="J33" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L33" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O31" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <v>Nahrayn market</v>
       </c>
-      <c r="P31" s="4" t="str">
+      <c r="P33" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q31" s="4" t="str">
+      <c r="Q33" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R31" s="4" t="str">
+      <c r="R33" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S31" s="4" t="str">
+      <c r="S33" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T31" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U31" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V31" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W31" s="4" t="str">
+      <c r="T33" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W33" s="4" t="str">
         <v>229</v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" s="4" t="str">
+    <row r="34" xml:space="preserve">
+      <c r="A34" s="4" t="str">
         <v>2027447-21341133</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B34" s="4" t="str">
         <v>وسام</v>
       </c>
-      <c r="C32" s="4" t="str">
-        <v>تم التوصيل</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C34" s="4" t="str">
+        <v>Delivered</v>
+      </c>
+      <c r="D34" s="5">
         <v>46063.36197258102</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>46065.39993710648</v>
       </c>
-      <c r="F32" s="4" t="str">
+      <c r="F34" s="4" t="str">
         <v>9647703099082</v>
       </c>
-      <c r="G32" s="4" t="str" xml:space="preserve">
+      <c r="G34" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">وسام هاشم جاسم
 بغداد البياع شارع 20-بغداد</v>
       </c>
-      <c r="H32" s="4" t="str">
+      <c r="H34" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I32" s="4" t="str">
+      <c r="I34" s="4" t="str">
         <v>117,000</v>
       </c>
-      <c r="J32" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K32" s="4" t="str">
+      <c r="J34" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K34" s="4" t="str">
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
-      <c r="L32" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4" t="str">
+      <c r="L34" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="str">
         <v>20,500</v>
-      </c>
-      <c r="O32" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P32" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="Q32" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R32" s="4" t="str">
-        <v>2</v>
-      </c>
-      <c r="S32" s="4" t="str">
-        <v>110500</v>
-      </c>
-      <c r="T32" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U32" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V32" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W32" s="4" t="str">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="str">
-        <v>2027447-21336464</v>
-      </c>
-      <c r="B33" s="4" t="str">
-        <v>سيفر سردار</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <v>تم استلام الطلب</v>
-      </c>
-      <c r="D33" s="5">
-        <v>46062.94732335648</v>
-      </c>
-      <c r="E33" s="5">
-        <v>46065.43078899306</v>
-      </c>
-      <c r="F33" s="4" t="str">
-        <v>9647504451352</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <v>اربيل اسكان تاورز</v>
-      </c>
-      <c r="H33" s="4" t="str">
-        <v>اربيل</v>
-      </c>
-      <c r="I33" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J33" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L33" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O33" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="P33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q33" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R33" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S33" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T33" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W33" s="4" t="str">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="str">
-        <v>2027447-21333532</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <v>Saja</v>
-      </c>
-      <c r="C34" s="4" t="str">
-        <v>تم استلام الطلب</v>
-      </c>
-      <c r="D34" s="5">
-        <v>46062.79384813657</v>
-      </c>
-      <c r="E34" s="5">
-        <v>46064.657996828704</v>
-      </c>
-      <c r="F34" s="4" t="str">
-        <v>9647735278208</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <v>الصويره</v>
-      </c>
-      <c r="H34" s="4" t="str">
-        <v>كوت</v>
-      </c>
-      <c r="I34" s="4" t="str">
-        <v>34,000</v>
-      </c>
-      <c r="J34" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K34" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L34" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4" t="str">
-        <v>6,500</v>
       </c>
       <c r="O34" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P34" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R34" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="4" t="str">
-        <v>27500</v>
+        <v>110500</v>
       </c>
       <c r="T34" s="4" t="str">
         <v>Cart</v>
@@ -2890,33 +2890,33 @@
         <v/>
       </c>
       <c r="W34" s="4" t="str">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="str">
-        <v>2027447-21333501</v>
+        <v>2027447-21336464</v>
       </c>
       <c r="B35" s="4" t="str">
-        <v>عباس</v>
+        <v>سيفر سردار</v>
       </c>
       <c r="C35" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Order Received</v>
       </c>
       <c r="D35" s="5">
-        <v>46062.79220025463</v>
+        <v>46062.94732335648</v>
       </c>
       <c r="E35" s="5">
-        <v>46064.83918578704</v>
+        <v>46065.55962478009</v>
       </c>
       <c r="F35" s="4" t="str">
-        <v>9647709009992</v>
+        <v>9647504451352</v>
       </c>
       <c r="G35" s="4" t="str">
-        <v>الجمعيات حي الخليج-بصرة</v>
+        <v>اربيل اسكان تاورز</v>
       </c>
       <c r="H35" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I35" s="4" t="str">
         <v>65,000</v>
@@ -2928,7 +2928,7 @@
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -2937,10 +2937,10 @@
         <v>13,500</v>
       </c>
       <c r="O35" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="P35" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q35" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -2961,36 +2961,36 @@
         <v/>
       </c>
       <c r="W35" s="4" t="str">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>2027447-21330420</v>
+        <v>2027447-21333532</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>برهيم علي سجاد</v>
+        <v>Saja</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Order Received</v>
       </c>
       <c r="D36" s="5">
-        <v>46062.64360072916</v>
+        <v>46062.79384813657</v>
       </c>
       <c r="E36" s="5">
-        <v>46062.777227673614</v>
+        <v>46064.657996828704</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>9647865144993</v>
+        <v>9647735278208</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>baghdad</v>
+        <v>الصويره</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>بغداد</v>
+        <v>كوت</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>42,000</v>
+        <v>34,000</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>6,500</v>
@@ -2999,28 +2999,28 @@
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
       </c>
       <c r="N36" s="4" t="str">
-        <v>13,500</v>
+        <v>6,500</v>
       </c>
       <c r="O36" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P36" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <v>IQ050105DAWI99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R36" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S36" s="4" t="str">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="T36" s="4" t="str">
         <v>Cart</v>
@@ -3032,33 +3032,33 @@
         <v/>
       </c>
       <c r="W36" s="4" t="str">
-        <v>87373913</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="str">
-        <v>2027447-21330386</v>
+        <v>2027447-21333501</v>
       </c>
       <c r="B37" s="4" t="str">
-        <v>علي جبار</v>
+        <v>عباس</v>
       </c>
       <c r="C37" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Delivered</v>
       </c>
       <c r="D37" s="5">
-        <v>46062.64234420139</v>
+        <v>46062.79220025463</v>
       </c>
       <c r="E37" s="5">
-        <v>46063.45347559028</v>
+        <v>46064.83918578704</v>
       </c>
       <c r="F37" s="4" t="str">
-        <v>9647721584481</v>
+        <v>9647709009992</v>
       </c>
       <c r="G37" s="4" t="str">
-        <v>بغداد</v>
+        <v>الجمعيات حي الخليج-بصرة</v>
       </c>
       <c r="H37" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I37" s="4" t="str">
         <v>65,000</v>
@@ -3070,7 +3070,7 @@
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -3103,33 +3103,33 @@
         <v/>
       </c>
       <c r="W37" s="4" t="str">
-        <v>87370182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>2027447-21329162</v>
+        <v>2027447-21330420</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>اسيل</v>
+        <v>برهيم علي سجاد</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D38" s="5">
-        <v>46062.5843108912</v>
+        <v>46062.64360072916</v>
       </c>
       <c r="E38" s="5">
-        <v>46063.708111203705</v>
+        <v>46062.777227673614</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>9647746308618</v>
+        <v>9647865144993</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>بصرة</v>
+        <v>baghdad</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I38" s="4" t="str">
         <v>42,000</v>
@@ -3138,10 +3138,10 @@
         <v>6,500</v>
       </c>
       <c r="K38" s="4" t="str">
-        <v>discount number</v>
+        <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3174,36 +3174,36 @@
         <v/>
       </c>
       <c r="W38" s="4" t="str">
-        <v>87381291</v>
+        <v>87373913</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="str">
-        <v>2027447-21328284</v>
+        <v>2027447-21330386</v>
       </c>
       <c r="B39" s="4" t="str">
-        <v>فهد</v>
+        <v>علي جبار</v>
       </c>
       <c r="C39" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D39" s="5">
-        <v>46062.54285048611</v>
+        <v>46062.64234420139</v>
       </c>
       <c r="E39" s="5">
-        <v>46065.321567997686</v>
+        <v>46063.45347559028</v>
       </c>
       <c r="F39" s="4" t="str">
-        <v>9647783312740</v>
+        <v>9647721584481</v>
       </c>
       <c r="G39" s="4" t="str">
-        <v>بغداد دوره طياره</v>
+        <v>بغداد</v>
       </c>
       <c r="H39" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I39" s="4" t="str">
-        <v>42,000</v>
+        <v>65,000</v>
       </c>
       <c r="J39" s="4" t="str">
         <v>6,500</v>
@@ -3212,7 +3212,7 @@
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -3224,16 +3224,16 @@
         <v>nahrayn market</v>
       </c>
       <c r="P39" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <v>IQ050105DAWI99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R39" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S39" s="4" t="str">
-        <v>35500</v>
+        <v>58500</v>
       </c>
       <c r="T39" s="4" t="str">
         <v>Cart</v>
@@ -3245,45 +3245,45 @@
         <v/>
       </c>
       <c r="W39" s="4" t="str">
-        <v>222</v>
+        <v>87370182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>2027447-21327273</v>
+        <v>2027447-21329162</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Samer sabah</v>
+        <v>اسيل</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D40" s="5">
-        <v>46062.50750659722</v>
+        <v>46062.5843108912</v>
       </c>
       <c r="E40" s="5">
-        <v>46064.36667028935</v>
+        <v>46063.708111203705</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>9647717776640</v>
+        <v>9647746308618</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K40" s="4" t="str">
-        <v/>
+        <v>discount number</v>
       </c>
       <c r="L40" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
@@ -3292,22 +3292,22 @@
         <v>13,500</v>
       </c>
       <c r="O40" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P40" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R40" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T40" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U40" s="4" t="str">
         <v/>
@@ -3316,45 +3316,45 @@
         <v/>
       </c>
       <c r="W40" s="4" t="str">
-        <v>224</v>
+        <v>87381291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="str">
-        <v>2027447-21325993</v>
+        <v>2027447-21328284</v>
       </c>
       <c r="B41" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>فهد</v>
       </c>
       <c r="C41" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D41" s="5">
-        <v>46062.45230179398</v>
+        <v>46062.54285048611</v>
       </c>
       <c r="E41" s="5">
-        <v>46062.452304618055</v>
+        <v>46065.759022592596</v>
       </c>
       <c r="F41" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647783312740</v>
       </c>
       <c r="G41" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>بغداد دوره طياره</v>
       </c>
       <c r="H41" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I41" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J41" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K41" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M41" s="4">
         <v>0</v>
@@ -3363,19 +3363,19 @@
         <v>13,500</v>
       </c>
       <c r="O41" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P41" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R41" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T41" s="4" t="str">
         <v>Cart</v>
@@ -3387,51 +3387,51 @@
         <v/>
       </c>
       <c r="W41" s="4" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>2027447-21325937</v>
+        <v>2027447-21327273</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>Samer sabah</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D42" s="5">
-        <v>46062.451287627315</v>
+        <v>46062.50750659722</v>
       </c>
       <c r="E42" s="5">
-        <v>46062.451578912034</v>
+        <v>46064.36667028935</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647717776640</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
       </c>
       <c r="H42" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>54,500</v>
+        <v>65,000</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K42" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
       </c>
       <c r="N42" s="4" t="str">
-        <v>3,000</v>
+        <v>13,500</v>
       </c>
       <c r="O42" s="4" t="str">
         <v/>
@@ -3446,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="S42" s="4" t="str">
-        <v>48000</v>
+        <v>58500</v>
       </c>
       <c r="T42" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U42" s="4" t="str">
         <v/>
@@ -3458,30 +3458,30 @@
         <v/>
       </c>
       <c r="W42" s="4" t="str">
-        <v/>
+        <v>224</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="str">
-        <v>2027447-21325418</v>
+        <v>2027447-21325993</v>
       </c>
       <c r="B43" s="4" t="str">
-        <v>Mohammed abdulzahra</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C43" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D43" s="5">
-        <v>46062.42305118056</v>
+        <v>46062.45230179398</v>
       </c>
       <c r="E43" s="5">
-        <v>46062.42305415509</v>
+        <v>46062.452304618055</v>
       </c>
       <c r="F43" s="4" t="str">
         <v>9647809592002</v>
       </c>
       <c r="G43" s="4" t="str">
-        <v>بصرة</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H43" s="4" t="str">
         <v>بصرة</v>
@@ -3496,7 +3496,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L43" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>13,500</v>
       </c>
       <c r="O43" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P43" s="4" t="str">
         <v/>
@@ -3529,24 +3529,24 @@
         <v/>
       </c>
       <c r="W43" s="4" t="str">
-        <v>87363123</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>2027447-21325289</v>
+        <v>2027447-21325937</v>
       </c>
       <c r="B44" s="4" t="str">
         <v>Mohammed I</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D44" s="5">
-        <v>46062.413627974536</v>
+        <v>46062.451287627315</v>
       </c>
       <c r="E44" s="5">
-        <v>46062.413631469906</v>
+        <v>46062.451578912034</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>9647809592002</v>
@@ -3558,37 +3558,37 @@
         <v>بصرة</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>65,000</v>
+        <v>54,500</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K44" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>wrong</v>
       </c>
       <c r="L44" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
       </c>
       <c r="N44" s="4" t="str">
-        <v>13,500</v>
+        <v>3,000</v>
       </c>
       <c r="O44" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v/>
       </c>
       <c r="P44" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q44" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R44" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="4" t="str">
-        <v>58500</v>
+        <v>48000</v>
       </c>
       <c r="T44" s="4" t="str">
         <v>Cart</v>
@@ -3600,30 +3600,30 @@
         <v/>
       </c>
       <c r="W44" s="4" t="str">
-        <v>221</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="str">
-        <v>2027447-21325245</v>
+        <v>2027447-21325418</v>
       </c>
       <c r="B45" s="4" t="str">
         <v>Mohammed abdulzahra</v>
       </c>
       <c r="C45" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D45" s="5">
-        <v>46062.41033025463</v>
+        <v>46062.42305118056</v>
       </c>
       <c r="E45" s="5">
-        <v>46065.43456450231</v>
+        <v>46062.42305415509</v>
       </c>
       <c r="F45" s="4" t="str">
         <v>9647809592002</v>
       </c>
       <c r="G45" s="4" t="str">
-        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
+        <v>بصرة</v>
       </c>
       <c r="H45" s="4" t="str">
         <v>بصرة</v>
@@ -3635,10 +3635,10 @@
         <v>6,500</v>
       </c>
       <c r="K45" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L45" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
@@ -3647,16 +3647,16 @@
         <v>13,500</v>
       </c>
       <c r="O45" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P45" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q45" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R45" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="4" t="str">
         <v>58500</v>
@@ -3676,25 +3676,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>2027447-21325225</v>
+        <v>2027447-21325289</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>علي الرجب</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D46" s="5">
-        <v>46062.409052650466</v>
+        <v>46062.413627974536</v>
       </c>
       <c r="E46" s="5">
-        <v>46065.434623043984</v>
+        <v>46062.413631469906</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>9647838955032</v>
+        <v>9647809592002</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>الجزائر - خلف مصرف الدم-بصرة</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>بصرة</v>
@@ -3706,10 +3706,10 @@
         <v>6,500</v>
       </c>
       <c r="K46" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L46" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R46" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="str">
         <v>58500</v>
@@ -3742,36 +3742,36 @@
         <v/>
       </c>
       <c r="W46" s="4" t="str">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="str">
-        <v>2027447-21325023</v>
+        <v>2027447-21325245</v>
       </c>
       <c r="B47" s="4" t="str">
-        <v>خالد كاظم</v>
+        <v>Mohammed abdulzahra</v>
       </c>
       <c r="C47" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D47" s="5">
-        <v>46062.39857081018</v>
+        <v>46062.41033025463</v>
       </c>
       <c r="E47" s="5">
-        <v>46065.43460449074</v>
+        <v>46065.43456450231</v>
       </c>
       <c r="F47" s="4" t="str">
-        <v>9647703677730</v>
+        <v>9647809592002</v>
       </c>
       <c r="G47" s="4" t="str">
-        <v>الطويسه خلف مطعم باربكيو</v>
+        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
       </c>
       <c r="H47" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I47" s="4" t="str">
-        <v>72,000</v>
+        <v>65,000</v>
       </c>
       <c r="J47" s="4" t="str">
         <v>6,500</v>
@@ -3780,28 +3780,28 @@
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
       </c>
       <c r="N47" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O47" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P47" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <v>IQ010106MAGG99, IQ010401TAWR99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R47" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S47" s="4" t="str">
-        <v>58500, 7000</v>
+        <v>58500</v>
       </c>
       <c r="T47" s="4" t="str">
         <v>Cart</v>
@@ -3813,33 +3813,33 @@
         <v/>
       </c>
       <c r="W47" s="4" t="str">
-        <v>219</v>
+        <v>87363123</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>2027447-21321467</v>
+        <v>2027447-21325225</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>علي الرجب</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D48" s="5">
-        <v>46062.12001951389</v>
+        <v>46062.409052650466</v>
       </c>
       <c r="E48" s="5">
-        <v>46063.47227489583</v>
+        <v>46065.434623043984</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>9647703573956</v>
+        <v>9647838955032</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الجزائر - خلف مصرف الدم-بصرة</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I48" s="4" t="str">
         <v>65,000</v>
@@ -3848,10 +3848,10 @@
         <v>6,500</v>
       </c>
       <c r="K48" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -3860,10 +3860,10 @@
         <v>13,500</v>
       </c>
       <c r="O48" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P48" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q48" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -3884,66 +3884,66 @@
         <v/>
       </c>
       <c r="W48" s="4" t="str">
-        <v>#213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="str">
-        <v>2027447-21321464</v>
+        <v>2027447-21325023</v>
       </c>
       <c r="B49" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>خالد كاظم</v>
       </c>
       <c r="C49" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D49" s="5">
-        <v>46062.11975269676</v>
+        <v>46062.39857081018</v>
       </c>
       <c r="E49" s="5">
-        <v>46063.472389456016</v>
+        <v>46065.43460449074</v>
       </c>
       <c r="F49" s="4" t="str">
-        <v>9647703573957</v>
+        <v>9647703677730</v>
       </c>
       <c r="G49" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه خلف مطعم باربكيو</v>
       </c>
       <c r="H49" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I49" s="4" t="str">
-        <v>65,000</v>
+        <v>72,000</v>
       </c>
       <c r="J49" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K49" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
       </c>
       <c r="N49" s="4" t="str">
-        <v>13,500</v>
+        <v>14,000</v>
       </c>
       <c r="O49" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P49" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ010106MAGG99, IQ010401TAWR99</v>
       </c>
       <c r="R49" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S49" s="4" t="str">
-        <v>58500</v>
+        <v>58500, 7000</v>
       </c>
       <c r="T49" s="4" t="str">
         <v>Cart</v>
@@ -3955,27 +3955,27 @@
         <v/>
       </c>
       <c r="W49" s="4" t="str">
-        <v>#213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>2027447-21321463</v>
+        <v>2027447-21321467</v>
       </c>
       <c r="B50" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D50" s="5">
-        <v>46062.119456875</v>
+        <v>46062.12001951389</v>
       </c>
       <c r="E50" s="5">
-        <v>46063.472483425925</v>
+        <v>46063.47227489583</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>9647703573958</v>
+        <v>9647703573956</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>مدينة صدر</v>
@@ -3993,7 +3993,7 @@
         <v>duplucated</v>
       </c>
       <c r="L50" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -4031,22 +4031,22 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="str">
-        <v>2027447-21321461</v>
+        <v>2027447-21321464</v>
       </c>
       <c r="B51" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C51" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D51" s="5">
-        <v>46062.119129618055</v>
+        <v>46062.11975269676</v>
       </c>
       <c r="E51" s="5">
-        <v>46063.47256233796</v>
+        <v>46063.472389456016</v>
       </c>
       <c r="F51" s="4" t="str">
-        <v>9647703573959</v>
+        <v>9647703573957</v>
       </c>
       <c r="G51" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4064,7 +4064,7 @@
         <v>duplucated</v>
       </c>
       <c r="L51" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
@@ -4102,22 +4102,22 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>2027447-21321454</v>
+        <v>2027447-21321463</v>
       </c>
       <c r="B52" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D52" s="5">
-        <v>46062.1181390162</v>
+        <v>46062.119456875</v>
       </c>
       <c r="E52" s="5">
-        <v>46062.526094166664</v>
+        <v>46063.472483425925</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>9647703573951</v>
+        <v>9647703573958</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4132,10 +4132,10 @@
         <v>6,500</v>
       </c>
       <c r="K52" s="4" t="str">
-        <v>كردي و مفيش واتساب</v>
+        <v>duplucated</v>
       </c>
       <c r="L52" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -4173,22 +4173,22 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="str">
-        <v>2027447-21321444</v>
+        <v>2027447-21321461</v>
       </c>
       <c r="B53" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C53" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D53" s="5">
-        <v>46062.116491030094</v>
+        <v>46062.119129618055</v>
       </c>
       <c r="E53" s="5">
-        <v>46063.44011920139</v>
+        <v>46063.47256233796</v>
       </c>
       <c r="F53" s="4" t="str">
-        <v>9647703573952</v>
+        <v>9647703573959</v>
       </c>
       <c r="G53" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4203,10 +4203,10 @@
         <v>6,500</v>
       </c>
       <c r="K53" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L53" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -4244,22 +4244,22 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>2027447-21321439</v>
+        <v>2027447-21321454</v>
       </c>
       <c r="B54" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D54" s="5">
-        <v>46062.11577030092</v>
+        <v>46062.1181390162</v>
       </c>
       <c r="E54" s="5">
-        <v>46063.47266734954</v>
+        <v>46062.526094166664</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>9647703573953</v>
+        <v>9647703573951</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4274,10 +4274,10 @@
         <v>6,500</v>
       </c>
       <c r="K54" s="4" t="str">
-        <v>duplucated</v>
+        <v>كردي و مفيش واتساب</v>
       </c>
       <c r="L54" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="str">
-        <v>2027447-21321433</v>
+        <v>2027447-21321444</v>
       </c>
       <c r="B55" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C55" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D55" s="5">
-        <v>46062.1151934375</v>
+        <v>46062.116491030094</v>
       </c>
       <c r="E55" s="5">
-        <v>46063.473785</v>
+        <v>46063.44011920139</v>
       </c>
       <c r="F55" s="4" t="str">
-        <v>9647703573954</v>
+        <v>9647703573952</v>
       </c>
       <c r="G55" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4345,10 +4345,10 @@
         <v>6,500</v>
       </c>
       <c r="K55" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
@@ -4386,22 +4386,22 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>2027447-21321427</v>
+        <v>2027447-21321439</v>
       </c>
       <c r="B56" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D56" s="5">
-        <v>46062.114325393515</v>
+        <v>46062.11577030092</v>
       </c>
       <c r="E56" s="5">
-        <v>46063.473866203705</v>
+        <v>46063.47266734954</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>9647703573955</v>
+        <v>9647703573953</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4419,7 +4419,7 @@
         <v>duplucated</v>
       </c>
       <c r="L56" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4457,61 +4457,61 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="str">
-        <v>2027447-21320912</v>
+        <v>2027447-21321433</v>
       </c>
       <c r="B57" s="4" t="str">
-        <v>حسين</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C57" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D57" s="5">
-        <v>46062.05659570602</v>
+        <v>46062.1151934375</v>
       </c>
       <c r="E57" s="5">
-        <v>46064.37757741898</v>
+        <v>46063.473785</v>
       </c>
       <c r="F57" s="4" t="str">
-        <v>9647818549030</v>
+        <v>9647703573954</v>
       </c>
       <c r="G57" s="4" t="str">
-        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H57" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I57" s="4" t="str">
-        <v>110,500</v>
+        <v>65,000</v>
       </c>
       <c r="J57" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K57" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L57" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
       </c>
       <c r="N57" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O57" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P57" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q57" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R57" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57" s="4" t="str">
-        <v>104000</v>
+        <v>58500</v>
       </c>
       <c r="T57" s="4" t="str">
         <v>Cart</v>
@@ -4523,33 +4523,33 @@
         <v/>
       </c>
       <c r="W57" s="4" t="str">
-        <v>218</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>2027447-21320534</v>
+        <v>2027447-21321427</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>فارس</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D58" s="5">
-        <v>46062.03247658565</v>
+        <v>46062.114325393515</v>
       </c>
       <c r="E58" s="5">
-        <v>46065.46657697917</v>
+        <v>46063.473866203705</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>9647504889447</v>
+        <v>9647703573955</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>دهوك  نيو زاخو</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>دهوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I58" s="4" t="str">
         <v>65,000</v>
@@ -4558,10 +4558,10 @@
         <v>6,500</v>
       </c>
       <c r="K58" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L58" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         <v>13,500</v>
       </c>
       <c r="O58" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P58" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q58" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4594,51 +4594,51 @@
         <v/>
       </c>
       <c r="W58" s="4" t="str">
-        <v>217</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="str">
-        <v>2027447-21320523</v>
+        <v>2027447-21320912</v>
       </c>
       <c r="B59" s="4" t="str">
-        <v>مجيد</v>
+        <v>حسين</v>
       </c>
       <c r="C59" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D59" s="5">
-        <v>46062.031249328706</v>
+        <v>46062.05659570602</v>
       </c>
       <c r="E59" s="5">
-        <v>46065.38011118056</v>
+        <v>46064.37757741898</v>
       </c>
       <c r="F59" s="4" t="str">
-        <v>9647809879086</v>
+        <v>9647818549030</v>
       </c>
       <c r="G59" s="4" t="str">
-        <v>الانبار الرمادي قرب اسواق العيله</v>
+        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
       </c>
       <c r="H59" s="4" t="str">
-        <v>الانبار</v>
+        <v>بغداد</v>
       </c>
       <c r="I59" s="4" t="str">
-        <v>84,250</v>
+        <v>110,500</v>
       </c>
       <c r="J59" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K59" s="4" t="str">
-        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
+        <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
       </c>
       <c r="N59" s="4" t="str">
-        <v>16,750</v>
+        <v>14,000</v>
       </c>
       <c r="O59" s="4" t="str">
         <v>nahrayn market</v>
@@ -4647,13 +4647,13 @@
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q59" s="4" t="str">
-        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R59" s="4" t="str">
-        <v>1, 1</v>
+        <v>2</v>
       </c>
       <c r="S59" s="4" t="str">
-        <v>61750, 16000</v>
+        <v>104000</v>
       </c>
       <c r="T59" s="4" t="str">
         <v>Cart</v>
@@ -4665,33 +4665,33 @@
         <v/>
       </c>
       <c r="W59" s="4" t="str">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>2027447-21320496</v>
+        <v>2027447-21320534</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>اركان</v>
+        <v>فارس</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D60" s="5">
-        <v>46062.02948613426</v>
+        <v>46062.03247658565</v>
       </c>
       <c r="E60" s="5">
-        <v>46064.83917225694</v>
+        <v>46065.46657697917</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>9647707055944</v>
+        <v>9647504889447</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
+        <v>دهوك  نيو زاخو</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>بصرة</v>
+        <v>دهوك</v>
       </c>
       <c r="I60" s="4" t="str">
         <v>65,000</v>
@@ -4703,7 +4703,7 @@
         <v/>
       </c>
       <c r="L60" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -4736,66 +4736,66 @@
         <v/>
       </c>
       <c r="W60" s="4" t="str">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="str">
-        <v>2027447-21317647</v>
+        <v>2027447-21320523</v>
       </c>
       <c r="B61" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>مجيد</v>
       </c>
       <c r="C61" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D61" s="5">
-        <v>46061.87229554398</v>
+        <v>46062.031249328706</v>
       </c>
       <c r="E61" s="5">
-        <v>46063.47437924769</v>
+        <v>46065.38011118056</v>
       </c>
       <c r="F61" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647809879086</v>
       </c>
       <c r="G61" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الانبار الرمادي قرب اسواق العيله</v>
       </c>
       <c r="H61" s="4" t="str">
-        <v>اربيل</v>
+        <v>الانبار</v>
       </c>
       <c r="I61" s="4" t="str">
-        <v>49,000</v>
+        <v>84,250</v>
       </c>
       <c r="J61" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K61" s="4" t="str">
-        <v>duplucated</v>
+        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
       </c>
       <c r="L61" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
       </c>
       <c r="N61" s="4" t="str">
-        <v>14,500</v>
+        <v>16,750</v>
       </c>
       <c r="O61" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P61" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <v>IQ010601GHKK99</v>
+        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
       </c>
       <c r="R61" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S61" s="4" t="str">
-        <v>42500</v>
+        <v>61750, 16000</v>
       </c>
       <c r="T61" s="4" t="str">
         <v>Cart</v>
@@ -4807,33 +4807,33 @@
         <v/>
       </c>
       <c r="W61" s="4" t="str">
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>2027447-21317618</v>
+        <v>2027447-21320496</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>اركان</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D62" s="5">
-        <v>46061.87095564815</v>
+        <v>46062.02948613426</v>
       </c>
       <c r="E62" s="5">
-        <v>46063.47448429398</v>
+        <v>46064.83917225694</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647707055944</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I62" s="4" t="str">
         <v>65,000</v>
@@ -4842,10 +4842,10 @@
         <v>6,500</v>
       </c>
       <c r="K62" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>13,500</v>
       </c>
       <c r="O62" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P62" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q62" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4878,66 +4878,66 @@
         <v/>
       </c>
       <c r="W62" s="4" t="str">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="str">
-        <v>2027447-21311829</v>
+        <v>2027447-21317647</v>
       </c>
       <c r="B63" s="4" t="str">
-        <v>Ulla</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C63" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D63" s="5">
-        <v>46061.631386469904</v>
+        <v>46061.87229554398</v>
       </c>
       <c r="E63" s="5">
-        <v>46061.63138957176</v>
+        <v>46063.47437924769</v>
       </c>
       <c r="F63" s="4" t="str">
-        <v>9647772423216</v>
+        <v>9647703573950</v>
       </c>
       <c r="G63" s="4" t="str">
-        <v>كرادة خارج</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H63" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I63" s="4" t="str">
-        <v>32,000</v>
+        <v>49,000</v>
       </c>
       <c r="J63" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K63" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>duplucated</v>
       </c>
       <c r="L63" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
       </c>
       <c r="N63" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O63" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P63" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q63" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010601GHKK99</v>
       </c>
       <c r="R63" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="4" t="str">
-        <v>25500</v>
+        <v>42500</v>
       </c>
       <c r="T63" s="4" t="str">
         <v>Cart</v>
@@ -4949,33 +4949,33 @@
         <v/>
       </c>
       <c r="W63" s="4" t="str">
-        <v>#87242467</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>2027447-21309717</v>
+        <v>2027447-21317618</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>عمر عبدالله</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D64" s="5">
-        <v>46061.54547142361</v>
+        <v>46061.87095564815</v>
       </c>
       <c r="E64" s="5">
-        <v>46064.32734074074</v>
+        <v>46063.47448429398</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>9647701076857</v>
+        <v>9647703573950</v>
       </c>
       <c r="G64" s="4" t="str">
-        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H64" s="4" t="str">
-        <v>كركوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I64" s="4" t="str">
         <v>65,000</v>
@@ -4984,10 +4984,10 @@
         <v>6,500</v>
       </c>
       <c r="K64" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplucated</v>
       </c>
       <c r="L64" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4996,10 +4996,10 @@
         <v>13,500</v>
       </c>
       <c r="O64" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P64" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q64" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -5020,66 +5020,66 @@
         <v/>
       </c>
       <c r="W64" s="4" t="str">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="str">
-        <v>2027447-21306939</v>
+        <v>2027447-21311829</v>
       </c>
       <c r="B65" s="4" t="str">
         <v>Ulla</v>
       </c>
       <c r="C65" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D65" s="5">
-        <v>46061.41131630787</v>
+        <v>46061.631386469904</v>
       </c>
       <c r="E65" s="5">
-        <v>46064.37759912037</v>
+        <v>46061.63138957176</v>
       </c>
       <c r="F65" s="4" t="str">
         <v>9647772423216</v>
       </c>
       <c r="G65" s="4" t="str">
-        <v>كرادة خارج فرع حلويات الزيتون</v>
+        <v>كرادة خارج</v>
       </c>
       <c r="H65" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I65" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J65" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K65" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L65" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="str">
-        <v>12,500</v>
+        <v>12,000</v>
       </c>
       <c r="O65" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P65" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q65" s="4" t="str">
-        <v>IQ040104WIRE99, IQ030401KHAT99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R65" s="4" t="str">
-        <v>1, 1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="4" t="str">
-        <v>25500, 7000</v>
+        <v>25500</v>
       </c>
       <c r="T65" s="4" t="str">
         <v>Cart</v>
@@ -5091,66 +5091,66 @@
         <v/>
       </c>
       <c r="W65" s="4" t="str">
-        <v>87242467</v>
+        <v>#87242467</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>2027447-21306927</v>
+        <v>2027447-21309717</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>يوسف</v>
+        <v>عمر عبدالله</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Delivered</v>
       </c>
       <c r="D66" s="5">
-        <v>46061.410177777776</v>
+        <v>46061.54547142361</v>
       </c>
       <c r="E66" s="5">
-        <v>46061.749465162036</v>
+        <v>46064.32734074074</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>9647721190546</v>
+        <v>9647701076857</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>يوسف</v>
+        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>موصل</v>
+        <v>كركوك</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>204,000</v>
+        <v>65,000</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K66" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L66" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
       </c>
       <c r="N66" s="4" t="str">
-        <v>85,500</v>
+        <v>13,500</v>
       </c>
       <c r="O66" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P66" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q66" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R66" s="4" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S66" s="4" t="str">
-        <v>197500</v>
+        <v>58500</v>
       </c>
       <c r="T66" s="4" t="str">
         <v>Cart</v>
@@ -5162,66 +5162,66 @@
         <v/>
       </c>
       <c r="W66" s="4" t="str">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="str">
-        <v>2027447-21306903</v>
+        <v>2027447-21306939</v>
       </c>
       <c r="B67" s="4" t="str">
-        <v>زيد كامل</v>
+        <v>Ulla</v>
       </c>
       <c r="C67" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D67" s="5">
-        <v>46061.40806185185</v>
+        <v>46061.41131630787</v>
       </c>
       <c r="E67" s="5">
-        <v>46064.39747780093</v>
+        <v>46064.37759912037</v>
       </c>
       <c r="F67" s="4" t="str">
-        <v>9647901345658</v>
+        <v>9647772423216</v>
       </c>
       <c r="G67" s="4" t="str">
-        <v>بغداد المنصور مجمع المنصور ستي</v>
+        <v>كرادة خارج فرع حلويات الزيتون</v>
       </c>
       <c r="H67" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I67" s="4" t="str">
-        <v>65,000</v>
+        <v>39,000</v>
       </c>
       <c r="J67" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K67" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L67" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M67" s="4">
         <v>0</v>
       </c>
       <c r="N67" s="4" t="str">
-        <v>13,500</v>
+        <v>12,500</v>
       </c>
       <c r="O67" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P67" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040104WIRE99, IQ030401KHAT99</v>
       </c>
       <c r="R67" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S67" s="4" t="str">
-        <v>58500</v>
+        <v>25500, 7000</v>
       </c>
       <c r="T67" s="4" t="str">
         <v>Cart</v>
@@ -5233,36 +5233,36 @@
         <v/>
       </c>
       <c r="W67" s="4" t="str">
-        <v>209</v>
+        <v>87242467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>2027447-21306893</v>
+        <v>2027447-21306927</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>حسين ستار</v>
+        <v>يوسف</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D68" s="5">
-        <v>46061.40700960648</v>
+        <v>46061.410177777776</v>
       </c>
       <c r="E68" s="5">
-        <v>46061.434817685185</v>
+        <v>46061.749465162036</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>9647895632217</v>
+        <v>9647721190546</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>كرت القدم</v>
+        <v>يوسف</v>
       </c>
       <c r="H68" s="4" t="str">
         <v>موصل</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>51,000</v>
+        <v>204,000</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>6,500</v>
@@ -5271,16 +5271,16 @@
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M68" s="4">
         <v>0</v>
       </c>
       <c r="N68" s="4" t="str">
-        <v>16,500</v>
+        <v>85,500</v>
       </c>
       <c r="O68" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P68" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/61nXv</v>
@@ -5289,10 +5289,10 @@
         <v>IQ030401SDAS99</v>
       </c>
       <c r="R68" s="4" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S68" s="4" t="str">
-        <v>44500</v>
+        <v>197500</v>
       </c>
       <c r="T68" s="4" t="str">
         <v>Cart</v>
@@ -5304,66 +5304,66 @@
         <v/>
       </c>
       <c r="W68" s="4" t="str">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="str">
-        <v>2027447-21306886</v>
+        <v>2027447-21306903</v>
       </c>
       <c r="B69" s="4" t="str">
-        <v>سجاد</v>
+        <v>زيد كامل</v>
       </c>
       <c r="C69" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Delivered</v>
       </c>
       <c r="D69" s="5">
-        <v>46061.40609613426</v>
+        <v>46061.40806185185</v>
       </c>
       <c r="E69" s="5">
-        <v>46062.69066699074</v>
+        <v>46064.39747780093</v>
       </c>
       <c r="F69" s="4" t="str">
-        <v>9647731868202</v>
+        <v>9647901345658</v>
       </c>
       <c r="G69" s="4" t="str">
-        <v>حي الحسكري</v>
+        <v>بغداد المنصور مجمع المنصور ستي</v>
       </c>
       <c r="H69" s="4" t="str">
-        <v>كركوك</v>
+        <v>بغداد</v>
       </c>
       <c r="I69" s="4" t="str">
-        <v>51,000</v>
+        <v>65,000</v>
       </c>
       <c r="J69" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K69" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L69" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
       </c>
       <c r="N69" s="4" t="str">
-        <v>16,500</v>
+        <v>13,500</v>
       </c>
       <c r="O69" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P69" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q69" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R69" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S69" s="4" t="str">
-        <v>44500</v>
+        <v>58500</v>
       </c>
       <c r="T69" s="4" t="str">
         <v>Cart</v>
@@ -5375,66 +5375,66 @@
         <v/>
       </c>
       <c r="W69" s="4" t="str">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>2027447-21305571</v>
+        <v>2027447-21306893</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Bashar</v>
+        <v>حسين ستار</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Order Received</v>
       </c>
       <c r="D70" s="5">
-        <v>46061.31099184028</v>
+        <v>46061.40700960648</v>
       </c>
       <c r="E70" s="5">
-        <v>46063.35487973379</v>
+        <v>46061.434817685185</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>9647718077007</v>
+        <v>9647895632217</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>الموصل حي الزهور قرب دار العجزة</v>
+        <v>كرت القدم</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>موصل</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>65,000</v>
+        <v>51,000</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K70" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L70" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
       </c>
       <c r="N70" s="4" t="str">
-        <v>13,500</v>
+        <v>16,500</v>
       </c>
       <c r="O70" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayh market</v>
       </c>
       <c r="P70" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R70" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S70" s="4" t="str">
-        <v>58500</v>
+        <v>44500</v>
       </c>
       <c r="T70" s="4" t="str">
         <v>Cart</v>
@@ -5446,36 +5446,36 @@
         <v/>
       </c>
       <c r="W70" s="4" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="str">
-        <v>2027447-21305554</v>
+        <v>2027447-21306886</v>
       </c>
       <c r="B71" s="4" t="str">
-        <v>عباس محمد اسماعيل</v>
+        <v>سجاد</v>
       </c>
       <c r="C71" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D71" s="5">
-        <v>46061.30975965278</v>
+        <v>46061.40609613426</v>
       </c>
       <c r="E71" s="5">
-        <v>46062.59048576389</v>
+        <v>46062.69066699074</v>
       </c>
       <c r="F71" s="4" t="str">
-        <v>9647737663394</v>
+        <v>9647731868202</v>
       </c>
       <c r="G71" s="4" t="str">
-        <v>ميسان مركز المدينة</v>
+        <v>حي الحسكري</v>
       </c>
       <c r="H71" s="4" t="str">
-        <v>ميسان</v>
+        <v>كركوك</v>
       </c>
       <c r="I71" s="4" t="str">
-        <v>65,000</v>
+        <v>51,000</v>
       </c>
       <c r="J71" s="4" t="str">
         <v>6,500</v>
@@ -5484,28 +5484,28 @@
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
       </c>
       <c r="N71" s="4" t="str">
-        <v>13,500</v>
+        <v>16,500</v>
       </c>
       <c r="O71" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P71" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R71" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S71" s="4" t="str">
-        <v>58500</v>
+        <v>44500</v>
       </c>
       <c r="T71" s="4" t="str">
         <v>Cart</v>
@@ -5517,66 +5517,66 @@
         <v/>
       </c>
       <c r="W71" s="4" t="str">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>2027447-21303493</v>
+        <v>2027447-21305571</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>Hadeeth</v>
+        <v>Bashar</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D72" s="5">
-        <v>46061.072884814814</v>
+        <v>46061.31099184028</v>
       </c>
       <c r="E72" s="5">
-        <v>46064.4201575</v>
+        <v>46063.35487973379</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>9647855236667</v>
+        <v>9647718077007</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>ام الخيل مقابل جيراتا</v>
+        <v>الموصل حي الزهور قرب دار العجزة</v>
       </c>
       <c r="H72" s="4" t="str">
-        <v>دوانية</v>
+        <v>موصل</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K72" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L72" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
       </c>
       <c r="N72" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O72" s="4" t="str">
-        <v xml:space="preserve">nahrayn market </v>
+        <v>nahrayn market</v>
       </c>
       <c r="P72" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R72" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S72" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T72" s="4" t="str">
         <v>Cart</v>
@@ -5588,36 +5588,36 @@
         <v/>
       </c>
       <c r="W72" s="4" t="str">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="str">
-        <v>2027447-21303458</v>
+        <v>2027447-21305554</v>
       </c>
       <c r="B73" s="4" t="str">
-        <v>سجاد</v>
+        <v>عباس محمد اسماعيل</v>
       </c>
       <c r="C73" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D73" s="5">
-        <v>46061.068113912035</v>
+        <v>46061.30975965278</v>
       </c>
       <c r="E73" s="5">
-        <v>46061.504234293985</v>
+        <v>46062.59048576389</v>
       </c>
       <c r="F73" s="4" t="str">
-        <v>9647815645310</v>
+        <v>9647737663394</v>
       </c>
       <c r="G73" s="4" t="str">
-        <v>موصل</v>
+        <v>ميسان مركز المدينة</v>
       </c>
       <c r="H73" s="4" t="str">
-        <v>موصل</v>
+        <v>ميسان</v>
       </c>
       <c r="I73" s="4" t="str">
-        <v>78,000</v>
+        <v>65,000</v>
       </c>
       <c r="J73" s="4" t="str">
         <v>6,500</v>
@@ -5626,28 +5626,28 @@
         <v/>
       </c>
       <c r="L73" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
       </c>
       <c r="N73" s="4" t="str">
-        <v>14,500</v>
+        <v>13,500</v>
       </c>
       <c r="O73" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P73" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q73" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R73" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S73" s="4" t="str">
-        <v>71500</v>
+        <v>58500</v>
       </c>
       <c r="T73" s="4" t="str">
         <v>Cart</v>
@@ -5659,33 +5659,33 @@
         <v/>
       </c>
       <c r="W73" s="4" t="str">
-        <v>87228707</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>2027447-21303376</v>
+        <v>2027447-21303493</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>حسن</v>
+        <v>Hadeeth</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Delivered</v>
       </c>
       <c r="D74" s="5">
-        <v>46061.059307511576</v>
+        <v>46061.072884814814</v>
       </c>
       <c r="E74" s="5">
-        <v>46063.41436353009</v>
+        <v>46064.4201575</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>9647736444124</v>
+        <v>9647855236667</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>حي جامعه</v>
+        <v>ام الخيل مقابل جيراتا</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>بغداد</v>
+        <v>دوانية</v>
       </c>
       <c r="I74" s="4" t="str">
         <v>32,000</v>
@@ -5697,7 +5697,7 @@
         <v/>
       </c>
       <c r="L74" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>12,000</v>
       </c>
       <c r="O74" s="4" t="str">
-        <v>nahrayn market</v>
+        <v xml:space="preserve">nahrayn market </v>
       </c>
       <c r="P74" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -5730,66 +5730,66 @@
         <v/>
       </c>
       <c r="W74" s="4" t="str">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="str">
-        <v>2027447-21303311</v>
+        <v>2027447-21303458</v>
       </c>
       <c r="B75" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>سجاد</v>
       </c>
       <c r="C75" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D75" s="5">
-        <v>46061.0553649537</v>
+        <v>46061.068113912035</v>
       </c>
       <c r="E75" s="5">
-        <v>46061.50412737268</v>
+        <v>46061.504234293985</v>
       </c>
       <c r="F75" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647815645310</v>
       </c>
       <c r="G75" s="4" t="str">
-        <v>الطوبجي</v>
+        <v>موصل</v>
       </c>
       <c r="H75" s="4" t="str">
-        <v>بغداد</v>
+        <v>موصل</v>
       </c>
       <c r="I75" s="4" t="str">
-        <v>67,250</v>
+        <v>78,000</v>
       </c>
       <c r="J75" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K75" s="4" t="str">
-        <v>duplicated</v>
+        <v/>
       </c>
       <c r="L75" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="str">
-        <v>20,250</v>
+        <v>14,500</v>
       </c>
       <c r="O75" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P75" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q75" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R75" s="4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S75" s="4" t="str">
-        <v>60749.99999999999</v>
+        <v>71500</v>
       </c>
       <c r="T75" s="4" t="str">
         <v>Cart</v>
@@ -5801,36 +5801,36 @@
         <v/>
       </c>
       <c r="W75" s="4" t="str">
-        <v>194</v>
+        <v>87228707</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>2027447-21303195</v>
+        <v>2027447-21303376</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>حسن</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Order Received</v>
       </c>
       <c r="D76" s="5">
-        <v>46061.05291396991</v>
+        <v>46061.059307511576</v>
       </c>
       <c r="E76" s="5">
-        <v>46065.411233680556</v>
+        <v>46063.41436353009</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647736444124</v>
       </c>
       <c r="G76" s="4" t="str">
-        <v>بغداد الطوبجي-بغداد</v>
+        <v>حي جامعه</v>
       </c>
       <c r="H76" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>67,250.01</v>
+        <v>32,000</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>6,500</v>
@@ -5839,31 +5839,31 @@
         <v/>
       </c>
       <c r="L76" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="str">
-        <v>20,250.01</v>
+        <v>12,000</v>
       </c>
       <c r="O76" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P76" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q76" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R76" s="4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S76" s="4" t="str">
-        <v>60750.009999999995</v>
+        <v>25500</v>
       </c>
       <c r="T76" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U76" s="4" t="str">
         <v/>
@@ -5872,66 +5872,66 @@
         <v/>
       </c>
       <c r="W76" s="4" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="str">
-        <v>2027447-21300537</v>
+        <v>2027447-21303311</v>
       </c>
       <c r="B77" s="4" t="str">
-        <v>اوس</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C77" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D77" s="5">
-        <v>46060.894264699076</v>
+        <v>46061.0553649537</v>
       </c>
       <c r="E77" s="5">
-        <v>46065.44856369213</v>
+        <v>46061.50412737268</v>
       </c>
       <c r="F77" s="4" t="str">
-        <v>9647702082623</v>
+        <v>9647719312632</v>
       </c>
       <c r="G77" s="4" t="str">
-        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
+        <v>الطوبجي</v>
       </c>
       <c r="H77" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I77" s="4" t="str">
-        <v>65,000</v>
+        <v>67,250</v>
       </c>
       <c r="J77" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K77" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplicated</v>
       </c>
       <c r="L77" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
       </c>
       <c r="N77" s="4" t="str">
-        <v>13,500</v>
+        <v>20,250</v>
       </c>
       <c r="O77" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P77" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
       </c>
       <c r="Q77" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R77" s="4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77" s="4" t="str">
-        <v>58500</v>
+        <v>60749.99999999999</v>
       </c>
       <c r="T77" s="4" t="str">
         <v>Cart</v>
@@ -5943,69 +5943,69 @@
         <v/>
       </c>
       <c r="W77" s="4" t="str">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>2027447-21300520</v>
+        <v>2027447-21303195</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>عباس</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Return Verified</v>
       </c>
       <c r="D78" s="5">
-        <v>46060.892965555555</v>
+        <v>46061.05291396991</v>
       </c>
       <c r="E78" s="5">
-        <v>46064.38459284722</v>
+        <v>46065.411233680556</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>9647707865825</v>
+        <v>9647719312632</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
+        <v>بغداد الطوبجي-بغداد</v>
       </c>
       <c r="H78" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>38,000</v>
+        <v>67,250.01</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K78" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L78" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
       </c>
       <c r="N78" s="4" t="str">
-        <v>12,000</v>
+        <v>20,250.01</v>
       </c>
       <c r="O78" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P78" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q78" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040109EELH99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R78" s="4" t="str">
-        <v>1, 1</v>
+        <v>3</v>
       </c>
       <c r="S78" s="4" t="str">
-        <v>25000, 6500</v>
+        <v>60750.009999999995</v>
       </c>
       <c r="T78" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U78" s="4" t="str">
         <v/>
@@ -6014,66 +6014,66 @@
         <v/>
       </c>
       <c r="W78" s="4" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="str">
-        <v>2027447-21299115</v>
+        <v>2027447-21300537</v>
       </c>
       <c r="B79" s="4" t="str">
-        <v>قاسم</v>
+        <v>اوس</v>
       </c>
       <c r="C79" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D79" s="5">
-        <v>46060.81830115741</v>
+        <v>46060.894264699076</v>
       </c>
       <c r="E79" s="5">
-        <v>46063.44318707176</v>
+        <v>46065.44856369213</v>
       </c>
       <c r="F79" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647702082623</v>
       </c>
       <c r="G79" s="4" t="str">
-        <v>مدينة الصدر قطاع 29</v>
+        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
       </c>
       <c r="H79" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I79" s="4" t="str">
-        <v>70,500</v>
+        <v>65,000</v>
       </c>
       <c r="J79" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K79" s="4" t="str">
-        <v>call asap</v>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L79" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
       </c>
       <c r="N79" s="4" t="str">
-        <v>21,000</v>
+        <v>13,500</v>
       </c>
       <c r="O79" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P79" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q79" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R79" s="4" t="str">
-        <v>2, 1</v>
+        <v>1</v>
       </c>
       <c r="S79" s="4" t="str">
-        <v>48000, 16000</v>
+        <v>58500</v>
       </c>
       <c r="T79" s="4" t="str">
         <v>Cart</v>
@@ -6085,45 +6085,45 @@
         <v/>
       </c>
       <c r="W79" s="4" t="str">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>2027447-21299069</v>
+        <v>2027447-21300520</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>قاسم</v>
+        <v>عباس</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D80" s="5">
-        <v>46060.81512138889</v>
+        <v>46060.892965555555</v>
       </c>
       <c r="E80" s="5">
-        <v>46060.856132175926</v>
+        <v>46064.38459284722</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647707865825</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>BAGHDAD</v>
+        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
       </c>
       <c r="H80" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>32,000</v>
+        <v>38,000</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K80" s="4" t="str">
-        <v>wrong</v>
+        <v>call asap</v>
       </c>
       <c r="L80" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q80" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ040109EELH99</v>
       </c>
       <c r="R80" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S80" s="4" t="str">
-        <v>25500</v>
+        <v>25000, 6500</v>
       </c>
       <c r="T80" s="4" t="str">
         <v>Cart</v>
@@ -6156,66 +6156,66 @@
         <v/>
       </c>
       <c r="W80" s="4" t="str">
-        <v>87193719</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="str">
-        <v>2027447-21295906</v>
+        <v>2027447-21299115</v>
       </c>
       <c r="B81" s="4" t="str">
-        <v>ايمان</v>
+        <v>قاسم</v>
       </c>
       <c r="C81" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Delivered</v>
       </c>
       <c r="D81" s="5">
-        <v>46060.668517604165</v>
+        <v>46060.81830115741</v>
       </c>
       <c r="E81" s="5">
-        <v>46060.66852064815</v>
+        <v>46063.44318707176</v>
       </c>
       <c r="F81" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G81" s="4" t="str">
-        <v>الطويسة</v>
+        <v>مدينة الصدر قطاع 29</v>
       </c>
       <c r="H81" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I81" s="4" t="str">
-        <v>32,000</v>
+        <v>70,500</v>
       </c>
       <c r="J81" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K81" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>call asap</v>
       </c>
       <c r="L81" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
       </c>
       <c r="N81" s="4" t="str">
-        <v>12,000</v>
+        <v>21,000</v>
       </c>
       <c r="O81" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P81" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q81" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
       </c>
       <c r="R81" s="4" t="str">
-        <v>0</v>
+        <v>2, 1</v>
       </c>
       <c r="S81" s="4" t="str">
-        <v>25500</v>
+        <v>48000, 16000</v>
       </c>
       <c r="T81" s="4" t="str">
         <v>Cart</v>
@@ -6227,33 +6227,33 @@
         <v/>
       </c>
       <c r="W81" s="4" t="str">
-        <v>agemess</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>2027447-21295042</v>
+        <v>2027447-21299069</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>جنان</v>
+        <v>قاسم</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D82" s="5">
-        <v>46060.62921245371</v>
+        <v>46060.81512138889</v>
       </c>
       <c r="E82" s="5">
-        <v>46060.62921716435</v>
+        <v>46060.856132175926</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>الطويسة</v>
+        <v>BAGHDAD</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I82" s="4" t="str">
         <v>32,000</v>
@@ -6262,10 +6262,10 @@
         <v>6,500</v>
       </c>
       <c r="K82" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>wrong</v>
       </c>
       <c r="L82" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>12,000</v>
       </c>
       <c r="O82" s="4" t="str">
-        <v>87137263</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P82" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -6283,7 +6283,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R82" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="4" t="str">
         <v>25500</v>
@@ -6298,33 +6298,33 @@
         <v/>
       </c>
       <c r="W82" s="4" t="str">
-        <v/>
+        <v>87193719</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="str">
-        <v>2027447-21294965</v>
+        <v>2027447-21295906</v>
       </c>
       <c r="B83" s="4" t="str">
-        <v>Marwa</v>
+        <v>ايمان</v>
       </c>
       <c r="C83" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D83" s="5">
-        <v>46060.624529305554</v>
+        <v>46060.668517604165</v>
       </c>
       <c r="E83" s="5">
-        <v>46063.79071386574</v>
+        <v>46060.66852064815</v>
       </c>
       <c r="F83" s="4" t="str">
-        <v>9647714058562</v>
+        <v>9647765051052</v>
       </c>
       <c r="G83" s="4" t="str">
-        <v>no address</v>
+        <v>الطويسة</v>
       </c>
       <c r="H83" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I83" s="4" t="str">
         <v>32,000</v>
@@ -6333,10 +6333,10 @@
         <v>6,500</v>
       </c>
       <c r="K83" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L83" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R83" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="4" t="str">
         <v>25500</v>
@@ -6369,24 +6369,24 @@
         <v/>
       </c>
       <c r="W83" s="4" t="str">
-        <v>87156908</v>
+        <v>agemess</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>2027447-21292506</v>
+        <v>2027447-21295042</v>
       </c>
       <c r="B84" s="4" t="str">
         <v>جنان</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D84" s="5">
-        <v>46060.526294131945</v>
+        <v>46060.62921245371</v>
       </c>
       <c r="E84" s="5">
-        <v>46060.526298275465</v>
+        <v>46060.62921716435</v>
       </c>
       <c r="F84" s="4" t="str">
         <v>9647765051052</v>
@@ -6407,7 +6407,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L84" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>12,000</v>
       </c>
       <c r="O84" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>87137263</v>
       </c>
       <c r="P84" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -6440,66 +6440,66 @@
         <v/>
       </c>
       <c r="W84" s="4" t="str">
-        <v>unch-87137263</v>
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="str">
-        <v>2027447-21292429</v>
+        <v>2027447-21294965</v>
       </c>
       <c r="B85" s="4" t="str">
-        <v>Mazin</v>
+        <v>Marwa</v>
       </c>
       <c r="C85" s="4" t="str">
-        <v>فشل التسليم</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D85" s="5">
-        <v>46060.522677974535</v>
+        <v>46060.624529305554</v>
       </c>
       <c r="E85" s="5">
-        <v>46065.121536770836</v>
+        <v>46063.79071386574</v>
       </c>
       <c r="F85" s="4" t="str">
-        <v>9647704863776</v>
+        <v>9647714058562</v>
       </c>
       <c r="G85" s="4" t="str">
-        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
+        <v>no address</v>
       </c>
       <c r="H85" s="4" t="str">
-        <v>كركوك</v>
+        <v>بغداد</v>
       </c>
       <c r="I85" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J85" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K85" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L85" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
       </c>
       <c r="N85" s="4" t="str">
-        <v>13,500</v>
+        <v>12,000</v>
       </c>
       <c r="O85" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P85" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q85" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R85" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S85" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T85" s="4" t="str">
         <v>Cart</v>
@@ -6511,66 +6511,66 @@
         <v/>
       </c>
       <c r="W85" s="4" t="str">
-        <v>87150051</v>
+        <v>87156908</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>2027447-21292399</v>
+        <v>2027447-21292506</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>محمد</v>
+        <v>جنان</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>معلق مؤقتًا</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D86" s="5">
-        <v>46060.521560416666</v>
+        <v>46060.526294131945</v>
       </c>
       <c r="E86" s="5">
-        <v>46060.670472604164</v>
+        <v>46060.526298275465</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>9647823514981</v>
+        <v>9647765051052</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>no address</v>
+        <v>الطويسة</v>
       </c>
       <c r="H86" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بصرة</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>78,000</v>
+        <v>32,000</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K86" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L86" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
       </c>
       <c r="N86" s="4" t="str">
-        <v>14,500</v>
+        <v>12,000</v>
       </c>
       <c r="O86" s="4" t="str">
-        <v>nahrayn markey</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P86" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R86" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="4" t="str">
-        <v>71500</v>
+        <v>25500</v>
       </c>
       <c r="T86" s="4" t="str">
         <v>Cart</v>
@@ -6582,33 +6582,33 @@
         <v/>
       </c>
       <c r="W86" s="4" t="str">
-        <v>87147916</v>
+        <v>unch-87137263</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="str">
-        <v>2027447-21292354</v>
+        <v>2027447-21292429</v>
       </c>
       <c r="B87" s="4" t="str">
-        <v>علي</v>
+        <v>Mazin</v>
       </c>
       <c r="C87" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivery Failed</v>
       </c>
       <c r="D87" s="5">
-        <v>46060.51972076389</v>
+        <v>46060.522677974535</v>
       </c>
       <c r="E87" s="5">
-        <v>46064.377580486114</v>
+        <v>46065.121536770836</v>
       </c>
       <c r="F87" s="4" t="str">
-        <v>9647704552693</v>
+        <v>9647704863776</v>
       </c>
       <c r="G87" s="4" t="str">
-        <v>no address-بغداد</v>
+        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
       </c>
       <c r="H87" s="4" t="str">
-        <v>بغداد</v>
+        <v>كركوك</v>
       </c>
       <c r="I87" s="4" t="str">
         <v>65,000</v>
@@ -6620,7 +6620,7 @@
         <v>call asap</v>
       </c>
       <c r="L87" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -6653,66 +6653,66 @@
         <v/>
       </c>
       <c r="W87" s="4" t="str">
-        <v>87139830</v>
+        <v>87150051</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>2027447-21292328</v>
+        <v>2027447-21292399</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>جنان</v>
+        <v>محمد</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Temporary Suspended</v>
       </c>
       <c r="D88" s="5">
-        <v>46060.518487141206</v>
+        <v>46060.521560416666</v>
       </c>
       <c r="E88" s="5">
-        <v>46060.51849142361</v>
+        <v>46060.670472604164</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647823514981</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>الطويسة</v>
+        <v>no address</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>بصرة</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>32,000</v>
+        <v>78,000</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K88" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L88" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
       </c>
       <c r="N88" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O88" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayn markey</v>
       </c>
       <c r="P88" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q88" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R88" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="4" t="str">
-        <v>25500</v>
+        <v>71500</v>
       </c>
       <c r="T88" s="4" t="str">
         <v>Cart</v>
@@ -6724,36 +6724,36 @@
         <v/>
       </c>
       <c r="W88" s="4" t="str">
-        <v>87137263</v>
+        <v>87147916</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="str">
-        <v>2027447-21292314</v>
+        <v>2027447-21292354</v>
       </c>
       <c r="B89" s="4" t="str">
-        <v>ايمان</v>
+        <v>علي</v>
       </c>
       <c r="C89" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D89" s="5">
-        <v>46060.51780462963</v>
+        <v>46060.51972076389</v>
       </c>
       <c r="E89" s="5">
-        <v>46064.35041461806</v>
+        <v>46064.377580486114</v>
       </c>
       <c r="F89" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647704552693</v>
       </c>
       <c r="G89" s="4" t="str">
-        <v>البصرة الطويسة جامع الامام علي الهادي</v>
+        <v>no address-بغداد</v>
       </c>
       <c r="H89" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I89" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J89" s="4" t="str">
         <v>6,500</v>
@@ -6762,28 +6762,28 @@
         <v>call asap</v>
       </c>
       <c r="L89" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
       </c>
       <c r="N89" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O89" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P89" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q89" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R89" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S89" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T89" s="4" t="str">
         <v>Cart</v>
@@ -6795,66 +6795,66 @@
         <v/>
       </c>
       <c r="W89" s="4" t="str">
-        <v>87137062</v>
+        <v>87139830</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>2027447-21292287</v>
+        <v>2027447-21292328</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>كرار</v>
+        <v>جنان</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D90" s="5">
-        <v>46060.51636940972</v>
+        <v>46060.518487141206</v>
       </c>
       <c r="E90" s="5">
-        <v>46060.67019315972</v>
+        <v>46060.51849142361</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>9647731091829</v>
+        <v>9647765051052</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>الشعب</v>
+        <v>الطويسة</v>
       </c>
       <c r="H90" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>78,000</v>
+        <v>32,000</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K90" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L90" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
       </c>
       <c r="N90" s="4" t="str">
-        <v>14,500</v>
+        <v>12,000</v>
       </c>
       <c r="O90" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P90" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q90" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R90" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="4" t="str">
-        <v>71500</v>
+        <v>25500</v>
       </c>
       <c r="T90" s="4" t="str">
         <v>Cart</v>
@@ -6866,36 +6866,36 @@
         <v/>
       </c>
       <c r="W90" s="4" t="str">
-        <v>87133839</v>
+        <v>87137263</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="str">
-        <v>2027447-21292263</v>
+        <v>2027447-21292314</v>
       </c>
       <c r="B91" s="4" t="str">
-        <v>غادة</v>
+        <v>ايمان</v>
       </c>
       <c r="C91" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Delivered</v>
       </c>
       <c r="D91" s="5">
-        <v>46060.514743113425</v>
+        <v>46060.51780462963</v>
       </c>
       <c r="E91" s="5">
-        <v>46060.75239515046</v>
+        <v>46064.35041461806</v>
       </c>
       <c r="F91" s="4" t="str">
-        <v>9647827005553</v>
+        <v>9647765051052</v>
       </c>
       <c r="G91" s="4" t="str">
-        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
+        <v>البصرة الطويسة جامع الامام علي الهادي</v>
       </c>
       <c r="H91" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I91" s="4" t="str">
-        <v>54,500</v>
+        <v>32,000</v>
       </c>
       <c r="J91" s="4" t="str">
         <v>6,500</v>
@@ -6904,13 +6904,13 @@
         <v>call asap</v>
       </c>
       <c r="L91" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
       </c>
       <c r="N91" s="4" t="str">
-        <v>21,000</v>
+        <v>12,000</v>
       </c>
       <c r="O91" s="4" t="str">
         <v>nahrayn market</v>
@@ -6922,10 +6922,10 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R91" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S91" s="4" t="str">
-        <v>48000</v>
+        <v>25500</v>
       </c>
       <c r="T91" s="4" t="str">
         <v>Cart</v>
@@ -6937,66 +6937,66 @@
         <v/>
       </c>
       <c r="W91" s="4" t="str">
-        <v>87130919</v>
+        <v>87137062</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>2027447-21292228</v>
+        <v>2027447-21292287</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>عماد طارق عبد الجبار</v>
+        <v>كرار</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D92" s="5">
-        <v>46060.51269715278</v>
+        <v>46060.51636940972</v>
       </c>
       <c r="E92" s="5">
-        <v>46065.41123798611</v>
+        <v>46060.67019315972</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>9647736696089</v>
+        <v>9647731091829</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
+        <v>الشعب</v>
       </c>
       <c r="H92" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>32,000</v>
+        <v>78,000</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K92" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L92" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
       </c>
       <c r="N92" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O92" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P92" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q92" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R92" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S92" s="4" t="str">
-        <v>25500</v>
+        <v>71500</v>
       </c>
       <c r="T92" s="4" t="str">
         <v>Cart</v>
@@ -7008,36 +7008,36 @@
         <v/>
       </c>
       <c r="W92" s="4" t="str">
-        <v>87128707</v>
+        <v>87133839</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="str">
-        <v>2027447-21292144</v>
+        <v>2027447-21292263</v>
       </c>
       <c r="B93" s="4" t="str">
-        <v>غصون عبد الرحيم عاقل</v>
+        <v>غادة</v>
       </c>
       <c r="C93" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Order Received</v>
       </c>
       <c r="D93" s="5">
-        <v>46060.509699305556</v>
+        <v>46060.514743113425</v>
       </c>
       <c r="E93" s="5">
-        <v>46060.52870604167</v>
+        <v>46060.75239515046</v>
       </c>
       <c r="F93" s="4" t="str">
-        <v>9647853211426</v>
+        <v>9647827005553</v>
       </c>
       <c r="G93" s="4" t="str">
-        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
       </c>
       <c r="H93" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I93" s="4" t="str">
-        <v>32,000</v>
+        <v>54,500</v>
       </c>
       <c r="J93" s="4" t="str">
         <v>6,500</v>
@@ -7046,13 +7046,13 @@
         <v>call asap</v>
       </c>
       <c r="L93" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
       </c>
       <c r="N93" s="4" t="str">
-        <v>12,000</v>
+        <v>21,000</v>
       </c>
       <c r="O93" s="4" t="str">
         <v>nahrayn market</v>
@@ -7064,10 +7064,10 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R93" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S93" s="4" t="str">
-        <v>25500</v>
+        <v>48000</v>
       </c>
       <c r="T93" s="4" t="str">
         <v>Cart</v>
@@ -7079,30 +7079,30 @@
         <v/>
       </c>
       <c r="W93" s="4" t="str">
-        <v>87126749</v>
+        <v>87130919</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>2027447-21291854</v>
+        <v>2027447-21292228</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>د ريا عبد الامير</v>
+        <v>عماد طارق عبد الجبار</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Return Verified</v>
       </c>
       <c r="D94" s="5">
-        <v>46060.50026450231</v>
+        <v>46060.51269715278</v>
       </c>
       <c r="E94" s="5">
-        <v>46060.66329834491</v>
+        <v>46065.41123798611</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>9647906483748</v>
+        <v>9647736696089</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>المنصور</v>
+        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
       </c>
       <c r="H94" s="4" t="str">
         <v>بغداد</v>
@@ -7114,10 +7114,10 @@
         <v>6,500</v>
       </c>
       <c r="K94" s="4" t="str">
-        <v/>
+        <v>call asap</v>
       </c>
       <c r="L94" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -7150,194 +7150,194 @@
         <v/>
       </c>
       <c r="W94" s="4" t="str">
+        <v>87128707</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="str">
+        <v>2027447-21292144</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <v>غصون عبد الرحيم عاقل</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D95" s="5">
+        <v>46060.509699305556</v>
+      </c>
+      <c r="E95" s="5">
+        <v>46060.52870604167</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <v>9647853211426</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I95" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J95" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L95" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O95" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q95" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R95" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T95" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U95" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V95" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W95" s="4" t="str">
+        <v>87126749</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>2027447-21291854</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>د ريا عبد الامير</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D96" s="5">
+        <v>46060.50026450231</v>
+      </c>
+      <c r="E96" s="5">
+        <v>46060.66329834491</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v>9647906483748</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>المنصور</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L96" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O96" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R96" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S96" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T96" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W96" s="4" t="str">
         <v>87120990</v>
       </c>
     </row>
-    <row r="95" xml:space="preserve">
-      <c r="A95" s="4" t="str">
+    <row r="97" xml:space="preserve">
+      <c r="A97" s="4" t="str">
         <v>2027447-21247198</v>
       </c>
-      <c r="B95" s="4" t="str">
+      <c r="B97" s="4" t="str">
         <v>علي</v>
       </c>
-      <c r="C95" s="4" t="str">
-        <v>تم التوصيل</v>
-      </c>
-      <c r="D95" s="5">
+      <c r="C97" s="4" t="str">
+        <v>Delivered</v>
+      </c>
+      <c r="D97" s="5">
         <v>46057.68370048611</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E97" s="5">
         <v>46060.5512303125</v>
       </c>
-      <c r="F95" s="4" t="str">
+      <c r="F97" s="4" t="str">
         <v>9647708073030</v>
       </c>
-      <c r="G95" s="4" t="str" xml:space="preserve">
+      <c r="G97" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">كلار محافضة سليمانية
 قرب ماركت گلارة</v>
       </c>
-      <c r="H95" s="4" t="str">
+      <c r="H97" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I95" s="4" t="str">
+      <c r="I97" s="4" t="str">
         <v>60,000</v>
       </c>
-      <c r="J95" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K95" s="4" t="str">
+      <c r="J97" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K97" s="4" t="str">
         <v>he did not put the full adress</v>
       </c>
-      <c r="L95" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M95" s="4">
-        <v>0</v>
-      </c>
-      <c r="N95" s="4" t="str">
+      <c r="L97" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4" t="str">
         <v>28,500</v>
-      </c>
-      <c r="O95" s="4" t="str">
-        <v>Nahrayn Market</v>
-      </c>
-      <c r="P95" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
-      </c>
-      <c r="Q95" s="4" t="str">
-        <v>IQ040501QQUU99</v>
-      </c>
-      <c r="R95" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S95" s="4" t="str">
-        <v>53500</v>
-      </c>
-      <c r="T95" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U95" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V95" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W95" s="4" t="str">
-        <v>86829967</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="str">
-        <v>2027447-21246412</v>
-      </c>
-      <c r="B96" s="4" t="str">
-        <v>مبننرمك</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
-      </c>
-      <c r="D96" s="5">
-        <v>46057.64231769676</v>
-      </c>
-      <c r="E96" s="5">
-        <v>46059.50030782408</v>
-      </c>
-      <c r="F96" s="4" t="str">
-        <v>9647813424564</v>
-      </c>
-      <c r="G96" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="H96" s="4" t="str">
-        <v>بابل</v>
-      </c>
-      <c r="I96" s="4" t="str">
-        <v>60,000</v>
-      </c>
-      <c r="J96" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L96" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4" t="str">
-        <v>28,500</v>
-      </c>
-      <c r="O96" s="4" t="str">
-        <v>Nahrayn Market</v>
-      </c>
-      <c r="P96" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
-      </c>
-      <c r="Q96" s="4" t="str">
-        <v>IQ040501QQUU99</v>
-      </c>
-      <c r="R96" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S96" s="4" t="str">
-        <v>53500</v>
-      </c>
-      <c r="T96" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W96" s="4" t="str">
-        <v>86824149</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="str">
-        <v>2027447-21246365</v>
-      </c>
-      <c r="B97" s="4" t="str">
-        <v>مبننرمك</v>
-      </c>
-      <c r="C97" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
-      </c>
-      <c r="D97" s="5">
-        <v>46057.64010853009</v>
-      </c>
-      <c r="E97" s="5">
-        <v>46059.50030708333</v>
-      </c>
-      <c r="F97" s="4" t="str">
-        <v>9647813424564</v>
-      </c>
-      <c r="G97" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="H97" s="4" t="str">
-        <v>بابل</v>
-      </c>
-      <c r="I97" s="4" t="str">
-        <v>66,500</v>
-      </c>
-      <c r="J97" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K97" s="4" t="str">
-        <v>wrong</v>
-      </c>
-      <c r="L97" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
-      <c r="N97" s="4" t="str">
-        <v>35,000</v>
       </c>
       <c r="O97" s="4" t="str">
         <v>Nahrayn Market</v>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="S97" s="4" t="str">
-        <v>60000</v>
+        <v>53500</v>
       </c>
       <c r="T97" s="4" t="str">
         <v>Cart</v>
@@ -7364,24 +7364,24 @@
         <v/>
       </c>
       <c r="W97" s="4" t="str">
-        <v>86824149</v>
+        <v>86829967</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>2027447-21246227</v>
+        <v>2027447-21246412</v>
       </c>
       <c r="B98" s="4" t="str">
         <v>مبننرمك</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D98" s="5">
-        <v>46057.635958113424</v>
+        <v>46057.64231769676</v>
       </c>
       <c r="E98" s="5">
-        <v>46059.50030634259</v>
+        <v>46059.50030782408</v>
       </c>
       <c r="F98" s="4" t="str">
         <v>9647813424564</v>
@@ -7393,28 +7393,28 @@
         <v>بابل</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>46,500</v>
+        <v>60,000</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K98" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L98" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
       </c>
       <c r="N98" s="4" t="str">
-        <v>15,000</v>
+        <v>28,500</v>
       </c>
       <c r="O98" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P98" s="4" t="str">
-        <v/>
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q98" s="4" t="str">
         <v>IQ040501QQUU99</v>
@@ -7423,311 +7423,453 @@
         <v>1</v>
       </c>
       <c r="S98" s="4" t="str">
+        <v>53500</v>
+      </c>
+      <c r="T98" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W98" s="4" t="str">
+        <v>86824149</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="str">
+        <v>2027447-21246365</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <v>مبننرمك</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D99" s="5">
+        <v>46057.64010853009</v>
+      </c>
+      <c r="E99" s="5">
+        <v>46059.50030708333</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <v>9647813424564</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <v>بابل</v>
+      </c>
+      <c r="I99" s="4" t="str">
+        <v>66,500</v>
+      </c>
+      <c r="J99" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L99" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4" t="str">
+        <v>35,000</v>
+      </c>
+      <c r="O99" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <v>IQ040501QQUU99</v>
+      </c>
+      <c r="R99" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S99" s="4" t="str">
+        <v>60000</v>
+      </c>
+      <c r="T99" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U99" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V99" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W99" s="4" t="str">
+        <v>86824149</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>2027447-21246227</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>مبننرمك</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D100" s="5">
+        <v>46057.635958113424</v>
+      </c>
+      <c r="E100" s="5">
+        <v>46059.50030634259</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v>9647813424564</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>بابل</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <v>46,500</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L100" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4" t="str">
+        <v>15,000</v>
+      </c>
+      <c r="O100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <v>IQ040501QQUU99</v>
+      </c>
+      <c r="R100" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S100" s="4" t="str">
         <v>40000</v>
       </c>
-      <c r="T98" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W98" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" s="4" t="str">
+      <c r="T100" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W100" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" s="4" t="str">
         <v>2027447-21246034</v>
       </c>
-      <c r="B99" s="4" t="str">
+      <c r="B101" s="4" t="str">
         <v>Esam</v>
       </c>
-      <c r="C99" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
-      </c>
-      <c r="D99" s="5">
+      <c r="C101" s="4" t="str">
+        <v>Return Verified</v>
+      </c>
+      <c r="D101" s="5">
         <v>46057.626599282405</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E101" s="5">
         <v>46062.309941099535</v>
       </c>
-      <c r="F99" s="4" t="str">
+      <c r="F101" s="4" t="str">
         <v>9647725555755</v>
       </c>
-      <c r="G99" s="4" t="str" xml:space="preserve">
+      <c r="G101" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">شارع فلسطين-مركز اريدو
 التوصيل السبت ضروري</v>
       </c>
-      <c r="H99" s="4" t="str">
+      <c r="H101" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I99" s="4" t="str">
+      <c r="I101" s="4" t="str">
         <v>39,000</v>
       </c>
-      <c r="J99" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K99" s="4" t="str">
+      <c r="J101" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K101" s="4" t="str">
         <v>get the right adress please</v>
       </c>
-      <c r="L99" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
-      <c r="N99" s="4" t="str">
+      <c r="L101" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4" t="str">
         <v>15,500</v>
       </c>
-      <c r="O99" s="4" t="str">
+      <c r="O101" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P99" s="4" t="str">
+      <c r="P101" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/n0QI</v>
       </c>
-      <c r="Q99" s="4" t="str">
+      <c r="Q101" s="4" t="str">
         <v>IQ030303KAWI99</v>
       </c>
-      <c r="R99" s="4" t="str">
+      <c r="R101" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S99" s="4" t="str">
+      <c r="S101" s="4" t="str">
         <v>32500</v>
       </c>
-      <c r="T99" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U99" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V99" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W99" s="4" t="str">
+      <c r="T101" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U101" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V101" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W101" s="4" t="str">
         <v>86825750</v>
       </c>
     </row>
-    <row r="100" xml:space="preserve">
-      <c r="A100" s="4" t="str">
+    <row r="102" xml:space="preserve">
+      <c r="A102" s="4" t="str">
         <v>2027447-21244299</v>
       </c>
-      <c r="B100" s="4" t="str">
+      <c r="B102" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C100" s="4" t="str">
-        <v>تم التوصيل</v>
-      </c>
-      <c r="D100" s="5">
+      <c r="C102" s="4" t="str">
+        <v>Delivered</v>
+      </c>
+      <c r="D102" s="5">
         <v>46057.555198912036</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E102" s="5">
         <v>46061.35337038194</v>
       </c>
-      <c r="F100" s="4" t="str">
+      <c r="F102" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G100" s="4" t="str" xml:space="preserve">
+      <c r="G102" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">خانقين القرب ن جادەیی تەرایی بۆ سایەقی بەشی کوردی )ئیدارەی گەرمیان)
  شارع 5</v>
       </c>
-      <c r="H100" s="4" t="str">
+      <c r="H102" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I100" s="4" t="str">
+      <c r="I102" s="4" t="str">
         <v>32,000</v>
       </c>
-      <c r="J100" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K100" s="4" t="str">
+      <c r="J102" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K102" s="4" t="str">
         <v>need to call him as soon as possible cuz we had an error</v>
       </c>
-      <c r="L100" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
-      <c r="N100" s="4" t="str">
+      <c r="L102" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4" t="str">
         <v>12,000</v>
       </c>
-      <c r="O100" s="4" t="str">
+      <c r="O102" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P100" s="4" t="str">
+      <c r="P102" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
-      <c r="Q100" s="4" t="str">
+      <c r="Q102" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R100" s="4" t="str">
+      <c r="R102" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S100" s="4" t="str">
+      <c r="S102" s="4" t="str">
         <v>25500</v>
       </c>
-      <c r="T100" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W100" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4" t="str">
+      <c r="T102" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W102" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="str">
         <v>2027447-21244055</v>
       </c>
-      <c r="B101" s="4" t="str">
+      <c r="B103" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C101" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="C103" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D103" s="5">
         <v>46057.548482673614</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E103" s="5">
         <v>46057.82699810185</v>
       </c>
-      <c r="F101" s="4" t="str">
+      <c r="F103" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <v>خانقين</v>
       </c>
-      <c r="H101" s="4" t="str">
+      <c r="H103" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I101" s="4" t="str">
+      <c r="I103" s="4" t="str">
         <v>38,500</v>
       </c>
-      <c r="J101" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K101" s="4" t="str">
+      <c r="J103" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K103" s="4" t="str">
         <v>مكرر</v>
       </c>
-      <c r="L101" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
-      <c r="N101" s="4" t="str">
+      <c r="L103" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4" t="str">
         <v>18,500</v>
       </c>
-      <c r="O101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q101" s="4" t="str">
+      <c r="O103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q103" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R101" s="4" t="str">
+      <c r="R103" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S101" s="4" t="str">
+      <c r="S103" s="4" t="str">
         <v>32000</v>
       </c>
-      <c r="T101" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W101" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102" xml:space="preserve">
-      <c r="A102" s="4" t="str">
+      <c r="T103" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W103" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" s="4" t="str">
         <v>2027447-20450839</v>
       </c>
-      <c r="B102" s="4" t="str">
+      <c r="B104" s="4" t="str">
         <v>Test</v>
       </c>
-      <c r="C102" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
-      </c>
-      <c r="D102" s="5">
+      <c r="C104" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D104" s="5">
         <v>46009.94421743056</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E104" s="5">
         <v>46015.49855150463</v>
       </c>
-      <c r="F102" s="4" t="str">
+      <c r="F104" s="4" t="str">
         <v>96466827981</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <v>test</v>
       </c>
-      <c r="H102" s="4" t="str">
+      <c r="H104" s="4" t="str">
         <v>unspecified</v>
       </c>
-      <c r="I102" s="4" t="str">
+      <c r="I104" s="4" t="str">
         <v>110,000</v>
       </c>
-      <c r="J102" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K102" s="4" t="str" xml:space="preserve">
+      <c r="J104" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K104" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">disconnected number  
 </v>
       </c>
-      <c r="L102" s="4" t="str">
-        <v>العراق</v>
-      </c>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
-      <c r="N102" s="4" t="str">
+      <c r="L104" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4" t="str">
         <v>30,500</v>
       </c>
-      <c r="O102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q102" s="4" t="str">
+      <c r="O104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q104" s="4" t="str">
         <v>IQ030401KADQ99</v>
       </c>
-      <c r="R102" s="4" t="str">
+      <c r="R104" s="4" t="str">
         <v>2</v>
       </c>
-      <c r="S102" s="4" t="str">
+      <c r="S104" s="4" t="str">
         <v>103500</v>
       </c>
-      <c r="T102" s="4" t="str">
+      <c r="T104" s="4" t="str">
         <v>LIGHTFUNNELS</v>
       </c>
-      <c r="U102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W102" s="4" t="str">
+      <c r="U104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W104" s="4" t="str">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W104"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/latest_daily_orders.xlsx
+++ b/data/latest_daily_orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="الطلبات" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W104"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,102 +479,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <v>ID</v>
+        <v>رقم الطلب</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>Customer Name</v>
+        <v>اسم المستلم</v>
       </c>
       <c r="C1" s="3" t="str">
-        <v>Status</v>
+        <v>الحالة</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>Created At</v>
+        <v>تاريخ الإنشاء</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>Updated At</v>
+        <v>اخر تحديث</v>
       </c>
       <c r="F1" s="3" t="str">
-        <v>Phone Number</v>
+        <v>رقم الهاتف</v>
       </c>
       <c r="G1" s="3" t="str">
-        <v>Street Name</v>
+        <v>اسم الشارع</v>
       </c>
       <c r="H1" s="3" t="str">
-        <v>Province</v>
+        <v>المحافظة</v>
       </c>
       <c r="I1" s="3" t="str">
         <v>orders.export.cashOnDelivery</v>
       </c>
       <c r="J1" s="3" t="str">
-        <v>Shipping Cost</v>
+        <v>تكلفة الشحن</v>
       </c>
       <c r="K1" s="3" t="str">
-        <v>Notes</v>
+        <v>ملاحظات</v>
       </c>
       <c r="L1" s="3" t="str">
-        <v>Country</v>
+        <v>الدولة</v>
       </c>
       <c r="M1" s="3" t="str">
-        <v>VAT Profit</v>
+        <v>ربح الضريبة</v>
       </c>
       <c r="N1" s="3" t="str">
-        <v>Order Profit</v>
+        <v>ربح الطلب</v>
       </c>
       <c r="O1" s="3" t="str">
-        <v>Page Name</v>
+        <v>اسم الصفحة</v>
       </c>
       <c r="P1" s="3" t="str">
-        <v>Page URL</v>
+        <v>رابط الصفحة</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <v>SKUs</v>
+        <v>المنتجات</v>
       </c>
       <c r="R1" s="3" t="str">
-        <v>Quantities</v>
+        <v>الكميات</v>
       </c>
       <c r="S1" s="3" t="str">
-        <v>Prices</v>
+        <v>الأسعار</v>
       </c>
       <c r="T1" s="3" t="str">
-        <v>Order Received By</v>
+        <v>الطلب المستلم بواسطة</v>
       </c>
       <c r="U1" s="3" t="str">
-        <v>National Address</v>
+        <v>العنوان الوطني</v>
       </c>
       <c r="V1" s="3" t="str">
-        <v>Source of the National Address</v>
+        <v>مصدر العنوان الوطني</v>
       </c>
       <c r="W1" s="3" t="str">
-        <v>Store Order ID</v>
+        <v>كود الطلب للمتجر</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>2027447-21377531</v>
+        <v>2027447-21394412</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>علي حسن</v>
+        <v>اية</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D2" s="5">
-        <v>46065.715770613424</v>
+        <v>46066.86900146991</v>
       </c>
       <c r="E2" s="5">
-        <v>46065.77863947917</v>
+        <v>46066.86906895833</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>9647721846101</v>
+        <v>9647714219716</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>السده الهنديه مقابيل بانزيخانه الميقات</v>
+        <v>الجادرية</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>بابل</v>
+        <v>بغداد</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>6,500</v>
@@ -583,28 +583,28 @@
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
       </c>
       <c r="N2" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O2" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P2" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R2" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S2" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T2" s="4" t="str">
         <v>Cart</v>
@@ -616,66 +616,66 @@
         <v/>
       </c>
       <c r="W2" s="4" t="str">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="str">
-        <v>2027447-21373338</v>
+        <v>2027447-21390045</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>عبدالكريم علي</v>
+        <v>مؤمن</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D3" s="5">
-        <v>46065.51994837963</v>
+        <v>46066.626790277776</v>
       </c>
       <c r="E3" s="5">
-        <v>46065.66440193287</v>
+        <v>46066.62679380787</v>
       </c>
       <c r="F3" s="4" t="str">
-        <v>9647747905790</v>
+        <v>9647826677984</v>
       </c>
       <c r="G3" s="4" t="str">
-        <v>منطقة المنصور سريع ابو غريب مقر السفارة  التونسيه ابغداد</v>
+        <v>العامرية</v>
       </c>
       <c r="H3" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I3" s="4" t="str">
-        <v>46,500</v>
+        <v>32,000</v>
       </c>
       <c r="J3" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K3" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L3" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
       </c>
       <c r="N3" s="4" t="str">
-        <v>12,000</v>
+        <v>13,000</v>
       </c>
       <c r="O3" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P3" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <v>IQ030401SSDD99, IQ030303HASH99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R3" s="4" t="str">
-        <v>1, 1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="str">
-        <v>32500, 7500</v>
+        <v>25500</v>
       </c>
       <c r="T3" s="4" t="str">
         <v>Cart</v>
@@ -687,30 +687,30 @@
         <v/>
       </c>
       <c r="W3" s="4" t="str">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>2027447-21372251</v>
+        <v>2027447-21390044</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>wwid</v>
+        <v>مؤمن</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D4" s="5">
-        <v>46065.46910805556</v>
+        <v>46066.62668688657</v>
       </c>
       <c r="E4" s="5">
-        <v>46065.550634548614</v>
+        <v>46066.86731883102</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>9647906268486</v>
+        <v>9647826677984</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>البنوك شارع المشاتل-بغداد</v>
+        <v>العامرية\ شارع العمل الشعبي \ بالقرب من صيدلية النوايا</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>بغداد</v>
@@ -725,7 +725,7 @@
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -758,66 +758,66 @@
         <v/>
       </c>
       <c r="W4" s="4" t="str">
-        <v>msg-2401</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="str">
-        <v>2027447-21368393</v>
+        <v>2027447-21388880</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>وحده</v>
+        <v>حيدر انور</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D5" s="5">
-        <v>46065.12183098379</v>
+        <v>46066.55861363426</v>
       </c>
       <c r="E5" s="5">
-        <v>46065.66440037037</v>
+        <v>46066.8673253125</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>9647812524349</v>
+        <v>9647780800019</v>
       </c>
       <c r="G5" s="4" t="str">
-        <v>هضلان بالقرب من جامع احمد الهرمى</v>
+        <v>جديدة الشط \مطعم ضفاف دجلة</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v>اربيل</v>
+        <v>ديالى</v>
       </c>
       <c r="I5" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J5" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K5" s="4" t="str">
-        <v>no region no adress call him to check</v>
+        <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O5" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P5" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R5" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S5" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T5" s="4" t="str">
         <v>Cart</v>
@@ -829,36 +829,36 @@
         <v/>
       </c>
       <c r="W5" s="4" t="str">
-        <v>87679026</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>2027447-21367384</v>
+        <v>2027447-21386758</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>علي رشدي</v>
+        <v>عباس</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Order Received</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D6" s="5">
-        <v>46065.016198032405</v>
+        <v>46066.43902012731</v>
       </c>
       <c r="E6" s="5">
-        <v>46065.47214049769</v>
+        <v>46066.86731376158</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>9647722503444</v>
+        <v>9647817457103</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>زيونة شارع ربيعيي فرع جامع القزازة</v>
+        <v>الكاظمية الطائيين</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>6,500</v>
@@ -867,28 +867,28 @@
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O6" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P6" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R6" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S6" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T6" s="4" t="str">
         <v>Cart</v>
@@ -900,36 +900,36 @@
         <v/>
       </c>
       <c r="W6" s="4" t="str">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="str">
-        <v>2027447-21367363</v>
+        <v>2027447-21386728</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>احمد</v>
+        <v>محمد مانع</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>تم تأكيد الطلب</v>
       </c>
       <c r="D7" s="5">
-        <v>46065.01485634259</v>
+        <v>46066.437072395835</v>
       </c>
       <c r="E7" s="5">
-        <v>46065.7344090625</v>
+        <v>46066.82623699074</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>9647700350777</v>
+        <v>9647807733869</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>بصره العباسيه شارع سيد حامد</v>
+        <v>كربلاء - شارع السناتر -</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>بصرة</v>
+        <v>كربلاء</v>
       </c>
       <c r="I7" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J7" s="4" t="str">
         <v>6,500</v>
@@ -938,28 +938,28 @@
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O7" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P7" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R7" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S7" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T7" s="4" t="str">
         <v>Cart</v>
@@ -971,36 +971,36 @@
         <v/>
       </c>
       <c r="W7" s="4" t="str">
-        <v>245</v>
+        <v>كربلاء</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>2027447-21360961</v>
+        <v>2027447-21382855</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>نجف</v>
+        <v>حسن</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Order Received</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D8" s="5">
-        <v>46064.66099334491</v>
+        <v>46066.03705931713</v>
       </c>
       <c r="E8" s="5">
-        <v>46065.23419055556</v>
+        <v>46066.78178171296</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>9647808785454</v>
+        <v>9647709605356</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>نجف</v>
+        <v>المنصور شارع الاميرات مقابل مطعم ست الشام-بغداد</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>نجف</v>
+        <v>بغداد</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>65,000</v>
+        <v>70,000</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>6,500</v>
@@ -1009,28 +1009,28 @@
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="str">
-        <v>13,500</v>
+        <v>21,500</v>
       </c>
       <c r="O8" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P8" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R8" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="4" t="str">
-        <v>58500</v>
+        <v>63500</v>
       </c>
       <c r="T8" s="4" t="str">
         <v>Cart</v>
@@ -1042,36 +1042,36 @@
         <v/>
       </c>
       <c r="W8" s="4" t="str">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="str">
-        <v>2027447-21360346</v>
+        <v>2027447-21382306</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>محمد جواد</v>
+        <v>Omar</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Delivered</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D9" s="5">
-        <v>46064.62876076389</v>
+        <v>46065.998907002315</v>
       </c>
       <c r="E9" s="5">
-        <v>46065.70527954861</v>
+        <v>46066.78176950231</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>9647802777778</v>
+        <v>9647501139018</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>سماوة-سماوة</v>
+        <v>اربيل-اربيل</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>سماوة</v>
+        <v>اربيل</v>
       </c>
       <c r="I9" s="4" t="str">
-        <v>32,000</v>
+        <v>57,500</v>
       </c>
       <c r="J9" s="4" t="str">
         <v>6,500</v>
@@ -1080,13 +1080,13 @@
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="str">
-        <v>13,000</v>
+        <v>26,000</v>
       </c>
       <c r="O9" s="4" t="str">
         <v>nahrayn market</v>
@@ -1098,10 +1098,10 @@
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R9" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="4" t="str">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="T9" s="4" t="str">
         <v>Cart</v>
@@ -1113,66 +1113,66 @@
         <v/>
       </c>
       <c r="W9" s="4" t="str">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>2027447-21359525</v>
+        <v>2027447-21382086</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>علي</v>
+        <v>Rabih</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D10" s="5">
-        <v>46064.58881206019</v>
+        <v>46065.984579930555</v>
       </c>
       <c r="E10" s="5">
-        <v>46064.58881556713</v>
+        <v>46066.475244409725</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647726631070</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>علي الحسينيه</v>
+        <v>Harthiyia</v>
       </c>
       <c r="H10" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>70,000</v>
+        <v>39,000</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K10" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="str">
-        <v>21,500</v>
+        <v>11,500</v>
       </c>
       <c r="O10" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P10" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q10" s="4" t="str">
         <v>IQ030401SSDD99</v>
       </c>
       <c r="R10" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4" t="str">
-        <v>63500</v>
+        <v>32500</v>
       </c>
       <c r="T10" s="4" t="str">
         <v>Cart</v>
@@ -1184,36 +1184,36 @@
         <v/>
       </c>
       <c r="W10" s="4" t="str">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="str">
-        <v>2027447-21359255</v>
+        <v>2027447-21377531</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>علي</v>
+        <v>علي حسن</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D11" s="5">
-        <v>46064.58344008102</v>
+        <v>46065.715770613424</v>
       </c>
       <c r="E11" s="5">
-        <v>46064.69687516204</v>
+        <v>46066.61177422454</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647721846101</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>الحسينيه</v>
+        <v>السده الهنديه مقابيل بانزيخانه الميقات</v>
       </c>
       <c r="H11" s="4" t="str">
-        <v>بغداد</v>
+        <v>بابل</v>
       </c>
       <c r="I11" s="4" t="str">
-        <v>70,000</v>
+        <v>65,000</v>
       </c>
       <c r="J11" s="4" t="str">
         <v>6,500</v>
@@ -1222,28 +1222,28 @@
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="str">
-        <v>21,500</v>
+        <v>13,500</v>
       </c>
       <c r="O11" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P11" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R11" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4" t="str">
-        <v>63500</v>
+        <v>58500</v>
       </c>
       <c r="T11" s="4" t="str">
         <v>Cart</v>
@@ -1255,36 +1255,36 @@
         <v/>
       </c>
       <c r="W11" s="4" t="str">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>2027447-21359093</v>
+        <v>2027447-21373338</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>غيث عبد الرسول</v>
+        <v>عبدالكريم علي</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D12" s="5">
-        <v>46064.57533837963</v>
+        <v>46065.51994837963</v>
       </c>
       <c r="E12" s="5">
-        <v>46065.10130761574</v>
+        <v>46066.51558378472</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>9647711439901</v>
+        <v>9647747905790</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>مجمع الامل- ملعب جزع النخله</v>
+        <v>منطقة المنصور سريع ابو غريب مقر السفارة  التونسيه ابغداد</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>65,000</v>
+        <v>46,500</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>6,500</v>
@@ -1293,28 +1293,28 @@
         <v/>
       </c>
       <c r="L12" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="str">
-        <v>13,500</v>
+        <v>12,000</v>
       </c>
       <c r="O12" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P12" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99, IQ030303HASH99</v>
       </c>
       <c r="R12" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S12" s="4" t="str">
-        <v>58500</v>
+        <v>32500, 7500</v>
       </c>
       <c r="T12" s="4" t="str">
         <v>Cart</v>
@@ -1326,36 +1326,36 @@
         <v/>
       </c>
       <c r="W12" s="4" t="str">
-        <v>2400</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="str">
-        <v>2027447-21359055</v>
+        <v>2027447-21372251</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>مؤمن طه حامد</v>
+        <v>wwid</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D13" s="5">
-        <v>46064.57294252315</v>
+        <v>46065.46910805556</v>
       </c>
       <c r="E13" s="5">
-        <v>46065.566038310186</v>
+        <v>46066.54371239583</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>9647816999991</v>
+        <v>9647906268486</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
+        <v>البنوك شارع المشاتل-بغداد</v>
       </c>
       <c r="H13" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I13" s="4" t="str">
-        <v>57,500</v>
+        <v>32,000</v>
       </c>
       <c r="J13" s="4" t="str">
         <v>6,500</v>
@@ -1364,13 +1364,13 @@
         <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="str">
-        <v>26,000</v>
+        <v>13,000</v>
       </c>
       <c r="O13" s="4" t="str">
         <v>nahrayn market</v>
@@ -1382,10 +1382,10 @@
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R13" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="4" t="str">
-        <v>51000</v>
+        <v>25500</v>
       </c>
       <c r="T13" s="4" t="str">
         <v>Cart</v>
@@ -1397,66 +1397,66 @@
         <v/>
       </c>
       <c r="W13" s="4" t="str">
-        <v>240</v>
+        <v>msg-2401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>2027447-21352983</v>
+        <v>2027447-21368393</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>مصطفى</v>
+        <v>وحده</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D14" s="5">
-        <v>46064.10276320602</v>
+        <v>46065.12183098379</v>
       </c>
       <c r="E14" s="5">
-        <v>46064.10276770833</v>
+        <v>46066.83723109954</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647812524349</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>تكريت</v>
+        <v>هضلان بالقرب من جامع احمد الهرمى</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>اربيل</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K14" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>no region no adress call him to check</v>
       </c>
       <c r="L14" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="str">
-        <v>13,000</v>
+        <v>11,500</v>
       </c>
       <c r="O14" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P14" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R14" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="4" t="str">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="T14" s="4" t="str">
         <v>Cart</v>
@@ -1468,66 +1468,66 @@
         <v/>
       </c>
       <c r="W14" s="4" t="str">
-        <v>239</v>
+        <v>87679026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="str">
-        <v>2027447-21352978</v>
+        <v>2027447-21367384</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>مصطفى</v>
+        <v>علي رشدي</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>في انتظار الشحن</v>
       </c>
       <c r="D15" s="5">
-        <v>46064.10185199074</v>
+        <v>46065.016198032405</v>
       </c>
       <c r="E15" s="5">
-        <v>46065.10208953704</v>
+        <v>46066.781926296295</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647722503444</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
+        <v>بغداد - زيونة شارع ربيعيي - فرع جامع القزازة</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بغداد</v>
       </c>
       <c r="I15" s="4" t="str">
-        <v>48,000</v>
+        <v>65,000</v>
       </c>
       <c r="J15" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K15" s="4" t="str">
-        <v>call him as soon as possible he ordered 1h ago</v>
+        <v/>
       </c>
       <c r="L15" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O15" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P15" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R15" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S15" s="4" t="str">
-        <v>25500, 16000</v>
+        <v>58500</v>
       </c>
       <c r="T15" s="4" t="str">
         <v>Cart</v>
@@ -1539,36 +1539,36 @@
         <v/>
       </c>
       <c r="W15" s="4" t="str">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>2027447-21352590</v>
+        <v>2027447-21367363</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>ختام</v>
+        <v>احمد</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D16" s="5">
-        <v>46064.05801408565</v>
+        <v>46065.01485634259</v>
       </c>
       <c r="E16" s="5">
-        <v>46065.56449606481</v>
+        <v>46066.24658387731</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>9647783317969</v>
+        <v>9647700350777</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
+        <v>بصره العباسيه شارع سيد حامد</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>39,000</v>
+        <v>65,000</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>6,500</v>
@@ -1577,28 +1577,28 @@
         <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="str">
-        <v>11,500</v>
+        <v>13,500</v>
       </c>
       <c r="O16" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P16" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R16" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S16" s="4" t="str">
-        <v>32500</v>
+        <v>58500</v>
       </c>
       <c r="T16" s="4" t="str">
         <v>Cart</v>
@@ -1610,33 +1610,33 @@
         <v/>
       </c>
       <c r="W16" s="4" t="str">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="str">
-        <v>2027447-21352063</v>
+        <v>2027447-21360961</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>بدر</v>
+        <v>نجف</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D17" s="5">
-        <v>46064.004486655096</v>
+        <v>46064.66099334491</v>
       </c>
       <c r="E17" s="5">
-        <v>46065.44639230324</v>
+        <v>46066.70486991898</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>9647709112266</v>
+        <v>9647808785454</v>
       </c>
       <c r="G17" s="4" t="str">
-        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
+        <v>نجف</v>
       </c>
       <c r="H17" s="4" t="str">
-        <v>بغداد</v>
+        <v>نجف</v>
       </c>
       <c r="I17" s="4" t="str">
         <v>65,000</v>
@@ -1645,10 +1645,10 @@
         <v>6,500</v>
       </c>
       <c r="K17" s="4" t="str">
-        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
+        <v/>
       </c>
       <c r="L17" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1681,33 +1681,33 @@
         <v/>
       </c>
       <c r="W17" s="4" t="str">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>2027447-21351848</v>
+        <v>2027447-21360346</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>محمد جواد</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Delivered</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D18" s="5">
-        <v>46063.98810440972</v>
+        <v>46064.62876076389</v>
       </c>
       <c r="E18" s="5">
-        <v>46065.591137222225</v>
+        <v>46065.70527954861</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647802777778</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>سيدية-بغداد</v>
+        <v>سماوة-سماوة</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I18" s="4" t="str">
         <v>32,000</v>
@@ -1716,10 +1716,10 @@
         <v>6,500</v>
       </c>
       <c r="K18" s="4" t="str">
-        <v>please call him for the right adress</v>
+        <v/>
       </c>
       <c r="L18" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>13,000</v>
       </c>
       <c r="O18" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P18" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q18" s="4" t="str">
         <v>IQ040107ALUY99</v>
@@ -1752,51 +1752,51 @@
         <v/>
       </c>
       <c r="W18" s="4" t="str">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="str">
-        <v>2027447-21351804</v>
+        <v>2027447-21359525</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>حمزة</v>
+        <v>علي</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D19" s="5">
-        <v>46063.98408190972</v>
+        <v>46064.58881206019</v>
       </c>
       <c r="E19" s="5">
-        <v>46064.549906238426</v>
+        <v>46064.58881556713</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647730200307</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>حي الصحفيين</v>
+        <v>علي الحسينيه</v>
       </c>
       <c r="H19" s="4" t="str">
-        <v>ميسان</v>
+        <v>بغداد</v>
       </c>
       <c r="I19" s="4" t="str">
-        <v>32,000</v>
+        <v>70,000</v>
       </c>
       <c r="J19" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K19" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L19" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4" t="str">
-        <v>13,000</v>
+        <v>21,500</v>
       </c>
       <c r="O19" s="4" t="str">
         <v>Nahrayn Market</v>
@@ -1805,13 +1805,13 @@
         <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R19" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4" t="str">
-        <v>25500</v>
+        <v>63500</v>
       </c>
       <c r="T19" s="4" t="str">
         <v>Cart</v>
@@ -1823,66 +1823,66 @@
         <v/>
       </c>
       <c r="W19" s="4" t="str">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>2027447-21351537</v>
+        <v>2027447-21359255</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>علي</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D20" s="5">
-        <v>46063.961482858795</v>
+        <v>46064.58344008102</v>
       </c>
       <c r="E20" s="5">
-        <v>46063.96148587963</v>
+        <v>46064.69687516204</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647730200307</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>سيدية</v>
+        <v>الحسينيه</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>32,000</v>
+        <v>70,000</v>
       </c>
       <c r="J20" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K20" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L20" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4" t="str">
-        <v>13,000</v>
+        <v>21,500</v>
       </c>
       <c r="O20" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P20" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R20" s="4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="4" t="str">
-        <v>25500</v>
+        <v>63500</v>
       </c>
       <c r="T20" s="4" t="str">
         <v>Cart</v>
@@ -1894,66 +1894,66 @@
         <v/>
       </c>
       <c r="W20" s="4" t="str">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="str">
-        <v>2027447-21351528</v>
+        <v>2027447-21359093</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>غيث عبد الرسول</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D21" s="5">
-        <v>46063.96038298611</v>
+        <v>46064.57533837963</v>
       </c>
       <c r="E21" s="5">
-        <v>46064.012010162034</v>
+        <v>46066.756809398146</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647711439901</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>بغداد</v>
+        <v>مجمع الامل- ملعب جزع النخله</v>
       </c>
       <c r="H21" s="4" t="str">
-        <v>سماوة</v>
+        <v>بصرة</v>
       </c>
       <c r="I21" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J21" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K21" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L21" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O21" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P21" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R21" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S21" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T21" s="4" t="str">
         <v>Cart</v>
@@ -1965,66 +1965,66 @@
         <v/>
       </c>
       <c r="W21" s="4" t="str">
-        <v>87530121</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>2027447-21351475</v>
+        <v>2027447-21359055</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>حمزة</v>
+        <v>مؤمن طه حامد</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D22" s="5">
-        <v>46063.95675210648</v>
+        <v>46064.57294252315</v>
       </c>
       <c r="E22" s="5">
-        <v>46063.98080037037</v>
+        <v>46066.64678613426</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647816999991</v>
       </c>
       <c r="G22" s="4" t="str">
+        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="H22" s="4" t="str">
-        <v>ديالى</v>
-      </c>
       <c r="I22" s="4" t="str">
-        <v>32,000</v>
+        <v>57,500</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K22" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L22" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4" t="str">
-        <v>13,000</v>
+        <v>26,000</v>
       </c>
       <c r="O22" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P22" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q22" s="4" t="str">
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R22" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="4" t="str">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="T22" s="4" t="str">
         <v>Cart</v>
@@ -2036,66 +2036,66 @@
         <v/>
       </c>
       <c r="W22" s="4" t="str">
-        <v>87541683</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="str">
-        <v>2027447-21351392</v>
+        <v>2027447-21352983</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>حسين</v>
+        <v>مصطفى</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D23" s="5">
-        <v>46063.95060015046</v>
+        <v>46064.10276320602</v>
       </c>
       <c r="E23" s="5">
-        <v>46064.75670608797</v>
+        <v>46064.10276770833</v>
       </c>
       <c r="F23" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647752356021</v>
       </c>
       <c r="G23" s="4" t="str">
-        <v>iraq</v>
+        <v>تكريت</v>
       </c>
       <c r="H23" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I23" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J23" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K23" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L23" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
       <c r="N23" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O23" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P23" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R23" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T23" s="4" t="str">
         <v>Cart</v>
@@ -2107,66 +2107,66 @@
         <v/>
       </c>
       <c r="W23" s="4" t="str">
-        <v>#87532943</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>2027447-21351368</v>
+        <v>2027447-21352978</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>حسين</v>
+        <v>مصطفى</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D24" s="5">
-        <v>46063.948616712965</v>
+        <v>46064.10185199074</v>
       </c>
       <c r="E24" s="5">
-        <v>46063.9631065625</v>
+        <v>46065.808910381944</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647752356021</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>iraq</v>
+        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
       </c>
       <c r="H24" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>54,500</v>
+        <v>48,000</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K24" s="4" t="str">
-        <v>wrong</v>
+        <v>call him as soon as possible he ordered 1h ago</v>
       </c>
       <c r="L24" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
       </c>
       <c r="N24" s="4" t="str">
-        <v>3,000</v>
+        <v>13,000</v>
       </c>
       <c r="O24" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P24" s="4" t="str">
-        <v/>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
       </c>
       <c r="R24" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S24" s="4" t="str">
-        <v>48000</v>
+        <v>25500, 16000</v>
       </c>
       <c r="T24" s="4" t="str">
         <v>Cart</v>
@@ -2178,36 +2178,36 @@
         <v/>
       </c>
       <c r="W24" s="4" t="str">
-        <v/>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="str">
-        <v>2027447-21349907</v>
+        <v>2027447-21352590</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>علاء</v>
+        <v>ختام</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D25" s="5">
-        <v>46063.849569907405</v>
+        <v>46064.05801408565</v>
       </c>
       <c r="E25" s="5">
-        <v>46064.7135206713</v>
+        <v>46066.63522162037</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>9647728868298</v>
+        <v>9647783317969</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>علاء</v>
+        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
       </c>
       <c r="H25" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I25" s="4" t="str">
-        <v>65,000</v>
+        <v>39,000</v>
       </c>
       <c r="J25" s="4" t="str">
         <v>6,500</v>
@@ -2216,28 +2216,28 @@
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
       </c>
       <c r="N25" s="4" t="str">
-        <v>13,500</v>
+        <v>11,500</v>
       </c>
       <c r="O25" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P25" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R25" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S25" s="4" t="str">
-        <v>58500</v>
+        <v>32500</v>
       </c>
       <c r="T25" s="4" t="str">
         <v>Cart</v>
@@ -2249,66 +2249,66 @@
         <v/>
       </c>
       <c r="W25" s="4" t="str">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>2027447-21349803</v>
+        <v>2027447-21352063</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>أدور</v>
+        <v>بدر</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D26" s="5">
-        <v>46063.84274976852</v>
+        <v>46064.004486655096</v>
       </c>
       <c r="E26" s="5">
-        <v>46065.43578334491</v>
+        <v>46066.624375416664</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>9647760033306</v>
+        <v>9647709112266</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
+        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
       </c>
       <c r="H26" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K26" s="4" t="str">
-        <v>please call him he orderded 1h ago</v>
+        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
       </c>
       <c r="L26" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O26" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P26" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R26" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S26" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T26" s="4" t="str">
         <v>Cart</v>
@@ -2320,66 +2320,66 @@
         <v/>
       </c>
       <c r="W26" s="4" t="str">
-        <v xml:space="preserve"> #87523524</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="str">
-        <v>2027447-21348136</v>
+        <v>2027447-21351848</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>رامي</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D27" s="5">
-        <v>46063.74508501157</v>
+        <v>46063.98810440972</v>
       </c>
       <c r="E27" s="5">
-        <v>46065.54907383102</v>
+        <v>46065.591137222225</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>9647713910265</v>
+        <v>9647737249887</v>
       </c>
       <c r="G27" s="4" t="str">
-        <v>شهداء البياع بشارع المضخه ثاني</v>
+        <v>سيدية-بغداد</v>
       </c>
       <c r="H27" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I27" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J27" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K27" s="4" t="str">
-        <v/>
+        <v>please call him for the right adress</v>
       </c>
       <c r="L27" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
       </c>
       <c r="N27" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O27" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P27" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R27" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S27" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T27" s="4" t="str">
         <v>Cart</v>
@@ -2391,36 +2391,36 @@
         <v/>
       </c>
       <c r="W27" s="4" t="str">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>2027447-21346745</v>
+        <v>2027447-21351804</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Lizan ahmed</v>
+        <v>حمزة</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Delivered</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D28" s="5">
-        <v>46063.669380127314</v>
+        <v>46063.98408190972</v>
       </c>
       <c r="E28" s="5">
-        <v>46065.49400057871</v>
+        <v>46064.549906238426</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>9647705434750</v>
+        <v>9647711120937</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>Pak city /A9/9/38</v>
+        <v>حي الصحفيين</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>سليمانية</v>
+        <v>ميسان</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>6,500</v>
@@ -2429,28 +2429,28 @@
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
       </c>
       <c r="N28" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O28" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P28" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R28" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S28" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T28" s="4" t="str">
         <v>Cart</v>
@@ -2462,30 +2462,30 @@
         <v/>
       </c>
       <c r="W28" s="4" t="str">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="str">
-        <v>2027447-21346653</v>
+        <v>2027447-21351537</v>
       </c>
       <c r="B29" s="4" t="str">
-        <v>فرح</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C29" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D29" s="5">
-        <v>46063.66798331019</v>
+        <v>46063.961482858795</v>
       </c>
       <c r="E29" s="5">
-        <v>46063.66799663194</v>
+        <v>46063.96148587963</v>
       </c>
       <c r="F29" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647737249887</v>
       </c>
       <c r="G29" s="4" t="str">
-        <v>بغداد</v>
+        <v>سيدية</v>
       </c>
       <c r="H29" s="4" t="str">
         <v>بغداد</v>
@@ -2500,7 +2500,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L29" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -2533,57 +2533,57 @@
         <v/>
       </c>
       <c r="W29" s="4" t="str">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>2027447-21346649</v>
+        <v>2027447-21351528</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>فرح</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D30" s="5">
-        <v>46063.667939756946</v>
+        <v>46063.96038298611</v>
       </c>
       <c r="E30" s="5">
-        <v>46065.40132127315</v>
+        <v>46064.012010162034</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647737249887</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>بغداد زيونه قرب كوفى نايت</v>
+        <v>بغداد</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>29,000</v>
+        <v>32,000</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K30" s="4" t="str">
-        <v/>
+        <v>wrong</v>
       </c>
       <c r="L30" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M30" s="4">
         <v>0</v>
       </c>
       <c r="N30" s="4" t="str">
-        <v>10,000</v>
+        <v>13,000</v>
       </c>
       <c r="O30" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P30" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q30" s="4" t="str">
         <v>IQ040107ALUY99</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="4" t="str">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="T30" s="4" t="str">
         <v>Cart</v>
@@ -2604,920 +2604,920 @@
         <v/>
       </c>
       <c r="W30" s="4" t="str">
-        <v>230</v>
+        <v>87530121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="str">
+        <v>2027447-21351475</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <v>حمزة</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D31" s="5">
+        <v>46063.95675210648</v>
+      </c>
+      <c r="E31" s="5">
+        <v>46063.98080037037</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <v>9647711120937</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <v>ديالى</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="str">
+        <v>13,000</v>
+      </c>
+      <c r="O31" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R31" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T31" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U31" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V31" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W31" s="4" t="str">
+        <v>87541683</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <v>2027447-21351392</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v>حسين</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D32" s="5">
+        <v>46063.95060015046</v>
+      </c>
+      <c r="E32" s="5">
+        <v>46064.75670608797</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <v>9647817913219</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <v>iraq</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <v>65,000</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L32" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <v>13,500</v>
+      </c>
+      <c r="O32" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net</v>
+      </c>
+      <c r="Q32" s="4" t="str">
+        <v>IQ010106MAGG99</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4" t="str">
+        <v>58500</v>
+      </c>
+      <c r="T32" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V32" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W32" s="4" t="str">
+        <v>#87532943</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="str">
+        <v>2027447-21351368</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <v>حسين</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D33" s="5">
+        <v>46063.948616712965</v>
+      </c>
+      <c r="E33" s="5">
+        <v>46063.9631065625</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <v>9647817913219</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <v>iraq</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <v>54,500</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="O33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <v>IQ010106MAGG99</v>
+      </c>
+      <c r="R33" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4" t="str">
+        <v>48000</v>
+      </c>
+      <c r="T33" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W33" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <v>2027447-21349907</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>علاء</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D34" s="5">
+        <v>46063.849569907405</v>
+      </c>
+      <c r="E34" s="5">
+        <v>46064.7135206713</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <v>9647728868298</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <v>علاء</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <v>65,000</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L34" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="str">
+        <v>13,500</v>
+      </c>
+      <c r="O34" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net</v>
+      </c>
+      <c r="Q34" s="4" t="str">
+        <v>IQ010106MAGG99</v>
+      </c>
+      <c r="R34" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="str">
+        <v>58500</v>
+      </c>
+      <c r="T34" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V34" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W34" s="4" t="str">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="str">
+        <v>2027447-21349803</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <v>أدور</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <v>قيد التوصيل</v>
+      </c>
+      <c r="D35" s="5">
+        <v>46063.84274976852</v>
+      </c>
+      <c r="E35" s="5">
+        <v>46066.542849895835</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <v>9647760033306</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J35" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K35" s="4" t="str">
+        <v>please call him he orderded 1h ago</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="str">
+        <v>13,000</v>
+      </c>
+      <c r="O35" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net</v>
+      </c>
+      <c r="Q35" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R35" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T35" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U35" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V35" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W35" s="4" t="str">
+        <v xml:space="preserve"> #87523524</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>2027447-21348136</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>رامي</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>قيد التوصيل</v>
+      </c>
+      <c r="D36" s="5">
+        <v>46063.74508501157</v>
+      </c>
+      <c r="E36" s="5">
+        <v>46066.422230474534</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <v>9647713910265</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <v>شهداء البياع بشارع المضخه ثاني</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <v>39,000</v>
+      </c>
+      <c r="J36" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K36" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L36" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="str">
+        <v>11,500</v>
+      </c>
+      <c r="O36" s="4" t="str">
+        <v>nahrayh market</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
+      </c>
+      <c r="Q36" s="4" t="str">
+        <v>IQ030401SSDD99</v>
+      </c>
+      <c r="R36" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4" t="str">
+        <v>32500</v>
+      </c>
+      <c r="T36" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U36" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V36" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W36" s="4" t="str">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="str">
+        <v>2027447-21346745</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <v>Lizan ahmed</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D37" s="5">
+        <v>46063.669380127314</v>
+      </c>
+      <c r="E37" s="5">
+        <v>46065.49400057871</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <v>9647705434750</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <v>Pak city /A9/9/38</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <v>سليمانية</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <v>39,000</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L37" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="str">
+        <v>11,500</v>
+      </c>
+      <c r="O37" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
+      </c>
+      <c r="Q37" s="4" t="str">
+        <v>IQ030401SSDD99</v>
+      </c>
+      <c r="R37" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4" t="str">
+        <v>32500</v>
+      </c>
+      <c r="T37" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W37" s="4" t="str">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>2027447-21346653</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>فرح</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D38" s="5">
+        <v>46063.66798331019</v>
+      </c>
+      <c r="E38" s="5">
+        <v>46063.66799663194</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <v>9647719047222</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H38" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <v>هذا الطلب مكرر</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="str">
+        <v>13,000</v>
+      </c>
+      <c r="O38" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P38" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q38" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R38" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T38" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V38" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W38" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <v>2027447-21346649</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <v>فرح</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <v>قيد التوصيل</v>
+      </c>
+      <c r="D39" s="5">
+        <v>46063.667939756946</v>
+      </c>
+      <c r="E39" s="5">
+        <v>46066.61694758102</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <v>9647719047222</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <v>بغداد زيونه قرب كوفى نايت</v>
+      </c>
+      <c r="H39" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <v>29,000</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L39" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="O39" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P39" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q39" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R39" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4" t="str">
+        <v>22500</v>
+      </c>
+      <c r="T39" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U39" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V39" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W39" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
         <v>2027447-21343324</v>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B40" s="4" t="str">
         <v>Ako</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <v>Cancelled by You</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C40" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D40" s="5">
         <v>46063.50018960648</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E40" s="5">
         <v>46063.500192824074</v>
       </c>
-      <c r="F31" s="4" t="str">
+      <c r="F40" s="4" t="str">
         <v>9647701532528</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="G40" s="4" t="str">
         <v>قضاء جم جمال</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H40" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I31" s="4" t="str">
+      <c r="I40" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J31" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K31" s="4" t="str">
+      <c r="J40" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K40" s="4" t="str">
         <v>هذا الطلب مكرر</v>
       </c>
-      <c r="L31" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4" t="str">
+      <c r="L40" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O31" s="4" t="str">
+      <c r="O40" s="4" t="str">
         <v>nahrayn market</v>
       </c>
-      <c r="P31" s="4" t="str">
+      <c r="P40" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q31" s="4" t="str">
+      <c r="Q40" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R31" s="4" t="str">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4" t="str">
+      <c r="R40" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T31" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U31" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V31" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W31" s="4" t="str">
+      <c r="T40" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W40" s="4" t="str">
         <v>87480859</v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" s="4" t="str">
+    <row r="41" xml:space="preserve">
+      <c r="A41" s="4" t="str">
         <v>2027447-21343221</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B41" s="4" t="str">
         <v>A Talabany</v>
       </c>
-      <c r="C32" s="4" t="str">
-        <v>Delivery in Progress</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C41" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D41" s="5">
         <v>46063.494396145834</v>
       </c>
-      <c r="E32" s="5">
-        <v>46065.45111282408</v>
-      </c>
-      <c r="F32" s="4" t="str">
+      <c r="E41" s="5">
+        <v>46065.93797206019</v>
+      </c>
+      <c r="F41" s="4" t="str">
         <v>9647701532528</v>
       </c>
-      <c r="G32" s="4" t="str" xml:space="preserve">
+      <c r="G41" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">مخافظه سليمانيه / قضاء جم جمال
 عماره رامان طبيه</v>
       </c>
-      <c r="H32" s="4" t="str">
+      <c r="H41" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I32" s="4" t="str">
+      <c r="I41" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J32" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K32" s="4" t="str">
+      <c r="J41" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K41" s="4" t="str">
         <v>call him asap he ordered 40 min ago</v>
       </c>
-      <c r="L32" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4" t="str">
+      <c r="L41" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O32" s="4" t="str">
+      <c r="O41" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P32" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q32" s="4" t="str">
+      <c r="P41" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q41" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R32" s="4" t="str">
+      <c r="R41" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S32" s="4" t="str">
+      <c r="S41" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T32" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U32" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V32" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W32" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="str">
+      <c r="T41" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U41" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V41" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W41" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
         <v>2027447-21341150</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B42" s="4" t="str">
         <v>حيدر</v>
       </c>
-      <c r="C33" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C42" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D42" s="5">
         <v>46063.363034456015</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E42" s="5">
         <v>46064.83919556713</v>
       </c>
-      <c r="F33" s="4" t="str">
+      <c r="F42" s="4" t="str">
         <v>9647723832426</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="G42" s="4" t="str">
         <v>الزبير الرشيدية الاولى  بصره قرب جامع الرشيديه</v>
       </c>
-      <c r="H33" s="4" t="str">
+      <c r="H42" s="4" t="str">
         <v>بصرة</v>
       </c>
-      <c r="I33" s="4" t="str">
+      <c r="I42" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J33" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L33" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4" t="str">
+      <c r="J42" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L42" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O33" s="4" t="str">
+      <c r="O42" s="4" t="str">
         <v>Nahrayn market</v>
       </c>
-      <c r="P33" s="4" t="str">
+      <c r="P42" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q33" s="4" t="str">
+      <c r="Q42" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R33" s="4" t="str">
+      <c r="R42" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S33" s="4" t="str">
+      <c r="S42" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T33" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V33" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W33" s="4" t="str">
+      <c r="T42" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W42" s="4" t="str">
         <v>229</v>
       </c>
     </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" s="4" t="str">
+    <row r="43" xml:space="preserve">
+      <c r="A43" s="4" t="str">
         <v>2027447-21341133</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B43" s="4" t="str">
         <v>وسام</v>
       </c>
-      <c r="C34" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C43" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D43" s="5">
         <v>46063.36197258102</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E43" s="5">
         <v>46065.39993710648</v>
       </c>
-      <c r="F34" s="4" t="str">
+      <c r="F43" s="4" t="str">
         <v>9647703099082</v>
       </c>
-      <c r="G34" s="4" t="str" xml:space="preserve">
+      <c r="G43" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">وسام هاشم جاسم
 بغداد البياع شارع 20-بغداد</v>
       </c>
-      <c r="H34" s="4" t="str">
+      <c r="H43" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I34" s="4" t="str">
+      <c r="I43" s="4" t="str">
         <v>117,000</v>
       </c>
-      <c r="J34" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K34" s="4" t="str">
+      <c r="J43" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K43" s="4" t="str">
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4" t="str">
+      <c r="L43" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4" t="str">
         <v>20,500</v>
       </c>
-      <c r="O34" s="4" t="str">
+      <c r="O43" s="4" t="str">
         <v>nahrayn market</v>
       </c>
-      <c r="P34" s="4" t="str">
+      <c r="P43" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="Q34" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R34" s="4" t="str">
-        <v>2</v>
-      </c>
-      <c r="S34" s="4" t="str">
-        <v>110500</v>
-      </c>
-      <c r="T34" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U34" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V34" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W34" s="4" t="str">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="str">
-        <v>2027447-21336464</v>
-      </c>
-      <c r="B35" s="4" t="str">
-        <v>سيفر سردار</v>
-      </c>
-      <c r="C35" s="4" t="str">
-        <v>Order Received</v>
-      </c>
-      <c r="D35" s="5">
-        <v>46062.94732335648</v>
-      </c>
-      <c r="E35" s="5">
-        <v>46065.55962478009</v>
-      </c>
-      <c r="F35" s="4" t="str">
-        <v>9647504451352</v>
-      </c>
-      <c r="G35" s="4" t="str">
-        <v>اربيل اسكان تاورز</v>
-      </c>
-      <c r="H35" s="4" t="str">
-        <v>اربيل</v>
-      </c>
-      <c r="I35" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J35" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K35" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L35" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O35" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="P35" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q35" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R35" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S35" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T35" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U35" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V35" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W35" s="4" t="str">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="str">
-        <v>2027447-21333532</v>
-      </c>
-      <c r="B36" s="4" t="str">
-        <v>Saja</v>
-      </c>
-      <c r="C36" s="4" t="str">
-        <v>Order Received</v>
-      </c>
-      <c r="D36" s="5">
-        <v>46062.79384813657</v>
-      </c>
-      <c r="E36" s="5">
-        <v>46064.657996828704</v>
-      </c>
-      <c r="F36" s="4" t="str">
-        <v>9647735278208</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <v>الصويره</v>
-      </c>
-      <c r="H36" s="4" t="str">
-        <v>كوت</v>
-      </c>
-      <c r="I36" s="4" t="str">
-        <v>34,000</v>
-      </c>
-      <c r="J36" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K36" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L36" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="O36" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P36" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
-      </c>
-      <c r="Q36" s="4" t="str">
-        <v>IQ030401SSDD99</v>
-      </c>
-      <c r="R36" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S36" s="4" t="str">
-        <v>27500</v>
-      </c>
-      <c r="T36" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U36" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V36" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W36" s="4" t="str">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="str">
-        <v>2027447-21333501</v>
-      </c>
-      <c r="B37" s="4" t="str">
-        <v>عباس</v>
-      </c>
-      <c r="C37" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D37" s="5">
-        <v>46062.79220025463</v>
-      </c>
-      <c r="E37" s="5">
-        <v>46064.83918578704</v>
-      </c>
-      <c r="F37" s="4" t="str">
-        <v>9647709009992</v>
-      </c>
-      <c r="G37" s="4" t="str">
-        <v>الجمعيات حي الخليج-بصرة</v>
-      </c>
-      <c r="H37" s="4" t="str">
-        <v>بصرة</v>
-      </c>
-      <c r="I37" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J37" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K37" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L37" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O37" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P37" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="Q37" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R37" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S37" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T37" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U37" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V37" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W37" s="4" t="str">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="str">
-        <v>2027447-21330420</v>
-      </c>
-      <c r="B38" s="4" t="str">
-        <v>برهيم علي سجاد</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D38" s="5">
-        <v>46062.64360072916</v>
-      </c>
-      <c r="E38" s="5">
-        <v>46062.777227673614</v>
-      </c>
-      <c r="F38" s="4" t="str">
-        <v>9647865144993</v>
-      </c>
-      <c r="G38" s="4" t="str">
-        <v>baghdad</v>
-      </c>
-      <c r="H38" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="I38" s="4" t="str">
-        <v>42,000</v>
-      </c>
-      <c r="J38" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K38" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L38" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O38" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P38" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
-      </c>
-      <c r="Q38" s="4" t="str">
-        <v>IQ050105DAWI99</v>
-      </c>
-      <c r="R38" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S38" s="4" t="str">
-        <v>35500</v>
-      </c>
-      <c r="T38" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U38" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V38" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W38" s="4" t="str">
-        <v>87373913</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="str">
-        <v>2027447-21330386</v>
-      </c>
-      <c r="B39" s="4" t="str">
-        <v>علي جبار</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D39" s="5">
-        <v>46062.64234420139</v>
-      </c>
-      <c r="E39" s="5">
-        <v>46063.45347559028</v>
-      </c>
-      <c r="F39" s="4" t="str">
-        <v>9647721584481</v>
-      </c>
-      <c r="G39" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="H39" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="I39" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J39" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K39" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L39" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O39" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P39" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="Q39" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R39" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S39" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T39" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U39" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V39" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W39" s="4" t="str">
-        <v>87370182</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="str">
-        <v>2027447-21329162</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <v>اسيل</v>
-      </c>
-      <c r="C40" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D40" s="5">
-        <v>46062.5843108912</v>
-      </c>
-      <c r="E40" s="5">
-        <v>46063.708111203705</v>
-      </c>
-      <c r="F40" s="4" t="str">
-        <v>9647746308618</v>
-      </c>
-      <c r="G40" s="4" t="str">
-        <v>بصرة</v>
-      </c>
-      <c r="H40" s="4" t="str">
-        <v>بصرة</v>
-      </c>
-      <c r="I40" s="4" t="str">
-        <v>42,000</v>
-      </c>
-      <c r="J40" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K40" s="4" t="str">
-        <v>discount number</v>
-      </c>
-      <c r="L40" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O40" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P40" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
-      </c>
-      <c r="Q40" s="4" t="str">
-        <v>IQ050105DAWI99</v>
-      </c>
-      <c r="R40" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4" t="str">
-        <v>35500</v>
-      </c>
-      <c r="T40" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U40" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V40" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W40" s="4" t="str">
-        <v>87381291</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="str">
-        <v>2027447-21328284</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <v>فهد</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <v>Delivery in Progress</v>
-      </c>
-      <c r="D41" s="5">
-        <v>46062.54285048611</v>
-      </c>
-      <c r="E41" s="5">
-        <v>46065.759022592596</v>
-      </c>
-      <c r="F41" s="4" t="str">
-        <v>9647783312740</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <v>بغداد دوره طياره</v>
-      </c>
-      <c r="H41" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="I41" s="4" t="str">
-        <v>42,000</v>
-      </c>
-      <c r="J41" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K41" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L41" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O41" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P41" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
-      </c>
-      <c r="Q41" s="4" t="str">
-        <v>IQ050105DAWI99</v>
-      </c>
-      <c r="R41" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S41" s="4" t="str">
-        <v>35500</v>
-      </c>
-      <c r="T41" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U41" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V41" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W41" s="4" t="str">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="str">
-        <v>2027447-21327273</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <v>Samer sabah</v>
-      </c>
-      <c r="C42" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D42" s="5">
-        <v>46062.50750659722</v>
-      </c>
-      <c r="E42" s="5">
-        <v>46064.36667028935</v>
-      </c>
-      <c r="F42" s="4" t="str">
-        <v>9647717776640</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
-      </c>
-      <c r="H42" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="I42" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J42" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L42" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q42" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R42" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S42" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T42" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
-      </c>
-      <c r="U42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V42" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W42" s="4" t="str">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="str">
-        <v>2027447-21325993</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <v>Mohammed I</v>
-      </c>
-      <c r="C43" s="4" t="str">
-        <v>Cancelled by You</v>
-      </c>
-      <c r="D43" s="5">
-        <v>46062.45230179398</v>
-      </c>
-      <c r="E43" s="5">
-        <v>46062.452304618055</v>
-      </c>
-      <c r="F43" s="4" t="str">
-        <v>9647809592002</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
-      </c>
-      <c r="H43" s="4" t="str">
-        <v>بصرة</v>
-      </c>
-      <c r="I43" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J43" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K43" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
-      </c>
-      <c r="L43" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O43" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P43" s="4" t="str">
-        <v/>
       </c>
       <c r="Q43" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R43" s="4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" s="4" t="str">
-        <v>58500</v>
+        <v>110500</v>
       </c>
       <c r="T43" s="4" t="str">
         <v>Cart</v>
@@ -3529,54 +3529,54 @@
         <v/>
       </c>
       <c r="W43" s="4" t="str">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>2027447-21325937</v>
+        <v>2027447-21336464</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>سيفر سردار</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D44" s="5">
-        <v>46062.451287627315</v>
+        <v>46062.94732335648</v>
       </c>
       <c r="E44" s="5">
-        <v>46062.451578912034</v>
+        <v>46066.421548356484</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647504451352</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>اربيل اسكان تاورز</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>54,500</v>
+        <v>65,000</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K44" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
       </c>
       <c r="N44" s="4" t="str">
-        <v>3,000</v>
+        <v>13,500</v>
       </c>
       <c r="O44" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="P44" s="4" t="str">
         <v/>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="4" t="str">
-        <v>48000</v>
+        <v>58500</v>
       </c>
       <c r="T44" s="4" t="str">
         <v>Cart</v>
@@ -3600,66 +3600,66 @@
         <v/>
       </c>
       <c r="W44" s="4" t="str">
-        <v/>
+        <v>227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="str">
-        <v>2027447-21325418</v>
+        <v>2027447-21333532</v>
       </c>
       <c r="B45" s="4" t="str">
-        <v>Mohammed abdulzahra</v>
+        <v>Saja</v>
       </c>
       <c r="C45" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D45" s="5">
-        <v>46062.42305118056</v>
+        <v>46062.79384813657</v>
       </c>
       <c r="E45" s="5">
-        <v>46062.42305415509</v>
+        <v>46064.657996828704</v>
       </c>
       <c r="F45" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647735278208</v>
       </c>
       <c r="G45" s="4" t="str">
-        <v>بصرة</v>
+        <v>الصويره</v>
       </c>
       <c r="H45" s="4" t="str">
-        <v>بصرة</v>
+        <v>كوت</v>
       </c>
       <c r="I45" s="4" t="str">
-        <v>65,000</v>
+        <v>34,000</v>
       </c>
       <c r="J45" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K45" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
       </c>
       <c r="N45" s="4" t="str">
-        <v>13,500</v>
+        <v>6,500</v>
       </c>
       <c r="O45" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P45" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R45" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="4" t="str">
-        <v>58500</v>
+        <v>27500</v>
       </c>
       <c r="T45" s="4" t="str">
         <v>Cart</v>
@@ -3671,30 +3671,30 @@
         <v/>
       </c>
       <c r="W45" s="4" t="str">
-        <v>87363123</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>2027447-21325289</v>
+        <v>2027447-21333501</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>عباس</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D46" s="5">
-        <v>46062.413627974536</v>
+        <v>46062.79220025463</v>
       </c>
       <c r="E46" s="5">
-        <v>46062.413631469906</v>
+        <v>46064.83918578704</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647709009992</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>الجمعيات حي الخليج-بصرة</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>بصرة</v>
@@ -3706,10 +3706,10 @@
         <v>6,500</v>
       </c>
       <c r="K46" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>13,500</v>
       </c>
       <c r="O46" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P46" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
@@ -3727,7 +3727,7 @@
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R46" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="4" t="str">
         <v>58500</v>
@@ -3742,36 +3742,36 @@
         <v/>
       </c>
       <c r="W46" s="4" t="str">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="str">
-        <v>2027447-21325245</v>
+        <v>2027447-21330420</v>
       </c>
       <c r="B47" s="4" t="str">
-        <v>Mohammed abdulzahra</v>
+        <v>برهيم علي سجاد</v>
       </c>
       <c r="C47" s="4" t="str">
-        <v>Delivered</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D47" s="5">
-        <v>46062.41033025463</v>
+        <v>46062.64360072916</v>
       </c>
       <c r="E47" s="5">
-        <v>46065.43456450231</v>
+        <v>46062.777227673614</v>
       </c>
       <c r="F47" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647865144993</v>
       </c>
       <c r="G47" s="4" t="str">
-        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
+        <v>baghdad</v>
       </c>
       <c r="H47" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I47" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J47" s="4" t="str">
         <v>6,500</v>
@@ -3780,7 +3780,7 @@
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
@@ -3789,19 +3789,19 @@
         <v>13,500</v>
       </c>
       <c r="O47" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P47" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R47" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S47" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T47" s="4" t="str">
         <v>Cart</v>
@@ -3813,33 +3813,33 @@
         <v/>
       </c>
       <c r="W47" s="4" t="str">
-        <v>87363123</v>
+        <v>87373913</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>2027447-21325225</v>
+        <v>2027447-21330386</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>علي الرجب</v>
+        <v>علي جبار</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Delivered</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D48" s="5">
-        <v>46062.409052650466</v>
+        <v>46062.64234420139</v>
       </c>
       <c r="E48" s="5">
-        <v>46065.434623043984</v>
+        <v>46063.45347559028</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>9647838955032</v>
+        <v>9647721584481</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>الجزائر - خلف مصرف الدم-بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I48" s="4" t="str">
         <v>65,000</v>
@@ -3851,7 +3851,7 @@
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>13,500</v>
       </c>
       <c r="O48" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P48" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
@@ -3884,66 +3884,66 @@
         <v/>
       </c>
       <c r="W48" s="4" t="str">
-        <v>220</v>
+        <v>87370182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="str">
-        <v>2027447-21325023</v>
+        <v>2027447-21329162</v>
       </c>
       <c r="B49" s="4" t="str">
-        <v>خالد كاظم</v>
+        <v>اسيل</v>
       </c>
       <c r="C49" s="4" t="str">
-        <v>Delivered</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D49" s="5">
-        <v>46062.39857081018</v>
+        <v>46062.5843108912</v>
       </c>
       <c r="E49" s="5">
-        <v>46065.43460449074</v>
+        <v>46063.708111203705</v>
       </c>
       <c r="F49" s="4" t="str">
-        <v>9647703677730</v>
+        <v>9647746308618</v>
       </c>
       <c r="G49" s="4" t="str">
-        <v>الطويسه خلف مطعم باربكيو</v>
+        <v>بصرة</v>
       </c>
       <c r="H49" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I49" s="4" t="str">
-        <v>72,000</v>
+        <v>42,000</v>
       </c>
       <c r="J49" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K49" s="4" t="str">
-        <v/>
+        <v>discount number</v>
       </c>
       <c r="L49" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
       </c>
       <c r="N49" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O49" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P49" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <v>IQ010106MAGG99, IQ010401TAWR99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R49" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S49" s="4" t="str">
-        <v>58500, 7000</v>
+        <v>35500</v>
       </c>
       <c r="T49" s="4" t="str">
         <v>Cart</v>
@@ -3955,45 +3955,45 @@
         <v/>
       </c>
       <c r="W49" s="4" t="str">
-        <v>219</v>
+        <v>87381291</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>2027447-21321467</v>
+        <v>2027447-21328284</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>فهد</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D50" s="5">
-        <v>46062.12001951389</v>
+        <v>46062.54285048611</v>
       </c>
       <c r="E50" s="5">
-        <v>46063.47227489583</v>
+        <v>46066.408057534725</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>9647703573956</v>
+        <v>9647783312740</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>بغداد دوره طياره</v>
       </c>
       <c r="H50" s="4" t="str">
-        <v>اربيل</v>
+        <v>بغداد</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K50" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -4002,19 +4002,19 @@
         <v>13,500</v>
       </c>
       <c r="O50" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P50" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R50" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S50" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T50" s="4" t="str">
         <v>Cart</v>
@@ -4026,33 +4026,33 @@
         <v/>
       </c>
       <c r="W50" s="4" t="str">
-        <v>#213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="str">
-        <v>2027447-21321464</v>
+        <v>2027447-21327273</v>
       </c>
       <c r="B51" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Samer sabah</v>
       </c>
       <c r="C51" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D51" s="5">
-        <v>46062.11975269676</v>
+        <v>46062.50750659722</v>
       </c>
       <c r="E51" s="5">
-        <v>46063.472389456016</v>
+        <v>46064.36667028935</v>
       </c>
       <c r="F51" s="4" t="str">
-        <v>9647703573957</v>
+        <v>9647717776640</v>
       </c>
       <c r="G51" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
       </c>
       <c r="H51" s="4" t="str">
-        <v>اربيل</v>
+        <v>بغداد</v>
       </c>
       <c r="I51" s="4" t="str">
         <v>65,000</v>
@@ -4061,10 +4061,10 @@
         <v>6,500</v>
       </c>
       <c r="K51" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>13,500</v>
       </c>
       <c r="O51" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P51" s="4" t="str">
         <v/>
@@ -4088,7 +4088,7 @@
         <v>58500</v>
       </c>
       <c r="T51" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U51" s="4" t="str">
         <v/>
@@ -4097,33 +4097,33 @@
         <v/>
       </c>
       <c r="W51" s="4" t="str">
-        <v>#213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>2027447-21321463</v>
+        <v>2027447-21325993</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D52" s="5">
-        <v>46062.119456875</v>
+        <v>46062.45230179398</v>
       </c>
       <c r="E52" s="5">
-        <v>46063.472483425925</v>
+        <v>46062.452304618055</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>9647703573958</v>
+        <v>9647809592002</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H52" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I52" s="4" t="str">
         <v>65,000</v>
@@ -4132,10 +4132,10 @@
         <v>6,500</v>
       </c>
       <c r="K52" s="4" t="str">
-        <v>duplucated</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L52" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>13,500</v>
       </c>
       <c r="O52" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P52" s="4" t="str">
         <v/>
@@ -4153,7 +4153,7 @@
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R52" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="4" t="str">
         <v>58500</v>
@@ -4168,54 +4168,54 @@
         <v/>
       </c>
       <c r="W52" s="4" t="str">
-        <v>#213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="str">
-        <v>2027447-21321461</v>
+        <v>2027447-21325937</v>
       </c>
       <c r="B53" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C53" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D53" s="5">
-        <v>46062.119129618055</v>
+        <v>46062.451287627315</v>
       </c>
       <c r="E53" s="5">
-        <v>46063.47256233796</v>
+        <v>46062.451578912034</v>
       </c>
       <c r="F53" s="4" t="str">
-        <v>9647703573959</v>
+        <v>9647809592002</v>
       </c>
       <c r="G53" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H53" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I53" s="4" t="str">
-        <v>65,000</v>
+        <v>54,500</v>
       </c>
       <c r="J53" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K53" s="4" t="str">
-        <v>duplucated</v>
+        <v>wrong</v>
       </c>
       <c r="L53" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
       </c>
       <c r="N53" s="4" t="str">
-        <v>13,500</v>
+        <v>3,000</v>
       </c>
       <c r="O53" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P53" s="4" t="str">
         <v/>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="4" t="str">
-        <v>58500</v>
+        <v>48000</v>
       </c>
       <c r="T53" s="4" t="str">
         <v>Cart</v>
@@ -4239,33 +4239,33 @@
         <v/>
       </c>
       <c r="W53" s="4" t="str">
-        <v>#213</v>
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>2027447-21321454</v>
+        <v>2027447-21325418</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Mohammed abdulzahra</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D54" s="5">
-        <v>46062.1181390162</v>
+        <v>46062.42305118056</v>
       </c>
       <c r="E54" s="5">
-        <v>46062.526094166664</v>
+        <v>46062.42305415509</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>9647703573951</v>
+        <v>9647809592002</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>بصرة</v>
       </c>
       <c r="H54" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I54" s="4" t="str">
         <v>65,000</v>
@@ -4274,10 +4274,10 @@
         <v>6,500</v>
       </c>
       <c r="K54" s="4" t="str">
-        <v>كردي و مفيش واتساب</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L54" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R54" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="4" t="str">
         <v>58500</v>
@@ -4310,33 +4310,33 @@
         <v/>
       </c>
       <c r="W54" s="4" t="str">
-        <v>#213</v>
+        <v>87363123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="str">
-        <v>2027447-21321444</v>
+        <v>2027447-21325289</v>
       </c>
       <c r="B55" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C55" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D55" s="5">
-        <v>46062.116491030094</v>
+        <v>46062.413627974536</v>
       </c>
       <c r="E55" s="5">
-        <v>46063.44011920139</v>
+        <v>46062.413631469906</v>
       </c>
       <c r="F55" s="4" t="str">
-        <v>9647703573952</v>
+        <v>9647809592002</v>
       </c>
       <c r="G55" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H55" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I55" s="4" t="str">
         <v>65,000</v>
@@ -4345,10 +4345,10 @@
         <v>6,500</v>
       </c>
       <c r="K55" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L55" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
@@ -4357,16 +4357,16 @@
         <v>13,500</v>
       </c>
       <c r="O55" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P55" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q55" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R55" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="str">
         <v>58500</v>
@@ -4381,33 +4381,33 @@
         <v/>
       </c>
       <c r="W55" s="4" t="str">
-        <v>#213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>2027447-21321439</v>
+        <v>2027447-21325245</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>Mohammed abdulzahra</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D56" s="5">
-        <v>46062.11577030092</v>
+        <v>46062.41033025463</v>
       </c>
       <c r="E56" s="5">
-        <v>46063.47266734954</v>
+        <v>46065.43456450231</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>9647703573953</v>
+        <v>9647809592002</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
       </c>
       <c r="H56" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I56" s="4" t="str">
         <v>65,000</v>
@@ -4416,10 +4416,10 @@
         <v>6,500</v>
       </c>
       <c r="K56" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>13,500</v>
       </c>
       <c r="O56" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P56" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q56" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4452,33 +4452,33 @@
         <v/>
       </c>
       <c r="W56" s="4" t="str">
-        <v>#213</v>
+        <v>87363123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="str">
-        <v>2027447-21321433</v>
+        <v>2027447-21325225</v>
       </c>
       <c r="B57" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>علي الرجب</v>
       </c>
       <c r="C57" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D57" s="5">
-        <v>46062.1151934375</v>
+        <v>46062.409052650466</v>
       </c>
       <c r="E57" s="5">
-        <v>46063.473785</v>
+        <v>46065.434623043984</v>
       </c>
       <c r="F57" s="4" t="str">
-        <v>9647703573954</v>
+        <v>9647838955032</v>
       </c>
       <c r="G57" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الجزائر - خلف مصرف الدم-بصرة</v>
       </c>
       <c r="H57" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I57" s="4" t="str">
         <v>65,000</v>
@@ -4487,10 +4487,10 @@
         <v>6,500</v>
       </c>
       <c r="K57" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L57" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>13,500</v>
       </c>
       <c r="O57" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P57" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q57" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4523,66 +4523,66 @@
         <v/>
       </c>
       <c r="W57" s="4" t="str">
-        <v>#213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>2027447-21321427</v>
+        <v>2027447-21325023</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>خالد كاظم</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D58" s="5">
-        <v>46062.114325393515</v>
+        <v>46062.39857081018</v>
       </c>
       <c r="E58" s="5">
-        <v>46063.473866203705</v>
+        <v>46065.43460449074</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>9647703573955</v>
+        <v>9647703677730</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه خلف مطعم باربكيو</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>65,000</v>
+        <v>72,000</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K58" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L58" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
       </c>
       <c r="N58" s="4" t="str">
-        <v>13,500</v>
+        <v>14,000</v>
       </c>
       <c r="O58" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P58" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ010106MAGG99, IQ010401TAWR99</v>
       </c>
       <c r="R58" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S58" s="4" t="str">
-        <v>58500</v>
+        <v>58500, 7000</v>
       </c>
       <c r="T58" s="4" t="str">
         <v>Cart</v>
@@ -4594,66 +4594,66 @@
         <v/>
       </c>
       <c r="W58" s="4" t="str">
-        <v>#213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="str">
-        <v>2027447-21320912</v>
+        <v>2027447-21321467</v>
       </c>
       <c r="B59" s="4" t="str">
-        <v>حسين</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C59" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D59" s="5">
-        <v>46062.05659570602</v>
+        <v>46062.12001951389</v>
       </c>
       <c r="E59" s="5">
-        <v>46064.37757741898</v>
+        <v>46063.47227489583</v>
       </c>
       <c r="F59" s="4" t="str">
-        <v>9647818549030</v>
+        <v>9647703573956</v>
       </c>
       <c r="G59" s="4" t="str">
-        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H59" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I59" s="4" t="str">
-        <v>110,500</v>
+        <v>65,000</v>
       </c>
       <c r="J59" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K59" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L59" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
       </c>
       <c r="N59" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O59" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P59" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q59" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R59" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S59" s="4" t="str">
-        <v>104000</v>
+        <v>58500</v>
       </c>
       <c r="T59" s="4" t="str">
         <v>Cart</v>
@@ -4665,33 +4665,33 @@
         <v/>
       </c>
       <c r="W59" s="4" t="str">
-        <v>218</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>2027447-21320534</v>
+        <v>2027447-21321464</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>فارس</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D60" s="5">
-        <v>46062.03247658565</v>
+        <v>46062.11975269676</v>
       </c>
       <c r="E60" s="5">
-        <v>46065.46657697917</v>
+        <v>46063.472389456016</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>9647504889447</v>
+        <v>9647703573957</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>دهوك  نيو زاخو</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>دهوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I60" s="4" t="str">
         <v>65,000</v>
@@ -4700,10 +4700,10 @@
         <v>6,500</v>
       </c>
       <c r="K60" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L60" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -4712,10 +4712,10 @@
         <v>13,500</v>
       </c>
       <c r="O60" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P60" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q60" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4736,66 +4736,66 @@
         <v/>
       </c>
       <c r="W60" s="4" t="str">
-        <v>217</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="str">
-        <v>2027447-21320523</v>
+        <v>2027447-21321463</v>
       </c>
       <c r="B61" s="4" t="str">
-        <v>مجيد</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C61" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D61" s="5">
-        <v>46062.031249328706</v>
+        <v>46062.119456875</v>
       </c>
       <c r="E61" s="5">
-        <v>46065.38011118056</v>
+        <v>46063.472483425925</v>
       </c>
       <c r="F61" s="4" t="str">
-        <v>9647809879086</v>
+        <v>9647703573958</v>
       </c>
       <c r="G61" s="4" t="str">
-        <v>الانبار الرمادي قرب اسواق العيله</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H61" s="4" t="str">
-        <v>الانبار</v>
+        <v>اربيل</v>
       </c>
       <c r="I61" s="4" t="str">
-        <v>84,250</v>
+        <v>65,000</v>
       </c>
       <c r="J61" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K61" s="4" t="str">
-        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
+        <v>duplucated</v>
       </c>
       <c r="L61" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
       </c>
       <c r="N61" s="4" t="str">
-        <v>16,750</v>
+        <v>13,500</v>
       </c>
       <c r="O61" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P61" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q61" s="4" t="str">
-        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R61" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S61" s="4" t="str">
-        <v>61750, 16000</v>
+        <v>58500</v>
       </c>
       <c r="T61" s="4" t="str">
         <v>Cart</v>
@@ -4807,33 +4807,33 @@
         <v/>
       </c>
       <c r="W61" s="4" t="str">
-        <v>215</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>2027447-21320496</v>
+        <v>2027447-21321461</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>اركان</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D62" s="5">
-        <v>46062.02948613426</v>
+        <v>46062.119129618055</v>
       </c>
       <c r="E62" s="5">
-        <v>46064.83917225694</v>
+        <v>46063.47256233796</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>9647707055944</v>
+        <v>9647703573959</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I62" s="4" t="str">
         <v>65,000</v>
@@ -4842,10 +4842,10 @@
         <v>6,500</v>
       </c>
       <c r="K62" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L62" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>13,500</v>
       </c>
       <c r="O62" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P62" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q62" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4878,27 +4878,27 @@
         <v/>
       </c>
       <c r="W62" s="4" t="str">
-        <v>214</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="str">
-        <v>2027447-21317647</v>
+        <v>2027447-21321454</v>
       </c>
       <c r="B63" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C63" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D63" s="5">
-        <v>46061.87229554398</v>
+        <v>46062.1181390162</v>
       </c>
       <c r="E63" s="5">
-        <v>46063.47437924769</v>
+        <v>46062.526094166664</v>
       </c>
       <c r="F63" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647703573951</v>
       </c>
       <c r="G63" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4907,37 +4907,37 @@
         <v>اربيل</v>
       </c>
       <c r="I63" s="4" t="str">
-        <v>49,000</v>
+        <v>65,000</v>
       </c>
       <c r="J63" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K63" s="4" t="str">
-        <v>duplucated</v>
+        <v>كردي و مفيش واتساب</v>
       </c>
       <c r="L63" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
       </c>
       <c r="N63" s="4" t="str">
-        <v>14,500</v>
+        <v>13,500</v>
       </c>
       <c r="O63" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P63" s="4" t="str">
         <v/>
       </c>
       <c r="Q63" s="4" t="str">
-        <v>IQ010601GHKK99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R63" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S63" s="4" t="str">
-        <v>42500</v>
+        <v>58500</v>
       </c>
       <c r="T63" s="4" t="str">
         <v>Cart</v>
@@ -4949,27 +4949,27 @@
         <v/>
       </c>
       <c r="W63" s="4" t="str">
-        <v/>
+        <v>#213</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>2027447-21317618</v>
+        <v>2027447-21321444</v>
       </c>
       <c r="B64" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D64" s="5">
-        <v>46061.87095564815</v>
+        <v>46062.116491030094</v>
       </c>
       <c r="E64" s="5">
-        <v>46063.47448429398</v>
+        <v>46063.44011920139</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647703573952</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>مدينة صدر</v>
@@ -4984,10 +4984,10 @@
         <v>6,500</v>
       </c>
       <c r="K64" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L64" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>13,500</v>
       </c>
       <c r="O64" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P64" s="4" t="str">
         <v/>
@@ -5020,66 +5020,66 @@
         <v/>
       </c>
       <c r="W64" s="4" t="str">
-        <v>213</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="str">
-        <v>2027447-21311829</v>
+        <v>2027447-21321439</v>
       </c>
       <c r="B65" s="4" t="str">
-        <v>Ulla</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C65" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D65" s="5">
-        <v>46061.631386469904</v>
+        <v>46062.11577030092</v>
       </c>
       <c r="E65" s="5">
-        <v>46061.63138957176</v>
+        <v>46063.47266734954</v>
       </c>
       <c r="F65" s="4" t="str">
-        <v>9647772423216</v>
+        <v>9647703573953</v>
       </c>
       <c r="G65" s="4" t="str">
-        <v>كرادة خارج</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H65" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I65" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J65" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K65" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>duplucated</v>
       </c>
       <c r="L65" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O65" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
       <c r="P65" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q65" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R65" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T65" s="4" t="str">
         <v>Cart</v>
@@ -5091,33 +5091,33 @@
         <v/>
       </c>
       <c r="W65" s="4" t="str">
-        <v>#87242467</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>2027447-21309717</v>
+        <v>2027447-21321433</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>عمر عبدالله</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D66" s="5">
-        <v>46061.54547142361</v>
+        <v>46062.1151934375</v>
       </c>
       <c r="E66" s="5">
-        <v>46064.32734074074</v>
+        <v>46063.473785</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>9647701076857</v>
+        <v>9647703573954</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>كركوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I66" s="4" t="str">
         <v>65,000</v>
@@ -5126,10 +5126,10 @@
         <v>6,500</v>
       </c>
       <c r="K66" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplucated</v>
       </c>
       <c r="L66" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>13,500</v>
       </c>
       <c r="O66" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P66" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q66" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -5162,66 +5162,66 @@
         <v/>
       </c>
       <c r="W66" s="4" t="str">
-        <v>212</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="str">
-        <v>2027447-21306939</v>
+        <v>2027447-21321427</v>
       </c>
       <c r="B67" s="4" t="str">
-        <v>Ulla</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C67" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D67" s="5">
-        <v>46061.41131630787</v>
+        <v>46062.114325393515</v>
       </c>
       <c r="E67" s="5">
-        <v>46064.37759912037</v>
+        <v>46063.473866203705</v>
       </c>
       <c r="F67" s="4" t="str">
-        <v>9647772423216</v>
+        <v>9647703573955</v>
       </c>
       <c r="G67" s="4" t="str">
-        <v>كرادة خارج فرع حلويات الزيتون</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H67" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I67" s="4" t="str">
-        <v>39,000</v>
+        <v>65,000</v>
       </c>
       <c r="J67" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K67" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L67" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M67" s="4">
         <v>0</v>
       </c>
       <c r="N67" s="4" t="str">
-        <v>12,500</v>
+        <v>13,500</v>
       </c>
       <c r="O67" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P67" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q67" s="4" t="str">
-        <v>IQ040104WIRE99, IQ030401KHAT99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R67" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S67" s="4" t="str">
-        <v>25500, 7000</v>
+        <v>58500</v>
       </c>
       <c r="T67" s="4" t="str">
         <v>Cart</v>
@@ -5233,36 +5233,36 @@
         <v/>
       </c>
       <c r="W67" s="4" t="str">
-        <v>87242467</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>2027447-21306927</v>
+        <v>2027447-21320912</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>يوسف</v>
+        <v>حسين</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Order Received</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D68" s="5">
-        <v>46061.410177777776</v>
+        <v>46062.05659570602</v>
       </c>
       <c r="E68" s="5">
-        <v>46061.749465162036</v>
+        <v>46064.37757741898</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>9647721190546</v>
+        <v>9647818549030</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>يوسف</v>
+        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>موصل</v>
+        <v>بغداد</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>204,000</v>
+        <v>110,500</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>6,500</v>
@@ -5271,28 +5271,28 @@
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M68" s="4">
         <v>0</v>
       </c>
       <c r="N68" s="4" t="str">
-        <v>85,500</v>
+        <v>14,000</v>
       </c>
       <c r="O68" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P68" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q68" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R68" s="4" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S68" s="4" t="str">
-        <v>197500</v>
+        <v>104000</v>
       </c>
       <c r="T68" s="4" t="str">
         <v>Cart</v>
@@ -5304,33 +5304,33 @@
         <v/>
       </c>
       <c r="W68" s="4" t="str">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="str">
-        <v>2027447-21306903</v>
+        <v>2027447-21320534</v>
       </c>
       <c r="B69" s="4" t="str">
-        <v>زيد كامل</v>
+        <v>فارس</v>
       </c>
       <c r="C69" s="4" t="str">
-        <v>Delivered</v>
+        <v>قيد التوصيل</v>
       </c>
       <c r="D69" s="5">
-        <v>46061.40806185185</v>
+        <v>46062.03247658565</v>
       </c>
       <c r="E69" s="5">
-        <v>46064.39747780093</v>
+        <v>46065.84588509259</v>
       </c>
       <c r="F69" s="4" t="str">
-        <v>9647901345658</v>
+        <v>9647504889447</v>
       </c>
       <c r="G69" s="4" t="str">
-        <v>بغداد المنصور مجمع المنصور ستي</v>
+        <v>دهوك  نيو زاخو</v>
       </c>
       <c r="H69" s="4" t="str">
-        <v>بغداد</v>
+        <v>دهوك</v>
       </c>
       <c r="I69" s="4" t="str">
         <v>65,000</v>
@@ -5339,10 +5339,10 @@
         <v>6,500</v>
       </c>
       <c r="K69" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L69" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
@@ -5375,66 +5375,66 @@
         <v/>
       </c>
       <c r="W69" s="4" t="str">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>2027447-21306893</v>
+        <v>2027447-21320523</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>حسين ستار</v>
+        <v>مجيد</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Order Received</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D70" s="5">
-        <v>46061.40700960648</v>
+        <v>46062.031249328706</v>
       </c>
       <c r="E70" s="5">
-        <v>46061.434817685185</v>
+        <v>46065.38011118056</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>9647895632217</v>
+        <v>9647809879086</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>كرت القدم</v>
+        <v>الانبار الرمادي قرب اسواق العيله</v>
       </c>
       <c r="H70" s="4" t="str">
-        <v>موصل</v>
+        <v>الانبار</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>51,000</v>
+        <v>84,250</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K70" s="4" t="str">
-        <v/>
+        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
       </c>
       <c r="L70" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
       </c>
       <c r="N70" s="4" t="str">
-        <v>16,500</v>
+        <v>16,750</v>
       </c>
       <c r="O70" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P70" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
       </c>
       <c r="R70" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S70" s="4" t="str">
-        <v>44500</v>
+        <v>61750, 16000</v>
       </c>
       <c r="T70" s="4" t="str">
         <v>Cart</v>
@@ -5446,36 +5446,36 @@
         <v/>
       </c>
       <c r="W70" s="4" t="str">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="str">
-        <v>2027447-21306886</v>
+        <v>2027447-21320496</v>
       </c>
       <c r="B71" s="4" t="str">
-        <v>سجاد</v>
+        <v>اركان</v>
       </c>
       <c r="C71" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D71" s="5">
-        <v>46061.40609613426</v>
+        <v>46062.02948613426</v>
       </c>
       <c r="E71" s="5">
-        <v>46062.69066699074</v>
+        <v>46064.83917225694</v>
       </c>
       <c r="F71" s="4" t="str">
-        <v>9647731868202</v>
+        <v>9647707055944</v>
       </c>
       <c r="G71" s="4" t="str">
-        <v>حي الحسكري</v>
+        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
       </c>
       <c r="H71" s="4" t="str">
-        <v>كركوك</v>
+        <v>بصرة</v>
       </c>
       <c r="I71" s="4" t="str">
-        <v>51,000</v>
+        <v>65,000</v>
       </c>
       <c r="J71" s="4" t="str">
         <v>6,500</v>
@@ -5484,28 +5484,28 @@
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
       </c>
       <c r="N71" s="4" t="str">
-        <v>16,500</v>
+        <v>13,500</v>
       </c>
       <c r="O71" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P71" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R71" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S71" s="4" t="str">
-        <v>44500</v>
+        <v>58500</v>
       </c>
       <c r="T71" s="4" t="str">
         <v>Cart</v>
@@ -5517,66 +5517,66 @@
         <v/>
       </c>
       <c r="W71" s="4" t="str">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>2027447-21305571</v>
+        <v>2027447-21317647</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>Bashar</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D72" s="5">
-        <v>46061.31099184028</v>
+        <v>46061.87229554398</v>
       </c>
       <c r="E72" s="5">
-        <v>46063.35487973379</v>
+        <v>46063.47437924769</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>9647718077007</v>
+        <v>9647703573950</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>الموصل حي الزهور قرب دار العجزة</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H72" s="4" t="str">
-        <v>موصل</v>
+        <v>اربيل</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>65,000</v>
+        <v>49,000</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K72" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplucated</v>
       </c>
       <c r="L72" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
       </c>
       <c r="N72" s="4" t="str">
-        <v>13,500</v>
+        <v>14,500</v>
       </c>
       <c r="O72" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P72" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q72" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ010601GHKK99</v>
       </c>
       <c r="R72" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S72" s="4" t="str">
-        <v>58500</v>
+        <v>42500</v>
       </c>
       <c r="T72" s="4" t="str">
         <v>Cart</v>
@@ -5588,33 +5588,33 @@
         <v/>
       </c>
       <c r="W72" s="4" t="str">
-        <v>206</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="str">
-        <v>2027447-21305554</v>
+        <v>2027447-21317618</v>
       </c>
       <c r="B73" s="4" t="str">
-        <v>عباس محمد اسماعيل</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C73" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D73" s="5">
-        <v>46061.30975965278</v>
+        <v>46061.87095564815</v>
       </c>
       <c r="E73" s="5">
-        <v>46062.59048576389</v>
+        <v>46063.47448429398</v>
       </c>
       <c r="F73" s="4" t="str">
-        <v>9647737663394</v>
+        <v>9647703573950</v>
       </c>
       <c r="G73" s="4" t="str">
-        <v>ميسان مركز المدينة</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H73" s="4" t="str">
-        <v>ميسان</v>
+        <v>اربيل</v>
       </c>
       <c r="I73" s="4" t="str">
         <v>65,000</v>
@@ -5623,10 +5623,10 @@
         <v>6,500</v>
       </c>
       <c r="K73" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L73" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>13,500</v>
       </c>
       <c r="O73" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P73" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q73" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -5659,33 +5659,33 @@
         <v/>
       </c>
       <c r="W73" s="4" t="str">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>2027447-21303493</v>
+        <v>2027447-21311829</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>Hadeeth</v>
+        <v>Ulla</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D74" s="5">
-        <v>46061.072884814814</v>
+        <v>46061.631386469904</v>
       </c>
       <c r="E74" s="5">
-        <v>46064.4201575</v>
+        <v>46061.63138957176</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>9647855236667</v>
+        <v>9647772423216</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>ام الخيل مقابل جيراتا</v>
+        <v>كرادة خارج</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>دوانية</v>
+        <v>بغداد</v>
       </c>
       <c r="I74" s="4" t="str">
         <v>32,000</v>
@@ -5694,10 +5694,10 @@
         <v>6,500</v>
       </c>
       <c r="K74" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L74" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -5706,16 +5706,16 @@
         <v>12,000</v>
       </c>
       <c r="O74" s="4" t="str">
-        <v xml:space="preserve">nahrayn market </v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P74" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q74" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R74" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="4" t="str">
         <v>25500</v>
@@ -5730,66 +5730,66 @@
         <v/>
       </c>
       <c r="W74" s="4" t="str">
-        <v>204</v>
+        <v>#87242467</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="str">
-        <v>2027447-21303458</v>
+        <v>2027447-21309717</v>
       </c>
       <c r="B75" s="4" t="str">
-        <v>سجاد</v>
+        <v>عمر عبدالله</v>
       </c>
       <c r="C75" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D75" s="5">
-        <v>46061.068113912035</v>
+        <v>46061.54547142361</v>
       </c>
       <c r="E75" s="5">
-        <v>46061.504234293985</v>
+        <v>46064.32734074074</v>
       </c>
       <c r="F75" s="4" t="str">
-        <v>9647815645310</v>
+        <v>9647701076857</v>
       </c>
       <c r="G75" s="4" t="str">
-        <v>موصل</v>
+        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
       </c>
       <c r="H75" s="4" t="str">
-        <v>موصل</v>
+        <v>كركوك</v>
       </c>
       <c r="I75" s="4" t="str">
-        <v>78,000</v>
+        <v>65,000</v>
       </c>
       <c r="J75" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K75" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L75" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="str">
-        <v>14,500</v>
+        <v>13,500</v>
       </c>
       <c r="O75" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P75" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q75" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R75" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S75" s="4" t="str">
-        <v>71500</v>
+        <v>58500</v>
       </c>
       <c r="T75" s="4" t="str">
         <v>Cart</v>
@@ -5801,36 +5801,36 @@
         <v/>
       </c>
       <c r="W75" s="4" t="str">
-        <v>87228707</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>2027447-21303376</v>
+        <v>2027447-21306939</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>حسن</v>
+        <v>Ulla</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Order Received</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D76" s="5">
-        <v>46061.059307511576</v>
+        <v>46061.41131630787</v>
       </c>
       <c r="E76" s="5">
-        <v>46063.41436353009</v>
+        <v>46064.37759912037</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>9647736444124</v>
+        <v>9647772423216</v>
       </c>
       <c r="G76" s="4" t="str">
-        <v>حي جامعه</v>
+        <v>كرادة خارج فرع حلويات الزيتون</v>
       </c>
       <c r="H76" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>6,500</v>
@@ -5839,13 +5839,13 @@
         <v/>
       </c>
       <c r="L76" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="str">
-        <v>12,000</v>
+        <v>12,500</v>
       </c>
       <c r="O76" s="4" t="str">
         <v>nahrayn market</v>
@@ -5854,13 +5854,13 @@
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q76" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ030401KHAT99</v>
       </c>
       <c r="R76" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S76" s="4" t="str">
-        <v>25500</v>
+        <v>25500, 7000</v>
       </c>
       <c r="T76" s="4" t="str">
         <v>Cart</v>
@@ -5872,66 +5872,66 @@
         <v/>
       </c>
       <c r="W76" s="4" t="str">
-        <v>202</v>
+        <v>87242467</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="str">
-        <v>2027447-21303311</v>
+        <v>2027447-21306927</v>
       </c>
       <c r="B77" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>يوسف</v>
       </c>
       <c r="C77" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D77" s="5">
-        <v>46061.0553649537</v>
+        <v>46061.410177777776</v>
       </c>
       <c r="E77" s="5">
-        <v>46061.50412737268</v>
+        <v>46061.749465162036</v>
       </c>
       <c r="F77" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647721190546</v>
       </c>
       <c r="G77" s="4" t="str">
-        <v>الطوبجي</v>
+        <v>يوسف</v>
       </c>
       <c r="H77" s="4" t="str">
-        <v>بغداد</v>
+        <v>موصل</v>
       </c>
       <c r="I77" s="4" t="str">
-        <v>67,250</v>
+        <v>204,000</v>
       </c>
       <c r="J77" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K77" s="4" t="str">
-        <v>duplicated</v>
+        <v/>
       </c>
       <c r="L77" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
       </c>
       <c r="N77" s="4" t="str">
-        <v>20,250</v>
+        <v>85,500</v>
       </c>
       <c r="O77" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P77" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q77" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R77" s="4" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S77" s="4" t="str">
-        <v>60749.99999999999</v>
+        <v>197500</v>
       </c>
       <c r="T77" s="4" t="str">
         <v>Cart</v>
@@ -5943,69 +5943,69 @@
         <v/>
       </c>
       <c r="W77" s="4" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>2027447-21303195</v>
+        <v>2027447-21306903</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>زيد كامل</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Return Verified</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D78" s="5">
-        <v>46061.05291396991</v>
+        <v>46061.40806185185</v>
       </c>
       <c r="E78" s="5">
-        <v>46065.411233680556</v>
+        <v>46064.39747780093</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647901345658</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>بغداد الطوبجي-بغداد</v>
+        <v>بغداد المنصور مجمع المنصور ستي</v>
       </c>
       <c r="H78" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>67,250.01</v>
+        <v>65,000</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K78" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L78" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
       </c>
       <c r="N78" s="4" t="str">
-        <v>20,250.01</v>
+        <v>13,500</v>
       </c>
       <c r="O78" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P78" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q78" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R78" s="4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S78" s="4" t="str">
-        <v>60750.009999999995</v>
+        <v>58500</v>
       </c>
       <c r="T78" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U78" s="4" t="str">
         <v/>
@@ -6014,66 +6014,66 @@
         <v/>
       </c>
       <c r="W78" s="4" t="str">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="str">
-        <v>2027447-21300537</v>
+        <v>2027447-21306893</v>
       </c>
       <c r="B79" s="4" t="str">
-        <v>اوس</v>
+        <v>حسين ستار</v>
       </c>
       <c r="C79" s="4" t="str">
-        <v>Delivered</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D79" s="5">
-        <v>46060.894264699076</v>
+        <v>46061.40700960648</v>
       </c>
       <c r="E79" s="5">
-        <v>46065.44856369213</v>
+        <v>46061.434817685185</v>
       </c>
       <c r="F79" s="4" t="str">
-        <v>9647702082623</v>
+        <v>9647895632217</v>
       </c>
       <c r="G79" s="4" t="str">
-        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
+        <v>كرت القدم</v>
       </c>
       <c r="H79" s="4" t="str">
-        <v>بغداد</v>
+        <v>موصل</v>
       </c>
       <c r="I79" s="4" t="str">
-        <v>65,000</v>
+        <v>51,000</v>
       </c>
       <c r="J79" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K79" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L79" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
       </c>
       <c r="N79" s="4" t="str">
-        <v>13,500</v>
+        <v>16,500</v>
       </c>
       <c r="O79" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayh market</v>
       </c>
       <c r="P79" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q79" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R79" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S79" s="4" t="str">
-        <v>58500</v>
+        <v>44500</v>
       </c>
       <c r="T79" s="4" t="str">
         <v>Cart</v>
@@ -6085,66 +6085,66 @@
         <v/>
       </c>
       <c r="W79" s="4" t="str">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>2027447-21300520</v>
+        <v>2027447-21306886</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>عباس</v>
+        <v>سجاد</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Delivered</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D80" s="5">
-        <v>46060.892965555555</v>
+        <v>46061.40609613426</v>
       </c>
       <c r="E80" s="5">
-        <v>46064.38459284722</v>
+        <v>46062.69066699074</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>9647707865825</v>
+        <v>9647731868202</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
+        <v>حي الحسكري</v>
       </c>
       <c r="H80" s="4" t="str">
-        <v>بغداد</v>
+        <v>كركوك</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>38,000</v>
+        <v>51,000</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K80" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L80" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
       </c>
       <c r="N80" s="4" t="str">
-        <v>12,000</v>
+        <v>16,500</v>
       </c>
       <c r="O80" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P80" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q80" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040109EELH99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R80" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S80" s="4" t="str">
-        <v>25000, 6500</v>
+        <v>44500</v>
       </c>
       <c r="T80" s="4" t="str">
         <v>Cart</v>
@@ -6156,66 +6156,66 @@
         <v/>
       </c>
       <c r="W80" s="4" t="str">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="str">
-        <v>2027447-21299115</v>
+        <v>2027447-21305571</v>
       </c>
       <c r="B81" s="4" t="str">
-        <v>قاسم</v>
+        <v>Bashar</v>
       </c>
       <c r="C81" s="4" t="str">
-        <v>Delivered</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D81" s="5">
-        <v>46060.81830115741</v>
+        <v>46061.31099184028</v>
       </c>
       <c r="E81" s="5">
-        <v>46063.44318707176</v>
+        <v>46063.35487973379</v>
       </c>
       <c r="F81" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647718077007</v>
       </c>
       <c r="G81" s="4" t="str">
-        <v>مدينة الصدر قطاع 29</v>
+        <v>الموصل حي الزهور قرب دار العجزة</v>
       </c>
       <c r="H81" s="4" t="str">
-        <v>بغداد</v>
+        <v>موصل</v>
       </c>
       <c r="I81" s="4" t="str">
-        <v>70,500</v>
+        <v>65,000</v>
       </c>
       <c r="J81" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K81" s="4" t="str">
-        <v>call asap</v>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L81" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
       </c>
       <c r="N81" s="4" t="str">
-        <v>21,000</v>
+        <v>13,500</v>
       </c>
       <c r="O81" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P81" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q81" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R81" s="4" t="str">
-        <v>2, 1</v>
+        <v>1</v>
       </c>
       <c r="S81" s="4" t="str">
-        <v>48000, 16000</v>
+        <v>58500</v>
       </c>
       <c r="T81" s="4" t="str">
         <v>Cart</v>
@@ -6227,66 +6227,66 @@
         <v/>
       </c>
       <c r="W81" s="4" t="str">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>2027447-21299069</v>
+        <v>2027447-21305554</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>قاسم</v>
+        <v>عباس محمد اسماعيل</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D82" s="5">
-        <v>46060.81512138889</v>
+        <v>46061.30975965278</v>
       </c>
       <c r="E82" s="5">
-        <v>46060.856132175926</v>
+        <v>46062.59048576389</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647737663394</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>BAGHDAD</v>
+        <v>ميسان مركز المدينة</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>بغداد</v>
+        <v>ميسان</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K82" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L82" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
       </c>
       <c r="N82" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O82" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P82" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q82" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R82" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S82" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T82" s="4" t="str">
         <v>Cart</v>
@@ -6298,33 +6298,33 @@
         <v/>
       </c>
       <c r="W82" s="4" t="str">
-        <v>87193719</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="str">
-        <v>2027447-21295906</v>
+        <v>2027447-21303493</v>
       </c>
       <c r="B83" s="4" t="str">
-        <v>ايمان</v>
+        <v>Hadeeth</v>
       </c>
       <c r="C83" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D83" s="5">
-        <v>46060.668517604165</v>
+        <v>46061.072884814814</v>
       </c>
       <c r="E83" s="5">
-        <v>46060.66852064815</v>
+        <v>46064.4201575</v>
       </c>
       <c r="F83" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647855236667</v>
       </c>
       <c r="G83" s="4" t="str">
-        <v>الطويسة</v>
+        <v>ام الخيل مقابل جيراتا</v>
       </c>
       <c r="H83" s="4" t="str">
-        <v>بصرة</v>
+        <v>دوانية</v>
       </c>
       <c r="I83" s="4" t="str">
         <v>32,000</v>
@@ -6333,10 +6333,10 @@
         <v>6,500</v>
       </c>
       <c r="K83" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L83" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -6345,7 +6345,7 @@
         <v>12,000</v>
       </c>
       <c r="O83" s="4" t="str">
-        <v>nahrayn market</v>
+        <v xml:space="preserve">nahrayn market </v>
       </c>
       <c r="P83" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -6354,7 +6354,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R83" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="4" t="str">
         <v>25500</v>
@@ -6369,66 +6369,66 @@
         <v/>
       </c>
       <c r="W83" s="4" t="str">
-        <v>agemess</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>2027447-21295042</v>
+        <v>2027447-21303458</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>جنان</v>
+        <v>سجاد</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D84" s="5">
-        <v>46060.62921245371</v>
+        <v>46061.068113912035</v>
       </c>
       <c r="E84" s="5">
-        <v>46060.62921716435</v>
+        <v>46061.504234293985</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647815645310</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>الطويسة</v>
+        <v>موصل</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>بصرة</v>
+        <v>موصل</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>32,000</v>
+        <v>78,000</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K84" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L84" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
       </c>
       <c r="N84" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O84" s="4" t="str">
-        <v>87137263</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P84" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q84" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R84" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" s="4" t="str">
-        <v>25500</v>
+        <v>71500</v>
       </c>
       <c r="T84" s="4" t="str">
         <v>Cart</v>
@@ -6440,30 +6440,30 @@
         <v/>
       </c>
       <c r="W84" s="4" t="str">
-        <v/>
+        <v>87228707</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="str">
-        <v>2027447-21294965</v>
+        <v>2027447-21303376</v>
       </c>
       <c r="B85" s="4" t="str">
-        <v>Marwa</v>
+        <v>حسن</v>
       </c>
       <c r="C85" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>تم استلام الطلب</v>
       </c>
       <c r="D85" s="5">
-        <v>46060.624529305554</v>
+        <v>46061.059307511576</v>
       </c>
       <c r="E85" s="5">
-        <v>46063.79071386574</v>
+        <v>46063.41436353009</v>
       </c>
       <c r="F85" s="4" t="str">
-        <v>9647714058562</v>
+        <v>9647736444124</v>
       </c>
       <c r="G85" s="4" t="str">
-        <v>no address</v>
+        <v>حي جامعه</v>
       </c>
       <c r="H85" s="4" t="str">
         <v>بغداد</v>
@@ -6478,7 +6478,7 @@
         <v/>
       </c>
       <c r="L85" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -6511,66 +6511,66 @@
         <v/>
       </c>
       <c r="W85" s="4" t="str">
-        <v>87156908</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>2027447-21292506</v>
+        <v>2027447-21303311</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>جنان</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D86" s="5">
-        <v>46060.526294131945</v>
+        <v>46061.0553649537</v>
       </c>
       <c r="E86" s="5">
-        <v>46060.526298275465</v>
+        <v>46061.50412737268</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647719312632</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>الطويسة</v>
+        <v>الطوبجي</v>
       </c>
       <c r="H86" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>32,000</v>
+        <v>67,250</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K86" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>duplicated</v>
       </c>
       <c r="L86" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
       </c>
       <c r="N86" s="4" t="str">
-        <v>12,000</v>
+        <v>20,250</v>
       </c>
       <c r="O86" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P86" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R86" s="4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S86" s="4" t="str">
-        <v>25500</v>
+        <v>60749.99999999999</v>
       </c>
       <c r="T86" s="4" t="str">
         <v>Cart</v>
@@ -6582,69 +6582,69 @@
         <v/>
       </c>
       <c r="W86" s="4" t="str">
-        <v>unch-87137263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="str">
-        <v>2027447-21292429</v>
+        <v>2027447-21303195</v>
       </c>
       <c r="B87" s="4" t="str">
-        <v>Mazin</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C87" s="4" t="str">
-        <v>Delivery Failed</v>
+        <v>تم التحقق من الإرجاع</v>
       </c>
       <c r="D87" s="5">
-        <v>46060.522677974535</v>
+        <v>46061.05291396991</v>
       </c>
       <c r="E87" s="5">
-        <v>46065.121536770836</v>
+        <v>46065.411233680556</v>
       </c>
       <c r="F87" s="4" t="str">
-        <v>9647704863776</v>
+        <v>9647719312632</v>
       </c>
       <c r="G87" s="4" t="str">
-        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
+        <v>بغداد الطوبجي-بغداد</v>
       </c>
       <c r="H87" s="4" t="str">
-        <v>كركوك</v>
+        <v>بغداد</v>
       </c>
       <c r="I87" s="4" t="str">
-        <v>65,000</v>
+        <v>67,250.01</v>
       </c>
       <c r="J87" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K87" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L87" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
       </c>
       <c r="N87" s="4" t="str">
-        <v>13,500</v>
+        <v>20,250.01</v>
       </c>
       <c r="O87" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P87" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q87" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R87" s="4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S87" s="4" t="str">
-        <v>58500</v>
+        <v>60750.009999999995</v>
       </c>
       <c r="T87" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U87" s="4" t="str">
         <v/>
@@ -6653,66 +6653,66 @@
         <v/>
       </c>
       <c r="W87" s="4" t="str">
-        <v>87150051</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>2027447-21292399</v>
+        <v>2027447-21300537</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>محمد</v>
+        <v>اوس</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Temporary Suspended</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D88" s="5">
-        <v>46060.521560416666</v>
+        <v>46060.894264699076</v>
       </c>
       <c r="E88" s="5">
-        <v>46060.670472604164</v>
+        <v>46065.44856369213</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>9647823514981</v>
+        <v>9647702082623</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>no address</v>
+        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بغداد</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>78,000</v>
+        <v>65,000</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K88" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L88" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
       </c>
       <c r="N88" s="4" t="str">
-        <v>14,500</v>
+        <v>13,500</v>
       </c>
       <c r="O88" s="4" t="str">
-        <v>nahrayn markey</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P88" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q88" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R88" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S88" s="4" t="str">
-        <v>71500</v>
+        <v>58500</v>
       </c>
       <c r="T88" s="4" t="str">
         <v>Cart</v>
@@ -6724,36 +6724,36 @@
         <v/>
       </c>
       <c r="W88" s="4" t="str">
-        <v>87147916</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="str">
-        <v>2027447-21292354</v>
+        <v>2027447-21300520</v>
       </c>
       <c r="B89" s="4" t="str">
-        <v>علي</v>
+        <v>عباس</v>
       </c>
       <c r="C89" s="4" t="str">
-        <v>Delivered</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D89" s="5">
-        <v>46060.51972076389</v>
+        <v>46060.892965555555</v>
       </c>
       <c r="E89" s="5">
-        <v>46064.377580486114</v>
+        <v>46064.38459284722</v>
       </c>
       <c r="F89" s="4" t="str">
-        <v>9647704552693</v>
+        <v>9647707865825</v>
       </c>
       <c r="G89" s="4" t="str">
-        <v>no address-بغداد</v>
+        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
       </c>
       <c r="H89" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I89" s="4" t="str">
-        <v>65,000</v>
+        <v>38,000</v>
       </c>
       <c r="J89" s="4" t="str">
         <v>6,500</v>
@@ -6762,28 +6762,28 @@
         <v>call asap</v>
       </c>
       <c r="L89" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
       </c>
       <c r="N89" s="4" t="str">
-        <v>13,500</v>
+        <v>12,000</v>
       </c>
       <c r="O89" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P89" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q89" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040104WIRE99, IQ040109EELH99</v>
       </c>
       <c r="R89" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S89" s="4" t="str">
-        <v>58500</v>
+        <v>25000, 6500</v>
       </c>
       <c r="T89" s="4" t="str">
         <v>Cart</v>
@@ -6795,66 +6795,66 @@
         <v/>
       </c>
       <c r="W89" s="4" t="str">
-        <v>87139830</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>2027447-21292328</v>
+        <v>2027447-21299115</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>جنان</v>
+        <v>قاسم</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>تم التوصيل</v>
       </c>
       <c r="D90" s="5">
-        <v>46060.518487141206</v>
+        <v>46060.81830115741</v>
       </c>
       <c r="E90" s="5">
-        <v>46060.51849142361</v>
+        <v>46063.44318707176</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>الطويسة</v>
+        <v>مدينة الصدر قطاع 29</v>
       </c>
       <c r="H90" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>32,000</v>
+        <v>70,500</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K90" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>call asap</v>
       </c>
       <c r="L90" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
       </c>
       <c r="N90" s="4" t="str">
-        <v>12,000</v>
+        <v>21,000</v>
       </c>
       <c r="O90" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P90" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q90" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
       </c>
       <c r="R90" s="4" t="str">
-        <v>0</v>
+        <v>2, 1</v>
       </c>
       <c r="S90" s="4" t="str">
-        <v>25500</v>
+        <v>48000, 16000</v>
       </c>
       <c r="T90" s="4" t="str">
         <v>Cart</v>
@@ -6866,33 +6866,33 @@
         <v/>
       </c>
       <c r="W90" s="4" t="str">
-        <v>87137263</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="str">
-        <v>2027447-21292314</v>
+        <v>2027447-21299069</v>
       </c>
       <c r="B91" s="4" t="str">
-        <v>ايمان</v>
+        <v>قاسم</v>
       </c>
       <c r="C91" s="4" t="str">
-        <v>Delivered</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D91" s="5">
-        <v>46060.51780462963</v>
+        <v>46060.81512138889</v>
       </c>
       <c r="E91" s="5">
-        <v>46064.35041461806</v>
+        <v>46060.856132175926</v>
       </c>
       <c r="F91" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G91" s="4" t="str">
-        <v>البصرة الطويسة جامع الامام علي الهادي</v>
+        <v>BAGHDAD</v>
       </c>
       <c r="H91" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I91" s="4" t="str">
         <v>32,000</v>
@@ -6901,10 +6901,10 @@
         <v>6,500</v>
       </c>
       <c r="K91" s="4" t="str">
-        <v>call asap</v>
+        <v>wrong</v>
       </c>
       <c r="L91" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -6937,66 +6937,66 @@
         <v/>
       </c>
       <c r="W91" s="4" t="str">
-        <v>87137062</v>
+        <v>87193719</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>2027447-21292287</v>
+        <v>2027447-21295906</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>كرار</v>
+        <v>ايمان</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D92" s="5">
-        <v>46060.51636940972</v>
+        <v>46060.668517604165</v>
       </c>
       <c r="E92" s="5">
-        <v>46060.67019315972</v>
+        <v>46060.66852064815</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>9647731091829</v>
+        <v>9647765051052</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>الشعب</v>
+        <v>الطويسة</v>
       </c>
       <c r="H92" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>78,000</v>
+        <v>32,000</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K92" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L92" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
       </c>
       <c r="N92" s="4" t="str">
-        <v>14,500</v>
+        <v>12,000</v>
       </c>
       <c r="O92" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P92" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q92" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R92" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" s="4" t="str">
-        <v>71500</v>
+        <v>25500</v>
       </c>
       <c r="T92" s="4" t="str">
         <v>Cart</v>
@@ -7008,54 +7008,54 @@
         <v/>
       </c>
       <c r="W92" s="4" t="str">
-        <v>87133839</v>
+        <v>agemess</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="str">
-        <v>2027447-21292263</v>
+        <v>2027447-21295042</v>
       </c>
       <c r="B93" s="4" t="str">
-        <v>غادة</v>
+        <v>جنان</v>
       </c>
       <c r="C93" s="4" t="str">
-        <v>Order Received</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D93" s="5">
-        <v>46060.514743113425</v>
+        <v>46060.62921245371</v>
       </c>
       <c r="E93" s="5">
-        <v>46060.75239515046</v>
+        <v>46060.62921716435</v>
       </c>
       <c r="F93" s="4" t="str">
-        <v>9647827005553</v>
+        <v>9647765051052</v>
       </c>
       <c r="G93" s="4" t="str">
-        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
+        <v>الطويسة</v>
       </c>
       <c r="H93" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I93" s="4" t="str">
-        <v>54,500</v>
+        <v>32,000</v>
       </c>
       <c r="J93" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K93" s="4" t="str">
-        <v>call asap</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L93" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
       </c>
       <c r="N93" s="4" t="str">
-        <v>21,000</v>
+        <v>12,000</v>
       </c>
       <c r="O93" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>87137263</v>
       </c>
       <c r="P93" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -7064,10 +7064,10 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R93" s="4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S93" s="4" t="str">
-        <v>48000</v>
+        <v>25500</v>
       </c>
       <c r="T93" s="4" t="str">
         <v>Cart</v>
@@ -7079,30 +7079,30 @@
         <v/>
       </c>
       <c r="W93" s="4" t="str">
-        <v>87130919</v>
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>2027447-21292228</v>
+        <v>2027447-21294965</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>عماد طارق عبد الجبار</v>
+        <v>Marwa</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Return Verified</v>
+        <v>العميل رفض التأكيد</v>
       </c>
       <c r="D94" s="5">
-        <v>46060.51269715278</v>
+        <v>46060.624529305554</v>
       </c>
       <c r="E94" s="5">
-        <v>46065.41123798611</v>
+        <v>46063.79071386574</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>9647736696089</v>
+        <v>9647714058562</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
+        <v>no address</v>
       </c>
       <c r="H94" s="4" t="str">
         <v>بغداد</v>
@@ -7114,10 +7114,10 @@
         <v>6,500</v>
       </c>
       <c r="K94" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L94" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -7150,33 +7150,33 @@
         <v/>
       </c>
       <c r="W94" s="4" t="str">
-        <v>87128707</v>
+        <v>87156908</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="str">
-        <v>2027447-21292144</v>
+        <v>2027447-21292506</v>
       </c>
       <c r="B95" s="4" t="str">
-        <v>غصون عبد الرحيم عاقل</v>
+        <v>جنان</v>
       </c>
       <c r="C95" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>طلب ملغي بواسطتك</v>
       </c>
       <c r="D95" s="5">
-        <v>46060.509699305556</v>
+        <v>46060.526294131945</v>
       </c>
       <c r="E95" s="5">
-        <v>46060.52870604167</v>
+        <v>46060.526298275465</v>
       </c>
       <c r="F95" s="4" t="str">
-        <v>9647853211426</v>
+        <v>9647765051052</v>
       </c>
       <c r="G95" s="4" t="str">
-        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+        <v>الطويسة</v>
       </c>
       <c r="H95" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I95" s="4" t="str">
         <v>32,000</v>
@@ -7185,10 +7185,10 @@
         <v>6,500</v>
       </c>
       <c r="K95" s="4" t="str">
-        <v>call asap</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L95" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M95" s="4">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R95" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="4" t="str">
         <v>25500</v>
@@ -7221,655 +7221,1294 @@
         <v/>
       </c>
       <c r="W95" s="4" t="str">
-        <v>87126749</v>
+        <v>unch-87137263</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>2027447-21291854</v>
+        <v>2027447-21292429</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>د ريا عبد الامير</v>
+        <v>Mazin</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>فشل التسليم</v>
       </c>
       <c r="D96" s="5">
-        <v>46060.50026450231</v>
+        <v>46060.522677974535</v>
       </c>
       <c r="E96" s="5">
-        <v>46060.66329834491</v>
+        <v>46065.121536770836</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>9647906483748</v>
+        <v>9647704863776</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>المنصور</v>
+        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
       </c>
       <c r="H96" s="4" t="str">
-        <v>بغداد</v>
+        <v>كركوك</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K96" s="4" t="str">
-        <v/>
+        <v>call asap</v>
       </c>
       <c r="L96" s="4" t="str">
-        <v>Iraq</v>
+        <v>العراق</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
       </c>
       <c r="N96" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O96" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P96" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R96" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S96" s="4" t="str">
+        <v>58500</v>
+      </c>
+      <c r="T96" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W96" s="4" t="str">
+        <v>87150051</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="str">
+        <v>2027447-21292399</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <v>محمد</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <v>معلق مؤقتًا</v>
+      </c>
+      <c r="D97" s="5">
+        <v>46060.521560416666</v>
+      </c>
+      <c r="E97" s="5">
+        <v>46060.670472604164</v>
+      </c>
+      <c r="F97" s="4" t="str">
+        <v>9647823514981</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <v>no address</v>
+      </c>
+      <c r="H97" s="4" t="str">
+        <v>صلاح الدين</v>
+      </c>
+      <c r="I97" s="4" t="str">
+        <v>78,000</v>
+      </c>
+      <c r="J97" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L97" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4" t="str">
+        <v>14,500</v>
+      </c>
+      <c r="O97" s="4" t="str">
+        <v>nahrayn markey</v>
+      </c>
+      <c r="P97" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
+      </c>
+      <c r="Q97" s="4" t="str">
+        <v>IQ050101JUMP99</v>
+      </c>
+      <c r="R97" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S97" s="4" t="str">
+        <v>71500</v>
+      </c>
+      <c r="T97" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U97" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V97" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W97" s="4" t="str">
+        <v>87147916</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>2027447-21292354</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>علي</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D98" s="5">
+        <v>46060.51972076389</v>
+      </c>
+      <c r="E98" s="5">
+        <v>46064.377580486114</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v>9647704552693</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <v>no address-بغداد</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <v>65,000</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L98" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4" t="str">
+        <v>13,500</v>
+      </c>
+      <c r="O98" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <v>IQ010106MAGG99</v>
+      </c>
+      <c r="R98" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S98" s="4" t="str">
+        <v>58500</v>
+      </c>
+      <c r="T98" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V98" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W98" s="4" t="str">
+        <v>87139830</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="str">
+        <v>2027447-21292328</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <v>جنان</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D99" s="5">
+        <v>46060.518487141206</v>
+      </c>
+      <c r="E99" s="5">
+        <v>46060.51849142361</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <v>9647765051052</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <v>الطويسة</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <v>بصرة</v>
+      </c>
+      <c r="I99" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J99" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <v>هذا الطلب مكرر</v>
+      </c>
+      <c r="L99" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O99" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R99" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S99" s="4" t="str">
         <v>25500</v>
       </c>
-      <c r="T96" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V96" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W96" s="4" t="str">
+      <c r="T99" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U99" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V99" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W99" s="4" t="str">
+        <v>87137263</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>2027447-21292314</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>ايمان</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D100" s="5">
+        <v>46060.51780462963</v>
+      </c>
+      <c r="E100" s="5">
+        <v>46064.35041461806</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v>9647765051052</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>البصرة الطويسة جامع الامام علي الهادي</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>بصرة</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L100" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O100" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R100" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S100" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T100" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V100" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W100" s="4" t="str">
+        <v>87137062</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="str">
+        <v>2027447-21292287</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <v>كرار</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D101" s="5">
+        <v>46060.51636940972</v>
+      </c>
+      <c r="E101" s="5">
+        <v>46060.67019315972</v>
+      </c>
+      <c r="F101" s="4" t="str">
+        <v>9647731091829</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <v>الشعب</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I101" s="4" t="str">
+        <v>78,000</v>
+      </c>
+      <c r="J101" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L101" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4" t="str">
+        <v>14,500</v>
+      </c>
+      <c r="O101" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P101" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
+      </c>
+      <c r="Q101" s="4" t="str">
+        <v>IQ050101JUMP99</v>
+      </c>
+      <c r="R101" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S101" s="4" t="str">
+        <v>71500</v>
+      </c>
+      <c r="T101" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U101" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V101" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W101" s="4" t="str">
+        <v>87133839</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>2027447-21292263</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>غادة</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v>تم استلام الطلب</v>
+      </c>
+      <c r="D102" s="5">
+        <v>46060.514743113425</v>
+      </c>
+      <c r="E102" s="5">
+        <v>46060.75239515046</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v>9647827005553</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <v>بصرة</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <v>54,500</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K102" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L102" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4" t="str">
+        <v>21,000</v>
+      </c>
+      <c r="O102" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P102" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q102" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R102" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="S102" s="4" t="str">
+        <v>48000</v>
+      </c>
+      <c r="T102" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V102" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W102" s="4" t="str">
+        <v>87130919</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="str">
+        <v>2027447-21292228</v>
+      </c>
+      <c r="B103" s="4" t="str">
+        <v>عماد طارق عبد الجبار</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <v>تم التحقق من الإرجاع</v>
+      </c>
+      <c r="D103" s="5">
+        <v>46060.51269715278</v>
+      </c>
+      <c r="E103" s="5">
+        <v>46065.41123798611</v>
+      </c>
+      <c r="F103" s="4" t="str">
+        <v>9647736696089</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
+      </c>
+      <c r="H103" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I103" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J103" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K103" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L103" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O103" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P103" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q103" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R103" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S103" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T103" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V103" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W103" s="4" t="str">
+        <v>87128707</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>2027447-21292144</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>غصون عبد الرحيم عاقل</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D104" s="5">
+        <v>46060.509699305556</v>
+      </c>
+      <c r="E104" s="5">
+        <v>46060.52870604167</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v>9647853211426</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K104" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L104" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O104" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P104" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q104" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R104" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S104" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T104" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V104" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W104" s="4" t="str">
+        <v>87126749</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="str">
+        <v>2027447-21291854</v>
+      </c>
+      <c r="B105" s="4" t="str">
+        <v>د ريا عبد الامير</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D105" s="5">
+        <v>46060.50026450231</v>
+      </c>
+      <c r="E105" s="5">
+        <v>46060.66329834491</v>
+      </c>
+      <c r="F105" s="4" t="str">
+        <v>9647906483748</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <v>المنصور</v>
+      </c>
+      <c r="H105" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I105" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J105" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K105" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L105" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
+      <c r="N105" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O105" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P105" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q105" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R105" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S105" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T105" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U105" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V105" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W105" s="4" t="str">
         <v>87120990</v>
       </c>
     </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" s="4" t="str">
+    <row r="106" xml:space="preserve">
+      <c r="A106" s="4" t="str">
         <v>2027447-21247198</v>
       </c>
-      <c r="B97" s="4" t="str">
+      <c r="B106" s="4" t="str">
         <v>علي</v>
       </c>
-      <c r="C97" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="C106" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D106" s="5">
         <v>46057.68370048611</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E106" s="5">
         <v>46060.5512303125</v>
       </c>
-      <c r="F97" s="4" t="str">
+      <c r="F106" s="4" t="str">
         <v>9647708073030</v>
       </c>
-      <c r="G97" s="4" t="str" xml:space="preserve">
+      <c r="G106" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">كلار محافضة سليمانية
 قرب ماركت گلارة</v>
       </c>
-      <c r="H97" s="4" t="str">
+      <c r="H106" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I97" s="4" t="str">
+      <c r="I106" s="4" t="str">
         <v>60,000</v>
       </c>
-      <c r="J97" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K97" s="4" t="str">
+      <c r="J106" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K106" s="4" t="str">
         <v>he did not put the full adress</v>
       </c>
-      <c r="L97" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
-      <c r="N97" s="4" t="str">
+      <c r="L106" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4" t="str">
         <v>28,500</v>
       </c>
-      <c r="O97" s="4" t="str">
+      <c r="O106" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P97" s="4" t="str">
+      <c r="P106" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
       </c>
-      <c r="Q97" s="4" t="str">
+      <c r="Q106" s="4" t="str">
         <v>IQ040501QQUU99</v>
       </c>
-      <c r="R97" s="4" t="str">
+      <c r="R106" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S97" s="4" t="str">
+      <c r="S106" s="4" t="str">
         <v>53500</v>
       </c>
-      <c r="T97" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U97" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V97" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W97" s="4" t="str">
+      <c r="T106" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V106" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W106" s="4" t="str">
         <v>86829967</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="4" t="str">
+    <row r="107">
+      <c r="A107" s="4" t="str">
         <v>2027447-21246412</v>
       </c>
-      <c r="B98" s="4" t="str">
+      <c r="B107" s="4" t="str">
         <v>مبننرمك</v>
       </c>
-      <c r="C98" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D98" s="5">
+      <c r="C107" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D107" s="5">
         <v>46057.64231769676</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E107" s="5">
         <v>46059.50030782408</v>
       </c>
-      <c r="F98" s="4" t="str">
+      <c r="F107" s="4" t="str">
         <v>9647813424564</v>
       </c>
-      <c r="G98" s="4" t="str">
+      <c r="G107" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="H98" s="4" t="str">
+      <c r="H107" s="4" t="str">
         <v>بابل</v>
       </c>
-      <c r="I98" s="4" t="str">
+      <c r="I107" s="4" t="str">
         <v>60,000</v>
       </c>
-      <c r="J98" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L98" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M98" s="4">
-        <v>0</v>
-      </c>
-      <c r="N98" s="4" t="str">
+      <c r="J107" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L107" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4" t="str">
         <v>28,500</v>
       </c>
-      <c r="O98" s="4" t="str">
+      <c r="O107" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P98" s="4" t="str">
+      <c r="P107" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
-      <c r="Q98" s="4" t="str">
+      <c r="Q107" s="4" t="str">
         <v>IQ040501QQUU99</v>
       </c>
-      <c r="R98" s="4" t="str">
+      <c r="R107" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S98" s="4" t="str">
+      <c r="S107" s="4" t="str">
         <v>53500</v>
       </c>
-      <c r="T98" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V98" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W98" s="4" t="str">
+      <c r="T107" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U107" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V107" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W107" s="4" t="str">
         <v>86824149</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="4" t="str">
+    <row r="108">
+      <c r="A108" s="4" t="str">
         <v>2027447-21246365</v>
       </c>
-      <c r="B99" s="4" t="str">
+      <c r="B108" s="4" t="str">
         <v>مبننرمك</v>
       </c>
-      <c r="C99" s="4" t="str">
-        <v>Cancelled by You</v>
-      </c>
-      <c r="D99" s="5">
+      <c r="C108" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D108" s="5">
         <v>46057.64010853009</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E108" s="5">
         <v>46059.50030708333</v>
       </c>
-      <c r="F99" s="4" t="str">
+      <c r="F108" s="4" t="str">
         <v>9647813424564</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="H99" s="4" t="str">
+      <c r="H108" s="4" t="str">
         <v>بابل</v>
       </c>
-      <c r="I99" s="4" t="str">
+      <c r="I108" s="4" t="str">
         <v>66,500</v>
       </c>
-      <c r="J99" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K99" s="4" t="str">
+      <c r="J108" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K108" s="4" t="str">
         <v>wrong</v>
       </c>
-      <c r="L99" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
-      <c r="N99" s="4" t="str">
+      <c r="L108" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4" t="str">
         <v>35,000</v>
       </c>
-      <c r="O99" s="4" t="str">
+      <c r="O108" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P99" s="4" t="str">
+      <c r="P108" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
       </c>
-      <c r="Q99" s="4" t="str">
+      <c r="Q108" s="4" t="str">
         <v>IQ040501QQUU99</v>
       </c>
-      <c r="R99" s="4" t="str">
+      <c r="R108" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S99" s="4" t="str">
+      <c r="S108" s="4" t="str">
         <v>60000</v>
       </c>
-      <c r="T99" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U99" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V99" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W99" s="4" t="str">
+      <c r="T108" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V108" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W108" s="4" t="str">
         <v>86824149</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="4" t="str">
+    <row r="109">
+      <c r="A109" s="4" t="str">
         <v>2027447-21246227</v>
       </c>
-      <c r="B100" s="4" t="str">
+      <c r="B109" s="4" t="str">
         <v>مبننرمك</v>
       </c>
-      <c r="C100" s="4" t="str">
-        <v>Cancelled by You</v>
-      </c>
-      <c r="D100" s="5">
+      <c r="C109" s="4" t="str">
+        <v>طلب ملغي بواسطتك</v>
+      </c>
+      <c r="D109" s="5">
         <v>46057.635958113424</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E109" s="5">
         <v>46059.50030634259</v>
       </c>
-      <c r="F100" s="4" t="str">
+      <c r="F109" s="4" t="str">
         <v>9647813424564</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="G109" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="H100" s="4" t="str">
+      <c r="H109" s="4" t="str">
         <v>بابل</v>
       </c>
-      <c r="I100" s="4" t="str">
+      <c r="I109" s="4" t="str">
         <v>46,500</v>
       </c>
-      <c r="J100" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K100" s="4" t="str">
+      <c r="J109" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K109" s="4" t="str">
         <v>wrong</v>
       </c>
-      <c r="L100" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
-      <c r="N100" s="4" t="str">
+      <c r="L109" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4" t="str">
         <v>15,000</v>
       </c>
-      <c r="O100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q100" s="4" t="str">
+      <c r="O109" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P109" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q109" s="4" t="str">
         <v>IQ040501QQUU99</v>
       </c>
-      <c r="R100" s="4" t="str">
+      <c r="R109" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S100" s="4" t="str">
+      <c r="S109" s="4" t="str">
         <v>40000</v>
       </c>
-      <c r="T100" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V100" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W100" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101" xml:space="preserve">
-      <c r="A101" s="4" t="str">
+      <c r="T109" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U109" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V109" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W109" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" s="4" t="str">
         <v>2027447-21246034</v>
       </c>
-      <c r="B101" s="4" t="str">
+      <c r="B110" s="4" t="str">
         <v>Esam</v>
       </c>
-      <c r="C101" s="4" t="str">
-        <v>Return Verified</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="C110" s="4" t="str">
+        <v>تم التحقق من الإرجاع</v>
+      </c>
+      <c r="D110" s="5">
         <v>46057.626599282405</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E110" s="5">
         <v>46062.309941099535</v>
       </c>
-      <c r="F101" s="4" t="str">
+      <c r="F110" s="4" t="str">
         <v>9647725555755</v>
       </c>
-      <c r="G101" s="4" t="str" xml:space="preserve">
+      <c r="G110" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">شارع فلسطين-مركز اريدو
 التوصيل السبت ضروري</v>
       </c>
-      <c r="H101" s="4" t="str">
+      <c r="H110" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I101" s="4" t="str">
+      <c r="I110" s="4" t="str">
         <v>39,000</v>
       </c>
-      <c r="J101" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K101" s="4" t="str">
+      <c r="J110" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K110" s="4" t="str">
         <v>get the right adress please</v>
       </c>
-      <c r="L101" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
-      <c r="N101" s="4" t="str">
+      <c r="L110" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4" t="str">
         <v>15,500</v>
       </c>
-      <c r="O101" s="4" t="str">
+      <c r="O110" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P101" s="4" t="str">
+      <c r="P110" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/n0QI</v>
       </c>
-      <c r="Q101" s="4" t="str">
+      <c r="Q110" s="4" t="str">
         <v>IQ030303KAWI99</v>
       </c>
-      <c r="R101" s="4" t="str">
+      <c r="R110" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S101" s="4" t="str">
+      <c r="S110" s="4" t="str">
         <v>32500</v>
       </c>
-      <c r="T101" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V101" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W101" s="4" t="str">
+      <c r="T110" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V110" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W110" s="4" t="str">
         <v>86825750</v>
       </c>
     </row>
-    <row r="102" xml:space="preserve">
-      <c r="A102" s="4" t="str">
+    <row r="111" xml:space="preserve">
+      <c r="A111" s="4" t="str">
         <v>2027447-21244299</v>
       </c>
-      <c r="B102" s="4" t="str">
+      <c r="B111" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C102" s="4" t="str">
-        <v>Delivered</v>
-      </c>
-      <c r="D102" s="5">
+      <c r="C111" s="4" t="str">
+        <v>تم التوصيل</v>
+      </c>
+      <c r="D111" s="5">
         <v>46057.555198912036</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E111" s="5">
         <v>46061.35337038194</v>
       </c>
-      <c r="F102" s="4" t="str">
+      <c r="F111" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G102" s="4" t="str" xml:space="preserve">
+      <c r="G111" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">خانقين القرب ن جادەیی تەرایی بۆ سایەقی بەشی کوردی )ئیدارەی گەرمیان)
  شارع 5</v>
       </c>
-      <c r="H102" s="4" t="str">
+      <c r="H111" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I102" s="4" t="str">
+      <c r="I111" s="4" t="str">
         <v>32,000</v>
       </c>
-      <c r="J102" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K102" s="4" t="str">
+      <c r="J111" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K111" s="4" t="str">
         <v>need to call him as soon as possible cuz we had an error</v>
       </c>
-      <c r="L102" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
-      <c r="N102" s="4" t="str">
+      <c r="L111" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4" t="str">
         <v>12,000</v>
       </c>
-      <c r="O102" s="4" t="str">
+      <c r="O111" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P102" s="4" t="str">
+      <c r="P111" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
-      <c r="Q102" s="4" t="str">
+      <c r="Q111" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R102" s="4" t="str">
+      <c r="R111" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S102" s="4" t="str">
+      <c r="S111" s="4" t="str">
         <v>25500</v>
       </c>
-      <c r="T102" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V102" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W102" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="str">
+      <c r="T111" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U111" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V111" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W111" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
         <v>2027447-21244055</v>
       </c>
-      <c r="B103" s="4" t="str">
+      <c r="B112" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C103" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D103" s="5">
+      <c r="C112" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D112" s="5">
         <v>46057.548482673614</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E112" s="5">
         <v>46057.82699810185</v>
       </c>
-      <c r="F103" s="4" t="str">
+      <c r="F112" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="G112" s="4" t="str">
         <v>خانقين</v>
       </c>
-      <c r="H103" s="4" t="str">
+      <c r="H112" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I103" s="4" t="str">
+      <c r="I112" s="4" t="str">
         <v>38,500</v>
       </c>
-      <c r="J103" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K103" s="4" t="str">
+      <c r="J112" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K112" s="4" t="str">
         <v>مكرر</v>
       </c>
-      <c r="L103" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
-      <c r="N103" s="4" t="str">
+      <c r="L112" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4" t="str">
         <v>18,500</v>
       </c>
-      <c r="O103" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P103" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q103" s="4" t="str">
+      <c r="O112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q112" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R103" s="4" t="str">
+      <c r="R112" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S103" s="4" t="str">
+      <c r="S112" s="4" t="str">
         <v>32000</v>
       </c>
-      <c r="T103" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U103" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V103" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W103" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104" xml:space="preserve">
-      <c r="A104" s="4" t="str">
+      <c r="T112" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V112" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W112" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" s="4" t="str">
         <v>2027447-20450839</v>
       </c>
-      <c r="B104" s="4" t="str">
+      <c r="B113" s="4" t="str">
         <v>Test</v>
       </c>
-      <c r="C104" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="C113" s="4" t="str">
+        <v>العميل رفض التأكيد</v>
+      </c>
+      <c r="D113" s="5">
         <v>46009.94421743056</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E113" s="5">
         <v>46015.49855150463</v>
       </c>
-      <c r="F104" s="4" t="str">
+      <c r="F113" s="4" t="str">
         <v>96466827981</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="G113" s="4" t="str">
         <v>test</v>
       </c>
-      <c r="H104" s="4" t="str">
+      <c r="H113" s="4" t="str">
         <v>unspecified</v>
       </c>
-      <c r="I104" s="4" t="str">
+      <c r="I113" s="4" t="str">
         <v>110,000</v>
       </c>
-      <c r="J104" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K104" s="4" t="str" xml:space="preserve">
+      <c r="J113" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K113" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">disconnected number  
 </v>
       </c>
-      <c r="L104" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="4" t="str">
+      <c r="L113" s="4" t="str">
+        <v>العراق</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4" t="str">
         <v>30,500</v>
       </c>
-      <c r="O104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q104" s="4" t="str">
+      <c r="O113" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P113" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q113" s="4" t="str">
         <v>IQ030401KADQ99</v>
       </c>
-      <c r="R104" s="4" t="str">
+      <c r="R113" s="4" t="str">
         <v>2</v>
       </c>
-      <c r="S104" s="4" t="str">
+      <c r="S113" s="4" t="str">
         <v>103500</v>
       </c>
-      <c r="T104" s="4" t="str">
+      <c r="T113" s="4" t="str">
         <v>LIGHTFUNNELS</v>
       </c>
-      <c r="U104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V104" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W104" s="4" t="str">
+      <c r="U113" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V113" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W113" s="4" t="str">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W104"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W113"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/latest_daily_orders.xlsx
+++ b/data/latest_daily_orders.xlsx
@@ -556,19 +556,19 @@
         <v>اية</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>تم تأكيد الطلب</v>
       </c>
       <c r="D2" s="5">
         <v>46066.86900146991</v>
       </c>
       <c r="E2" s="5">
-        <v>46066.86906895833</v>
+        <v>46066.87028931713</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>9647714219716</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>الجادرية</v>
+        <v>الجادرية-بغداد</v>
       </c>
       <c r="H2" s="4" t="str">
         <v>بغداد</v>

--- a/data/latest_daily_orders.xlsx
+++ b/data/latest_daily_orders.xlsx
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W127"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,37 +550,37 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>2027447-21408771</v>
+        <v>2027447-21411111</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>ستيفن</v>
+        <v>ابو هاشم</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Order Confirmed</v>
+        <v>Order Received</v>
       </c>
       <c r="D2" s="5">
-        <v>46067.77955053241</v>
+        <v>46067.92089087963</v>
       </c>
       <c r="E2" s="5">
-        <v>46067.81452472222</v>
+        <v>46067.96530664352</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>9647730432350</v>
+        <v>9647714739627</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>عينكاوه ١٢٨ مقابل فور تاورز-اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>65,000</v>
+        <v>64,000</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K2" s="4" t="str">
-        <v>call him asap please ordered 2 hours ago</v>
+        <v/>
       </c>
       <c r="L2" s="4" t="str">
         <v>Iraq</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="4" t="str">
-        <v>13,500</v>
+        <v>12,500</v>
       </c>
       <c r="O2" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P2" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q2" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="4" t="str">
-        <v>58500</v>
+        <v>57500</v>
       </c>
       <c r="T2" s="4" t="str">
         <v>Cart</v>
@@ -616,42 +616,42 @@
         <v/>
       </c>
       <c r="W2" s="4" t="str">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="str">
-        <v>2027447-21404598</v>
+        <v>2027447-21409565</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>علي حسن</v>
+        <v>خالد</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>Order Received</v>
       </c>
       <c r="D3" s="5">
-        <v>46067.609324502315</v>
+        <v>46067.82353045139</v>
       </c>
       <c r="E3" s="5">
-        <v>46067.7843830787</v>
+        <v>46067.854343611114</v>
       </c>
       <c r="F3" s="4" t="str">
-        <v>9647901550663</v>
+        <v>9647710610060</v>
       </c>
       <c r="G3" s="4" t="str">
-        <v>بغداد حي القادسية مقابل مجمع الوزراء</v>
+        <v>بغداد</v>
       </c>
       <c r="H3" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I3" s="4" t="str">
-        <v>65,000</v>
+        <v>37,500</v>
       </c>
       <c r="J3" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K3" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L3" s="4" t="str">
         <v>Iraq</v>
@@ -660,22 +660,22 @@
         <v>0</v>
       </c>
       <c r="N3" s="4" t="str">
-        <v>13,500</v>
+        <v>12,000</v>
       </c>
       <c r="O3" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P3" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/FNRX</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050402POWR99</v>
       </c>
       <c r="R3" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S3" s="4" t="str">
-        <v>58500</v>
+        <v>31000</v>
       </c>
       <c r="T3" s="4" t="str">
         <v>Cart</v>
@@ -687,42 +687,42 @@
         <v/>
       </c>
       <c r="W3" s="4" t="str">
-        <v>87947574</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>2027447-21401668</v>
+        <v>2027447-21408771</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>حسين</v>
+        <v>ستيفن</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>Order Confirmed</v>
       </c>
       <c r="D4" s="5">
-        <v>46067.482777881945</v>
+        <v>46067.77955053241</v>
       </c>
       <c r="E4" s="5">
-        <v>46067.784402164354</v>
+        <v>46067.81452472222</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>9647718777062</v>
+        <v>9647730432350</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>السيدية شارع العلوة -معهد منستر الانجليزي  مطعم اسماش</v>
+        <v>عينكاوه ١٢٨ مقابل فور تاورز-اربيل</v>
       </c>
       <c r="H4" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>39,000</v>
+        <v>65,000</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K4" s="4" t="str">
-        <v/>
+        <v>call him asap please ordered 2 hours ago</v>
       </c>
       <c r="L4" s="4" t="str">
         <v>Iraq</v>
@@ -740,13 +740,13 @@
         <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <v>IQ040107ALUY99, IQ010401TAWR99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R4" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4" t="str">
-        <v>25500, 7000</v>
+        <v>58500</v>
       </c>
       <c r="T4" s="4" t="str">
         <v>Cart</v>
@@ -758,42 +758,42 @@
         <v/>
       </c>
       <c r="W4" s="4" t="str">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="str">
-        <v>2027447-21401162</v>
+        <v>2027447-21404598</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>علي عقيل</v>
+        <v>علي حسن</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D5" s="5">
-        <v>46067.44914142361</v>
+        <v>46067.609324502315</v>
       </c>
       <c r="E5" s="5">
-        <v>46067.64057833333</v>
+        <v>46067.94671392361</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>9647853662217</v>
+        <v>9647901550663</v>
       </c>
       <c r="G5" s="4" t="str">
-        <v>بابل الهاشميه</v>
+        <v>بغداد حي القادسية مقابل مجمع الوزراء</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v>بابل</v>
+        <v>بغداد</v>
       </c>
       <c r="I5" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J5" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K5" s="4" t="str">
-        <v>call him asap please he orderd 3 hours ago</v>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L5" s="4" t="str">
         <v>Iraq</v>
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="N5" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O5" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P5" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R5" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S5" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T5" s="4" t="str">
         <v>Cart</v>
@@ -829,36 +829,36 @@
         <v/>
       </c>
       <c r="W5" s="4" t="str">
-        <v>87926914</v>
+        <v>87947574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>2027447-21400121</v>
+        <v>2027447-21401668</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>حسام الكعبي</v>
+        <v>حسين</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D6" s="5">
-        <v>46067.366074502315</v>
+        <v>46067.482777881945</v>
       </c>
       <c r="E6" s="5">
-        <v>46067.54434590278</v>
+        <v>46067.939613125</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>9647807181153</v>
+        <v>9647718777062</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>نجف</v>
+        <v>السيدية شارع العلوة -معهد منستر الانجليزي  مطعم اسماش</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>نجف</v>
+        <v>بغداد</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>37,500</v>
+        <v>39,000</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>6,500</v>
@@ -873,22 +873,22 @@
         <v>0</v>
       </c>
       <c r="N6" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O6" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P6" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/FNRX</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <v>IQ050402POWR99</v>
+        <v>IQ040107ALUY99, IQ010401TAWR99</v>
       </c>
       <c r="R6" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S6" s="4" t="str">
-        <v>31000</v>
+        <v>25500, 7000</v>
       </c>
       <c r="T6" s="4" t="str">
         <v>Cart</v>
@@ -900,42 +900,42 @@
         <v/>
       </c>
       <c r="W6" s="4" t="str">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="str">
-        <v>2027447-21400114</v>
+        <v>2027447-21401162</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Mohammed</v>
+        <v>علي عقيل</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Order Received</v>
       </c>
       <c r="D7" s="5">
-        <v>46067.36500974537</v>
+        <v>46067.44914142361</v>
       </c>
       <c r="E7" s="5">
-        <v>46067.77030376157</v>
+        <v>46067.64057833333</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>9647811887783</v>
+        <v>9647853662217</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>محافظة ديالى ناحية قزانية قرب بلدية قزانية</v>
+        <v>بابل الهاشميه</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>ديالى</v>
+        <v>بابل</v>
       </c>
       <c r="I7" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J7" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K7" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>call him asap please he orderd 3 hours ago</v>
       </c>
       <c r="L7" s="4" t="str">
         <v>Iraq</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O7" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P7" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R7" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S7" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T7" s="4" t="str">
         <v>Cart</v>
@@ -971,36 +971,36 @@
         <v/>
       </c>
       <c r="W7" s="4" t="str">
-        <v>266</v>
+        <v>87926914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>2027447-21400106</v>
+        <v>2027447-21400121</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Ammar</v>
+        <v>حسام الكعبي</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D8" s="5">
-        <v>46067.36414993055</v>
+        <v>46067.366074502315</v>
       </c>
       <c r="E8" s="5">
-        <v>46067.78536351852</v>
+        <v>46067.54434590278</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>9647700036800</v>
+        <v>9647807181153</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>الغزاليه شارع الهيافي</v>
+        <v>نجف</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>بغداد</v>
+        <v>نجف</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>32,000</v>
+        <v>37,500</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>6,500</v>
@@ -1015,22 +1015,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="str">
-        <v>13,000</v>
+        <v>12,000</v>
       </c>
       <c r="O8" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P8" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/FNRX</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ050402POWR99</v>
       </c>
       <c r="R8" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S8" s="4" t="str">
-        <v>25500</v>
+        <v>31000</v>
       </c>
       <c r="T8" s="4" t="str">
         <v>Cart</v>
@@ -1042,36 +1042,36 @@
         <v/>
       </c>
       <c r="W8" s="4" t="str">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="str">
-        <v>2027447-21397823</v>
+        <v>2027447-21400114</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>علي أدم</v>
+        <v>Mohammed</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D9" s="5">
-        <v>46067.075364525466</v>
+        <v>46067.36500974537</v>
       </c>
       <c r="E9" s="5">
-        <v>46067.59269597222</v>
+        <v>46067.77030376157</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>9647902245207</v>
+        <v>9647811887783</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>بغداد.. الراشدية.. حي القدس لنا.. قرب براد الكوثر</v>
+        <v>محافظة ديالى ناحية قزانية قرب بلدية قزانية</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>بغداد</v>
+        <v>ديالى</v>
       </c>
       <c r="I9" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J9" s="4" t="str">
         <v>6,500</v>
@@ -1086,22 +1086,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O9" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P9" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R9" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S9" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T9" s="4" t="str">
         <v>Cart</v>
@@ -1113,42 +1113,42 @@
         <v/>
       </c>
       <c r="W9" s="4" t="str">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>2027447-21397705</v>
+        <v>2027447-21400106</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>زيد</v>
+        <v>Ammar</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D10" s="5">
-        <v>46067.06385640046</v>
+        <v>46067.36414993055</v>
       </c>
       <c r="E10" s="5">
-        <v>46067.77694178241</v>
+        <v>46067.94262469908</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>9647716735052</v>
+        <v>9647700036800</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>التنومه الاكوات الولى-بصرة</v>
+        <v>الغزاليه شارع الهيافي</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K10" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L10" s="4" t="str">
         <v>Iraq</v>
@@ -1157,22 +1157,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O10" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P10" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R10" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S10" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T10" s="4" t="str">
         <v>Cart</v>
@@ -1184,30 +1184,30 @@
         <v/>
       </c>
       <c r="W10" s="4" t="str">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="str">
-        <v>2027447-21397306</v>
+        <v>2027447-21397823</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>عماد</v>
+        <v>علي أدم</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D11" s="5">
-        <v>46067.02662810185</v>
+        <v>46067.075364525466</v>
       </c>
       <c r="E11" s="5">
-        <v>46067.573339027775</v>
+        <v>46067.90171706019</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>9647700161306</v>
+        <v>9647902245207</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>بغداد</v>
+        <v>بغداد.. الراشدية.. حي القدس لنا.. قرب براد الكوثر</v>
       </c>
       <c r="H11" s="4" t="str">
         <v>بغداد</v>
@@ -1219,7 +1219,7 @@
         <v>6,500</v>
       </c>
       <c r="K11" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L11" s="4" t="str">
         <v>Iraq</v>
@@ -1231,7 +1231,7 @@
         <v>13,000</v>
       </c>
       <c r="O11" s="4" t="str">
-        <v xml:space="preserve"> nahrayn market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P11" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/XIvS</v>
@@ -1255,42 +1255,42 @@
         <v/>
       </c>
       <c r="W11" s="4" t="str">
-        <v>87903879</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>2027447-21397294</v>
+        <v>2027447-21397705</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Danar dana</v>
+        <v>زيد</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D12" s="5">
-        <v>46067.02529385417</v>
+        <v>46067.06385640046</v>
       </c>
       <c r="E12" s="5">
-        <v>46067.772876145835</v>
+        <v>46067.77694178241</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>9647503897009</v>
+        <v>9647716735052</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>Erbil shorsh-اربيل</v>
+        <v>التنومه الاكوات الولى-بصرة</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K12" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L12" s="4" t="str">
         <v>Iraq</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O12" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P12" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R12" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S12" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T12" s="4" t="str">
         <v>Cart</v>
@@ -1326,30 +1326,30 @@
         <v/>
       </c>
       <c r="W12" s="4" t="str">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="str">
-        <v>2027447-21397174</v>
+        <v>2027447-21397306</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>ثامر</v>
+        <v>عماد</v>
       </c>
       <c r="C13" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
       <c r="D13" s="5">
-        <v>46067.014509849534</v>
+        <v>46067.02662810185</v>
       </c>
       <c r="E13" s="5">
-        <v>46067.046700046296</v>
+        <v>46067.573339027775</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>9647722652951</v>
+        <v>9647700161306</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>مدينه الصدر</v>
+        <v>بغداد</v>
       </c>
       <c r="H13" s="4" t="str">
         <v>بغداد</v>
@@ -1373,7 +1373,7 @@
         <v>13,000</v>
       </c>
       <c r="O13" s="4" t="str">
-        <v>nahrayn market</v>
+        <v xml:space="preserve"> nahrayn market</v>
       </c>
       <c r="P13" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/XIvS</v>
@@ -1397,36 +1397,36 @@
         <v/>
       </c>
       <c r="W13" s="4" t="str">
-        <v>261</v>
+        <v>87903879</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>2027447-21395752</v>
+        <v>2027447-21397294</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Lawko sndi</v>
+        <v>Danar dana</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D14" s="5">
-        <v>46066.93626458333</v>
+        <v>46067.02529385417</v>
       </c>
       <c r="E14" s="5">
-        <v>46067.32375849537</v>
+        <v>46067.772876145835</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>9647504505975</v>
+        <v>9647503897009</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>زاخو - نيو زاخو</v>
+        <v>Erbil shorsh-اربيل</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>دهوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>114,000</v>
+        <v>32,000</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>6,500</v>
@@ -1441,22 +1441,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="str">
-        <v>34,500</v>
+        <v>13,000</v>
       </c>
       <c r="O14" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P14" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <v>IQ010601GHKK99, IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R14" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S14" s="4" t="str">
-        <v>47500, 60000</v>
+        <v>25500</v>
       </c>
       <c r="T14" s="4" t="str">
         <v>Cart</v>
@@ -1468,42 +1468,42 @@
         <v/>
       </c>
       <c r="W14" s="4" t="str">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="str">
-        <v>2027447-21395461</v>
+        <v>2027447-21397174</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>yahya</v>
+        <v>ثامر</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D15" s="5">
-        <v>46066.9186940162</v>
+        <v>46067.014509849534</v>
       </c>
       <c r="E15" s="5">
-        <v>46066.9263240162</v>
+        <v>46067.046700046296</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>964663361252</v>
+        <v>9647722652951</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>163 Great George Street</v>
+        <v>مدينه الصدر</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>unspecified</v>
+        <v>بغداد</v>
       </c>
       <c r="I15" s="4" t="str">
-        <v>45,000</v>
+        <v>32,000</v>
       </c>
       <c r="J15" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K15" s="4" t="str">
-        <v>test</v>
+        <v/>
       </c>
       <c r="L15" s="4" t="str">
         <v>Iraq</v>
@@ -1512,25 +1512,25 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="str">
-        <v>18,500</v>
+        <v>13,000</v>
       </c>
       <c r="O15" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P15" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <v>IQ050101HOSE99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R15" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S15" s="4" t="str">
-        <v>38500</v>
+        <v>25500</v>
       </c>
       <c r="T15" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U15" s="4" t="str">
         <v/>
@@ -1539,36 +1539,36 @@
         <v/>
       </c>
       <c r="W15" s="4" t="str">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>2027447-21394412</v>
+        <v>2027447-21395752</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>اية</v>
+        <v>Lawko sndi</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Pending Shipping</v>
+        <v>Order Received</v>
       </c>
       <c r="D16" s="5">
-        <v>46066.86900146991</v>
+        <v>46066.93626458333</v>
       </c>
       <c r="E16" s="5">
-        <v>46067.592705104165</v>
+        <v>46067.32375849537</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>9647714219716</v>
+        <v>9647504505975</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>الجادرية-بغداد</v>
+        <v>زاخو - نيو زاخو</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>بغداد</v>
+        <v>دهوك</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>32,000</v>
+        <v>114,000</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>6,500</v>
@@ -1583,22 +1583,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="str">
-        <v>13,000</v>
+        <v>34,500</v>
       </c>
       <c r="O16" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P16" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>nahrayn market</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010601GHKK99, IQ010106MAGG99</v>
       </c>
       <c r="R16" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S16" s="4" t="str">
-        <v>25500</v>
+        <v>47500, 60000</v>
       </c>
       <c r="T16" s="4" t="str">
         <v>Cart</v>
@@ -1610,42 +1610,42 @@
         <v/>
       </c>
       <c r="W16" s="4" t="str">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="str">
-        <v>2027447-21390045</v>
+        <v>2027447-21395461</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>مؤمن</v>
+        <v>yahya</v>
       </c>
       <c r="C17" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D17" s="5">
-        <v>46066.626790277776</v>
+        <v>46066.9186940162</v>
       </c>
       <c r="E17" s="5">
-        <v>46066.62679380787</v>
+        <v>46066.9263240162</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>9647826677984</v>
+        <v>964663361252</v>
       </c>
       <c r="G17" s="4" t="str">
-        <v>العامرية</v>
+        <v>163 Great George Street</v>
       </c>
       <c r="H17" s="4" t="str">
-        <v>بغداد</v>
+        <v>unspecified</v>
       </c>
       <c r="I17" s="4" t="str">
-        <v>32,000</v>
+        <v>45,000</v>
       </c>
       <c r="J17" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K17" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>test</v>
       </c>
       <c r="L17" s="4" t="str">
         <v>Iraq</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="str">
-        <v>13,000</v>
+        <v>18,500</v>
       </c>
       <c r="O17" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P17" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v/>
       </c>
       <c r="Q17" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ050101HOSE99</v>
       </c>
       <c r="R17" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4" t="str">
-        <v>25500</v>
+        <v>38500</v>
       </c>
       <c r="T17" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U17" s="4" t="str">
         <v/>
@@ -1681,30 +1681,30 @@
         <v/>
       </c>
       <c r="W17" s="4" t="str">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>2027447-21390044</v>
+        <v>2027447-21394412</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>مؤمن</v>
+        <v>اية</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D18" s="5">
-        <v>46066.62668688657</v>
+        <v>46066.86900146991</v>
       </c>
       <c r="E18" s="5">
-        <v>46067.55866461805</v>
+        <v>46067.89790362269</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>9647826677984</v>
+        <v>9647714219716</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>العامرية\ شارع العمل الشعبي \ بالقرب من صيدلية النوايا</v>
+        <v>الجادرية-بغداد</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>بغداد</v>
@@ -1752,33 +1752,33 @@
         <v/>
       </c>
       <c r="W18" s="4" t="str">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="str">
-        <v>2027447-21388880</v>
+        <v>2027447-21390045</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>حيدر انور</v>
+        <v>مؤمن</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D19" s="5">
-        <v>46066.55861363426</v>
+        <v>46066.626790277776</v>
       </c>
       <c r="E19" s="5">
-        <v>46067.68619865741</v>
+        <v>46066.62679380787</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>9647780800019</v>
+        <v>9647826677984</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>جديدة الشط \مطعم ضفاف دجلة</v>
+        <v>العامرية</v>
       </c>
       <c r="H19" s="4" t="str">
-        <v>ديالى</v>
+        <v>بغداد</v>
       </c>
       <c r="I19" s="4" t="str">
         <v>32,000</v>
@@ -1787,7 +1787,7 @@
         <v>6,500</v>
       </c>
       <c r="K19" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L19" s="4" t="str">
         <v>Iraq</v>
@@ -1808,7 +1808,7 @@
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R19" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4" t="str">
         <v>25500</v>
@@ -1823,30 +1823,30 @@
         <v/>
       </c>
       <c r="W19" s="4" t="str">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>2027447-21386758</v>
+        <v>2027447-21390044</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>عباس</v>
+        <v>مؤمن</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Delivered</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D20" s="5">
-        <v>46066.43902012731</v>
+        <v>46066.62668688657</v>
       </c>
       <c r="E20" s="5">
-        <v>46067.69303649305</v>
+        <v>46067.55866461805</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>9647817457103</v>
+        <v>9647826677984</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>الكاظمية الطائيين</v>
+        <v>العامرية\ شارع العمل الشعبي \ بالقرب من صيدلية النوايا</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>بغداد</v>
@@ -1894,33 +1894,33 @@
         <v/>
       </c>
       <c r="W20" s="4" t="str">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="str">
-        <v>2027447-21386728</v>
+        <v>2027447-21388880</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>محمد مانع</v>
+        <v>حيدر انور</v>
       </c>
       <c r="C21" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D21" s="5">
-        <v>46066.437072395835</v>
+        <v>46066.55861363426</v>
       </c>
       <c r="E21" s="5">
-        <v>46067.773343796296</v>
+        <v>46067.68619865741</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>9647807733869</v>
+        <v>9647780800019</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>كربلاء - شارع السناتر -</v>
+        <v>جديدة الشط \مطعم ضفاف دجلة</v>
       </c>
       <c r="H21" s="4" t="str">
-        <v>كربلاء</v>
+        <v>ديالى</v>
       </c>
       <c r="I21" s="4" t="str">
         <v>32,000</v>
@@ -1965,36 +1965,36 @@
         <v/>
       </c>
       <c r="W21" s="4" t="str">
-        <v>كربلاء</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>2027447-21382855</v>
+        <v>2027447-21386758</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>حسن</v>
+        <v>عباس</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Delivered</v>
       </c>
       <c r="D22" s="5">
-        <v>46066.03705931713</v>
+        <v>46066.43902012731</v>
       </c>
       <c r="E22" s="5">
-        <v>46067.55349341435</v>
+        <v>46067.69303649305</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>9647709605356</v>
+        <v>9647817457103</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>المنصور شارع الاميرات مقابل مطعم ست الشام-بغداد</v>
+        <v>الكاظمية الطائيين</v>
       </c>
       <c r="H22" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>70,000</v>
+        <v>32,000</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>6,500</v>
@@ -2009,22 +2009,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="4" t="str">
-        <v>21,500</v>
+        <v>13,000</v>
       </c>
       <c r="O22" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P22" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q22" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R22" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="4" t="str">
-        <v>63500</v>
+        <v>25500</v>
       </c>
       <c r="T22" s="4" t="str">
         <v>Cart</v>
@@ -2036,36 +2036,36 @@
         <v/>
       </c>
       <c r="W22" s="4" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="str">
-        <v>2027447-21382306</v>
+        <v>2027447-21386728</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>Omar</v>
+        <v>محمد مانع</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>Delivered</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D23" s="5">
-        <v>46065.998907002315</v>
+        <v>46066.437072395835</v>
       </c>
       <c r="E23" s="5">
-        <v>46067.80964422454</v>
+        <v>46067.773343796296</v>
       </c>
       <c r="F23" s="4" t="str">
-        <v>9647501139018</v>
+        <v>9647807733869</v>
       </c>
       <c r="G23" s="4" t="str">
-        <v>اربيل-اربيل</v>
+        <v>كربلاء - شارع السناتر -</v>
       </c>
       <c r="H23" s="4" t="str">
-        <v>اربيل</v>
+        <v>كربلاء</v>
       </c>
       <c r="I23" s="4" t="str">
-        <v>57,500</v>
+        <v>32,000</v>
       </c>
       <c r="J23" s="4" t="str">
         <v>6,500</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="4" t="str">
-        <v>26,000</v>
+        <v>13,000</v>
       </c>
       <c r="O23" s="4" t="str">
         <v>nahrayn market</v>
@@ -2092,10 +2092,10 @@
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R23" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4" t="str">
-        <v>51000</v>
+        <v>25500</v>
       </c>
       <c r="T23" s="4" t="str">
         <v>Cart</v>
@@ -2107,36 +2107,36 @@
         <v/>
       </c>
       <c r="W23" s="4" t="str">
-        <v>251</v>
+        <v>كربلاء</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>2027447-21382086</v>
+        <v>2027447-21382855</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Rabih</v>
+        <v>حسن</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D24" s="5">
-        <v>46065.984579930555</v>
+        <v>46066.03705931713</v>
       </c>
       <c r="E24" s="5">
-        <v>46066.475244409725</v>
+        <v>46067.55349341435</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>9647726631070</v>
+        <v>9647709605356</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>Harthiyia</v>
+        <v>المنصور شارع الاميرات مقابل مطعم ست الشام-بغداد</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>39,000</v>
+        <v>70,000</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>6,500</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="4" t="str">
-        <v>11,500</v>
+        <v>21,500</v>
       </c>
       <c r="O24" s="4" t="str">
         <v>nahrayn market</v>
@@ -2163,10 +2163,10 @@
         <v>IQ030401SSDD99</v>
       </c>
       <c r="R24" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="4" t="str">
-        <v>32500</v>
+        <v>63500</v>
       </c>
       <c r="T24" s="4" t="str">
         <v>Cart</v>
@@ -2178,36 +2178,36 @@
         <v/>
       </c>
       <c r="W24" s="4" t="str">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="str">
-        <v>2027447-21377531</v>
+        <v>2027447-21382306</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>علي حسن</v>
+        <v>Omar</v>
       </c>
       <c r="C25" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D25" s="5">
-        <v>46065.715770613424</v>
+        <v>46065.998907002315</v>
       </c>
       <c r="E25" s="5">
-        <v>46066.61177422454</v>
+        <v>46067.80964422454</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>9647721846101</v>
+        <v>9647501139018</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>السده الهنديه مقابيل بانزيخانه الميقات</v>
+        <v>اربيل-اربيل</v>
       </c>
       <c r="H25" s="4" t="str">
-        <v>بابل</v>
+        <v>اربيل</v>
       </c>
       <c r="I25" s="4" t="str">
-        <v>65,000</v>
+        <v>57,500</v>
       </c>
       <c r="J25" s="4" t="str">
         <v>6,500</v>
@@ -2222,22 +2222,22 @@
         <v>0</v>
       </c>
       <c r="N25" s="4" t="str">
-        <v>13,500</v>
+        <v>26,000</v>
       </c>
       <c r="O25" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P25" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R25" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="4" t="str">
-        <v>58500</v>
+        <v>51000</v>
       </c>
       <c r="T25" s="4" t="str">
         <v>Cart</v>
@@ -2249,36 +2249,36 @@
         <v/>
       </c>
       <c r="W25" s="4" t="str">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>2027447-21373338</v>
+        <v>2027447-21382086</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>عبدالكريم علي</v>
+        <v>Rabih</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D26" s="5">
-        <v>46065.51994837963</v>
+        <v>46065.984579930555</v>
       </c>
       <c r="E26" s="5">
-        <v>46066.51558378472</v>
+        <v>46066.475244409725</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>9647747905790</v>
+        <v>9647726631070</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>منطقة المنصور سريع ابو غريب مقر السفارة  التونسيه ابغداد</v>
+        <v>Harthiyia</v>
       </c>
       <c r="H26" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>46,500</v>
+        <v>39,000</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>6,500</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="str">
-        <v>12,000</v>
+        <v>11,500</v>
       </c>
       <c r="O26" s="4" t="str">
         <v>nahrayn market</v>
@@ -2302,13 +2302,13 @@
         <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <v>IQ030401SSDD99, IQ030303HASH99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R26" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S26" s="4" t="str">
-        <v>32500, 7500</v>
+        <v>32500</v>
       </c>
       <c r="T26" s="4" t="str">
         <v>Cart</v>
@@ -2320,36 +2320,36 @@
         <v/>
       </c>
       <c r="W26" s="4" t="str">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="str">
-        <v>2027447-21372251</v>
+        <v>2027447-21377531</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>wwid</v>
+        <v>علي حسن</v>
       </c>
       <c r="C27" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D27" s="5">
-        <v>46065.46910805556</v>
+        <v>46065.715770613424</v>
       </c>
       <c r="E27" s="5">
-        <v>46067.37971125</v>
+        <v>46066.61177422454</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>9647906268486</v>
+        <v>9647721846101</v>
       </c>
       <c r="G27" s="4" t="str">
-        <v>البنوك شارع المشاتل-بغداد</v>
+        <v>السده الهنديه مقابيل بانزيخانه الميقات</v>
       </c>
       <c r="H27" s="4" t="str">
-        <v>بغداد</v>
+        <v>بابل</v>
       </c>
       <c r="I27" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J27" s="4" t="str">
         <v>6,500</v>
@@ -2364,22 +2364,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O27" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P27" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R27" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S27" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T27" s="4" t="str">
         <v>Cart</v>
@@ -2391,42 +2391,42 @@
         <v/>
       </c>
       <c r="W27" s="4" t="str">
-        <v>msg-2401</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>2027447-21368393</v>
+        <v>2027447-21373338</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>وحده</v>
+        <v>عبدالكريم علي</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D28" s="5">
-        <v>46065.12183098379</v>
+        <v>46065.51994837963</v>
       </c>
       <c r="E28" s="5">
-        <v>46067.49097677083</v>
+        <v>46066.51558378472</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>9647812524349</v>
+        <v>9647747905790</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>هضلان بالقرب من جامع احمد الهرمى</v>
+        <v>منطقة المنصور سريع ابو غريب مقر السفارة  التونسيه ابغداد</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>اربيل</v>
+        <v>بغداد</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>39,000</v>
+        <v>46,500</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K28" s="4" t="str">
-        <v>no region no adress call him to check</v>
+        <v/>
       </c>
       <c r="L28" s="4" t="str">
         <v>Iraq</v>
@@ -2435,22 +2435,22 @@
         <v>0</v>
       </c>
       <c r="N28" s="4" t="str">
-        <v>11,500</v>
+        <v>12,000</v>
       </c>
       <c r="O28" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P28" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ030401SSDD99, IQ030303HASH99</v>
       </c>
       <c r="R28" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S28" s="4" t="str">
-        <v>32500</v>
+        <v>32500, 7500</v>
       </c>
       <c r="T28" s="4" t="str">
         <v>Cart</v>
@@ -2462,36 +2462,36 @@
         <v/>
       </c>
       <c r="W28" s="4" t="str">
-        <v>87679026</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="str">
-        <v>2027447-21367384</v>
+        <v>2027447-21372251</v>
       </c>
       <c r="B29" s="4" t="str">
-        <v>علي رشدي</v>
+        <v>wwid</v>
       </c>
       <c r="C29" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Delivered</v>
       </c>
       <c r="D29" s="5">
-        <v>46065.016198032405</v>
+        <v>46065.46910805556</v>
       </c>
       <c r="E29" s="5">
-        <v>46067.396521574075</v>
+        <v>46067.37971125</v>
       </c>
       <c r="F29" s="4" t="str">
-        <v>9647722503444</v>
+        <v>9647906268486</v>
       </c>
       <c r="G29" s="4" t="str">
-        <v>بغداد - زيونة شارع ربيعيي - فرع جامع القزازة</v>
+        <v>البنوك شارع المشاتل-بغداد</v>
       </c>
       <c r="H29" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I29" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J29" s="4" t="str">
         <v>6,500</v>
@@ -2506,22 +2506,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O29" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P29" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R29" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S29" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T29" s="4" t="str">
         <v>Cart</v>
@@ -2533,42 +2533,42 @@
         <v/>
       </c>
       <c r="W29" s="4" t="str">
-        <v>246</v>
+        <v>msg-2401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>2027447-21367363</v>
+        <v>2027447-21368393</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>احمد</v>
+        <v>وحده</v>
       </c>
       <c r="C30" s="4" t="str">
         <v>Delivery in Progress</v>
       </c>
       <c r="D30" s="5">
-        <v>46065.01485634259</v>
+        <v>46065.12183098379</v>
       </c>
       <c r="E30" s="5">
-        <v>46067.34165854166</v>
+        <v>46067.49097677083</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>9647700350777</v>
+        <v>9647812524349</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>بصره العباسيه شارع سيد حامد</v>
+        <v>هضلان بالقرب من جامع احمد الهرمى</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>65,000</v>
+        <v>39,000</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K30" s="4" t="str">
-        <v/>
+        <v>no region no adress call him to check</v>
       </c>
       <c r="L30" s="4" t="str">
         <v>Iraq</v>
@@ -2577,22 +2577,22 @@
         <v>0</v>
       </c>
       <c r="N30" s="4" t="str">
-        <v>13,500</v>
+        <v>11,500</v>
       </c>
       <c r="O30" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P30" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R30" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S30" s="4" t="str">
-        <v>58500</v>
+        <v>32500</v>
       </c>
       <c r="T30" s="4" t="str">
         <v>Cart</v>
@@ -2604,33 +2604,33 @@
         <v/>
       </c>
       <c r="W30" s="4" t="str">
-        <v>245</v>
+        <v>87679026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="str">
-        <v>2027447-21360961</v>
+        <v>2027447-21367384</v>
       </c>
       <c r="B31" s="4" t="str">
-        <v>نجف</v>
+        <v>علي رشدي</v>
       </c>
       <c r="C31" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D31" s="5">
-        <v>46064.66099334491</v>
+        <v>46065.016198032405</v>
       </c>
       <c r="E31" s="5">
-        <v>46066.70486991898</v>
+        <v>46067.396521574075</v>
       </c>
       <c r="F31" s="4" t="str">
-        <v>9647808785454</v>
+        <v>9647722503444</v>
       </c>
       <c r="G31" s="4" t="str">
-        <v>نجف</v>
+        <v>بغداد - زيونة شارع ربيعيي - فرع جامع القزازة</v>
       </c>
       <c r="H31" s="4" t="str">
-        <v>نجف</v>
+        <v>بغداد</v>
       </c>
       <c r="I31" s="4" t="str">
         <v>65,000</v>
@@ -2675,36 +2675,36 @@
         <v/>
       </c>
       <c r="W31" s="4" t="str">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>2027447-21360346</v>
+        <v>2027447-21367363</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>محمد جواد</v>
+        <v>احمد</v>
       </c>
       <c r="C32" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D32" s="5">
-        <v>46064.62876076389</v>
+        <v>46065.01485634259</v>
       </c>
       <c r="E32" s="5">
-        <v>46065.70527954861</v>
+        <v>46067.84064876157</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>9647802777778</v>
+        <v>9647700350777</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>سماوة-سماوة</v>
+        <v>بصره العباسيه شارع سيد حامد</v>
       </c>
       <c r="H32" s="4" t="str">
-        <v>سماوة</v>
+        <v>بصرة</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>6,500</v>
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O32" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P32" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R32" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S32" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T32" s="4" t="str">
         <v>Cart</v>
@@ -2746,42 +2746,42 @@
         <v/>
       </c>
       <c r="W32" s="4" t="str">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="str">
-        <v>2027447-21359525</v>
+        <v>2027447-21360961</v>
       </c>
       <c r="B33" s="4" t="str">
-        <v>علي</v>
+        <v>نجف</v>
       </c>
       <c r="C33" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Order Received</v>
       </c>
       <c r="D33" s="5">
-        <v>46064.58881206019</v>
+        <v>46064.66099334491</v>
       </c>
       <c r="E33" s="5">
-        <v>46064.58881556713</v>
+        <v>46066.70486991898</v>
       </c>
       <c r="F33" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647808785454</v>
       </c>
       <c r="G33" s="4" t="str">
-        <v>علي الحسينيه</v>
+        <v>نجف</v>
       </c>
       <c r="H33" s="4" t="str">
-        <v>بغداد</v>
+        <v>نجف</v>
       </c>
       <c r="I33" s="4" t="str">
-        <v>70,000</v>
+        <v>65,000</v>
       </c>
       <c r="J33" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K33" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L33" s="4" t="str">
         <v>Iraq</v>
@@ -2790,22 +2790,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="4" t="str">
-        <v>21,500</v>
+        <v>13,500</v>
       </c>
       <c r="O33" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P33" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R33" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="4" t="str">
-        <v>63500</v>
+        <v>58500</v>
       </c>
       <c r="T33" s="4" t="str">
         <v>Cart</v>
@@ -2817,36 +2817,36 @@
         <v/>
       </c>
       <c r="W33" s="4" t="str">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>2027447-21359255</v>
+        <v>2027447-21360346</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>علي</v>
+        <v>محمد جواد</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivered</v>
       </c>
       <c r="D34" s="5">
-        <v>46064.58344008102</v>
+        <v>46064.62876076389</v>
       </c>
       <c r="E34" s="5">
-        <v>46064.69687516204</v>
+        <v>46065.70527954861</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>9647730200307</v>
+        <v>9647802777778</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>الحسينيه</v>
+        <v>سماوة-سماوة</v>
       </c>
       <c r="H34" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>70,000</v>
+        <v>32,000</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>6,500</v>
@@ -2861,22 +2861,22 @@
         <v>0</v>
       </c>
       <c r="N34" s="4" t="str">
-        <v>21,500</v>
+        <v>13,000</v>
       </c>
       <c r="O34" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P34" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R34" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="4" t="str">
-        <v>63500</v>
+        <v>25500</v>
       </c>
       <c r="T34" s="4" t="str">
         <v>Cart</v>
@@ -2888,42 +2888,42 @@
         <v/>
       </c>
       <c r="W34" s="4" t="str">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="str">
-        <v>2027447-21359093</v>
+        <v>2027447-21359525</v>
       </c>
       <c r="B35" s="4" t="str">
-        <v>غيث عبد الرسول</v>
+        <v>علي</v>
       </c>
       <c r="C35" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D35" s="5">
-        <v>46064.57533837963</v>
+        <v>46064.58881206019</v>
       </c>
       <c r="E35" s="5">
-        <v>46067.33331127315</v>
+        <v>46064.58881556713</v>
       </c>
       <c r="F35" s="4" t="str">
-        <v>9647711439901</v>
+        <v>9647730200307</v>
       </c>
       <c r="G35" s="4" t="str">
-        <v>مجمع الامل- ملعب جزع النخله</v>
+        <v>علي الحسينيه</v>
       </c>
       <c r="H35" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I35" s="4" t="str">
-        <v>65,000</v>
+        <v>70,000</v>
       </c>
       <c r="J35" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K35" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L35" s="4" t="str">
         <v>Iraq</v>
@@ -2932,22 +2932,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="4" t="str">
-        <v>13,500</v>
+        <v>21,500</v>
       </c>
       <c r="O35" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P35" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R35" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="4" t="str">
-        <v>58500</v>
+        <v>63500</v>
       </c>
       <c r="T35" s="4" t="str">
         <v>Cart</v>
@@ -2959,36 +2959,36 @@
         <v/>
       </c>
       <c r="W35" s="4" t="str">
-        <v>2400</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>2027447-21359055</v>
+        <v>2027447-21359255</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>مؤمن طه حامد</v>
+        <v>علي</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Delivered</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D36" s="5">
-        <v>46064.57294252315</v>
+        <v>46064.58344008102</v>
       </c>
       <c r="E36" s="5">
-        <v>46067.39486525463</v>
+        <v>46064.69687516204</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>9647816999991</v>
+        <v>9647730200307</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
+        <v>الحسينيه</v>
       </c>
       <c r="H36" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>57,500</v>
+        <v>70,000</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>6,500</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="N36" s="4" t="str">
-        <v>26,000</v>
+        <v>21,500</v>
       </c>
       <c r="O36" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P36" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R36" s="4" t="str">
         <v>2</v>
       </c>
       <c r="S36" s="4" t="str">
-        <v>51000</v>
+        <v>63500</v>
       </c>
       <c r="T36" s="4" t="str">
         <v>Cart</v>
@@ -3030,42 +3030,42 @@
         <v/>
       </c>
       <c r="W36" s="4" t="str">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="str">
-        <v>2027447-21352983</v>
+        <v>2027447-21359093</v>
       </c>
       <c r="B37" s="4" t="str">
-        <v>مصطفى</v>
+        <v>غيث عبد الرسول</v>
       </c>
       <c r="C37" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D37" s="5">
-        <v>46064.10276320602</v>
+        <v>46064.57533837963</v>
       </c>
       <c r="E37" s="5">
-        <v>46064.10276770833</v>
+        <v>46067.33331127315</v>
       </c>
       <c r="F37" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647711439901</v>
       </c>
       <c r="G37" s="4" t="str">
-        <v>تكريت</v>
+        <v>مجمع الامل- ملعب جزع النخله</v>
       </c>
       <c r="H37" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بصرة</v>
       </c>
       <c r="I37" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J37" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K37" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L37" s="4" t="str">
         <v>Iraq</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="N37" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O37" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P37" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R37" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T37" s="4" t="str">
         <v>Cart</v>
@@ -3101,42 +3101,42 @@
         <v/>
       </c>
       <c r="W37" s="4" t="str">
-        <v>239</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>2027447-21352978</v>
+        <v>2027447-21359055</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>مصطفى</v>
+        <v>مؤمن طه حامد</v>
       </c>
       <c r="C38" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D38" s="5">
-        <v>46064.10185199074</v>
+        <v>46064.57294252315</v>
       </c>
       <c r="E38" s="5">
-        <v>46067.290628090275</v>
+        <v>46067.39486525463</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>9647752356021</v>
+        <v>9647816999991</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
+        <v>سيديه شارع-شارع قطر الندى-مجاور مطعم ابو طيبة-بغداد</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بغداد</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>48,000</v>
+        <v>57,500</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K38" s="4" t="str">
-        <v>call him as soon as possible he ordered 1h ago</v>
+        <v/>
       </c>
       <c r="L38" s="4" t="str">
         <v>Iraq</v>
@@ -3145,22 +3145,22 @@
         <v>0</v>
       </c>
       <c r="N38" s="4" t="str">
-        <v>13,000</v>
+        <v>26,000</v>
       </c>
       <c r="O38" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P38" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R38" s="4" t="str">
-        <v>1, 1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="4" t="str">
-        <v>25500, 16000</v>
+        <v>51000</v>
       </c>
       <c r="T38" s="4" t="str">
         <v>Cart</v>
@@ -3172,42 +3172,42 @@
         <v/>
       </c>
       <c r="W38" s="4" t="str">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="str">
-        <v>2027447-21352590</v>
+        <v>2027447-21352983</v>
       </c>
       <c r="B39" s="4" t="str">
-        <v>ختام</v>
+        <v>مصطفى</v>
       </c>
       <c r="C39" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D39" s="5">
-        <v>46064.05801408565</v>
+        <v>46064.10276320602</v>
       </c>
       <c r="E39" s="5">
-        <v>46067.42360630787</v>
+        <v>46064.10276770833</v>
       </c>
       <c r="F39" s="4" t="str">
-        <v>9647783317969</v>
+        <v>9647752356021</v>
       </c>
       <c r="G39" s="4" t="str">
-        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
+        <v>تكريت</v>
       </c>
       <c r="H39" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I39" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J39" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K39" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L39" s="4" t="str">
         <v>Iraq</v>
@@ -3216,22 +3216,22 @@
         <v>0</v>
       </c>
       <c r="N39" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O39" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P39" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R39" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T39" s="4" t="str">
         <v>Cart</v>
@@ -3243,42 +3243,42 @@
         <v/>
       </c>
       <c r="W39" s="4" t="str">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>2027447-21352063</v>
+        <v>2027447-21352978</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>بدر</v>
+        <v>مصطفى</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Delivered</v>
       </c>
       <c r="D40" s="5">
-        <v>46064.004486655096</v>
+        <v>46064.10185199074</v>
       </c>
       <c r="E40" s="5">
-        <v>46067.43945618055</v>
+        <v>46067.290628090275</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>9647709112266</v>
+        <v>9647752356021</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
+        <v>صلاح الدين- تكريت العلم - قبل طوله 14</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>بغداد</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>65,000</v>
+        <v>48,000</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K40" s="4" t="str">
-        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
+        <v>call him as soon as possible he ordered 1h ago</v>
       </c>
       <c r="L40" s="4" t="str">
         <v>Iraq</v>
@@ -3287,22 +3287,22 @@
         <v>0</v>
       </c>
       <c r="N40" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O40" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P40" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99, IQ040110ZAOO99</v>
       </c>
       <c r="R40" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S40" s="4" t="str">
-        <v>58500</v>
+        <v>25500, 16000</v>
       </c>
       <c r="T40" s="4" t="str">
         <v>Cart</v>
@@ -3314,42 +3314,42 @@
         <v/>
       </c>
       <c r="W40" s="4" t="str">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="str">
-        <v>2027447-21351848</v>
+        <v>2027447-21352590</v>
       </c>
       <c r="B41" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>ختام</v>
       </c>
       <c r="C41" s="4" t="str">
-        <v>Delivered</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D41" s="5">
-        <v>46063.98810440972</v>
+        <v>46064.05801408565</v>
       </c>
       <c r="E41" s="5">
-        <v>46067.457820752315</v>
+        <v>46067.42360630787</v>
       </c>
       <c r="F41" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647783317969</v>
       </c>
       <c r="G41" s="4" t="str">
-        <v>سيدية-بغداد</v>
+        <v>بغداد الأمين نواب الضباط قرب جامع الاسراء</v>
       </c>
       <c r="H41" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I41" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J41" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K41" s="4" t="str">
-        <v>please call him for the right adress</v>
+        <v/>
       </c>
       <c r="L41" s="4" t="str">
         <v>Iraq</v>
@@ -3358,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="4" t="str">
-        <v>13,000</v>
+        <v>11,500</v>
       </c>
       <c r="O41" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P41" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R41" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S41" s="4" t="str">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="T41" s="4" t="str">
         <v>Cart</v>
@@ -3385,42 +3385,42 @@
         <v/>
       </c>
       <c r="W41" s="4" t="str">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>2027447-21351804</v>
+        <v>2027447-21352063</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>حمزة</v>
+        <v>بدر</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D42" s="5">
-        <v>46063.98408190972</v>
+        <v>46064.004486655096</v>
       </c>
       <c r="E42" s="5">
-        <v>46064.549906238426</v>
+        <v>46067.43945618055</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647709112266</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>حي الصحفيين</v>
+        <v>الكاظميه- ساحة العروبة - بالقرب منمعم فلافل العروبة</v>
       </c>
       <c r="H42" s="4" t="str">
-        <v>ميسان</v>
+        <v>بغداد</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K42" s="4" t="str">
-        <v/>
+        <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
       </c>
       <c r="L42" s="4" t="str">
         <v>Iraq</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="N42" s="4" t="str">
-        <v>13,000</v>
+        <v>13,500</v>
       </c>
       <c r="O42" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P42" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R42" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S42" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T42" s="4" t="str">
         <v>Cart</v>
@@ -3456,30 +3456,30 @@
         <v/>
       </c>
       <c r="W42" s="4" t="str">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="str">
-        <v>2027447-21351537</v>
+        <v>2027447-21351848</v>
       </c>
       <c r="B43" s="4" t="str">
         <v>همام محمد عدنان</v>
       </c>
       <c r="C43" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D43" s="5">
-        <v>46063.961482858795</v>
+        <v>46063.98810440972</v>
       </c>
       <c r="E43" s="5">
-        <v>46063.96148587963</v>
+        <v>46067.457820752315</v>
       </c>
       <c r="F43" s="4" t="str">
         <v>9647737249887</v>
       </c>
       <c r="G43" s="4" t="str">
-        <v>سيدية</v>
+        <v>سيدية-بغداد</v>
       </c>
       <c r="H43" s="4" t="str">
         <v>بغداد</v>
@@ -3491,7 +3491,7 @@
         <v>6,500</v>
       </c>
       <c r="K43" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>please call him for the right adress</v>
       </c>
       <c r="L43" s="4" t="str">
         <v>Iraq</v>
@@ -3503,16 +3503,16 @@
         <v>13,000</v>
       </c>
       <c r="O43" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P43" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q43" s="4" t="str">
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R43" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="str">
         <v>25500</v>
@@ -3532,28 +3532,28 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>2027447-21351528</v>
+        <v>2027447-21351804</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>همام محمد عدنان</v>
+        <v>حمزة</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D44" s="5">
-        <v>46063.96038298611</v>
+        <v>46063.98408190972</v>
       </c>
       <c r="E44" s="5">
-        <v>46064.012010162034</v>
+        <v>46064.549906238426</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>9647737249887</v>
+        <v>9647711120937</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>بغداد</v>
+        <v>حي الصحفيين</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>سماوة</v>
+        <v>ميسان</v>
       </c>
       <c r="I44" s="4" t="str">
         <v>32,000</v>
@@ -3562,7 +3562,7 @@
         <v>6,500</v>
       </c>
       <c r="K44" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L44" s="4" t="str">
         <v>Iraq</v>
@@ -3598,33 +3598,33 @@
         <v/>
       </c>
       <c r="W44" s="4" t="str">
-        <v>87530121</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="str">
-        <v>2027447-21351475</v>
+        <v>2027447-21351537</v>
       </c>
       <c r="B45" s="4" t="str">
-        <v>حمزة</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C45" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D45" s="5">
-        <v>46063.95675210648</v>
+        <v>46063.961482858795</v>
       </c>
       <c r="E45" s="5">
-        <v>46063.98080037037</v>
+        <v>46063.96148587963</v>
       </c>
       <c r="F45" s="4" t="str">
-        <v>9647711120937</v>
+        <v>9647737249887</v>
       </c>
       <c r="G45" s="4" t="str">
+        <v>سيدية</v>
+      </c>
+      <c r="H45" s="4" t="str">
         <v>بغداد</v>
-      </c>
-      <c r="H45" s="4" t="str">
-        <v>ديالى</v>
       </c>
       <c r="I45" s="4" t="str">
         <v>32,000</v>
@@ -3633,7 +3633,7 @@
         <v>6,500</v>
       </c>
       <c r="K45" s="4" t="str">
-        <v>wrong</v>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L45" s="4" t="str">
         <v>Iraq</v>
@@ -3645,16 +3645,16 @@
         <v>13,000</v>
       </c>
       <c r="O45" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P45" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
       </c>
       <c r="Q45" s="4" t="str">
         <v>IQ040107ALUY99</v>
       </c>
       <c r="R45" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="4" t="str">
         <v>25500</v>
@@ -3669,42 +3669,42 @@
         <v/>
       </c>
       <c r="W45" s="4" t="str">
-        <v>87541683</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>2027447-21351392</v>
+        <v>2027447-21351528</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>حسين</v>
+        <v>همام محمد عدنان</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D46" s="5">
-        <v>46063.95060015046</v>
+        <v>46063.96038298611</v>
       </c>
       <c r="E46" s="5">
-        <v>46064.75670608797</v>
+        <v>46064.012010162034</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647737249887</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>iraq</v>
+        <v>بغداد</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>بغداد</v>
+        <v>سماوة</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K46" s="4" t="str">
-        <v/>
+        <v>wrong</v>
       </c>
       <c r="L46" s="4" t="str">
         <v>Iraq</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O46" s="4" t="str">
         <v>Nahrayn Market</v>
@@ -3722,13 +3722,13 @@
         <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R46" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S46" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T46" s="4" t="str">
         <v>Cart</v>
@@ -3740,36 +3740,36 @@
         <v/>
       </c>
       <c r="W46" s="4" t="str">
-        <v>#87532943</v>
+        <v>87530121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="str">
-        <v>2027447-21351368</v>
+        <v>2027447-21351475</v>
       </c>
       <c r="B47" s="4" t="str">
-        <v>حسين</v>
+        <v>حمزة</v>
       </c>
       <c r="C47" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D47" s="5">
-        <v>46063.948616712965</v>
+        <v>46063.95675210648</v>
       </c>
       <c r="E47" s="5">
-        <v>46063.9631065625</v>
+        <v>46063.98080037037</v>
       </c>
       <c r="F47" s="4" t="str">
-        <v>9647817913219</v>
+        <v>9647711120937</v>
       </c>
       <c r="G47" s="4" t="str">
-        <v>iraq</v>
+        <v>بغداد</v>
       </c>
       <c r="H47" s="4" t="str">
-        <v>بغداد</v>
+        <v>ديالى</v>
       </c>
       <c r="I47" s="4" t="str">
-        <v>54,500</v>
+        <v>32,000</v>
       </c>
       <c r="J47" s="4" t="str">
         <v>6,500</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="N47" s="4" t="str">
-        <v>3,000</v>
+        <v>13,000</v>
       </c>
       <c r="O47" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P47" s="4" t="str">
-        <v/>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R47" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S47" s="4" t="str">
-        <v>48000</v>
+        <v>25500</v>
       </c>
       <c r="T47" s="4" t="str">
         <v>Cart</v>
@@ -3811,30 +3811,30 @@
         <v/>
       </c>
       <c r="W47" s="4" t="str">
-        <v/>
+        <v>87541683</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>2027447-21349907</v>
+        <v>2027447-21351392</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>علاء</v>
+        <v>حسين</v>
       </c>
       <c r="C48" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
       <c r="D48" s="5">
-        <v>46063.849569907405</v>
+        <v>46063.95060015046</v>
       </c>
       <c r="E48" s="5">
-        <v>46064.7135206713</v>
+        <v>46064.75670608797</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>9647728868298</v>
+        <v>9647817913219</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>علاء</v>
+        <v>iraq</v>
       </c>
       <c r="H48" s="4" t="str">
         <v>بغداد</v>
@@ -3882,42 +3882,42 @@
         <v/>
       </c>
       <c r="W48" s="4" t="str">
-        <v>233</v>
+        <v>#87532943</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="str">
-        <v>2027447-21349803</v>
+        <v>2027447-21351368</v>
       </c>
       <c r="B49" s="4" t="str">
-        <v>أدور</v>
+        <v>حسين</v>
       </c>
       <c r="C49" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D49" s="5">
-        <v>46063.84274976852</v>
+        <v>46063.948616712965</v>
       </c>
       <c r="E49" s="5">
-        <v>46067.41942283565</v>
+        <v>46063.9631065625</v>
       </c>
       <c r="F49" s="4" t="str">
-        <v>9647760033306</v>
+        <v>9647817913219</v>
       </c>
       <c r="G49" s="4" t="str">
-        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
+        <v>iraq</v>
       </c>
       <c r="H49" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I49" s="4" t="str">
-        <v>32,000</v>
+        <v>54,500</v>
       </c>
       <c r="J49" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K49" s="4" t="str">
-        <v>please call him he orderded 1h ago</v>
+        <v>wrong</v>
       </c>
       <c r="L49" s="4" t="str">
         <v>Iraq</v>
@@ -3926,22 +3926,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="4" t="str">
-        <v>13,000</v>
+        <v>3,000</v>
       </c>
       <c r="O49" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P49" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net</v>
+        <v/>
       </c>
       <c r="Q49" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R49" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S49" s="4" t="str">
-        <v>25500</v>
+        <v>48000</v>
       </c>
       <c r="T49" s="4" t="str">
         <v>Cart</v>
@@ -3953,36 +3953,36 @@
         <v/>
       </c>
       <c r="W49" s="4" t="str">
-        <v xml:space="preserve"> #87523524</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>2027447-21348136</v>
+        <v>2027447-21349907</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>رامي</v>
+        <v>علاء</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D50" s="5">
-        <v>46063.74508501157</v>
+        <v>46063.849569907405</v>
       </c>
       <c r="E50" s="5">
-        <v>46066.422230474534</v>
+        <v>46064.7135206713</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>9647713910265</v>
+        <v>9647728868298</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>شهداء البياع بشارع المضخه ثاني</v>
+        <v>علاء</v>
       </c>
       <c r="H50" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>39,000</v>
+        <v>65,000</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>6,500</v>
@@ -3997,22 +3997,22 @@
         <v>0</v>
       </c>
       <c r="N50" s="4" t="str">
-        <v>11,500</v>
+        <v>13,500</v>
       </c>
       <c r="O50" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P50" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R50" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S50" s="4" t="str">
-        <v>32500</v>
+        <v>58500</v>
       </c>
       <c r="T50" s="4" t="str">
         <v>Cart</v>
@@ -4024,42 +4024,42 @@
         <v/>
       </c>
       <c r="W50" s="4" t="str">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="str">
-        <v>2027447-21346745</v>
+        <v>2027447-21349803</v>
       </c>
       <c r="B51" s="4" t="str">
-        <v>Lizan ahmed</v>
+        <v>أدور</v>
       </c>
       <c r="C51" s="4" t="str">
-        <v>Delivered</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D51" s="5">
-        <v>46063.669380127314</v>
+        <v>46063.84274976852</v>
       </c>
       <c r="E51" s="5">
-        <v>46065.49400057871</v>
+        <v>46067.41942283565</v>
       </c>
       <c r="F51" s="4" t="str">
-        <v>9647705434750</v>
+        <v>9647760033306</v>
       </c>
       <c r="G51" s="4" t="str">
-        <v>Pak city /A9/9/38</v>
+        <v>اليرموك- بالقرب من بانزيخنه اليرموك</v>
       </c>
       <c r="H51" s="4" t="str">
-        <v>سليمانية</v>
+        <v>بغداد</v>
       </c>
       <c r="I51" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J51" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K51" s="4" t="str">
-        <v/>
+        <v>please call him he orderded 1h ago</v>
       </c>
       <c r="L51" s="4" t="str">
         <v>Iraq</v>
@@ -4068,22 +4068,22 @@
         <v>0</v>
       </c>
       <c r="N51" s="4" t="str">
-        <v>11,500</v>
+        <v>13,000</v>
       </c>
       <c r="O51" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P51" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://nahraynmarket.myecomstore.net</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ040107ALUY99</v>
       </c>
       <c r="R51" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S51" s="4" t="str">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="T51" s="4" t="str">
         <v>Cart</v>
@@ -4095,42 +4095,42 @@
         <v/>
       </c>
       <c r="W51" s="4" t="str">
-        <v>231</v>
+        <v xml:space="preserve"> #87523524</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>2027447-21346653</v>
+        <v>2027447-21348136</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>فرح</v>
+        <v>رامي</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D52" s="5">
-        <v>46063.66798331019</v>
+        <v>46063.74508501157</v>
       </c>
       <c r="E52" s="5">
-        <v>46063.66799663194</v>
+        <v>46066.422230474534</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647713910265</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>بغداد</v>
+        <v>شهداء البياع بشارع المضخه ثاني</v>
       </c>
       <c r="H52" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>32,000</v>
+        <v>39,000</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K52" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L52" s="4" t="str">
         <v>Iraq</v>
@@ -4139,22 +4139,22 @@
         <v>0</v>
       </c>
       <c r="N52" s="4" t="str">
-        <v>13,000</v>
+        <v>11,500</v>
       </c>
       <c r="O52" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayh market</v>
       </c>
       <c r="P52" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R52" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="4" t="str">
-        <v>25500</v>
+        <v>32500</v>
       </c>
       <c r="T52" s="4" t="str">
         <v>Cart</v>
@@ -4166,36 +4166,36 @@
         <v/>
       </c>
       <c r="W52" s="4" t="str">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="str">
-        <v>2027447-21346649</v>
+        <v>2027447-21346745</v>
       </c>
       <c r="B53" s="4" t="str">
-        <v>فرح</v>
+        <v>Lizan ahmed</v>
       </c>
       <c r="C53" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Delivered</v>
       </c>
       <c r="D53" s="5">
-        <v>46063.667939756946</v>
+        <v>46063.669380127314</v>
       </c>
       <c r="E53" s="5">
-        <v>46067.522361979165</v>
+        <v>46065.49400057871</v>
       </c>
       <c r="F53" s="4" t="str">
-        <v>9647719047222</v>
+        <v>9647705434750</v>
       </c>
       <c r="G53" s="4" t="str">
-        <v>بغداد زيونه قرب كوفى نايت</v>
+        <v>Pak city /A9/9/38</v>
       </c>
       <c r="H53" s="4" t="str">
-        <v>بغداد</v>
+        <v>سليمانية</v>
       </c>
       <c r="I53" s="4" t="str">
-        <v>29,000</v>
+        <v>39,000</v>
       </c>
       <c r="J53" s="4" t="str">
         <v>6,500</v>
@@ -4210,22 +4210,22 @@
         <v>0</v>
       </c>
       <c r="N53" s="4" t="str">
-        <v>10,000</v>
+        <v>11,500</v>
       </c>
       <c r="O53" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P53" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/XIvS</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q53" s="4" t="str">
-        <v>IQ040107ALUY99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R53" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S53" s="4" t="str">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="T53" s="4" t="str">
         <v>Cart</v>
@@ -4237,36 +4237,36 @@
         <v/>
       </c>
       <c r="W53" s="4" t="str">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>2027447-21343324</v>
+        <v>2027447-21346653</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Ako</v>
+        <v>فرح</v>
       </c>
       <c r="C54" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D54" s="5">
-        <v>46063.50018960648</v>
+        <v>46063.66798331019</v>
       </c>
       <c r="E54" s="5">
-        <v>46063.500192824074</v>
+        <v>46063.66799663194</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>9647701532528</v>
+        <v>9647719047222</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>قضاء جم جمال</v>
+        <v>بغداد</v>
       </c>
       <c r="H54" s="4" t="str">
-        <v>سليمانية</v>
+        <v>بغداد</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>6,500</v>
@@ -4281,379 +4281,379 @@
         <v>0</v>
       </c>
       <c r="N54" s="4" t="str">
-        <v>13,500</v>
+        <v>13,000</v>
       </c>
       <c r="O54" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P54" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q54" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R54" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T54" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W54" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="str">
+        <v>2027447-21346649</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <v>فرح</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <v>Delivery in Progress</v>
+      </c>
+      <c r="D55" s="5">
+        <v>46063.667939756946</v>
+      </c>
+      <c r="E55" s="5">
+        <v>46067.522361979165</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <v>9647719047222</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <v>بغداد زيونه قرب كوفى نايت</v>
+      </c>
+      <c r="H55" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <v>29,000</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L55" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="O55" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P55" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/XIvS</v>
+      </c>
+      <c r="Q55" s="4" t="str">
+        <v>IQ040107ALUY99</v>
+      </c>
+      <c r="R55" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4" t="str">
+        <v>22500</v>
+      </c>
+      <c r="T55" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U55" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V55" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W55" s="4" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>2027447-21343324</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>Ako</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D56" s="5">
+        <v>46063.50018960648</v>
+      </c>
+      <c r="E56" s="5">
+        <v>46063.500192824074</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <v>9647701532528</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <v>قضاء جم جمال</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <v>سليمانية</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <v>65,000</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <v>هذا الطلب مكرر</v>
+      </c>
+      <c r="L56" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4" t="str">
+        <v>13,500</v>
+      </c>
+      <c r="O56" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P56" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q54" s="4" t="str">
+      <c r="Q56" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R54" s="4" t="str">
-        <v>0</v>
-      </c>
-      <c r="S54" s="4" t="str">
+      <c r="R56" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T54" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V54" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W54" s="4" t="str">
+      <c r="T56" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W56" s="4" t="str">
         <v>87480859</v>
       </c>
     </row>
-    <row r="55" xml:space="preserve">
-      <c r="A55" s="4" t="str">
+    <row r="57" xml:space="preserve">
+      <c r="A57" s="4" t="str">
         <v>2027447-21343221</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B57" s="4" t="str">
         <v>A Talabany</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C57" s="4" t="str">
         <v>Delivered</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D57" s="5">
         <v>46063.494396145834</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E57" s="5">
         <v>46067.495481631944</v>
       </c>
-      <c r="F55" s="4" t="str">
+      <c r="F57" s="4" t="str">
         <v>9647701532528</v>
       </c>
-      <c r="G55" s="4" t="str" xml:space="preserve">
+      <c r="G57" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">مخافظه سليمانيه / قضاء جم جمال
 عماره رامان طبيه</v>
       </c>
-      <c r="H55" s="4" t="str">
+      <c r="H57" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I55" s="4" t="str">
+      <c r="I57" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J55" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K55" s="4" t="str">
+      <c r="J57" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K57" s="4" t="str">
         <v>call him asap he ordered 40 min ago</v>
       </c>
-      <c r="L55" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0</v>
-      </c>
-      <c r="N55" s="4" t="str">
+      <c r="L57" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O55" s="4" t="str">
+      <c r="O57" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P55" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q55" s="4" t="str">
+      <c r="P57" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q57" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R55" s="4" t="str">
+      <c r="R57" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S55" s="4" t="str">
+      <c r="S57" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T55" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U55" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V55" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W55" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="str">
+      <c r="T57" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U57" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V57" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W57" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
         <v>2027447-21341150</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B58" s="4" t="str">
         <v>حيدر</v>
       </c>
-      <c r="C56" s="4" t="str">
+      <c r="C58" s="4" t="str">
         <v>Delivered</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D58" s="5">
         <v>46063.363034456015</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E58" s="5">
         <v>46067.3569625463</v>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F58" s="4" t="str">
         <v>9647723832426</v>
       </c>
-      <c r="G56" s="4" t="str">
+      <c r="G58" s="4" t="str">
         <v>الزبير الرشيدية الاولى  بصره قرب جامع الرشيديه</v>
       </c>
-      <c r="H56" s="4" t="str">
+      <c r="H58" s="4" t="str">
         <v>بصرة</v>
       </c>
-      <c r="I56" s="4" t="str">
+      <c r="I58" s="4" t="str">
         <v>65,000</v>
       </c>
-      <c r="J56" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L56" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0</v>
-      </c>
-      <c r="N56" s="4" t="str">
+      <c r="J58" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L58" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="str">
         <v>13,500</v>
       </c>
-      <c r="O56" s="4" t="str">
+      <c r="O58" s="4" t="str">
         <v>Nahrayn market</v>
       </c>
-      <c r="P56" s="4" t="str">
+      <c r="P58" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
-      <c r="Q56" s="4" t="str">
+      <c r="Q58" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
-      <c r="R56" s="4" t="str">
+      <c r="R58" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S56" s="4" t="str">
+      <c r="S58" s="4" t="str">
         <v>58500</v>
       </c>
-      <c r="T56" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V56" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W56" s="4" t="str">
+      <c r="T58" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V58" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W58" s="4" t="str">
         <v>229</v>
       </c>
     </row>
-    <row r="57" xml:space="preserve">
-      <c r="A57" s="4" t="str">
+    <row r="59" xml:space="preserve">
+      <c r="A59" s="4" t="str">
         <v>2027447-21341133</v>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B59" s="4" t="str">
         <v>وسام</v>
       </c>
-      <c r="C57" s="4" t="str">
+      <c r="C59" s="4" t="str">
         <v>Delivered</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D59" s="5">
         <v>46063.36197258102</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E59" s="5">
         <v>46065.39993710648</v>
       </c>
-      <c r="F57" s="4" t="str">
+      <c r="F59" s="4" t="str">
         <v>9647703099082</v>
       </c>
-      <c r="G57" s="4" t="str" xml:space="preserve">
+      <c r="G59" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">وسام هاشم جاسم
 بغداد البياع شارع 20-بغداد</v>
       </c>
-      <c r="H57" s="4" t="str">
+      <c r="H59" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I57" s="4" t="str">
+      <c r="I59" s="4" t="str">
         <v>117,000</v>
       </c>
-      <c r="J57" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K57" s="4" t="str">
+      <c r="J59" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K59" s="4" t="str">
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
-      <c r="L57" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="4" t="str">
+      <c r="L59" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4" t="str">
         <v>20,500</v>
-      </c>
-      <c r="O57" s="4" t="str">
-        <v>nahrayn market</v>
-      </c>
-      <c r="P57" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="Q57" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R57" s="4" t="str">
-        <v>2</v>
-      </c>
-      <c r="S57" s="4" t="str">
-        <v>110500</v>
-      </c>
-      <c r="T57" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U57" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V57" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W57" s="4" t="str">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="str">
-        <v>2027447-21336464</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <v>سيفر سردار</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D58" s="5">
-        <v>46062.94732335648</v>
-      </c>
-      <c r="E58" s="5">
-        <v>46066.421548356484</v>
-      </c>
-      <c r="F58" s="4" t="str">
-        <v>9647504451352</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <v>اربيل اسكان تاورز</v>
-      </c>
-      <c r="H58" s="4" t="str">
-        <v>اربيل</v>
-      </c>
-      <c r="I58" s="4" t="str">
-        <v>65,000</v>
-      </c>
-      <c r="J58" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L58" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
-      <c r="N58" s="4" t="str">
-        <v>13,500</v>
-      </c>
-      <c r="O58" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
-      </c>
-      <c r="P58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q58" s="4" t="str">
-        <v>IQ010106MAGG99</v>
-      </c>
-      <c r="R58" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4" t="str">
-        <v>58500</v>
-      </c>
-      <c r="T58" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V58" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W58" s="4" t="str">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="str">
-        <v>2027447-21333532</v>
-      </c>
-      <c r="B59" s="4" t="str">
-        <v>Saja</v>
-      </c>
-      <c r="C59" s="4" t="str">
-        <v>Order Received</v>
-      </c>
-      <c r="D59" s="5">
-        <v>46062.79384813657</v>
-      </c>
-      <c r="E59" s="5">
-        <v>46064.657996828704</v>
-      </c>
-      <c r="F59" s="4" t="str">
-        <v>9647735278208</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <v>الصويره</v>
-      </c>
-      <c r="H59" s="4" t="str">
-        <v>كوت</v>
-      </c>
-      <c r="I59" s="4" t="str">
-        <v>34,000</v>
-      </c>
-      <c r="J59" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K59" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L59" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="4" t="str">
-        <v>6,500</v>
       </c>
       <c r="O59" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P59" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/1tGx</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q59" s="4" t="str">
-        <v>IQ030401SSDD99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R59" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S59" s="4" t="str">
-        <v>27500</v>
+        <v>110500</v>
       </c>
       <c r="T59" s="4" t="str">
         <v>Cart</v>
@@ -4665,33 +4665,33 @@
         <v/>
       </c>
       <c r="W59" s="4" t="str">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>2027447-21333501</v>
+        <v>2027447-21336464</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>عباس</v>
+        <v>سيفر سردار</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Delivered</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D60" s="5">
-        <v>46062.79220025463</v>
+        <v>46062.94732335648</v>
       </c>
       <c r="E60" s="5">
-        <v>46067.313611377314</v>
+        <v>46066.421548356484</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>9647709009992</v>
+        <v>9647504451352</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>الجمعيات حي الخليج-بصرة</v>
+        <v>اربيل اسكان تاورز</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>بصرة</v>
+        <v>اربيل</v>
       </c>
       <c r="I60" s="4" t="str">
         <v>65,000</v>
@@ -4712,10 +4712,10 @@
         <v>13,500</v>
       </c>
       <c r="O60" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="P60" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q60" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -4736,36 +4736,36 @@
         <v/>
       </c>
       <c r="W60" s="4" t="str">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="str">
-        <v>2027447-21330420</v>
+        <v>2027447-21333532</v>
       </c>
       <c r="B61" s="4" t="str">
-        <v>برهيم علي سجاد</v>
+        <v>Saja</v>
       </c>
       <c r="C61" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Order Received</v>
       </c>
       <c r="D61" s="5">
-        <v>46062.64360072916</v>
+        <v>46062.79384813657</v>
       </c>
       <c r="E61" s="5">
-        <v>46062.777227673614</v>
+        <v>46064.657996828704</v>
       </c>
       <c r="F61" s="4" t="str">
-        <v>9647865144993</v>
+        <v>9647735278208</v>
       </c>
       <c r="G61" s="4" t="str">
-        <v>baghdad</v>
+        <v>الصويره</v>
       </c>
       <c r="H61" s="4" t="str">
-        <v>بغداد</v>
+        <v>كوت</v>
       </c>
       <c r="I61" s="4" t="str">
-        <v>42,000</v>
+        <v>34,000</v>
       </c>
       <c r="J61" s="4" t="str">
         <v>6,500</v>
@@ -4780,22 +4780,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="4" t="str">
-        <v>13,500</v>
+        <v>6,500</v>
       </c>
       <c r="O61" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P61" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
+        <v>https://www.nahrayn-market.com/products/1tGx</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <v>IQ050105DAWI99</v>
+        <v>IQ030401SSDD99</v>
       </c>
       <c r="R61" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S61" s="4" t="str">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="T61" s="4" t="str">
         <v>Cart</v>
@@ -4807,33 +4807,33 @@
         <v/>
       </c>
       <c r="W61" s="4" t="str">
-        <v>87373913</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>2027447-21330386</v>
+        <v>2027447-21333501</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>علي جبار</v>
+        <v>عباس</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivered</v>
       </c>
       <c r="D62" s="5">
-        <v>46062.64234420139</v>
+        <v>46062.79220025463</v>
       </c>
       <c r="E62" s="5">
-        <v>46063.45347559028</v>
+        <v>46067.313611377314</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>9647721584481</v>
+        <v>9647709009992</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>بغداد</v>
+        <v>الجمعيات حي الخليج-بصرة</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I62" s="4" t="str">
         <v>65,000</v>
@@ -4878,33 +4878,33 @@
         <v/>
       </c>
       <c r="W62" s="4" t="str">
-        <v>87370182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="str">
-        <v>2027447-21329162</v>
+        <v>2027447-21330420</v>
       </c>
       <c r="B63" s="4" t="str">
-        <v>اسيل</v>
+        <v>برهيم علي سجاد</v>
       </c>
       <c r="C63" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
       <c r="D63" s="5">
-        <v>46062.5843108912</v>
+        <v>46062.64360072916</v>
       </c>
       <c r="E63" s="5">
-        <v>46063.708111203705</v>
+        <v>46062.777227673614</v>
       </c>
       <c r="F63" s="4" t="str">
-        <v>9647746308618</v>
+        <v>9647865144993</v>
       </c>
       <c r="G63" s="4" t="str">
-        <v>بصرة</v>
+        <v>baghdad</v>
       </c>
       <c r="H63" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I63" s="4" t="str">
         <v>42,000</v>
@@ -4913,7 +4913,7 @@
         <v>6,500</v>
       </c>
       <c r="K63" s="4" t="str">
-        <v>discount number</v>
+        <v/>
       </c>
       <c r="L63" s="4" t="str">
         <v>Iraq</v>
@@ -4949,36 +4949,36 @@
         <v/>
       </c>
       <c r="W63" s="4" t="str">
-        <v>87381291</v>
+        <v>87373913</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>2027447-21328284</v>
+        <v>2027447-21330386</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>فهد</v>
+        <v>علي جبار</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D64" s="5">
-        <v>46062.54285048611</v>
+        <v>46062.64234420139</v>
       </c>
       <c r="E64" s="5">
-        <v>46066.408057534725</v>
+        <v>46063.45347559028</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>9647783312740</v>
+        <v>9647721584481</v>
       </c>
       <c r="G64" s="4" t="str">
-        <v>بغداد دوره طياره</v>
+        <v>بغداد</v>
       </c>
       <c r="H64" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>42,000</v>
+        <v>65,000</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>6,500</v>
@@ -4999,16 +4999,16 @@
         <v>nahrayn market</v>
       </c>
       <c r="P64" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <v>IQ050105DAWI99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R64" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S64" s="4" t="str">
-        <v>35500</v>
+        <v>58500</v>
       </c>
       <c r="T64" s="4" t="str">
         <v>Cart</v>
@@ -5020,42 +5020,42 @@
         <v/>
       </c>
       <c r="W64" s="4" t="str">
-        <v>222</v>
+        <v>87370182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="str">
-        <v>2027447-21327273</v>
+        <v>2027447-21329162</v>
       </c>
       <c r="B65" s="4" t="str">
-        <v>Samer sabah</v>
+        <v>اسيل</v>
       </c>
       <c r="C65" s="4" t="str">
-        <v>Delivered</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D65" s="5">
-        <v>46062.50750659722</v>
+        <v>46062.5843108912</v>
       </c>
       <c r="E65" s="5">
-        <v>46064.36667028935</v>
+        <v>46063.708111203705</v>
       </c>
       <c r="F65" s="4" t="str">
-        <v>9647717776640</v>
+        <v>9647746308618</v>
       </c>
       <c r="G65" s="4" t="str">
-        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="H65" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I65" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J65" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K65" s="4" t="str">
-        <v/>
+        <v>discount number</v>
       </c>
       <c r="L65" s="4" t="str">
         <v>Iraq</v>
@@ -5067,22 +5067,22 @@
         <v>13,500</v>
       </c>
       <c r="O65" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P65" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q65" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R65" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S65" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T65" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U65" s="4" t="str">
         <v/>
@@ -5091,42 +5091,42 @@
         <v/>
       </c>
       <c r="W65" s="4" t="str">
-        <v>224</v>
+        <v>87381291</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>2027447-21325993</v>
+        <v>2027447-21328284</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>فهد</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D66" s="5">
-        <v>46062.45230179398</v>
+        <v>46062.54285048611</v>
       </c>
       <c r="E66" s="5">
-        <v>46062.452304618055</v>
+        <v>46066.408057534725</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647783312740</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>بغداد دوره طياره</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>65,000</v>
+        <v>42,000</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K66" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L66" s="4" t="str">
         <v>Iraq</v>
@@ -5138,19 +5138,19 @@
         <v>13,500</v>
       </c>
       <c r="O66" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P66" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/cameraI9mX</v>
       </c>
       <c r="Q66" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ050105DAWI99</v>
       </c>
       <c r="R66" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="4" t="str">
-        <v>58500</v>
+        <v>35500</v>
       </c>
       <c r="T66" s="4" t="str">
         <v>Cart</v>
@@ -5162,42 +5162,42 @@
         <v/>
       </c>
       <c r="W66" s="4" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="str">
-        <v>2027447-21325937</v>
+        <v>2027447-21327273</v>
       </c>
       <c r="B67" s="4" t="str">
-        <v>Mohammed I</v>
+        <v>Samer sabah</v>
       </c>
       <c r="C67" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D67" s="5">
-        <v>46062.451287627315</v>
+        <v>46062.50750659722</v>
       </c>
       <c r="E67" s="5">
-        <v>46062.451578912034</v>
+        <v>46064.36667028935</v>
       </c>
       <c r="F67" s="4" t="str">
-        <v>9647809592002</v>
+        <v>9647717776640</v>
       </c>
       <c r="G67" s="4" t="str">
-        <v>الطويسه شارع النادي الاثوري</v>
+        <v>السبع ابكار، بغداد، بغداد محافظة، العراق-بغداد</v>
       </c>
       <c r="H67" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I67" s="4" t="str">
-        <v>54,500</v>
+        <v>65,000</v>
       </c>
       <c r="J67" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K67" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L67" s="4" t="str">
         <v>Iraq</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="4" t="str">
-        <v>3,000</v>
+        <v>13,500</v>
       </c>
       <c r="O67" s="4" t="str">
         <v/>
@@ -5221,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="S67" s="4" t="str">
-        <v>48000</v>
+        <v>58500</v>
       </c>
       <c r="T67" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U67" s="4" t="str">
         <v/>
@@ -5233,30 +5233,30 @@
         <v/>
       </c>
       <c r="W67" s="4" t="str">
-        <v/>
+        <v>224</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>2027447-21325418</v>
+        <v>2027447-21325993</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Mohammed abdulzahra</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C68" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D68" s="5">
-        <v>46062.42305118056</v>
+        <v>46062.45230179398</v>
       </c>
       <c r="E68" s="5">
-        <v>46062.42305415509</v>
+        <v>46062.452304618055</v>
       </c>
       <c r="F68" s="4" t="str">
         <v>9647809592002</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>بصرة</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H68" s="4" t="str">
         <v>بصرة</v>
@@ -5280,7 +5280,7 @@
         <v>13,500</v>
       </c>
       <c r="O68" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P68" s="4" t="str">
         <v/>
@@ -5304,12 +5304,12 @@
         <v/>
       </c>
       <c r="W68" s="4" t="str">
-        <v>87363123</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="str">
-        <v>2027447-21325289</v>
+        <v>2027447-21325937</v>
       </c>
       <c r="B69" s="4" t="str">
         <v>Mohammed I</v>
@@ -5318,10 +5318,10 @@
         <v>Cancelled by You</v>
       </c>
       <c r="D69" s="5">
-        <v>46062.413627974536</v>
+        <v>46062.451287627315</v>
       </c>
       <c r="E69" s="5">
-        <v>46062.413631469906</v>
+        <v>46062.451578912034</v>
       </c>
       <c r="F69" s="4" t="str">
         <v>9647809592002</v>
@@ -5333,13 +5333,13 @@
         <v>بصرة</v>
       </c>
       <c r="I69" s="4" t="str">
-        <v>65,000</v>
+        <v>54,500</v>
       </c>
       <c r="J69" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K69" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>wrong</v>
       </c>
       <c r="L69" s="4" t="str">
         <v>Iraq</v>
@@ -5348,22 +5348,22 @@
         <v>0</v>
       </c>
       <c r="N69" s="4" t="str">
-        <v>13,500</v>
+        <v>3,000</v>
       </c>
       <c r="O69" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v/>
       </c>
       <c r="P69" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q69" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R69" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="4" t="str">
-        <v>58500</v>
+        <v>48000</v>
       </c>
       <c r="T69" s="4" t="str">
         <v>Cart</v>
@@ -5375,30 +5375,30 @@
         <v/>
       </c>
       <c r="W69" s="4" t="str">
-        <v>221</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>2027447-21325245</v>
+        <v>2027447-21325418</v>
       </c>
       <c r="B70" s="4" t="str">
         <v>Mohammed abdulzahra</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D70" s="5">
-        <v>46062.41033025463</v>
+        <v>46062.42305118056</v>
       </c>
       <c r="E70" s="5">
-        <v>46065.43456450231</v>
+        <v>46062.42305415509</v>
       </c>
       <c r="F70" s="4" t="str">
         <v>9647809592002</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
+        <v>بصرة</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>بصرة</v>
@@ -5410,7 +5410,7 @@
         <v>6,500</v>
       </c>
       <c r="K70" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L70" s="4" t="str">
         <v>Iraq</v>
@@ -5422,16 +5422,16 @@
         <v>13,500</v>
       </c>
       <c r="O70" s="4" t="str">
-        <v>Nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P70" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q70" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R70" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="4" t="str">
         <v>58500</v>
@@ -5451,25 +5451,25 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="str">
-        <v>2027447-21325225</v>
+        <v>2027447-21325289</v>
       </c>
       <c r="B71" s="4" t="str">
-        <v>علي الرجب</v>
+        <v>Mohammed I</v>
       </c>
       <c r="C71" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D71" s="5">
-        <v>46062.409052650466</v>
+        <v>46062.413627974536</v>
       </c>
       <c r="E71" s="5">
-        <v>46065.434623043984</v>
+        <v>46062.413631469906</v>
       </c>
       <c r="F71" s="4" t="str">
-        <v>9647838955032</v>
+        <v>9647809592002</v>
       </c>
       <c r="G71" s="4" t="str">
-        <v>الجزائر - خلف مصرف الدم-بصرة</v>
+        <v>الطويسه شارع النادي الاثوري</v>
       </c>
       <c r="H71" s="4" t="str">
         <v>بصرة</v>
@@ -5481,7 +5481,7 @@
         <v>6,500</v>
       </c>
       <c r="K71" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L71" s="4" t="str">
         <v>Iraq</v>
@@ -5502,7 +5502,7 @@
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R71" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="4" t="str">
         <v>58500</v>
@@ -5517,36 +5517,36 @@
         <v/>
       </c>
       <c r="W71" s="4" t="str">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>2027447-21325023</v>
+        <v>2027447-21325245</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>خالد كاظم</v>
+        <v>Mohammed abdulzahra</v>
       </c>
       <c r="C72" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D72" s="5">
-        <v>46062.39857081018</v>
+        <v>46062.41033025463</v>
       </c>
       <c r="E72" s="5">
-        <v>46065.43460449074</v>
+        <v>46065.43456450231</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>9647703677730</v>
+        <v>9647809592002</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>الطويسه خلف مطعم باربكيو</v>
+        <v>بصرة- حي الخضراء - بالقرب من النادي الاسسوري</v>
       </c>
       <c r="H72" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>72,000</v>
+        <v>65,000</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>6,500</v>
@@ -5561,22 +5561,22 @@
         <v>0</v>
       </c>
       <c r="N72" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O72" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P72" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <v>IQ010106MAGG99, IQ010401TAWR99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R72" s="4" t="str">
-        <v>1, 1</v>
+        <v>1</v>
       </c>
       <c r="S72" s="4" t="str">
-        <v>58500, 7000</v>
+        <v>58500</v>
       </c>
       <c r="T72" s="4" t="str">
         <v>Cart</v>
@@ -5588,33 +5588,33 @@
         <v/>
       </c>
       <c r="W72" s="4" t="str">
-        <v>219</v>
+        <v>87363123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="str">
-        <v>2027447-21321467</v>
+        <v>2027447-21325225</v>
       </c>
       <c r="B73" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>علي الرجب</v>
       </c>
       <c r="C73" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D73" s="5">
-        <v>46062.12001951389</v>
+        <v>46062.409052650466</v>
       </c>
       <c r="E73" s="5">
-        <v>46063.47227489583</v>
+        <v>46065.434623043984</v>
       </c>
       <c r="F73" s="4" t="str">
-        <v>9647703573956</v>
+        <v>9647838955032</v>
       </c>
       <c r="G73" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الجزائر - خلف مصرف الدم-بصرة</v>
       </c>
       <c r="H73" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I73" s="4" t="str">
         <v>65,000</v>
@@ -5623,7 +5623,7 @@
         <v>6,500</v>
       </c>
       <c r="K73" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L73" s="4" t="str">
         <v>Iraq</v>
@@ -5635,10 +5635,10 @@
         <v>13,500</v>
       </c>
       <c r="O73" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>Nahrayn market</v>
       </c>
       <c r="P73" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q73" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -5659,42 +5659,42 @@
         <v/>
       </c>
       <c r="W73" s="4" t="str">
-        <v>#213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>2027447-21321464</v>
+        <v>2027447-21325023</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>خالد كاظم</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D74" s="5">
-        <v>46062.11975269676</v>
+        <v>46062.39857081018</v>
       </c>
       <c r="E74" s="5">
-        <v>46063.472389456016</v>
+        <v>46065.43460449074</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>9647703573957</v>
+        <v>9647703677730</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الطويسه خلف مطعم باربكيو</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>65,000</v>
+        <v>72,000</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K74" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L74" s="4" t="str">
         <v>Iraq</v>
@@ -5703,22 +5703,22 @@
         <v>0</v>
       </c>
       <c r="N74" s="4" t="str">
-        <v>13,500</v>
+        <v>14,000</v>
       </c>
       <c r="O74" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P74" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q74" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ010106MAGG99, IQ010401TAWR99</v>
       </c>
       <c r="R74" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S74" s="4" t="str">
-        <v>58500</v>
+        <v>58500, 7000</v>
       </c>
       <c r="T74" s="4" t="str">
         <v>Cart</v>
@@ -5730,12 +5730,12 @@
         <v/>
       </c>
       <c r="W74" s="4" t="str">
-        <v>#213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="str">
-        <v>2027447-21321463</v>
+        <v>2027447-21321467</v>
       </c>
       <c r="B75" s="4" t="str">
         <v>علاء بديري</v>
@@ -5744,13 +5744,13 @@
         <v>Cancelled by You</v>
       </c>
       <c r="D75" s="5">
-        <v>46062.119456875</v>
+        <v>46062.12001951389</v>
       </c>
       <c r="E75" s="5">
-        <v>46063.472483425925</v>
+        <v>46063.47227489583</v>
       </c>
       <c r="F75" s="4" t="str">
-        <v>9647703573958</v>
+        <v>9647703573956</v>
       </c>
       <c r="G75" s="4" t="str">
         <v>مدينة صدر</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>2027447-21321461</v>
+        <v>2027447-21321464</v>
       </c>
       <c r="B76" s="4" t="str">
         <v>علاء بديري</v>
@@ -5815,13 +5815,13 @@
         <v>Cancelled by You</v>
       </c>
       <c r="D76" s="5">
-        <v>46062.119129618055</v>
+        <v>46062.11975269676</v>
       </c>
       <c r="E76" s="5">
-        <v>46063.47256233796</v>
+        <v>46063.472389456016</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>9647703573959</v>
+        <v>9647703573957</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>مدينة صدر</v>
@@ -5877,22 +5877,22 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="str">
-        <v>2027447-21321454</v>
+        <v>2027447-21321463</v>
       </c>
       <c r="B77" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C77" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D77" s="5">
-        <v>46062.1181390162</v>
+        <v>46062.119456875</v>
       </c>
       <c r="E77" s="5">
-        <v>46062.526094166664</v>
+        <v>46063.472483425925</v>
       </c>
       <c r="F77" s="4" t="str">
-        <v>9647703573951</v>
+        <v>9647703573958</v>
       </c>
       <c r="G77" s="4" t="str">
         <v>مدينة صدر</v>
@@ -5907,7 +5907,7 @@
         <v>6,500</v>
       </c>
       <c r="K77" s="4" t="str">
-        <v>كردي و مفيش واتساب</v>
+        <v>duplucated</v>
       </c>
       <c r="L77" s="4" t="str">
         <v>Iraq</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>2027447-21321444</v>
+        <v>2027447-21321461</v>
       </c>
       <c r="B78" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D78" s="5">
-        <v>46062.116491030094</v>
+        <v>46062.119129618055</v>
       </c>
       <c r="E78" s="5">
-        <v>46063.44011920139</v>
+        <v>46063.47256233796</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>9647703573952</v>
+        <v>9647703573959</v>
       </c>
       <c r="G78" s="4" t="str">
         <v>مدينة صدر</v>
@@ -5978,7 +5978,7 @@
         <v>6,500</v>
       </c>
       <c r="K78" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L78" s="4" t="str">
         <v>Iraq</v>
@@ -6019,22 +6019,22 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="str">
-        <v>2027447-21321439</v>
+        <v>2027447-21321454</v>
       </c>
       <c r="B79" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C79" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D79" s="5">
-        <v>46062.11577030092</v>
+        <v>46062.1181390162</v>
       </c>
       <c r="E79" s="5">
-        <v>46063.47266734954</v>
+        <v>46062.526094166664</v>
       </c>
       <c r="F79" s="4" t="str">
-        <v>9647703573953</v>
+        <v>9647703573951</v>
       </c>
       <c r="G79" s="4" t="str">
         <v>مدينة صدر</v>
@@ -6049,7 +6049,7 @@
         <v>6,500</v>
       </c>
       <c r="K79" s="4" t="str">
-        <v>duplucated</v>
+        <v>كردي و مفيش واتساب</v>
       </c>
       <c r="L79" s="4" t="str">
         <v>Iraq</v>
@@ -6090,22 +6090,22 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>2027447-21321433</v>
+        <v>2027447-21321444</v>
       </c>
       <c r="B80" s="4" t="str">
         <v>علاء بديري</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D80" s="5">
-        <v>46062.1151934375</v>
+        <v>46062.116491030094</v>
       </c>
       <c r="E80" s="5">
-        <v>46063.473785</v>
+        <v>46063.44011920139</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>9647703573954</v>
+        <v>9647703573952</v>
       </c>
       <c r="G80" s="4" t="str">
         <v>مدينة صدر</v>
@@ -6120,7 +6120,7 @@
         <v>6,500</v>
       </c>
       <c r="K80" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L80" s="4" t="str">
         <v>Iraq</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="str">
-        <v>2027447-21321427</v>
+        <v>2027447-21321439</v>
       </c>
       <c r="B81" s="4" t="str">
         <v>علاء بديري</v>
@@ -6170,13 +6170,13 @@
         <v>Cancelled by You</v>
       </c>
       <c r="D81" s="5">
-        <v>46062.114325393515</v>
+        <v>46062.11577030092</v>
       </c>
       <c r="E81" s="5">
-        <v>46063.473866203705</v>
+        <v>46063.47266734954</v>
       </c>
       <c r="F81" s="4" t="str">
-        <v>9647703573955</v>
+        <v>9647703573953</v>
       </c>
       <c r="G81" s="4" t="str">
         <v>مدينة صدر</v>
@@ -6232,37 +6232,37 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>2027447-21320912</v>
+        <v>2027447-21321433</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>حسين</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D82" s="5">
-        <v>46062.05659570602</v>
+        <v>46062.1151934375</v>
       </c>
       <c r="E82" s="5">
-        <v>46064.37757741898</v>
+        <v>46063.473785</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>9647818549030</v>
+        <v>9647703573954</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>110,500</v>
+        <v>65,000</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K82" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L82" s="4" t="str">
         <v>Iraq</v>
@@ -6271,22 +6271,22 @@
         <v>0</v>
       </c>
       <c r="N82" s="4" t="str">
-        <v>14,000</v>
+        <v>13,500</v>
       </c>
       <c r="O82" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P82" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q82" s="4" t="str">
         <v>IQ010106MAGG99</v>
       </c>
       <c r="R82" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S82" s="4" t="str">
-        <v>104000</v>
+        <v>58500</v>
       </c>
       <c r="T82" s="4" t="str">
         <v>Cart</v>
@@ -6298,33 +6298,33 @@
         <v/>
       </c>
       <c r="W82" s="4" t="str">
-        <v>218</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="str">
-        <v>2027447-21320534</v>
+        <v>2027447-21321427</v>
       </c>
       <c r="B83" s="4" t="str">
-        <v>فارس</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C83" s="4" t="str">
-        <v>Delivery in Progress</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D83" s="5">
-        <v>46062.03247658565</v>
+        <v>46062.114325393515</v>
       </c>
       <c r="E83" s="5">
-        <v>46067.42140475695</v>
+        <v>46063.473866203705</v>
       </c>
       <c r="F83" s="4" t="str">
-        <v>9647504889447</v>
+        <v>9647703573955</v>
       </c>
       <c r="G83" s="4" t="str">
-        <v>دهوك  نيو زاخو</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H83" s="4" t="str">
-        <v>دهوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I83" s="4" t="str">
         <v>65,000</v>
@@ -6333,7 +6333,7 @@
         <v>6,500</v>
       </c>
       <c r="K83" s="4" t="str">
-        <v/>
+        <v>duplucated</v>
       </c>
       <c r="L83" s="4" t="str">
         <v>Iraq</v>
@@ -6345,10 +6345,10 @@
         <v>13,500</v>
       </c>
       <c r="O83" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P83" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q83" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -6369,42 +6369,42 @@
         <v/>
       </c>
       <c r="W83" s="4" t="str">
-        <v>217</v>
+        <v>#213</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>2027447-21320523</v>
+        <v>2027447-21320912</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>مجيد</v>
+        <v>حسين</v>
       </c>
       <c r="C84" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D84" s="5">
-        <v>46062.031249328706</v>
+        <v>46062.05659570602</v>
       </c>
       <c r="E84" s="5">
-        <v>46065.38011118056</v>
+        <v>46064.37757741898</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>9647809879086</v>
+        <v>9647818549030</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>الانبار الرمادي قرب اسواق العيله</v>
+        <v>كراده داخل /قرب مرقد سيد ادريس-بغداد</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>الانبار</v>
+        <v>بغداد</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>84,250</v>
+        <v>110,500</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K84" s="4" t="str">
-        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
+        <v/>
       </c>
       <c r="L84" s="4" t="str">
         <v>Iraq</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="4" t="str">
-        <v>16,750</v>
+        <v>14,000</v>
       </c>
       <c r="O84" s="4" t="str">
         <v>nahrayn market</v>
@@ -6422,13 +6422,13 @@
         <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q84" s="4" t="str">
-        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R84" s="4" t="str">
-        <v>1, 1</v>
+        <v>2</v>
       </c>
       <c r="S84" s="4" t="str">
-        <v>61750, 16000</v>
+        <v>104000</v>
       </c>
       <c r="T84" s="4" t="str">
         <v>Cart</v>
@@ -6440,33 +6440,33 @@
         <v/>
       </c>
       <c r="W84" s="4" t="str">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="str">
-        <v>2027447-21320496</v>
+        <v>2027447-21320534</v>
       </c>
       <c r="B85" s="4" t="str">
-        <v>اركان</v>
+        <v>فارس</v>
       </c>
       <c r="C85" s="4" t="str">
-        <v>Delivered</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D85" s="5">
-        <v>46062.02948613426</v>
+        <v>46062.03247658565</v>
       </c>
       <c r="E85" s="5">
-        <v>46067.30712547454</v>
+        <v>46067.42140475695</v>
       </c>
       <c r="F85" s="4" t="str">
-        <v>9647707055944</v>
+        <v>9647504889447</v>
       </c>
       <c r="G85" s="4" t="str">
-        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
+        <v>دهوك  نيو زاخو</v>
       </c>
       <c r="H85" s="4" t="str">
-        <v>بصرة</v>
+        <v>دهوك</v>
       </c>
       <c r="I85" s="4" t="str">
         <v>65,000</v>
@@ -6511,42 +6511,42 @@
         <v/>
       </c>
       <c r="W85" s="4" t="str">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>2027447-21317647</v>
+        <v>2027447-21320523</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>مجيد</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D86" s="5">
-        <v>46061.87229554398</v>
+        <v>46062.031249328706</v>
       </c>
       <c r="E86" s="5">
-        <v>46063.47437924769</v>
+        <v>46065.38011118056</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647809879086</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>الانبار الرمادي قرب اسواق العيله</v>
       </c>
       <c r="H86" s="4" t="str">
-        <v>اربيل</v>
+        <v>الانبار</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>49,000</v>
+        <v>84,250</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K86" s="4" t="str">
-        <v>duplucated</v>
+        <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
       </c>
       <c r="L86" s="4" t="str">
         <v>Iraq</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N86" s="4" t="str">
-        <v>14,500</v>
+        <v>16,750</v>
       </c>
       <c r="O86" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P86" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <v>IQ010601GHKK99</v>
+        <v>IQ010106MAGG99, IQ040110ZAOO99</v>
       </c>
       <c r="R86" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S86" s="4" t="str">
-        <v>42500</v>
+        <v>61750, 16000</v>
       </c>
       <c r="T86" s="4" t="str">
         <v>Cart</v>
@@ -6582,33 +6582,33 @@
         <v/>
       </c>
       <c r="W86" s="4" t="str">
-        <v/>
+        <v>215</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="str">
-        <v>2027447-21317618</v>
+        <v>2027447-21320496</v>
       </c>
       <c r="B87" s="4" t="str">
-        <v>علاء بديري</v>
+        <v>اركان</v>
       </c>
       <c r="C87" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D87" s="5">
-        <v>46061.87095564815</v>
+        <v>46062.02948613426</v>
       </c>
       <c r="E87" s="5">
-        <v>46063.47448429398</v>
+        <v>46067.30712547454</v>
       </c>
       <c r="F87" s="4" t="str">
-        <v>9647703573950</v>
+        <v>9647707055944</v>
       </c>
       <c r="G87" s="4" t="str">
-        <v>مدينة صدر</v>
+        <v>حي الرفدين قرب عداديت الصناعه-بصرة</v>
       </c>
       <c r="H87" s="4" t="str">
-        <v>اربيل</v>
+        <v>بصرة</v>
       </c>
       <c r="I87" s="4" t="str">
         <v>65,000</v>
@@ -6617,7 +6617,7 @@
         <v>6,500</v>
       </c>
       <c r="K87" s="4" t="str">
-        <v>duplucated</v>
+        <v/>
       </c>
       <c r="L87" s="4" t="str">
         <v>Iraq</v>
@@ -6629,10 +6629,10 @@
         <v>13,500</v>
       </c>
       <c r="O87" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P87" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q87" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -6653,42 +6653,42 @@
         <v/>
       </c>
       <c r="W87" s="4" t="str">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>2027447-21311829</v>
+        <v>2027447-21317647</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>Ulla</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C88" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D88" s="5">
-        <v>46061.631386469904</v>
+        <v>46061.87229554398</v>
       </c>
       <c r="E88" s="5">
-        <v>46061.63138957176</v>
+        <v>46063.47437924769</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>9647772423216</v>
+        <v>9647703573950</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>كرادة خارج</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>بغداد</v>
+        <v>اربيل</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>32,000</v>
+        <v>49,000</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K88" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>duplucated</v>
       </c>
       <c r="L88" s="4" t="str">
         <v>Iraq</v>
@@ -6697,22 +6697,22 @@
         <v>0</v>
       </c>
       <c r="N88" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O88" s="4" t="str">
-        <v>Nahrayn Market</v>
+        <v/>
       </c>
       <c r="P88" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q88" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010601GHKK99</v>
       </c>
       <c r="R88" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="4" t="str">
-        <v>25500</v>
+        <v>42500</v>
       </c>
       <c r="T88" s="4" t="str">
         <v>Cart</v>
@@ -6724,33 +6724,33 @@
         <v/>
       </c>
       <c r="W88" s="4" t="str">
-        <v>#87242467</v>
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="str">
-        <v>2027447-21309717</v>
+        <v>2027447-21317618</v>
       </c>
       <c r="B89" s="4" t="str">
-        <v>عمر عبدالله</v>
+        <v>علاء بديري</v>
       </c>
       <c r="C89" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D89" s="5">
-        <v>46061.54547142361</v>
+        <v>46061.87095564815</v>
       </c>
       <c r="E89" s="5">
-        <v>46064.32734074074</v>
+        <v>46063.47448429398</v>
       </c>
       <c r="F89" s="4" t="str">
-        <v>9647701076857</v>
+        <v>9647703573950</v>
       </c>
       <c r="G89" s="4" t="str">
-        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
+        <v>مدينة صدر</v>
       </c>
       <c r="H89" s="4" t="str">
-        <v>كركوك</v>
+        <v>اربيل</v>
       </c>
       <c r="I89" s="4" t="str">
         <v>65,000</v>
@@ -6759,7 +6759,7 @@
         <v>6,500</v>
       </c>
       <c r="K89" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplucated</v>
       </c>
       <c r="L89" s="4" t="str">
         <v>Iraq</v>
@@ -6771,10 +6771,10 @@
         <v>13,500</v>
       </c>
       <c r="O89" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P89" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v/>
       </c>
       <c r="Q89" s="4" t="str">
         <v>IQ010106MAGG99</v>
@@ -6795,42 +6795,42 @@
         <v/>
       </c>
       <c r="W89" s="4" t="str">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>2027447-21306939</v>
+        <v>2027447-21311829</v>
       </c>
       <c r="B90" s="4" t="str">
         <v>Ulla</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D90" s="5">
-        <v>46061.41131630787</v>
+        <v>46061.631386469904</v>
       </c>
       <c r="E90" s="5">
-        <v>46064.37759912037</v>
+        <v>46061.63138957176</v>
       </c>
       <c r="F90" s="4" t="str">
         <v>9647772423216</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>كرادة خارج فرع حلويات الزيتون</v>
+        <v>كرادة خارج</v>
       </c>
       <c r="H90" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>39,000</v>
+        <v>32,000</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K90" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L90" s="4" t="str">
         <v>Iraq</v>
@@ -6839,22 +6839,22 @@
         <v>0</v>
       </c>
       <c r="N90" s="4" t="str">
-        <v>12,500</v>
+        <v>12,000</v>
       </c>
       <c r="O90" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P90" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q90" s="4" t="str">
-        <v>IQ040104WIRE99, IQ030401KHAT99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R90" s="4" t="str">
-        <v>1, 1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="4" t="str">
-        <v>25500, 7000</v>
+        <v>25500</v>
       </c>
       <c r="T90" s="4" t="str">
         <v>Cart</v>
@@ -6866,42 +6866,42 @@
         <v/>
       </c>
       <c r="W90" s="4" t="str">
-        <v>87242467</v>
+        <v>#87242467</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="str">
-        <v>2027447-21306927</v>
+        <v>2027447-21309717</v>
       </c>
       <c r="B91" s="4" t="str">
-        <v>يوسف</v>
+        <v>عمر عبدالله</v>
       </c>
       <c r="C91" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivered</v>
       </c>
       <c r="D91" s="5">
-        <v>46061.410177777776</v>
+        <v>46061.54547142361</v>
       </c>
       <c r="E91" s="5">
-        <v>46061.749465162036</v>
+        <v>46064.32734074074</v>
       </c>
       <c r="F91" s="4" t="str">
-        <v>9647721190546</v>
+        <v>9647701076857</v>
       </c>
       <c r="G91" s="4" t="str">
-        <v>يوسف</v>
+        <v>كركوك حي عدن مجمع جوهرة كركوك</v>
       </c>
       <c r="H91" s="4" t="str">
-        <v>موصل</v>
+        <v>كركوك</v>
       </c>
       <c r="I91" s="4" t="str">
-        <v>204,000</v>
+        <v>65,000</v>
       </c>
       <c r="J91" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K91" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L91" s="4" t="str">
         <v>Iraq</v>
@@ -6910,22 +6910,22 @@
         <v>0</v>
       </c>
       <c r="N91" s="4" t="str">
-        <v>85,500</v>
+        <v>13,500</v>
       </c>
       <c r="O91" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P91" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q91" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R91" s="4" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S91" s="4" t="str">
-        <v>197500</v>
+        <v>58500</v>
       </c>
       <c r="T91" s="4" t="str">
         <v>Cart</v>
@@ -6937,42 +6937,42 @@
         <v/>
       </c>
       <c r="W91" s="4" t="str">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>2027447-21306903</v>
+        <v>2027447-21306939</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>زيد كامل</v>
+        <v>Ulla</v>
       </c>
       <c r="C92" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D92" s="5">
-        <v>46061.40806185185</v>
+        <v>46061.41131630787</v>
       </c>
       <c r="E92" s="5">
-        <v>46064.39747780093</v>
+        <v>46064.37759912037</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>9647901345658</v>
+        <v>9647772423216</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>بغداد المنصور مجمع المنصور ستي</v>
+        <v>كرادة خارج فرع حلويات الزيتون</v>
       </c>
       <c r="H92" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>65,000</v>
+        <v>39,000</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K92" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L92" s="4" t="str">
         <v>Iraq</v>
@@ -6981,22 +6981,22 @@
         <v>0</v>
       </c>
       <c r="N92" s="4" t="str">
-        <v>13,500</v>
+        <v>12,500</v>
       </c>
       <c r="O92" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P92" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q92" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040104WIRE99, IQ030401KHAT99</v>
       </c>
       <c r="R92" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S92" s="4" t="str">
-        <v>58500</v>
+        <v>25500, 7000</v>
       </c>
       <c r="T92" s="4" t="str">
         <v>Cart</v>
@@ -7008,36 +7008,36 @@
         <v/>
       </c>
       <c r="W92" s="4" t="str">
-        <v>209</v>
+        <v>87242467</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="str">
-        <v>2027447-21306893</v>
+        <v>2027447-21306927</v>
       </c>
       <c r="B93" s="4" t="str">
-        <v>حسين ستار</v>
+        <v>يوسف</v>
       </c>
       <c r="C93" s="4" t="str">
         <v>Order Received</v>
       </c>
       <c r="D93" s="5">
-        <v>46061.40700960648</v>
+        <v>46061.410177777776</v>
       </c>
       <c r="E93" s="5">
-        <v>46061.434817685185</v>
+        <v>46061.749465162036</v>
       </c>
       <c r="F93" s="4" t="str">
-        <v>9647895632217</v>
+        <v>9647721190546</v>
       </c>
       <c r="G93" s="4" t="str">
-        <v>كرت القدم</v>
+        <v>يوسف</v>
       </c>
       <c r="H93" s="4" t="str">
         <v>موصل</v>
       </c>
       <c r="I93" s="4" t="str">
-        <v>51,000</v>
+        <v>204,000</v>
       </c>
       <c r="J93" s="4" t="str">
         <v>6,500</v>
@@ -7052,10 +7052,10 @@
         <v>0</v>
       </c>
       <c r="N93" s="4" t="str">
-        <v>16,500</v>
+        <v>85,500</v>
       </c>
       <c r="O93" s="4" t="str">
-        <v>nahrayh market</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P93" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/61nXv</v>
@@ -7064,10 +7064,10 @@
         <v>IQ030401SDAS99</v>
       </c>
       <c r="R93" s="4" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S93" s="4" t="str">
-        <v>44500</v>
+        <v>197500</v>
       </c>
       <c r="T93" s="4" t="str">
         <v>Cart</v>
@@ -7079,42 +7079,42 @@
         <v/>
       </c>
       <c r="W93" s="4" t="str">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>2027447-21306886</v>
+        <v>2027447-21306903</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>سجاد</v>
+        <v>زيد كامل</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Delivered</v>
       </c>
       <c r="D94" s="5">
-        <v>46061.40609613426</v>
+        <v>46061.40806185185</v>
       </c>
       <c r="E94" s="5">
-        <v>46062.69066699074</v>
+        <v>46064.39747780093</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>9647731868202</v>
+        <v>9647901345658</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>حي الحسكري</v>
+        <v>بغداد المنصور مجمع المنصور ستي</v>
       </c>
       <c r="H94" s="4" t="str">
-        <v>كركوك</v>
+        <v>بغداد</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>51,000</v>
+        <v>65,000</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K94" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L94" s="4" t="str">
         <v>Iraq</v>
@@ -7123,22 +7123,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="4" t="str">
-        <v>16,500</v>
+        <v>13,500</v>
       </c>
       <c r="O94" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P94" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/61nXv</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q94" s="4" t="str">
-        <v>IQ030401SDAS99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R94" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S94" s="4" t="str">
-        <v>44500</v>
+        <v>58500</v>
       </c>
       <c r="T94" s="4" t="str">
         <v>Cart</v>
@@ -7150,42 +7150,42 @@
         <v/>
       </c>
       <c r="W94" s="4" t="str">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="str">
-        <v>2027447-21305571</v>
+        <v>2027447-21306893</v>
       </c>
       <c r="B95" s="4" t="str">
-        <v>Bashar</v>
+        <v>حسين ستار</v>
       </c>
       <c r="C95" s="4" t="str">
-        <v>Delivered</v>
+        <v>Order Received</v>
       </c>
       <c r="D95" s="5">
-        <v>46061.31099184028</v>
+        <v>46061.40700960648</v>
       </c>
       <c r="E95" s="5">
-        <v>46063.35487973379</v>
+        <v>46061.434817685185</v>
       </c>
       <c r="F95" s="4" t="str">
-        <v>9647718077007</v>
+        <v>9647895632217</v>
       </c>
       <c r="G95" s="4" t="str">
-        <v>الموصل حي الزهور قرب دار العجزة</v>
+        <v>كرت القدم</v>
       </c>
       <c r="H95" s="4" t="str">
         <v>موصل</v>
       </c>
       <c r="I95" s="4" t="str">
-        <v>65,000</v>
+        <v>51,000</v>
       </c>
       <c r="J95" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K95" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v/>
       </c>
       <c r="L95" s="4" t="str">
         <v>Iraq</v>
@@ -7194,22 +7194,22 @@
         <v>0</v>
       </c>
       <c r="N95" s="4" t="str">
-        <v>13,500</v>
+        <v>16,500</v>
       </c>
       <c r="O95" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayh market</v>
       </c>
       <c r="P95" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q95" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R95" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S95" s="4" t="str">
-        <v>58500</v>
+        <v>44500</v>
       </c>
       <c r="T95" s="4" t="str">
         <v>Cart</v>
@@ -7221,36 +7221,36 @@
         <v/>
       </c>
       <c r="W95" s="4" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>2027447-21305554</v>
+        <v>2027447-21306886</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>عباس محمد اسماعيل</v>
+        <v>سجاد</v>
       </c>
       <c r="C96" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
       <c r="D96" s="5">
-        <v>46061.30975965278</v>
+        <v>46061.40609613426</v>
       </c>
       <c r="E96" s="5">
-        <v>46062.59048576389</v>
+        <v>46062.69066699074</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>9647737663394</v>
+        <v>9647731868202</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>ميسان مركز المدينة</v>
+        <v>حي الحسكري</v>
       </c>
       <c r="H96" s="4" t="str">
-        <v>ميسان</v>
+        <v>كركوك</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>65,000</v>
+        <v>51,000</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>6,500</v>
@@ -7265,22 +7265,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="4" t="str">
-        <v>13,500</v>
+        <v>16,500</v>
       </c>
       <c r="O96" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P96" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/61nXv</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ030401SDAS99</v>
       </c>
       <c r="R96" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S96" s="4" t="str">
-        <v>58500</v>
+        <v>44500</v>
       </c>
       <c r="T96" s="4" t="str">
         <v>Cart</v>
@@ -7292,42 +7292,42 @@
         <v/>
       </c>
       <c r="W96" s="4" t="str">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="str">
-        <v>2027447-21303493</v>
+        <v>2027447-21305571</v>
       </c>
       <c r="B97" s="4" t="str">
-        <v>Hadeeth</v>
+        <v>Bashar</v>
       </c>
       <c r="C97" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D97" s="5">
-        <v>46061.072884814814</v>
+        <v>46061.31099184028</v>
       </c>
       <c r="E97" s="5">
-        <v>46064.4201575</v>
+        <v>46063.35487973379</v>
       </c>
       <c r="F97" s="4" t="str">
-        <v>9647855236667</v>
+        <v>9647718077007</v>
       </c>
       <c r="G97" s="4" t="str">
-        <v>ام الخيل مقابل جيراتا</v>
+        <v>الموصل حي الزهور قرب دار العجزة</v>
       </c>
       <c r="H97" s="4" t="str">
-        <v>دوانية</v>
+        <v>موصل</v>
       </c>
       <c r="I97" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J97" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K97" s="4" t="str">
-        <v/>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L97" s="4" t="str">
         <v>Iraq</v>
@@ -7336,22 +7336,22 @@
         <v>0</v>
       </c>
       <c r="N97" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O97" s="4" t="str">
-        <v xml:space="preserve">nahrayn market </v>
+        <v>nahrayn market</v>
       </c>
       <c r="P97" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q97" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R97" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S97" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T97" s="4" t="str">
         <v>Cart</v>
@@ -7363,36 +7363,36 @@
         <v/>
       </c>
       <c r="W97" s="4" t="str">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>2027447-21303458</v>
+        <v>2027447-21305554</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>سجاد</v>
+        <v>عباس محمد اسماعيل</v>
       </c>
       <c r="C98" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
       <c r="D98" s="5">
-        <v>46061.068113912035</v>
+        <v>46061.30975965278</v>
       </c>
       <c r="E98" s="5">
-        <v>46061.504234293985</v>
+        <v>46062.59048576389</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>9647815645310</v>
+        <v>9647737663394</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>موصل</v>
+        <v>ميسان مركز المدينة</v>
       </c>
       <c r="H98" s="4" t="str">
-        <v>موصل</v>
+        <v>ميسان</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>78,000</v>
+        <v>65,000</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>6,500</v>
@@ -7407,22 +7407,22 @@
         <v>0</v>
       </c>
       <c r="N98" s="4" t="str">
-        <v>14,500</v>
+        <v>13,500</v>
       </c>
       <c r="O98" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P98" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q98" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R98" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S98" s="4" t="str">
-        <v>71500</v>
+        <v>58500</v>
       </c>
       <c r="T98" s="4" t="str">
         <v>Cart</v>
@@ -7434,33 +7434,33 @@
         <v/>
       </c>
       <c r="W98" s="4" t="str">
-        <v>87228707</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="str">
-        <v>2027447-21303376</v>
+        <v>2027447-21303493</v>
       </c>
       <c r="B99" s="4" t="str">
-        <v>حسن</v>
+        <v>Hadeeth</v>
       </c>
       <c r="C99" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivered</v>
       </c>
       <c r="D99" s="5">
-        <v>46061.059307511576</v>
+        <v>46061.072884814814</v>
       </c>
       <c r="E99" s="5">
-        <v>46063.41436353009</v>
+        <v>46064.4201575</v>
       </c>
       <c r="F99" s="4" t="str">
-        <v>9647736444124</v>
+        <v>9647855236667</v>
       </c>
       <c r="G99" s="4" t="str">
-        <v>حي جامعه</v>
+        <v>ام الخيل مقابل جيراتا</v>
       </c>
       <c r="H99" s="4" t="str">
-        <v>بغداد</v>
+        <v>دوانية</v>
       </c>
       <c r="I99" s="4" t="str">
         <v>32,000</v>
@@ -7481,7 +7481,7 @@
         <v>12,000</v>
       </c>
       <c r="O99" s="4" t="str">
-        <v>nahrayn market</v>
+        <v xml:space="preserve">nahrayn market </v>
       </c>
       <c r="P99" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -7505,42 +7505,42 @@
         <v/>
       </c>
       <c r="W99" s="4" t="str">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>2027447-21303311</v>
+        <v>2027447-21303458</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>سجاد</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D100" s="5">
-        <v>46061.0553649537</v>
+        <v>46061.068113912035</v>
       </c>
       <c r="E100" s="5">
-        <v>46061.50412737268</v>
+        <v>46061.504234293985</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647815645310</v>
       </c>
       <c r="G100" s="4" t="str">
-        <v>الطوبجي</v>
+        <v>موصل</v>
       </c>
       <c r="H100" s="4" t="str">
-        <v>بغداد</v>
+        <v>موصل</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>67,250</v>
+        <v>78,000</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K100" s="4" t="str">
-        <v>duplicated</v>
+        <v/>
       </c>
       <c r="L100" s="4" t="str">
         <v>Iraq</v>
@@ -7549,22 +7549,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="4" t="str">
-        <v>20,250</v>
+        <v>14,500</v>
       </c>
       <c r="O100" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P100" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R100" s="4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S100" s="4" t="str">
-        <v>60749.99999999999</v>
+        <v>71500</v>
       </c>
       <c r="T100" s="4" t="str">
         <v>Cart</v>
@@ -7576,36 +7576,36 @@
         <v/>
       </c>
       <c r="W100" s="4" t="str">
-        <v>194</v>
+        <v>87228707</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="str">
-        <v>2027447-21303195</v>
+        <v>2027447-21303376</v>
       </c>
       <c r="B101" s="4" t="str">
-        <v>دعاء يحيى</v>
+        <v>حسن</v>
       </c>
       <c r="C101" s="4" t="str">
-        <v>Return Verified</v>
+        <v>Order Received</v>
       </c>
       <c r="D101" s="5">
-        <v>46061.05291396991</v>
+        <v>46061.059307511576</v>
       </c>
       <c r="E101" s="5">
-        <v>46065.411233680556</v>
+        <v>46063.41436353009</v>
       </c>
       <c r="F101" s="4" t="str">
-        <v>9647719312632</v>
+        <v>9647736444124</v>
       </c>
       <c r="G101" s="4" t="str">
-        <v>بغداد الطوبجي-بغداد</v>
+        <v>حي جامعه</v>
       </c>
       <c r="H101" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I101" s="4" t="str">
-        <v>67,250.01</v>
+        <v>32,000</v>
       </c>
       <c r="J101" s="4" t="str">
         <v>6,500</v>
@@ -7620,25 +7620,25 @@
         <v>0</v>
       </c>
       <c r="N101" s="4" t="str">
-        <v>20,250.01</v>
+        <v>12,000</v>
       </c>
       <c r="O101" s="4" t="str">
-        <v/>
+        <v>nahrayn market</v>
       </c>
       <c r="P101" s="4" t="str">
-        <v/>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <v>IQ040304AZNN99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R101" s="4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S101" s="4" t="str">
-        <v>60750.009999999995</v>
+        <v>25500</v>
       </c>
       <c r="T101" s="4" t="str">
-        <v>LIGHTFUNNELS</v>
+        <v>Cart</v>
       </c>
       <c r="U101" s="4" t="str">
         <v/>
@@ -7647,42 +7647,42 @@
         <v/>
       </c>
       <c r="W101" s="4" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>2027447-21300537</v>
+        <v>2027447-21303311</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>اوس</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Delivered</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D102" s="5">
-        <v>46060.894264699076</v>
+        <v>46061.0553649537</v>
       </c>
       <c r="E102" s="5">
-        <v>46065.44856369213</v>
+        <v>46061.50412737268</v>
       </c>
       <c r="F102" s="4" t="str">
-        <v>9647702082623</v>
+        <v>9647719312632</v>
       </c>
       <c r="G102" s="4" t="str">
-        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
+        <v>الطوبجي</v>
       </c>
       <c r="H102" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>65,000</v>
+        <v>67,250</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K102" s="4" t="str">
-        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
+        <v>duplicated</v>
       </c>
       <c r="L102" s="4" t="str">
         <v>Iraq</v>
@@ -7691,22 +7691,22 @@
         <v>0</v>
       </c>
       <c r="N102" s="4" t="str">
-        <v>13,500</v>
+        <v>20,250</v>
       </c>
       <c r="O102" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P102" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/retinalshot4jBJ</v>
       </c>
       <c r="Q102" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R102" s="4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S102" s="4" t="str">
-        <v>58500</v>
+        <v>60749.99999999999</v>
       </c>
       <c r="T102" s="4" t="str">
         <v>Cart</v>
@@ -7718,42 +7718,42 @@
         <v/>
       </c>
       <c r="W102" s="4" t="str">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="str">
-        <v>2027447-21300520</v>
+        <v>2027447-21303195</v>
       </c>
       <c r="B103" s="4" t="str">
-        <v>عباس</v>
+        <v>دعاء يحيى</v>
       </c>
       <c r="C103" s="4" t="str">
-        <v>Delivered</v>
+        <v>Return Verified</v>
       </c>
       <c r="D103" s="5">
-        <v>46060.892965555555</v>
+        <v>46061.05291396991</v>
       </c>
       <c r="E103" s="5">
-        <v>46064.38459284722</v>
+        <v>46065.411233680556</v>
       </c>
       <c r="F103" s="4" t="str">
-        <v>9647707865825</v>
+        <v>9647719312632</v>
       </c>
       <c r="G103" s="4" t="str">
-        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
+        <v>بغداد الطوبجي-بغداد</v>
       </c>
       <c r="H103" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I103" s="4" t="str">
-        <v>38,000</v>
+        <v>67,250.01</v>
       </c>
       <c r="J103" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K103" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L103" s="4" t="str">
         <v>Iraq</v>
@@ -7762,25 +7762,25 @@
         <v>0</v>
       </c>
       <c r="N103" s="4" t="str">
-        <v>12,000</v>
+        <v>20,250.01</v>
       </c>
       <c r="O103" s="4" t="str">
-        <v>nahrayn market</v>
+        <v/>
       </c>
       <c r="P103" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v/>
       </c>
       <c r="Q103" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040109EELH99</v>
+        <v>IQ040304AZNN99</v>
       </c>
       <c r="R103" s="4" t="str">
-        <v>1, 1</v>
+        <v>3</v>
       </c>
       <c r="S103" s="4" t="str">
-        <v>25000, 6500</v>
+        <v>60750.009999999995</v>
       </c>
       <c r="T103" s="4" t="str">
-        <v>Cart</v>
+        <v>LIGHTFUNNELS</v>
       </c>
       <c r="U103" s="4" t="str">
         <v/>
@@ -7789,42 +7789,42 @@
         <v/>
       </c>
       <c r="W103" s="4" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>2027447-21299115</v>
+        <v>2027447-21300537</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>قاسم</v>
+        <v>اوس</v>
       </c>
       <c r="C104" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D104" s="5">
-        <v>46060.81830115741</v>
+        <v>46060.894264699076</v>
       </c>
       <c r="E104" s="5">
-        <v>46063.44318707176</v>
+        <v>46065.44856369213</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647702082623</v>
       </c>
       <c r="G104" s="4" t="str">
-        <v>مدينة الصدر قطاع 29</v>
+        <v>الرضوانيه الشرقيه جسر القطاع شركة النجوم</v>
       </c>
       <c r="H104" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>70,500</v>
+        <v>65,000</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K104" s="4" t="str">
-        <v>call asap</v>
+        <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L104" s="4" t="str">
         <v>Iraq</v>
@@ -7833,22 +7833,22 @@
         <v>0</v>
       </c>
       <c r="N104" s="4" t="str">
-        <v>21,000</v>
+        <v>13,500</v>
       </c>
       <c r="O104" s="4" t="str">
-        <v>NAHRAYN MARKET</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P104" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q104" s="4" t="str">
-        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R104" s="4" t="str">
-        <v>2, 1</v>
+        <v>1</v>
       </c>
       <c r="S104" s="4" t="str">
-        <v>48000, 16000</v>
+        <v>58500</v>
       </c>
       <c r="T104" s="4" t="str">
         <v>Cart</v>
@@ -7860,42 +7860,42 @@
         <v/>
       </c>
       <c r="W104" s="4" t="str">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="str">
-        <v>2027447-21299069</v>
+        <v>2027447-21300520</v>
       </c>
       <c r="B105" s="4" t="str">
-        <v>قاسم</v>
+        <v>عباس</v>
       </c>
       <c r="C105" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D105" s="5">
-        <v>46060.81512138889</v>
+        <v>46060.892965555555</v>
       </c>
       <c r="E105" s="5">
-        <v>46060.856132175926</v>
+        <v>46064.38459284722</v>
       </c>
       <c r="F105" s="4" t="str">
-        <v>9647759175994</v>
+        <v>9647707865825</v>
       </c>
       <c r="G105" s="4" t="str">
-        <v>BAGHDAD</v>
+        <v>بغداد السيديه  الإعلام مجاور شركة البيبسي</v>
       </c>
       <c r="H105" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I105" s="4" t="str">
-        <v>32,000</v>
+        <v>38,000</v>
       </c>
       <c r="J105" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K105" s="4" t="str">
-        <v>wrong</v>
+        <v>call asap</v>
       </c>
       <c r="L105" s="4" t="str">
         <v>Iraq</v>
@@ -7913,13 +7913,13 @@
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q105" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ040109EELH99</v>
       </c>
       <c r="R105" s="4" t="str">
-        <v>1</v>
+        <v>1, 1</v>
       </c>
       <c r="S105" s="4" t="str">
-        <v>25500</v>
+        <v>25000, 6500</v>
       </c>
       <c r="T105" s="4" t="str">
         <v>Cart</v>
@@ -7931,42 +7931,42 @@
         <v/>
       </c>
       <c r="W105" s="4" t="str">
-        <v>87193719</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>2027447-21295906</v>
+        <v>2027447-21299115</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>ايمان</v>
+        <v>قاسم</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Delivered</v>
       </c>
       <c r="D106" s="5">
-        <v>46060.668517604165</v>
+        <v>46060.81830115741</v>
       </c>
       <c r="E106" s="5">
-        <v>46060.66852064815</v>
+        <v>46063.44318707176</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G106" s="4" t="str">
-        <v>الطويسة</v>
+        <v>مدينة الصدر قطاع 29</v>
       </c>
       <c r="H106" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>32,000</v>
+        <v>70,500</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K106" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>call asap</v>
       </c>
       <c r="L106" s="4" t="str">
         <v>Iraq</v>
@@ -7975,22 +7975,22 @@
         <v>0</v>
       </c>
       <c r="N106" s="4" t="str">
-        <v>12,000</v>
+        <v>21,000</v>
       </c>
       <c r="O106" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>NAHRAYN MARKET</v>
       </c>
       <c r="P106" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q106" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ040104WIRE99, IQ040110ZAOO99</v>
       </c>
       <c r="R106" s="4" t="str">
-        <v>0</v>
+        <v>2, 1</v>
       </c>
       <c r="S106" s="4" t="str">
-        <v>25500</v>
+        <v>48000, 16000</v>
       </c>
       <c r="T106" s="4" t="str">
         <v>Cart</v>
@@ -8002,33 +8002,33 @@
         <v/>
       </c>
       <c r="W106" s="4" t="str">
-        <v>agemess</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="str">
-        <v>2027447-21295042</v>
+        <v>2027447-21299069</v>
       </c>
       <c r="B107" s="4" t="str">
-        <v>جنان</v>
+        <v>قاسم</v>
       </c>
       <c r="C107" s="4" t="str">
         <v>Cancelled by You</v>
       </c>
       <c r="D107" s="5">
-        <v>46060.62921245371</v>
+        <v>46060.81512138889</v>
       </c>
       <c r="E107" s="5">
-        <v>46060.62921716435</v>
+        <v>46060.856132175926</v>
       </c>
       <c r="F107" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647759175994</v>
       </c>
       <c r="G107" s="4" t="str">
-        <v>الطويسة</v>
+        <v>BAGHDAD</v>
       </c>
       <c r="H107" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I107" s="4" t="str">
         <v>32,000</v>
@@ -8037,7 +8037,7 @@
         <v>6,500</v>
       </c>
       <c r="K107" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v>wrong</v>
       </c>
       <c r="L107" s="4" t="str">
         <v>Iraq</v>
@@ -8049,7 +8049,7 @@
         <v>12,000</v>
       </c>
       <c r="O107" s="4" t="str">
-        <v>87137263</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P107" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -8058,7 +8058,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R107" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107" s="4" t="str">
         <v>25500</v>
@@ -8073,33 +8073,33 @@
         <v/>
       </c>
       <c r="W107" s="4" t="str">
-        <v/>
+        <v>87193719</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
-        <v>2027447-21294965</v>
+        <v>2027447-21295906</v>
       </c>
       <c r="B108" s="4" t="str">
-        <v>Marwa</v>
+        <v>ايمان</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D108" s="5">
-        <v>46060.624529305554</v>
+        <v>46060.668517604165</v>
       </c>
       <c r="E108" s="5">
-        <v>46063.79071386574</v>
+        <v>46060.66852064815</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>9647714058562</v>
+        <v>9647765051052</v>
       </c>
       <c r="G108" s="4" t="str">
-        <v>no address</v>
+        <v>الطويسة</v>
       </c>
       <c r="H108" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I108" s="4" t="str">
         <v>32,000</v>
@@ -8108,7 +8108,7 @@
         <v>6,500</v>
       </c>
       <c r="K108" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L108" s="4" t="str">
         <v>Iraq</v>
@@ -8129,7 +8129,7 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R108" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" s="4" t="str">
         <v>25500</v>
@@ -8144,12 +8144,12 @@
         <v/>
       </c>
       <c r="W108" s="4" t="str">
-        <v>87156908</v>
+        <v>agemess</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="str">
-        <v>2027447-21292506</v>
+        <v>2027447-21295042</v>
       </c>
       <c r="B109" s="4" t="str">
         <v>جنان</v>
@@ -8158,10 +8158,10 @@
         <v>Cancelled by You</v>
       </c>
       <c r="D109" s="5">
-        <v>46060.526294131945</v>
+        <v>46060.62921245371</v>
       </c>
       <c r="E109" s="5">
-        <v>46060.526298275465</v>
+        <v>46060.62921716435</v>
       </c>
       <c r="F109" s="4" t="str">
         <v>9647765051052</v>
@@ -8191,7 +8191,7 @@
         <v>12,000</v>
       </c>
       <c r="O109" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>87137263</v>
       </c>
       <c r="P109" s="4" t="str">
         <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
@@ -8215,42 +8215,42 @@
         <v/>
       </c>
       <c r="W109" s="4" t="str">
-        <v>unch-87137263</v>
+        <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="str">
-        <v>2027447-21292429</v>
+        <v>2027447-21294965</v>
       </c>
       <c r="B110" s="4" t="str">
-        <v>Mazin</v>
+        <v>Marwa</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>Return Verified</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D110" s="5">
-        <v>46060.522677974535</v>
+        <v>46060.624529305554</v>
       </c>
       <c r="E110" s="5">
-        <v>46067.33540334491</v>
+        <v>46063.79071386574</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>9647704863776</v>
+        <v>9647714058562</v>
       </c>
       <c r="G110" s="4" t="str">
-        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
+        <v>no address</v>
       </c>
       <c r="H110" s="4" t="str">
-        <v>كركوك</v>
+        <v>بغداد</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>65,000</v>
+        <v>32,000</v>
       </c>
       <c r="J110" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K110" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L110" s="4" t="str">
         <v>Iraq</v>
@@ -8259,22 +8259,22 @@
         <v>0</v>
       </c>
       <c r="N110" s="4" t="str">
-        <v>13,500</v>
+        <v>12,000</v>
       </c>
       <c r="O110" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P110" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q110" s="4" t="str">
-        <v>IQ010106MAGG99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R110" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S110" s="4" t="str">
-        <v>58500</v>
+        <v>25500</v>
       </c>
       <c r="T110" s="4" t="str">
         <v>Cart</v>
@@ -8286,42 +8286,42 @@
         <v/>
       </c>
       <c r="W110" s="4" t="str">
-        <v>87150051</v>
+        <v>87156908</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="str">
-        <v>2027447-21292399</v>
+        <v>2027447-21292506</v>
       </c>
       <c r="B111" s="4" t="str">
-        <v>محمد</v>
+        <v>جنان</v>
       </c>
       <c r="C111" s="4" t="str">
-        <v>Temporary Suspended</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D111" s="5">
-        <v>46060.521560416666</v>
+        <v>46060.526294131945</v>
       </c>
       <c r="E111" s="5">
-        <v>46060.670472604164</v>
+        <v>46060.526298275465</v>
       </c>
       <c r="F111" s="4" t="str">
-        <v>9647823514981</v>
+        <v>9647765051052</v>
       </c>
       <c r="G111" s="4" t="str">
-        <v>no address</v>
+        <v>الطويسة</v>
       </c>
       <c r="H111" s="4" t="str">
-        <v>صلاح الدين</v>
+        <v>بصرة</v>
       </c>
       <c r="I111" s="4" t="str">
-        <v>78,000</v>
+        <v>32,000</v>
       </c>
       <c r="J111" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K111" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L111" s="4" t="str">
         <v>Iraq</v>
@@ -8330,22 +8330,22 @@
         <v>0</v>
       </c>
       <c r="N111" s="4" t="str">
-        <v>14,500</v>
+        <v>12,000</v>
       </c>
       <c r="O111" s="4" t="str">
-        <v>nahrayn markey</v>
+        <v>nahrayn market</v>
       </c>
       <c r="P111" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q111" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R111" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="4" t="str">
-        <v>71500</v>
+        <v>25500</v>
       </c>
       <c r="T111" s="4" t="str">
         <v>Cart</v>
@@ -8357,33 +8357,33 @@
         <v/>
       </c>
       <c r="W111" s="4" t="str">
-        <v>87147916</v>
+        <v>unch-87137263</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="str">
-        <v>2027447-21292354</v>
+        <v>2027447-21292429</v>
       </c>
       <c r="B112" s="4" t="str">
-        <v>علي</v>
+        <v>Mazin</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>Delivered</v>
+        <v>Return Verified</v>
       </c>
       <c r="D112" s="5">
-        <v>46060.51972076389</v>
+        <v>46060.522677974535</v>
       </c>
       <c r="E112" s="5">
-        <v>46064.377580486114</v>
+        <v>46067.33540334491</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>9647704552693</v>
+        <v>9647704863776</v>
       </c>
       <c r="G112" s="4" t="str">
-        <v>no address-بغداد</v>
+        <v>كركوك / قضاء الحويجه شارع الاطباء-كركوك</v>
       </c>
       <c r="H112" s="4" t="str">
-        <v>بغداد</v>
+        <v>كركوك</v>
       </c>
       <c r="I112" s="4" t="str">
         <v>65,000</v>
@@ -8428,42 +8428,42 @@
         <v/>
       </c>
       <c r="W112" s="4" t="str">
-        <v>87139830</v>
+        <v>87150051</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="str">
-        <v>2027447-21292328</v>
+        <v>2027447-21292399</v>
       </c>
       <c r="B113" s="4" t="str">
-        <v>جنان</v>
+        <v>محمد</v>
       </c>
       <c r="C113" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Temporary Suspended</v>
       </c>
       <c r="D113" s="5">
-        <v>46060.518487141206</v>
+        <v>46060.521560416666</v>
       </c>
       <c r="E113" s="5">
-        <v>46060.51849142361</v>
+        <v>46060.670472604164</v>
       </c>
       <c r="F113" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647823514981</v>
       </c>
       <c r="G113" s="4" t="str">
-        <v>الطويسة</v>
+        <v>no address</v>
       </c>
       <c r="H113" s="4" t="str">
-        <v>بصرة</v>
+        <v>صلاح الدين</v>
       </c>
       <c r="I113" s="4" t="str">
-        <v>32,000</v>
+        <v>78,000</v>
       </c>
       <c r="J113" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K113" s="4" t="str">
-        <v>هذا الطلب مكرر</v>
+        <v/>
       </c>
       <c r="L113" s="4" t="str">
         <v>Iraq</v>
@@ -8472,22 +8472,22 @@
         <v>0</v>
       </c>
       <c r="N113" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O113" s="4" t="str">
-        <v>nahrayn market</v>
+        <v>nahrayn markey</v>
       </c>
       <c r="P113" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q113" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R113" s="4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113" s="4" t="str">
-        <v>25500</v>
+        <v>71500</v>
       </c>
       <c r="T113" s="4" t="str">
         <v>Cart</v>
@@ -8499,36 +8499,36 @@
         <v/>
       </c>
       <c r="W113" s="4" t="str">
-        <v>87137263</v>
+        <v>87147916</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="str">
-        <v>2027447-21292314</v>
+        <v>2027447-21292354</v>
       </c>
       <c r="B114" s="4" t="str">
-        <v>ايمان</v>
+        <v>علي</v>
       </c>
       <c r="C114" s="4" t="str">
         <v>Delivered</v>
       </c>
       <c r="D114" s="5">
-        <v>46060.51780462963</v>
+        <v>46060.51972076389</v>
       </c>
       <c r="E114" s="5">
-        <v>46066.877880925924</v>
+        <v>46064.377580486114</v>
       </c>
       <c r="F114" s="4" t="str">
-        <v>9647765051052</v>
+        <v>9647704552693</v>
       </c>
       <c r="G114" s="4" t="str">
-        <v>البصرة الطويسة جامع الامام علي الهادي</v>
+        <v>no address-بغداد</v>
       </c>
       <c r="H114" s="4" t="str">
-        <v>بصرة</v>
+        <v>بغداد</v>
       </c>
       <c r="I114" s="4" t="str">
-        <v>32,000</v>
+        <v>65,000</v>
       </c>
       <c r="J114" s="4" t="str">
         <v>6,500</v>
@@ -8543,22 +8543,22 @@
         <v>0</v>
       </c>
       <c r="N114" s="4" t="str">
-        <v>12,000</v>
+        <v>13,500</v>
       </c>
       <c r="O114" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P114" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/fecharger3-in-1wirelesscharger15wattPuTB</v>
       </c>
       <c r="Q114" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ010106MAGG99</v>
       </c>
       <c r="R114" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S114" s="4" t="str">
-        <v>25500</v>
+        <v>58500</v>
       </c>
       <c r="T114" s="4" t="str">
         <v>Cart</v>
@@ -8570,42 +8570,42 @@
         <v/>
       </c>
       <c r="W114" s="4" t="str">
-        <v>87137062</v>
+        <v>87139830</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="str">
-        <v>2027447-21292287</v>
+        <v>2027447-21292328</v>
       </c>
       <c r="B115" s="4" t="str">
-        <v>كرار</v>
+        <v>جنان</v>
       </c>
       <c r="C115" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D115" s="5">
-        <v>46060.51636940972</v>
+        <v>46060.518487141206</v>
       </c>
       <c r="E115" s="5">
-        <v>46060.67019315972</v>
+        <v>46060.51849142361</v>
       </c>
       <c r="F115" s="4" t="str">
-        <v>9647731091829</v>
+        <v>9647765051052</v>
       </c>
       <c r="G115" s="4" t="str">
-        <v>الشعب</v>
+        <v>الطويسة</v>
       </c>
       <c r="H115" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I115" s="4" t="str">
-        <v>78,000</v>
+        <v>32,000</v>
       </c>
       <c r="J115" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K115" s="4" t="str">
-        <v/>
+        <v>هذا الطلب مكرر</v>
       </c>
       <c r="L115" s="4" t="str">
         <v>Iraq</v>
@@ -8614,22 +8614,22 @@
         <v>0</v>
       </c>
       <c r="N115" s="4" t="str">
-        <v>14,500</v>
+        <v>12,000</v>
       </c>
       <c r="O115" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P115" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/c-3d</v>
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q115" s="4" t="str">
-        <v>IQ050101JUMP99</v>
+        <v>IQ040104WIRE99</v>
       </c>
       <c r="R115" s="4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115" s="4" t="str">
-        <v>71500</v>
+        <v>25500</v>
       </c>
       <c r="T115" s="4" t="str">
         <v>Cart</v>
@@ -8641,36 +8641,36 @@
         <v/>
       </c>
       <c r="W115" s="4" t="str">
-        <v>87133839</v>
+        <v>87137263</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="str">
-        <v>2027447-21292263</v>
+        <v>2027447-21292314</v>
       </c>
       <c r="B116" s="4" t="str">
-        <v>غادة</v>
+        <v>ايمان</v>
       </c>
       <c r="C116" s="4" t="str">
-        <v>Order Received</v>
+        <v>Delivered</v>
       </c>
       <c r="D116" s="5">
-        <v>46060.514743113425</v>
+        <v>46060.51780462963</v>
       </c>
       <c r="E116" s="5">
-        <v>46060.75239515046</v>
+        <v>46066.877880925924</v>
       </c>
       <c r="F116" s="4" t="str">
-        <v>9647827005553</v>
+        <v>9647765051052</v>
       </c>
       <c r="G116" s="4" t="str">
-        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
+        <v>البصرة الطويسة جامع الامام علي الهادي</v>
       </c>
       <c r="H116" s="4" t="str">
         <v>بصرة</v>
       </c>
       <c r="I116" s="4" t="str">
-        <v>54,500</v>
+        <v>32,000</v>
       </c>
       <c r="J116" s="4" t="str">
         <v>6,500</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="4" t="str">
-        <v>21,000</v>
+        <v>12,000</v>
       </c>
       <c r="O116" s="4" t="str">
         <v>nahrayn market</v>
@@ -8697,10 +8697,10 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R116" s="4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S116" s="4" t="str">
-        <v>48000</v>
+        <v>25500</v>
       </c>
       <c r="T116" s="4" t="str">
         <v>Cart</v>
@@ -8712,42 +8712,42 @@
         <v/>
       </c>
       <c r="W116" s="4" t="str">
-        <v>87130919</v>
+        <v>87137062</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="str">
-        <v>2027447-21292228</v>
+        <v>2027447-21292287</v>
       </c>
       <c r="B117" s="4" t="str">
-        <v>عماد طارق عبد الجبار</v>
+        <v>كرار</v>
       </c>
       <c r="C117" s="4" t="str">
-        <v>Return Verified</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D117" s="5">
-        <v>46060.51269715278</v>
+        <v>46060.51636940972</v>
       </c>
       <c r="E117" s="5">
-        <v>46065.41123798611</v>
+        <v>46060.67019315972</v>
       </c>
       <c r="F117" s="4" t="str">
-        <v>9647736696089</v>
+        <v>9647731091829</v>
       </c>
       <c r="G117" s="4" t="str">
-        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
+        <v>الشعب</v>
       </c>
       <c r="H117" s="4" t="str">
         <v>بغداد</v>
       </c>
       <c r="I117" s="4" t="str">
-        <v>32,000</v>
+        <v>78,000</v>
       </c>
       <c r="J117" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K117" s="4" t="str">
-        <v>call asap</v>
+        <v/>
       </c>
       <c r="L117" s="4" t="str">
         <v>Iraq</v>
@@ -8756,22 +8756,22 @@
         <v>0</v>
       </c>
       <c r="N117" s="4" t="str">
-        <v>12,000</v>
+        <v>14,500</v>
       </c>
       <c r="O117" s="4" t="str">
         <v>nahrayn market</v>
       </c>
       <c r="P117" s="4" t="str">
-        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+        <v>https://www.nahrayn-market.com/products/c-3d</v>
       </c>
       <c r="Q117" s="4" t="str">
-        <v>IQ040104WIRE99</v>
+        <v>IQ050101JUMP99</v>
       </c>
       <c r="R117" s="4" t="str">
         <v>1</v>
       </c>
       <c r="S117" s="4" t="str">
-        <v>25500</v>
+        <v>71500</v>
       </c>
       <c r="T117" s="4" t="str">
         <v>Cart</v>
@@ -8783,36 +8783,36 @@
         <v/>
       </c>
       <c r="W117" s="4" t="str">
-        <v>87128707</v>
+        <v>87133839</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="str">
-        <v>2027447-21292144</v>
+        <v>2027447-21292263</v>
       </c>
       <c r="B118" s="4" t="str">
-        <v>غصون عبد الرحيم عاقل</v>
+        <v>غادة</v>
       </c>
       <c r="C118" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Order Received</v>
       </c>
       <c r="D118" s="5">
-        <v>46060.509699305556</v>
+        <v>46060.514743113425</v>
       </c>
       <c r="E118" s="5">
-        <v>46060.52870604167</v>
+        <v>46060.75239515046</v>
       </c>
       <c r="F118" s="4" t="str">
-        <v>9647853211426</v>
+        <v>9647827005553</v>
       </c>
       <c r="G118" s="4" t="str">
-        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+        <v>البصره الحكيميه شارع مقبره الإنكليز</v>
       </c>
       <c r="H118" s="4" t="str">
-        <v>بغداد</v>
+        <v>بصرة</v>
       </c>
       <c r="I118" s="4" t="str">
-        <v>32,000</v>
+        <v>54,500</v>
       </c>
       <c r="J118" s="4" t="str">
         <v>6,500</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="4" t="str">
-        <v>12,000</v>
+        <v>21,000</v>
       </c>
       <c r="O118" s="4" t="str">
         <v>nahrayn market</v>
@@ -8839,10 +8839,10 @@
         <v>IQ040104WIRE99</v>
       </c>
       <c r="R118" s="4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S118" s="4" t="str">
-        <v>25500</v>
+        <v>48000</v>
       </c>
       <c r="T118" s="4" t="str">
         <v>Cart</v>
@@ -8854,30 +8854,30 @@
         <v/>
       </c>
       <c r="W118" s="4" t="str">
-        <v>87126749</v>
+        <v>87130919</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="str">
-        <v>2027447-21291854</v>
+        <v>2027447-21292228</v>
       </c>
       <c r="B119" s="4" t="str">
-        <v>د ريا عبد الامير</v>
+        <v>عماد طارق عبد الجبار</v>
       </c>
       <c r="C119" s="4" t="str">
-        <v>Customer Rejected</v>
+        <v>Return Verified</v>
       </c>
       <c r="D119" s="5">
-        <v>46060.50026450231</v>
+        <v>46060.51269715278</v>
       </c>
       <c r="E119" s="5">
-        <v>46060.66329834491</v>
+        <v>46065.41123798611</v>
       </c>
       <c r="F119" s="4" t="str">
-        <v>9647906483748</v>
+        <v>9647736696089</v>
       </c>
       <c r="G119" s="4" t="str">
-        <v>المنصور</v>
+        <v>السيديه شارع جامع معاذ بن جبل خلف اسواق الزيتون</v>
       </c>
       <c r="H119" s="4" t="str">
         <v>بغداد</v>
@@ -8889,7 +8889,7 @@
         <v>6,500</v>
       </c>
       <c r="K119" s="4" t="str">
-        <v/>
+        <v>call asap</v>
       </c>
       <c r="L119" s="4" t="str">
         <v>Iraq</v>
@@ -8925,194 +8925,194 @@
         <v/>
       </c>
       <c r="W119" s="4" t="str">
+        <v>87128707</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>2027447-21292144</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>غصون عبد الرحيم عاقل</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D120" s="5">
+        <v>46060.509699305556</v>
+      </c>
+      <c r="E120" s="5">
+        <v>46060.52870604167</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>9647853211426</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>حي اور مستشفي المويد2 جانب حسينية المصطفى موبايل</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K120" s="4" t="str">
+        <v>call asap</v>
+      </c>
+      <c r="L120" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O120" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P120" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q120" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R120" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S120" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T120" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U120" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V120" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W120" s="4" t="str">
+        <v>87126749</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="str">
+        <v>2027447-21291854</v>
+      </c>
+      <c r="B121" s="4" t="str">
+        <v>د ريا عبد الامير</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <v>Customer Rejected</v>
+      </c>
+      <c r="D121" s="5">
+        <v>46060.50026450231</v>
+      </c>
+      <c r="E121" s="5">
+        <v>46060.66329834491</v>
+      </c>
+      <c r="F121" s="4" t="str">
+        <v>9647906483748</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <v>المنصور</v>
+      </c>
+      <c r="H121" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="I121" s="4" t="str">
+        <v>32,000</v>
+      </c>
+      <c r="J121" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K121" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L121" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4" t="str">
+        <v>12,000</v>
+      </c>
+      <c r="O121" s="4" t="str">
+        <v>nahrayn market</v>
+      </c>
+      <c r="P121" s="4" t="str">
+        <v>https://www.nahrayn-market.com/products/wirelesshairstraghtnernljV</v>
+      </c>
+      <c r="Q121" s="4" t="str">
+        <v>IQ040104WIRE99</v>
+      </c>
+      <c r="R121" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S121" s="4" t="str">
+        <v>25500</v>
+      </c>
+      <c r="T121" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U121" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V121" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W121" s="4" t="str">
         <v>87120990</v>
       </c>
     </row>
-    <row r="120" xml:space="preserve">
-      <c r="A120" s="4" t="str">
+    <row r="122" xml:space="preserve">
+      <c r="A122" s="4" t="str">
         <v>2027447-21247198</v>
       </c>
-      <c r="B120" s="4" t="str">
+      <c r="B122" s="4" t="str">
         <v>علي</v>
       </c>
-      <c r="C120" s="4" t="str">
+      <c r="C122" s="4" t="str">
         <v>Delivered</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D122" s="5">
         <v>46057.68370048611</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E122" s="5">
         <v>46060.5512303125</v>
       </c>
-      <c r="F120" s="4" t="str">
+      <c r="F122" s="4" t="str">
         <v>9647708073030</v>
       </c>
-      <c r="G120" s="4" t="str" xml:space="preserve">
+      <c r="G122" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">كلار محافضة سليمانية
 قرب ماركت گلارة</v>
       </c>
-      <c r="H120" s="4" t="str">
+      <c r="H122" s="4" t="str">
         <v>سليمانية</v>
       </c>
-      <c r="I120" s="4" t="str">
+      <c r="I122" s="4" t="str">
         <v>60,000</v>
       </c>
-      <c r="J120" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K120" s="4" t="str">
+      <c r="J122" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K122" s="4" t="str">
         <v>he did not put the full adress</v>
       </c>
-      <c r="L120" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M120" s="4">
-        <v>0</v>
-      </c>
-      <c r="N120" s="4" t="str">
+      <c r="L122" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4" t="str">
         <v>28,500</v>
-      </c>
-      <c r="O120" s="4" t="str">
-        <v>Nahrayn Market</v>
-      </c>
-      <c r="P120" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
-      </c>
-      <c r="Q120" s="4" t="str">
-        <v>IQ040501QQUU99</v>
-      </c>
-      <c r="R120" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S120" s="4" t="str">
-        <v>53500</v>
-      </c>
-      <c r="T120" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U120" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V120" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W120" s="4" t="str">
-        <v>86829967</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="4" t="str">
-        <v>2027447-21246412</v>
-      </c>
-      <c r="B121" s="4" t="str">
-        <v>مبننرمك</v>
-      </c>
-      <c r="C121" s="4" t="str">
-        <v>Customer Rejected</v>
-      </c>
-      <c r="D121" s="5">
-        <v>46057.64231769676</v>
-      </c>
-      <c r="E121" s="5">
-        <v>46059.50030782408</v>
-      </c>
-      <c r="F121" s="4" t="str">
-        <v>9647813424564</v>
-      </c>
-      <c r="G121" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="H121" s="4" t="str">
-        <v>بابل</v>
-      </c>
-      <c r="I121" s="4" t="str">
-        <v>60,000</v>
-      </c>
-      <c r="J121" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K121" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L121" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M121" s="4">
-        <v>0</v>
-      </c>
-      <c r="N121" s="4" t="str">
-        <v>28,500</v>
-      </c>
-      <c r="O121" s="4" t="str">
-        <v>Nahrayn Market</v>
-      </c>
-      <c r="P121" s="4" t="str">
-        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
-      </c>
-      <c r="Q121" s="4" t="str">
-        <v>IQ040501QQUU99</v>
-      </c>
-      <c r="R121" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="S121" s="4" t="str">
-        <v>53500</v>
-      </c>
-      <c r="T121" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U121" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V121" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W121" s="4" t="str">
-        <v>86824149</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="4" t="str">
-        <v>2027447-21246365</v>
-      </c>
-      <c r="B122" s="4" t="str">
-        <v>مبننرمك</v>
-      </c>
-      <c r="C122" s="4" t="str">
-        <v>Cancelled by You</v>
-      </c>
-      <c r="D122" s="5">
-        <v>46057.64010853009</v>
-      </c>
-      <c r="E122" s="5">
-        <v>46059.50030708333</v>
-      </c>
-      <c r="F122" s="4" t="str">
-        <v>9647813424564</v>
-      </c>
-      <c r="G122" s="4" t="str">
-        <v>بغداد</v>
-      </c>
-      <c r="H122" s="4" t="str">
-        <v>بابل</v>
-      </c>
-      <c r="I122" s="4" t="str">
-        <v>66,500</v>
-      </c>
-      <c r="J122" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K122" s="4" t="str">
-        <v>wrong</v>
-      </c>
-      <c r="L122" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M122" s="4">
-        <v>0</v>
-      </c>
-      <c r="N122" s="4" t="str">
-        <v>35,000</v>
       </c>
       <c r="O122" s="4" t="str">
         <v>Nahrayn Market</v>
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="S122" s="4" t="str">
-        <v>60000</v>
+        <v>53500</v>
       </c>
       <c r="T122" s="4" t="str">
         <v>Cart</v>
@@ -9139,24 +9139,24 @@
         <v/>
       </c>
       <c r="W122" s="4" t="str">
-        <v>86824149</v>
+        <v>86829967</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="str">
-        <v>2027447-21246227</v>
+        <v>2027447-21246412</v>
       </c>
       <c r="B123" s="4" t="str">
         <v>مبننرمك</v>
       </c>
       <c r="C123" s="4" t="str">
-        <v>Cancelled by You</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D123" s="5">
-        <v>46057.635958113424</v>
+        <v>46057.64231769676</v>
       </c>
       <c r="E123" s="5">
-        <v>46059.50030634259</v>
+        <v>46059.50030782408</v>
       </c>
       <c r="F123" s="4" t="str">
         <v>9647813424564</v>
@@ -9168,13 +9168,13 @@
         <v>بابل</v>
       </c>
       <c r="I123" s="4" t="str">
-        <v>46,500</v>
+        <v>60,000</v>
       </c>
       <c r="J123" s="4" t="str">
         <v>6,500</v>
       </c>
       <c r="K123" s="4" t="str">
-        <v>wrong</v>
+        <v/>
       </c>
       <c r="L123" s="4" t="str">
         <v>Iraq</v>
@@ -9183,13 +9183,13 @@
         <v>0</v>
       </c>
       <c r="N123" s="4" t="str">
-        <v>15,000</v>
+        <v>28,500</v>
       </c>
       <c r="O123" s="4" t="str">
-        <v/>
+        <v>Nahrayn Market</v>
       </c>
       <c r="P123" s="4" t="str">
-        <v/>
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
       <c r="Q123" s="4" t="str">
         <v>IQ040501QQUU99</v>
@@ -9198,311 +9198,453 @@
         <v>1</v>
       </c>
       <c r="S123" s="4" t="str">
+        <v>53500</v>
+      </c>
+      <c r="T123" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U123" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V123" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W123" s="4" t="str">
+        <v>86824149</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>2027447-21246365</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>مبننرمك</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D124" s="5">
+        <v>46057.64010853009</v>
+      </c>
+      <c r="E124" s="5">
+        <v>46059.50030708333</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>9647813424564</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>بابل</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>66,500</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K124" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L124" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4" t="str">
+        <v>35,000</v>
+      </c>
+      <c r="O124" s="4" t="str">
+        <v>Nahrayn Market</v>
+      </c>
+      <c r="P124" s="4" t="str">
+        <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraightner_wUZ</v>
+      </c>
+      <c r="Q124" s="4" t="str">
+        <v>IQ040501QQUU99</v>
+      </c>
+      <c r="R124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S124" s="4" t="str">
+        <v>60000</v>
+      </c>
+      <c r="T124" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U124" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V124" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W124" s="4" t="str">
+        <v>86824149</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="str">
+        <v>2027447-21246227</v>
+      </c>
+      <c r="B125" s="4" t="str">
+        <v>مبننرمك</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <v>Cancelled by You</v>
+      </c>
+      <c r="D125" s="5">
+        <v>46057.635958113424</v>
+      </c>
+      <c r="E125" s="5">
+        <v>46059.50030634259</v>
+      </c>
+      <c r="F125" s="4" t="str">
+        <v>9647813424564</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <v>بغداد</v>
+      </c>
+      <c r="H125" s="4" t="str">
+        <v>بابل</v>
+      </c>
+      <c r="I125" s="4" t="str">
+        <v>46,500</v>
+      </c>
+      <c r="J125" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K125" s="4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="L125" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+      <c r="N125" s="4" t="str">
+        <v>15,000</v>
+      </c>
+      <c r="O125" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P125" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q125" s="4" t="str">
+        <v>IQ040501QQUU99</v>
+      </c>
+      <c r="R125" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S125" s="4" t="str">
         <v>40000</v>
       </c>
-      <c r="T123" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U123" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V123" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W123" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="124" xml:space="preserve">
-      <c r="A124" s="4" t="str">
+      <c r="T125" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U125" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V125" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W125" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" s="4" t="str">
         <v>2027447-21246034</v>
       </c>
-      <c r="B124" s="4" t="str">
+      <c r="B126" s="4" t="str">
         <v>Esam</v>
       </c>
-      <c r="C124" s="4" t="str">
+      <c r="C126" s="4" t="str">
         <v>Return Verified</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D126" s="5">
         <v>46057.626599282405</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E126" s="5">
         <v>46062.309941099535</v>
       </c>
-      <c r="F124" s="4" t="str">
+      <c r="F126" s="4" t="str">
         <v>9647725555755</v>
       </c>
-      <c r="G124" s="4" t="str" xml:space="preserve">
+      <c r="G126" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">شارع فلسطين-مركز اريدو
 التوصيل السبت ضروري</v>
       </c>
-      <c r="H124" s="4" t="str">
+      <c r="H126" s="4" t="str">
         <v>بغداد</v>
       </c>
-      <c r="I124" s="4" t="str">
+      <c r="I126" s="4" t="str">
         <v>39,000</v>
       </c>
-      <c r="J124" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K124" s="4" t="str">
+      <c r="J126" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K126" s="4" t="str">
         <v>get the right adress please</v>
       </c>
-      <c r="L124" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M124" s="4">
-        <v>0</v>
-      </c>
-      <c r="N124" s="4" t="str">
+      <c r="L126" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4" t="str">
         <v>15,500</v>
       </c>
-      <c r="O124" s="4" t="str">
+      <c r="O126" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P124" s="4" t="str">
+      <c r="P126" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/n0QI</v>
       </c>
-      <c r="Q124" s="4" t="str">
+      <c r="Q126" s="4" t="str">
         <v>IQ030303KAWI99</v>
       </c>
-      <c r="R124" s="4" t="str">
+      <c r="R126" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S124" s="4" t="str">
+      <c r="S126" s="4" t="str">
         <v>32500</v>
       </c>
-      <c r="T124" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U124" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V124" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W124" s="4" t="str">
+      <c r="T126" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U126" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V126" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W126" s="4" t="str">
         <v>86825750</v>
       </c>
     </row>
-    <row r="125" xml:space="preserve">
-      <c r="A125" s="4" t="str">
+    <row r="127" xml:space="preserve">
+      <c r="A127" s="4" t="str">
         <v>2027447-21244299</v>
       </c>
-      <c r="B125" s="4" t="str">
+      <c r="B127" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C125" s="4" t="str">
+      <c r="C127" s="4" t="str">
         <v>Delivered</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D127" s="5">
         <v>46057.555198912036</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E127" s="5">
         <v>46061.35337038194</v>
       </c>
-      <c r="F125" s="4" t="str">
+      <c r="F127" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G125" s="4" t="str" xml:space="preserve">
+      <c r="G127" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">خانقين القرب ن جادەیی تەرایی بۆ سایەقی بەشی کوردی )ئیدارەی گەرمیان)
  شارع 5</v>
       </c>
-      <c r="H125" s="4" t="str">
+      <c r="H127" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I125" s="4" t="str">
+      <c r="I127" s="4" t="str">
         <v>32,000</v>
       </c>
-      <c r="J125" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K125" s="4" t="str">
+      <c r="J127" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K127" s="4" t="str">
         <v>need to call him as soon as possible cuz we had an error</v>
       </c>
-      <c r="L125" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M125" s="4">
-        <v>0</v>
-      </c>
-      <c r="N125" s="4" t="str">
+      <c r="L127" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4" t="str">
         <v>12,000</v>
       </c>
-      <c r="O125" s="4" t="str">
+      <c r="O127" s="4" t="str">
         <v>Nahrayn Market</v>
       </c>
-      <c r="P125" s="4" t="str">
+      <c r="P127" s="4" t="str">
         <v>https://nahraynmarket.myecomstore.net/products/wirelesshairstraghtnernljV</v>
       </c>
-      <c r="Q125" s="4" t="str">
+      <c r="Q127" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R125" s="4" t="str">
+      <c r="R127" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S125" s="4" t="str">
+      <c r="S127" s="4" t="str">
         <v>25500</v>
       </c>
-      <c r="T125" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U125" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V125" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W125" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="4" t="str">
+      <c r="T127" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U127" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V127" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W127" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="str">
         <v>2027447-21244055</v>
       </c>
-      <c r="B126" s="4" t="str">
+      <c r="B128" s="4" t="str">
         <v>marwan jawad</v>
       </c>
-      <c r="C126" s="4" t="str">
+      <c r="C128" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D128" s="5">
         <v>46057.548482673614</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E128" s="5">
         <v>46057.82699810185</v>
       </c>
-      <c r="F126" s="4" t="str">
+      <c r="F128" s="4" t="str">
         <v>9647727376944</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="G128" s="4" t="str">
         <v>خانقين</v>
       </c>
-      <c r="H126" s="4" t="str">
+      <c r="H128" s="4" t="str">
         <v>ديالى</v>
       </c>
-      <c r="I126" s="4" t="str">
+      <c r="I128" s="4" t="str">
         <v>38,500</v>
       </c>
-      <c r="J126" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K126" s="4" t="str">
+      <c r="J128" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K128" s="4" t="str">
         <v>مكرر</v>
       </c>
-      <c r="L126" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M126" s="4">
-        <v>0</v>
-      </c>
-      <c r="N126" s="4" t="str">
+      <c r="L128" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4" t="str">
         <v>18,500</v>
       </c>
-      <c r="O126" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P126" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q126" s="4" t="str">
+      <c r="O128" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P128" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q128" s="4" t="str">
         <v>IQ040104WIRE99</v>
       </c>
-      <c r="R126" s="4" t="str">
+      <c r="R128" s="4" t="str">
         <v>1</v>
       </c>
-      <c r="S126" s="4" t="str">
+      <c r="S128" s="4" t="str">
         <v>32000</v>
       </c>
-      <c r="T126" s="4" t="str">
-        <v>Cart</v>
-      </c>
-      <c r="U126" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V126" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W126" s="4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="127" xml:space="preserve">
-      <c r="A127" s="4" t="str">
+      <c r="T128" s="4" t="str">
+        <v>Cart</v>
+      </c>
+      <c r="U128" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V128" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W128" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" s="4" t="str">
         <v>2027447-20450839</v>
       </c>
-      <c r="B127" s="4" t="str">
+      <c r="B129" s="4" t="str">
         <v>Test</v>
       </c>
-      <c r="C127" s="4" t="str">
+      <c r="C129" s="4" t="str">
         <v>Customer Rejected</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D129" s="5">
         <v>46009.94421743056</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E129" s="5">
         <v>46015.49855150463</v>
       </c>
-      <c r="F127" s="4" t="str">
+      <c r="F129" s="4" t="str">
         <v>96466827981</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="G129" s="4" t="str">
         <v>test</v>
       </c>
-      <c r="H127" s="4" t="str">
+      <c r="H129" s="4" t="str">
         <v>unspecified</v>
       </c>
-      <c r="I127" s="4" t="str">
+      <c r="I129" s="4" t="str">
         <v>110,000</v>
       </c>
-      <c r="J127" s="4" t="str">
-        <v>6,500</v>
-      </c>
-      <c r="K127" s="4" t="str" xml:space="preserve">
+      <c r="J129" s="4" t="str">
+        <v>6,500</v>
+      </c>
+      <c r="K129" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">disconnected number  
 </v>
       </c>
-      <c r="L127" s="4" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="M127" s="4">
-        <v>0</v>
-      </c>
-      <c r="N127" s="4" t="str">
+      <c r="L129" s="4" t="str">
+        <v>Iraq</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
+      <c r="N129" s="4" t="str">
         <v>30,500</v>
       </c>
-      <c r="O127" s="4" t="str">
-        <v/>
-      </c>
-      <c r="P127" s="4" t="str">
-        <v/>
-      </c>
-      <c r="Q127" s="4" t="str">
+      <c r="O129" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P129" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q129" s="4" t="str">
         <v>IQ030401KADQ99</v>
       </c>
-      <c r="R127" s="4" t="str">
+      <c r="R129" s="4" t="str">
         <v>2</v>
       </c>
-      <c r="S127" s="4" t="str">
+      <c r="S129" s="4" t="str">
         <v>103500</v>
       </c>
-      <c r="T127" s="4" t="str">
+      <c r="T129" s="4" t="str">
         <v>LIGHTFUNNELS</v>
       </c>
-      <c r="U127" s="4" t="str">
-        <v/>
-      </c>
-      <c r="V127" s="4" t="str">
-        <v/>
-      </c>
-      <c r="W127" s="4" t="str">
+      <c r="U129" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V129" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W129" s="4" t="str">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W127"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W129"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/latest_daily_orders.xlsx
+++ b/data/latest_daily_orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="الطلبات" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -479,73 +479,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <v>رقم الطلب</v>
+        <v>ID</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>اسم المستلم</v>
+        <v>Customer Name</v>
       </c>
       <c r="C1" s="3" t="str">
-        <v>الحالة</v>
+        <v>Status</v>
       </c>
       <c r="D1" s="3" t="str">
-        <v>تاريخ الإنشاء</v>
+        <v>Created At</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>اخر تحديث</v>
+        <v>Updated At</v>
       </c>
       <c r="F1" s="3" t="str">
-        <v>رقم الهاتف</v>
+        <v>Phone Number</v>
       </c>
       <c r="G1" s="3" t="str">
-        <v>اسم الشارع</v>
+        <v>Street Name</v>
       </c>
       <c r="H1" s="3" t="str">
-        <v>المحافظة</v>
+        <v>Province</v>
       </c>
       <c r="I1" s="3" t="str">
         <v>orders.export.cashOnDelivery</v>
       </c>
       <c r="J1" s="3" t="str">
-        <v>تكلفة الشحن</v>
+        <v>Shipping Cost</v>
       </c>
       <c r="K1" s="3" t="str">
-        <v>ملاحظات</v>
+        <v>Notes</v>
       </c>
       <c r="L1" s="3" t="str">
-        <v>الدولة</v>
+        <v>Country</v>
       </c>
       <c r="M1" s="3" t="str">
-        <v>ربح الضريبة</v>
+        <v>VAT Profit</v>
       </c>
       <c r="N1" s="3" t="str">
-        <v>ربح الطلب</v>
+        <v>Order Profit</v>
       </c>
       <c r="O1" s="3" t="str">
-        <v>اسم الصفحة</v>
+        <v>Page Name</v>
       </c>
       <c r="P1" s="3" t="str">
-        <v>رابط الصفحة</v>
+        <v>Page URL</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <v>المنتجات</v>
+        <v>SKUs</v>
       </c>
       <c r="R1" s="3" t="str">
-        <v>الكميات</v>
+        <v>Quantities</v>
       </c>
       <c r="S1" s="3" t="str">
-        <v>الأسعار</v>
+        <v>Prices</v>
       </c>
       <c r="T1" s="3" t="str">
-        <v>الطلب المستلم بواسطة</v>
+        <v>Order Received By</v>
       </c>
       <c r="U1" s="3" t="str">
-        <v>العنوان الوطني</v>
+        <v>National Address</v>
       </c>
       <c r="V1" s="3" t="str">
-        <v>مصدر العنوان الوطني</v>
+        <v>Source of the National Address</v>
       </c>
       <c r="W1" s="3" t="str">
-        <v>كود الطلب للمتجر</v>
+        <v>Store Order ID</v>
       </c>
     </row>
     <row r="2">
@@ -556,7 +556,7 @@
         <v>فاروق</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D2" s="5">
         <v>46068.7900271875</v>
@@ -583,7 +583,7 @@
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>Essam</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>تم تأكيد الطلب</v>
+        <v>Order Confirmed</v>
       </c>
       <c r="D3" s="5">
         <v>46068.6751509375</v>
@@ -654,7 +654,7 @@
         <v>please he order long time i need u to call him right now and say that stock to got it its was out of stock and give him the discount</v>
       </c>
       <c r="L3" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>يوسف علاء محمد</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D4" s="5">
         <v>46068.58809557871</v>
@@ -725,7 +725,7 @@
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>مجيد خالد صالح</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D5" s="5">
         <v>46068.56395737269</v>
@@ -796,7 +796,7 @@
         <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>مايكل</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>تم تأكيد الطلب</v>
+        <v>Order Confirmed</v>
       </c>
       <c r="D6" s="5">
         <v>46068.56108516204</v>
@@ -867,7 +867,7 @@
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>عمادحمدي</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D7" s="5">
         <v>46068.51948740741</v>
@@ -938,7 +938,7 @@
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>مجتبى</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>تم تأكيد الطلب</v>
+        <v>Order Confirmed</v>
       </c>
       <c r="D8" s="5">
         <v>46068.51812688657</v>
@@ -1009,7 +1009,7 @@
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>Muhammad</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D9" s="5">
         <v>46068.51641268519</v>
@@ -1080,7 +1080,7 @@
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>كرار</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D10" s="5">
         <v>46068.434168368054</v>
@@ -1151,7 +1151,7 @@
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>نواف علي غالب</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D11" s="5">
         <v>46068.431902233795</v>
@@ -1222,7 +1222,7 @@
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>فواز الصافي</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D12" s="5">
         <v>46068.43064762731</v>
@@ -1293,7 +1293,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L12" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>أبو الحب</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>في انتظار الشحن</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D13" s="5">
         <v>46068.39257596065</v>
@@ -1364,7 +1364,7 @@
         <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -1408,13 +1408,13 @@
         <v>حقي اسماعيل كريم</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>في انتظار الشحن</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D14" s="5">
         <v>46068.39134778935</v>
       </c>
       <c r="E14" s="5">
-        <v>46068.84916466435</v>
+        <v>46068.927126145834</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>9647803467635</v>
@@ -1435,7 +1435,7 @@
         <v/>
       </c>
       <c r="L14" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>انمار</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>في انتظار الشحن</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D15" s="5">
         <v>46068.38263501157</v>
@@ -1506,7 +1506,7 @@
         <v/>
       </c>
       <c r="L15" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>حيدر باسم علي</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>في انتظار الشحن</v>
+        <v>Pending Shipping</v>
       </c>
       <c r="D16" s="5">
         <v>46068.381668368056</v>
@@ -1577,7 +1577,7 @@
         <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>علي امين كاطع</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D17" s="5">
         <v>46068.38064605324</v>
@@ -1648,7 +1648,7 @@
         <v/>
       </c>
       <c r="L17" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>عباس فاضل</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>في انتظار الشحن</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D18" s="5">
         <v>46068.37937023148</v>
       </c>
       <c r="E18" s="5">
-        <v>46068.849168692126</v>
+        <v>46068.92732148148</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>9647711980896</v>
@@ -1719,7 +1719,7 @@
         <v/>
       </c>
       <c r="L18" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>محمد</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D19" s="5">
         <v>46068.37652810185</v>
@@ -1790,7 +1790,7 @@
         <v/>
       </c>
       <c r="L19" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>ابو هاشم</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D20" s="5">
         <v>46067.92089087963</v>
@@ -1861,7 +1861,7 @@
         <v/>
       </c>
       <c r="L20" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>خالد</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D21" s="5">
         <v>46067.82353045139</v>
@@ -1932,7 +1932,7 @@
         <v/>
       </c>
       <c r="L21" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>ستيفن</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D22" s="5">
         <v>46067.77955053241</v>
@@ -2003,7 +2003,7 @@
         <v>call him asap please ordered 2 hours ago</v>
       </c>
       <c r="L22" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>علي حسن</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D23" s="5">
         <v>46067.609324502315</v>
@@ -2074,7 +2074,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L23" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>حسين</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D24" s="5">
         <v>46067.482777881945</v>
@@ -2145,7 +2145,7 @@
         <v/>
       </c>
       <c r="L24" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>علي عقيل</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D25" s="5">
         <v>46067.44914142361</v>
@@ -2216,7 +2216,7 @@
         <v>call him asap please he orderd 3 hours ago</v>
       </c>
       <c r="L25" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>حسام الكعبي</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D26" s="5">
         <v>46067.366074502315</v>
@@ -2287,7 +2287,7 @@
         <v/>
       </c>
       <c r="L26" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>Mohammed</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D27" s="5">
         <v>46067.36500974537</v>
@@ -2358,7 +2358,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L27" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>Ammar</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D28" s="5">
         <v>46067.36414993055</v>
@@ -2429,7 +2429,7 @@
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>علي أدم</v>
       </c>
       <c r="C29" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D29" s="5">
         <v>46067.075364525466</v>
@@ -2500,7 +2500,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L29" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>زيد</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D30" s="5">
         <v>46067.06385640046</v>
@@ -2571,7 +2571,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L30" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M30" s="4">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>عماد</v>
       </c>
       <c r="C31" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D31" s="5">
         <v>46067.02662810185</v>
@@ -2642,7 +2642,7 @@
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M31" s="4">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>Danar dana</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D32" s="5">
         <v>46067.02529385417</v>
@@ -2713,7 +2713,7 @@
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M32" s="4">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>ثامر</v>
       </c>
       <c r="C33" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D33" s="5">
         <v>46067.014509849534</v>
@@ -2784,7 +2784,7 @@
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M33" s="4">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>Lawko sndi</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>تم تأكيد الطلب</v>
+        <v>Order Confirmed</v>
       </c>
       <c r="D34" s="5">
         <v>46066.93626458333</v>
@@ -2855,7 +2855,7 @@
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>yahya</v>
       </c>
       <c r="C35" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D35" s="5">
         <v>46066.9186940162</v>
@@ -2926,7 +2926,7 @@
         <v>test</v>
       </c>
       <c r="L35" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>اية</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D36" s="5">
         <v>46066.86900146991</v>
@@ -2997,7 +2997,7 @@
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>مؤمن</v>
       </c>
       <c r="C37" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D37" s="5">
         <v>46066.626790277776</v>
@@ -3068,7 +3068,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L37" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>مؤمن</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D38" s="5">
         <v>46066.62668688657</v>
@@ -3139,7 +3139,7 @@
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>حيدر انور</v>
       </c>
       <c r="C39" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D39" s="5">
         <v>46066.55861363426</v>
@@ -3210,7 +3210,7 @@
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>عباس</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D40" s="5">
         <v>46066.43902012731</v>
@@ -3281,7 +3281,7 @@
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>محمد مانع</v>
       </c>
       <c r="C41" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D41" s="5">
         <v>46066.437072395835</v>
@@ -3352,7 +3352,7 @@
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M41" s="4">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>حسن</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D42" s="5">
         <v>46066.03705931713</v>
@@ -3423,7 +3423,7 @@
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>Omar</v>
       </c>
       <c r="C43" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D43" s="5">
         <v>46065.998907002315</v>
@@ -3494,7 +3494,7 @@
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>Rabih</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D44" s="5">
         <v>46065.984579930555</v>
@@ -3565,7 +3565,7 @@
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>علي حسن</v>
       </c>
       <c r="C45" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D45" s="5">
         <v>46065.715770613424</v>
@@ -3636,7 +3636,7 @@
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>عبدالكريم علي</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D46" s="5">
         <v>46065.51994837963</v>
@@ -3707,7 +3707,7 @@
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>wwid</v>
       </c>
       <c r="C47" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D47" s="5">
         <v>46065.46910805556</v>
@@ -3778,7 +3778,7 @@
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>وحده</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D48" s="5">
         <v>46065.12183098379</v>
@@ -3849,7 +3849,7 @@
         <v>no region no adress call him to check</v>
       </c>
       <c r="L48" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>علي رشدي</v>
       </c>
       <c r="C49" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D49" s="5">
         <v>46065.016198032405</v>
@@ -3920,7 +3920,7 @@
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>احمد</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D50" s="5">
         <v>46065.01485634259</v>
@@ -3991,7 +3991,7 @@
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>نجف</v>
       </c>
       <c r="C51" s="4" t="str">
-        <v>تم استلام الطلب</v>
+        <v>Order Received</v>
       </c>
       <c r="D51" s="5">
         <v>46064.66099334491</v>
@@ -4062,7 +4062,7 @@
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>محمد جواد</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D52" s="5">
         <v>46064.62876076389</v>
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>علي</v>
       </c>
       <c r="C53" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D53" s="5">
         <v>46064.58881206019</v>
@@ -4204,7 +4204,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L53" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>علي</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D54" s="5">
         <v>46064.58344008102</v>
@@ -4275,7 +4275,7 @@
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>غيث عبد الرسول</v>
       </c>
       <c r="C55" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D55" s="5">
         <v>46064.57533837963</v>
@@ -4346,7 +4346,7 @@
         <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>مؤمن طه حامد</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D56" s="5">
         <v>46064.57294252315</v>
@@ -4417,7 +4417,7 @@
         <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>مصطفى</v>
       </c>
       <c r="C57" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D57" s="5">
         <v>46064.10276320602</v>
@@ -4488,7 +4488,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L57" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>مصطفى</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D58" s="5">
         <v>46064.10185199074</v>
@@ -4559,7 +4559,7 @@
         <v>call him as soon as possible he ordered 1h ago</v>
       </c>
       <c r="L58" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>ختام</v>
       </c>
       <c r="C59" s="4" t="str">
-        <v>فشل التسليم</v>
+        <v>Delivery Failed</v>
       </c>
       <c r="D59" s="5">
         <v>46064.05801408565</v>
@@ -4630,7 +4630,7 @@
         <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>بدر</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>فشل التسليم</v>
+        <v>Delivery Failed</v>
       </c>
       <c r="D60" s="5">
         <v>46064.004486655096</v>
@@ -4701,7 +4701,7 @@
         <v>this one im not sure if he meant to order 2 pieces please check out with him</v>
       </c>
       <c r="L60" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>همام محمد عدنان</v>
       </c>
       <c r="C61" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D61" s="5">
         <v>46063.98810440972</v>
@@ -4772,7 +4772,7 @@
         <v>please call him for the right adress</v>
       </c>
       <c r="L61" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>حمزة</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D62" s="5">
         <v>46063.98408190972</v>
@@ -4843,7 +4843,7 @@
         <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>همام محمد عدنان</v>
       </c>
       <c r="C63" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D63" s="5">
         <v>46063.961482858795</v>
@@ -4914,7 +4914,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L63" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>همام محمد عدنان</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D64" s="5">
         <v>46063.96038298611</v>
@@ -4985,7 +4985,7 @@
         <v>wrong</v>
       </c>
       <c r="L64" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>حمزة</v>
       </c>
       <c r="C65" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D65" s="5">
         <v>46063.95675210648</v>
@@ -5056,7 +5056,7 @@
         <v>wrong</v>
       </c>
       <c r="L65" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>حسين</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D66" s="5">
         <v>46063.95060015046</v>
@@ -5127,7 +5127,7 @@
         <v/>
       </c>
       <c r="L66" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>حسين</v>
       </c>
       <c r="C67" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D67" s="5">
         <v>46063.948616712965</v>
@@ -5198,7 +5198,7 @@
         <v>wrong</v>
       </c>
       <c r="L67" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M67" s="4">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>علاء</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D68" s="5">
         <v>46063.849569907405</v>
@@ -5269,7 +5269,7 @@
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M68" s="4">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>أدور</v>
       </c>
       <c r="C69" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D69" s="5">
         <v>46063.84274976852</v>
@@ -5340,7 +5340,7 @@
         <v>please call him he orderded 1h ago</v>
       </c>
       <c r="L69" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>رامي</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D70" s="5">
         <v>46063.74508501157</v>
@@ -5411,7 +5411,7 @@
         <v/>
       </c>
       <c r="L70" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>Lizan ahmed</v>
       </c>
       <c r="C71" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D71" s="5">
         <v>46063.669380127314</v>
@@ -5482,7 +5482,7 @@
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>فرح</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D72" s="5">
         <v>46063.66798331019</v>
@@ -5553,7 +5553,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L72" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>فرح</v>
       </c>
       <c r="C73" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D73" s="5">
         <v>46063.667939756946</v>
@@ -5624,7 +5624,7 @@
         <v/>
       </c>
       <c r="L73" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>Ako</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D74" s="5">
         <v>46063.50018960648</v>
@@ -5695,7 +5695,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L74" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>A Talabany</v>
       </c>
       <c r="C75" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D75" s="5">
         <v>46063.494396145834</v>
@@ -5767,7 +5767,7 @@
         <v>call him asap he ordered 40 min ago</v>
       </c>
       <c r="L75" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>حيدر</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D76" s="5">
         <v>46063.363034456015</v>
@@ -5838,7 +5838,7 @@
         <v/>
       </c>
       <c r="L76" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>وسام</v>
       </c>
       <c r="C77" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D77" s="5">
         <v>46063.36197258102</v>
@@ -5910,7 +5910,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L77" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
@@ -5954,7 +5954,7 @@
         <v>سيفر سردار</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D78" s="5">
         <v>46062.94732335648</v>
@@ -5981,7 +5981,7 @@
         <v/>
       </c>
       <c r="L78" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>Saja</v>
       </c>
       <c r="C79" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D79" s="5">
         <v>46062.79384813657</v>
@@ -6052,7 +6052,7 @@
         <v/>
       </c>
       <c r="L79" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>عباس</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D80" s="5">
         <v>46062.79220025463</v>
@@ -6123,7 +6123,7 @@
         <v/>
       </c>
       <c r="L80" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>برهيم علي سجاد</v>
       </c>
       <c r="C81" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D81" s="5">
         <v>46062.64360072916</v>
@@ -6194,7 +6194,7 @@
         <v/>
       </c>
       <c r="L81" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         <v>علي جبار</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D82" s="5">
         <v>46062.64234420139</v>
@@ -6265,7 +6265,7 @@
         <v/>
       </c>
       <c r="L82" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>اسيل</v>
       </c>
       <c r="C83" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D83" s="5">
         <v>46062.5843108912</v>
@@ -6336,7 +6336,7 @@
         <v>discount number</v>
       </c>
       <c r="L83" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>فهد</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D84" s="5">
         <v>46062.54285048611</v>
@@ -6407,7 +6407,7 @@
         <v/>
       </c>
       <c r="L84" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -6451,7 +6451,7 @@
         <v>Samer sabah</v>
       </c>
       <c r="C85" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D85" s="5">
         <v>46062.50750659722</v>
@@ -6478,7 +6478,7 @@
         <v/>
       </c>
       <c r="L85" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>Mohammed I</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D86" s="5">
         <v>46062.45230179398</v>
@@ -6549,7 +6549,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L86" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>Mohammed I</v>
       </c>
       <c r="C87" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D87" s="5">
         <v>46062.451287627315</v>
@@ -6620,7 +6620,7 @@
         <v>wrong</v>
       </c>
       <c r="L87" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>Mohammed abdulzahra</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D88" s="5">
         <v>46062.42305118056</v>
@@ -6691,7 +6691,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L88" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>Mohammed I</v>
       </c>
       <c r="C89" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D89" s="5">
         <v>46062.413627974536</v>
@@ -6762,7 +6762,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L89" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>Mohammed abdulzahra</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D90" s="5">
         <v>46062.41033025463</v>
@@ -6833,7 +6833,7 @@
         <v/>
       </c>
       <c r="L90" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
@@ -6877,7 +6877,7 @@
         <v>علي الرجب</v>
       </c>
       <c r="C91" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D91" s="5">
         <v>46062.409052650466</v>
@@ -6904,7 +6904,7 @@
         <v/>
       </c>
       <c r="L91" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>خالد كاظم</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D92" s="5">
         <v>46062.39857081018</v>
@@ -6975,7 +6975,7 @@
         <v/>
       </c>
       <c r="L92" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C93" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D93" s="5">
         <v>46062.12001951389</v>
@@ -7046,7 +7046,7 @@
         <v>duplucated</v>
       </c>
       <c r="L93" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D94" s="5">
         <v>46062.11975269676</v>
@@ -7117,7 +7117,7 @@
         <v>duplucated</v>
       </c>
       <c r="L94" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C95" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D95" s="5">
         <v>46062.119456875</v>
@@ -7188,7 +7188,7 @@
         <v>duplucated</v>
       </c>
       <c r="L95" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M95" s="4">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D96" s="5">
         <v>46062.119129618055</v>
@@ -7259,7 +7259,7 @@
         <v>duplucated</v>
       </c>
       <c r="L96" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C97" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D97" s="5">
         <v>46062.1181390162</v>
@@ -7330,7 +7330,7 @@
         <v>كردي و مفيش واتساب</v>
       </c>
       <c r="L97" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D98" s="5">
         <v>46062.116491030094</v>
@@ -7401,7 +7401,7 @@
         <v/>
       </c>
       <c r="L98" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
@@ -7445,7 +7445,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C99" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D99" s="5">
         <v>46062.11577030092</v>
@@ -7472,7 +7472,7 @@
         <v>duplucated</v>
       </c>
       <c r="L99" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D100" s="5">
         <v>46062.1151934375</v>
@@ -7543,7 +7543,7 @@
         <v>duplucated</v>
       </c>
       <c r="L100" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M100" s="4">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C101" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D101" s="5">
         <v>46062.114325393515</v>
@@ -7614,7 +7614,7 @@
         <v>duplucated</v>
       </c>
       <c r="L101" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M101" s="4">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>حسين</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D102" s="5">
         <v>46062.05659570602</v>
@@ -7685,7 +7685,7 @@
         <v/>
       </c>
       <c r="L102" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>فارس</v>
       </c>
       <c r="C103" s="4" t="str">
-        <v>قيد التوصيل</v>
+        <v>Delivery in Progress</v>
       </c>
       <c r="D103" s="5">
         <v>46062.03247658565</v>
@@ -7756,7 +7756,7 @@
         <v/>
       </c>
       <c r="L103" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>مجيد</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D104" s="5">
         <v>46062.031249328706</v>
@@ -7827,7 +7827,7 @@
         <v>this one didn't order quantity two he ordered first time then second time please confirm with him if he meant 1 or 2</v>
       </c>
       <c r="L104" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>اركان</v>
       </c>
       <c r="C105" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D105" s="5">
         <v>46062.02948613426</v>
@@ -7898,7 +7898,7 @@
         <v/>
       </c>
       <c r="L105" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D106" s="5">
         <v>46061.87229554398</v>
@@ -7969,7 +7969,7 @@
         <v>duplucated</v>
       </c>
       <c r="L106" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M106" s="4">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>علاء بديري</v>
       </c>
       <c r="C107" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D107" s="5">
         <v>46061.87095564815</v>
@@ -8040,7 +8040,7 @@
         <v>duplucated</v>
       </c>
       <c r="L107" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M107" s="4">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>Ulla</v>
       </c>
       <c r="C108" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D108" s="5">
         <v>46061.631386469904</v>
@@ -8111,7 +8111,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L108" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M108" s="4">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>عمر عبدالله</v>
       </c>
       <c r="C109" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D109" s="5">
         <v>46061.54547142361</v>
@@ -8182,7 +8182,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L109" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M109" s="4">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>Ulla</v>
       </c>
       <c r="C110" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D110" s="5">
         <v>46061.41131630787</v>
@@ -8253,7 +8253,7 @@
         <v/>
       </c>
       <c r="L110" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M110" s="4">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>يوسف</v>
       </c>
       <c r="C111" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D111" s="5">
         <v>46061.410177777776</v>
@@ -8324,7 +8324,7 @@
         <v/>
       </c>
       <c r="L111" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M111" s="4">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>زيد كامل</v>
       </c>
       <c r="C112" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D112" s="5">
         <v>46061.40806185185</v>
@@ -8395,7 +8395,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L112" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M112" s="4">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>حسين ستار</v>
       </c>
       <c r="C113" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D113" s="5">
         <v>46061.40700960648</v>
@@ -8466,7 +8466,7 @@
         <v/>
       </c>
       <c r="L113" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M113" s="4">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>سجاد</v>
       </c>
       <c r="C114" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D114" s="5">
         <v>46061.40609613426</v>
@@ -8537,7 +8537,7 @@
         <v/>
       </c>
       <c r="L114" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M114" s="4">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>Bashar</v>
       </c>
       <c r="C115" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D115" s="5">
         <v>46061.31099184028</v>
@@ -8608,7 +8608,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L115" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M115" s="4">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>عباس محمد اسماعيل</v>
       </c>
       <c r="C116" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D116" s="5">
         <v>46061.30975965278</v>
@@ -8679,7 +8679,7 @@
         <v/>
       </c>
       <c r="L116" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M116" s="4">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>Hadeeth</v>
       </c>
       <c r="C117" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D117" s="5">
         <v>46061.072884814814</v>
@@ -8750,7 +8750,7 @@
         <v/>
       </c>
       <c r="L117" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M117" s="4">
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>سجاد</v>
       </c>
       <c r="C118" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D118" s="5">
         <v>46061.068113912035</v>
@@ -8821,7 +8821,7 @@
         <v/>
       </c>
       <c r="L118" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M118" s="4">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>حسن</v>
       </c>
       <c r="C119" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D119" s="5">
         <v>46061.059307511576</v>
@@ -8892,7 +8892,7 @@
         <v/>
       </c>
       <c r="L119" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M119" s="4">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>دعاء يحيى</v>
       </c>
       <c r="C120" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D120" s="5">
         <v>46061.0553649537</v>
@@ -8963,7 +8963,7 @@
         <v>duplicated</v>
       </c>
       <c r="L120" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M120" s="4">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>دعاء يحيى</v>
       </c>
       <c r="C121" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Return Verified</v>
       </c>
       <c r="D121" s="5">
         <v>46061.05291396991</v>
@@ -9034,7 +9034,7 @@
         <v/>
       </c>
       <c r="L121" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M121" s="4">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>اوس</v>
       </c>
       <c r="C122" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D122" s="5">
         <v>46060.894264699076</v>
@@ -9105,7 +9105,7 @@
         <v>تم تأكيد الطلب تلقائيا لأن العميل استلم طلب سابق لنفس العنوان</v>
       </c>
       <c r="L122" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M122" s="4">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>عباس</v>
       </c>
       <c r="C123" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D123" s="5">
         <v>46060.892965555555</v>
@@ -9176,7 +9176,7 @@
         <v>call asap</v>
       </c>
       <c r="L123" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M123" s="4">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>قاسم</v>
       </c>
       <c r="C124" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D124" s="5">
         <v>46060.81830115741</v>
@@ -9247,7 +9247,7 @@
         <v>call asap</v>
       </c>
       <c r="L124" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M124" s="4">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>قاسم</v>
       </c>
       <c r="C125" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D125" s="5">
         <v>46060.81512138889</v>
@@ -9318,7 +9318,7 @@
         <v>wrong</v>
       </c>
       <c r="L125" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M125" s="4">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>ايمان</v>
       </c>
       <c r="C126" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D126" s="5">
         <v>46060.668517604165</v>
@@ -9389,7 +9389,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L126" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M126" s="4">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>جنان</v>
       </c>
       <c r="C127" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D127" s="5">
         <v>46060.62921245371</v>
@@ -9460,7 +9460,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L127" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M127" s="4">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>Marwa</v>
       </c>
       <c r="C128" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D128" s="5">
         <v>46060.624529305554</v>
@@ -9531,7 +9531,7 @@
         <v/>
       </c>
       <c r="L128" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M128" s="4">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>جنان</v>
       </c>
       <c r="C129" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D129" s="5">
         <v>46060.526294131945</v>
@@ -9602,7 +9602,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L129" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M129" s="4">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>Mazin</v>
       </c>
       <c r="C130" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Return Verified</v>
       </c>
       <c r="D130" s="5">
         <v>46060.522677974535</v>
@@ -9673,7 +9673,7 @@
         <v>call asap</v>
       </c>
       <c r="L130" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M130" s="4">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>محمد</v>
       </c>
       <c r="C131" s="4" t="str">
-        <v>معلق مؤقتًا</v>
+        <v>Temporary Suspended</v>
       </c>
       <c r="D131" s="5">
         <v>46060.521560416666</v>
@@ -9744,7 +9744,7 @@
         <v/>
       </c>
       <c r="L131" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M131" s="4">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>علي</v>
       </c>
       <c r="C132" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D132" s="5">
         <v>46060.51972076389</v>
@@ -9815,7 +9815,7 @@
         <v>call asap</v>
       </c>
       <c r="L132" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M132" s="4">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>جنان</v>
       </c>
       <c r="C133" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D133" s="5">
         <v>46060.518487141206</v>
@@ -9886,7 +9886,7 @@
         <v>هذا الطلب مكرر</v>
       </c>
       <c r="L133" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M133" s="4">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>ايمان</v>
       </c>
       <c r="C134" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D134" s="5">
         <v>46060.51780462963</v>
@@ -9957,7 +9957,7 @@
         <v>call asap</v>
       </c>
       <c r="L134" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M134" s="4">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>كرار</v>
       </c>
       <c r="C135" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D135" s="5">
         <v>46060.51636940972</v>
@@ -10028,7 +10028,7 @@
         <v/>
       </c>
       <c r="L135" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>غادة</v>
       </c>
       <c r="C136" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D136" s="5">
         <v>46060.514743113425</v>
@@ -10099,7 +10099,7 @@
         <v/>
       </c>
       <c r="L136" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>عماد طارق عبد الجبار</v>
       </c>
       <c r="C137" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Return Verified</v>
       </c>
       <c r="D137" s="5">
         <v>46060.51269715278</v>
@@ -10170,7 +10170,7 @@
         <v>call asap</v>
       </c>
       <c r="L137" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>غصون عبد الرحيم عاقل</v>
       </c>
       <c r="C138" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D138" s="5">
         <v>46060.509699305556</v>
@@ -10241,7 +10241,7 @@
         <v>call asap</v>
       </c>
       <c r="L138" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>د ريا عبد الامير</v>
       </c>
       <c r="C139" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D139" s="5">
         <v>46060.50026450231</v>
@@ -10312,7 +10312,7 @@
         <v/>
       </c>
       <c r="L139" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -10356,7 +10356,7 @@
         <v>علي</v>
       </c>
       <c r="C140" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D140" s="5">
         <v>46057.68370048611</v>
@@ -10384,7 +10384,7 @@
         <v>he did not put the full adress</v>
       </c>
       <c r="L140" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>مبننرمك</v>
       </c>
       <c r="C141" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D141" s="5">
         <v>46057.64231769676</v>
@@ -10455,7 +10455,7 @@
         <v/>
       </c>
       <c r="L141" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>مبننرمك</v>
       </c>
       <c r="C142" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D142" s="5">
         <v>46057.64010853009</v>
@@ -10526,7 +10526,7 @@
         <v>wrong</v>
       </c>
       <c r="L142" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M142" s="4">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>مبننرمك</v>
       </c>
       <c r="C143" s="4" t="str">
-        <v>طلب ملغي بواسطتك</v>
+        <v>Cancelled by You</v>
       </c>
       <c r="D143" s="5">
         <v>46057.635958113424</v>
@@ -10597,7 +10597,7 @@
         <v>wrong</v>
       </c>
       <c r="L143" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M143" s="4">
         <v>0</v>
@@ -10641,7 +10641,7 @@
         <v>Esam</v>
       </c>
       <c r="C144" s="4" t="str">
-        <v>تم التحقق من الإرجاع</v>
+        <v>Return Verified</v>
       </c>
       <c r="D144" s="5">
         <v>46057.626599282405</v>
@@ -10669,7 +10669,7 @@
         <v>get the right adress please</v>
       </c>
       <c r="L144" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>marwan jawad</v>
       </c>
       <c r="C145" s="4" t="str">
-        <v>تم التوصيل</v>
+        <v>Delivered</v>
       </c>
       <c r="D145" s="5">
         <v>46057.555198912036</v>
@@ -10741,7 +10741,7 @@
         <v>need to call him as soon as possible cuz we had an error</v>
       </c>
       <c r="L145" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>marwan jawad</v>
       </c>
       <c r="C146" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D146" s="5">
         <v>46057.548482673614</v>
@@ -10812,7 +10812,7 @@
         <v>مكرر</v>
       </c>
       <c r="L146" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M146" s="4">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>Test</v>
       </c>
       <c r="C147" s="4" t="str">
-        <v>العميل رفض التأكيد</v>
+        <v>Customer Rejected</v>
       </c>
       <c r="D147" s="5">
         <v>46009.94421743056</v>
@@ -10884,7 +10884,7 @@
 </v>
       </c>
       <c r="L147" s="4" t="str">
-        <v>العراق</v>
+        <v>Iraq</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
